--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R369"/>
+  <dimension ref="A1:R372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E219" t="n">
         <v>15</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,20 +16125,20 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K219" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L219" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M219" t="n">
-        <v>10500</v>
+        <v>29000</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -16147,10 +16147,10 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="Q219" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R219" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E220" t="n">
         <v>15</v>
@@ -16193,24 +16193,24 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K220" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L220" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M220" t="n">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -16219,10 +16219,10 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>690</v>
+        <v>367</v>
       </c>
       <c r="Q220" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R220" t="inlineStr">
         <is>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E221" t="n">
         <v>15</v>
@@ -16265,24 +16265,24 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K221" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L221" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M221" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -16291,10 +16291,10 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="Q221" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R221" t="inlineStr">
         <is>
@@ -16332,29 +16332,29 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K222" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L222" t="n">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="M222" t="n">
-        <v>30500</v>
+        <v>10500</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -16363,10 +16363,10 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="Q222" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R222" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E223" t="n">
         <v>15</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K223" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L223" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M223" t="n">
-        <v>24444</v>
+        <v>34500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>489</v>
+        <v>690</v>
       </c>
       <c r="Q223" t="n">
         <v>50</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E224" t="n">
         <v>15</v>
@@ -16481,24 +16481,24 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K224" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="L224" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="M224" t="n">
-        <v>16500</v>
+        <v>33500</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -16507,10 +16507,10 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="Q224" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E225" t="n">
         <v>15</v>
@@ -16553,24 +16553,24 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K225" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L225" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="M225" t="n">
-        <v>16500</v>
+        <v>30500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -16579,10 +16579,10 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="Q225" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E226" t="n">
         <v>15</v>
@@ -16625,24 +16625,24 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K226" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L226" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M226" t="n">
-        <v>15500</v>
+        <v>24444</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -16651,10 +16651,10 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>155</v>
+        <v>489</v>
       </c>
       <c r="Q226" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R226" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E227" t="n">
         <v>15</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,20 +16701,20 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K227" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L227" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M227" t="n">
-        <v>7500</v>
+        <v>16500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -16723,10 +16723,10 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="Q227" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R227" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E228" t="n">
         <v>15</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K228" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L228" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M228" t="n">
-        <v>34500</v>
+        <v>16500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="Q228" t="n">
         <v>75</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E229" t="n">
         <v>15</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K229" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="L229" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M229" t="n">
-        <v>32500</v>
+        <v>15500</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>325</v>
+        <v>155</v>
       </c>
       <c r="Q229" t="n">
         <v>100</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E230" t="n">
         <v>15</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,20 +16917,20 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K230" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L230" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M230" t="n">
-        <v>24500</v>
+        <v>7500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -16939,10 +16939,10 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>490</v>
+        <v>107</v>
       </c>
       <c r="Q230" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R230" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E231" t="n">
         <v>15</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K231" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L231" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M231" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>327</v>
+        <v>460</v>
       </c>
       <c r="Q231" t="n">
         <v>75</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E232" t="n">
         <v>15</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K232" t="n">
-        <v>20000</v>
+        <v>32000</v>
       </c>
       <c r="L232" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="M232" t="n">
-        <v>20500</v>
+        <v>32500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="Q232" t="n">
         <v>100</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E233" t="n">
         <v>15</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,20 +17133,20 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K233" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L233" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M233" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -17155,10 +17155,10 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="Q233" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R233" t="inlineStr">
         <is>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E234" t="n">
         <v>15</v>
@@ -17201,24 +17201,24 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K234" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L234" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M234" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -17227,10 +17227,10 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="Q234" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R234" t="inlineStr">
         <is>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E235" t="n">
         <v>15</v>
@@ -17273,24 +17273,24 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J235" t="n">
         <v>40</v>
       </c>
       <c r="K235" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L235" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M235" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -17299,10 +17299,10 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q235" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R235" t="inlineStr">
         <is>
@@ -17340,29 +17340,29 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L236" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M236" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -17371,10 +17371,10 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q236" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R236" t="inlineStr">
         <is>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E237" t="n">
         <v>15</v>
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K237" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L237" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M237" t="n">
-        <v>33500</v>
+        <v>27500</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>670</v>
+        <v>550</v>
       </c>
       <c r="Q237" t="n">
         <v>50</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E238" t="n">
         <v>15</v>
@@ -17496,13 +17496,13 @@
         <v>40</v>
       </c>
       <c r="K238" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L238" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M238" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="Q238" t="n">
         <v>75</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44391</v>
+        <v>44330</v>
       </c>
       <c r="E239" t="n">
         <v>15</v>
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K239" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L239" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M239" t="n">
-        <v>31000</v>
+        <v>21500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="Q239" t="n">
         <v>100</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E240" t="n">
         <v>15</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,20 +17637,20 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K240" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="L240" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="M240" t="n">
-        <v>11500</v>
+        <v>33500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -17659,10 +17659,10 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>164</v>
+        <v>670</v>
       </c>
       <c r="Q240" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R240" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E241" t="n">
         <v>15</v>
@@ -17705,24 +17705,24 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K241" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L241" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M241" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -17731,10 +17731,10 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="Q241" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R241" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44351</v>
+        <v>44391</v>
       </c>
       <c r="E242" t="n">
         <v>15</v>
@@ -17777,24 +17777,24 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K242" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L242" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M242" t="n">
-        <v>21500</v>
+        <v>31000</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -17803,10 +17803,10 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="Q242" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R242" t="inlineStr">
         <is>
@@ -17844,29 +17844,29 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K243" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L243" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M243" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -17875,10 +17875,10 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="Q243" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R243" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E244" t="n">
         <v>15</v>
@@ -17928,13 +17928,13 @@
         <v>50</v>
       </c>
       <c r="K244" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L244" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M244" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="Q244" t="n">
         <v>50</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E245" t="n">
         <v>15</v>
@@ -17997,7 +17997,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K245" t="n">
         <v>21000</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E246" t="n">
         <v>15</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E247" t="n">
         <v>15</v>
@@ -18137,24 +18137,24 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K247" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L247" t="n">
         <v>24000</v>
       </c>
-      <c r="L247" t="n">
-        <v>25000</v>
-      </c>
       <c r="M247" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -18163,10 +18163,10 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="Q247" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R247" t="inlineStr">
         <is>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E248" t="n">
         <v>15</v>
@@ -18209,24 +18209,24 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J248" t="n">
         <v>70</v>
       </c>
       <c r="K248" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L248" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M248" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -18235,10 +18235,10 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>205</v>
+        <v>287</v>
       </c>
       <c r="Q248" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R248" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E249" t="n">
         <v>15</v>
@@ -18281,24 +18281,24 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J249" t="n">
         <v>50</v>
       </c>
       <c r="K249" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L249" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M249" t="n">
-        <v>29500</v>
+        <v>19500</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -18307,10 +18307,10 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>393</v>
+        <v>195</v>
       </c>
       <c r="Q249" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R249" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E250" t="n">
         <v>15</v>
@@ -18353,24 +18353,24 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K250" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L250" t="n">
         <v>25000</v>
       </c>
-      <c r="L250" t="n">
-        <v>26000</v>
-      </c>
       <c r="M250" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -18379,10 +18379,10 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="Q250" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R250" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E251" t="n">
         <v>15</v>
@@ -18420,29 +18420,29 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K251" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L251" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M251" t="n">
-        <v>9500</v>
+        <v>20500</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
@@ -18451,10 +18451,10 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>950</v>
+        <v>205</v>
       </c>
       <c r="Q251" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R251" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E252" t="n">
         <v>15</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J252" t="n">
         <v>50</v>
       </c>
       <c r="K252" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L252" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M252" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="Q252" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E253" t="n">
         <v>15</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J253" t="n">
         <v>40</v>
       </c>
       <c r="K253" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L253" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M253" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="Q253" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18636,29 +18636,29 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K254" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L254" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M254" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>215</v>
+        <v>950</v>
       </c>
       <c r="Q254" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E255" t="n">
         <v>15</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,20 +18717,20 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K255" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L255" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M255" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O255" t="inlineStr">
@@ -18739,10 +18739,10 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="Q255" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R255" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E256" t="n">
         <v>15</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>40</v>
       </c>
       <c r="K256" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L256" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M256" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>680</v>
+        <v>327</v>
       </c>
       <c r="Q256" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E257" t="n">
         <v>15</v>
@@ -18857,24 +18857,24 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K257" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L257" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M257" t="n">
-        <v>34000</v>
+        <v>21500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>453</v>
+        <v>215</v>
       </c>
       <c r="Q257" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18924,41 +18924,41 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J258" t="n">
+        <v>160</v>
+      </c>
+      <c r="K258" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L258" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M258" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P258" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q258" t="n">
         <v>70</v>
-      </c>
-      <c r="K258" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L258" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M258" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P258" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q258" t="n">
-        <v>100</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E259" t="n">
         <v>15</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K259" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L259" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M259" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>490</v>
+        <v>680</v>
       </c>
       <c r="Q259" t="n">
         <v>50</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E260" t="n">
         <v>15</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K260" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L260" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M260" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="Q260" t="n">
         <v>75</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E261" t="n">
         <v>15</v>
@@ -19152,13 +19152,13 @@
         <v>70</v>
       </c>
       <c r="K261" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L261" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M261" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q261" t="n">
         <v>100</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E262" t="n">
         <v>15</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K262" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L262" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M262" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="Q262" t="n">
         <v>50</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E263" t="n">
         <v>15</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K263" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L263" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M263" t="n">
-        <v>32500</v>
+        <v>24500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>433</v>
+        <v>327</v>
       </c>
       <c r="Q263" t="n">
         <v>75</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E264" t="n">
         <v>15</v>
@@ -19356,29 +19356,29 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K264" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L264" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M264" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q264" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E265" t="n">
         <v>15</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
         <v>40</v>
       </c>
       <c r="K265" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L265" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M265" t="n">
-        <v>29500</v>
+        <v>34500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>393</v>
+        <v>690</v>
       </c>
       <c r="Q265" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E266" t="n">
         <v>15</v>
@@ -19505,24 +19505,24 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K266" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L266" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M266" t="n">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>275</v>
+        <v>433</v>
       </c>
       <c r="Q266" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E267" t="n">
         <v>15</v>
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="L267" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="M267" t="n">
-        <v>26000</v>
+        <v>14500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>371</v>
+        <v>207</v>
       </c>
       <c r="Q267" t="n">
         <v>70</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E268" t="n">
         <v>15</v>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K268" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L268" t="n">
         <v>30000</v>
       </c>
       <c r="M268" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>580</v>
+        <v>393</v>
       </c>
       <c r="Q268" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E269" t="n">
         <v>15</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J269" t="n">
         <v>40</v>
       </c>
       <c r="K269" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L269" t="n">
         <v>28000</v>
       </c>
-      <c r="L269" t="n">
-        <v>30000</v>
-      </c>
       <c r="M269" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>387</v>
+        <v>275</v>
       </c>
       <c r="Q269" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,29 +19788,29 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K270" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L270" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M270" t="n">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="Q270" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E271" t="n">
         <v>15</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K271" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L271" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M271" t="n">
-        <v>33500</v>
+        <v>29000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>670</v>
+        <v>580</v>
       </c>
       <c r="Q271" t="n">
         <v>50</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E272" t="n">
         <v>15</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K272" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L272" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M272" t="n">
-        <v>33500</v>
+        <v>29000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>447</v>
+        <v>387</v>
       </c>
       <c r="Q272" t="n">
         <v>75</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E273" t="n">
         <v>15</v>
@@ -20016,13 +20016,13 @@
         <v>40</v>
       </c>
       <c r="K273" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L273" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M273" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="Q273" t="n">
         <v>100</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E274" t="n">
         <v>15</v>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K274" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="L274" t="n">
-        <v>36000</v>
+        <v>34000</v>
       </c>
       <c r="M274" t="n">
-        <v>35500</v>
+        <v>33500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>473</v>
+        <v>670</v>
       </c>
       <c r="Q274" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E275" t="n">
         <v>15</v>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K275" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L275" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M275" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>325</v>
+        <v>447</v>
       </c>
       <c r="Q275" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44307</v>
+        <v>44419</v>
       </c>
       <c r="E276" t="n">
         <v>15</v>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J276" t="n">
         <v>40</v>
       </c>
       <c r="K276" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L276" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M276" t="n">
-        <v>29000</v>
+        <v>30500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="Q276" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44307</v>
+        <v>44245</v>
       </c>
       <c r="E277" t="n">
         <v>15</v>
@@ -20297,24 +20297,24 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K277" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="L277" t="n">
-        <v>26000</v>
+        <v>36000</v>
       </c>
       <c r="M277" t="n">
-        <v>25500</v>
+        <v>35500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O277" t="inlineStr">
@@ -20323,10 +20323,10 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>255</v>
+        <v>473</v>
       </c>
       <c r="Q277" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R277" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44159</v>
+        <v>44245</v>
       </c>
       <c r="E278" t="n">
         <v>15</v>
@@ -20364,29 +20364,29 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K278" t="n">
-        <v>13000</v>
+        <v>32000</v>
       </c>
       <c r="L278" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M278" t="n">
-        <v>13500</v>
+        <v>32500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O278" t="inlineStr">
@@ -20395,10 +20395,10 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="Q278" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R278" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E279" t="n">
         <v>15</v>
@@ -20436,29 +20436,29 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K279" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="L279" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="M279" t="n">
-        <v>8500</v>
+        <v>29000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>121</v>
+        <v>387</v>
       </c>
       <c r="Q279" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="E280" t="n">
         <v>15</v>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J280" t="n">
         <v>40</v>
       </c>
       <c r="K280" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="L280" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="M280" t="n">
-        <v>27500</v>
+        <v>25500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="Q280" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
@@ -20580,29 +20580,29 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K281" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L281" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="M281" t="n">
-        <v>25500</v>
+        <v>13500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>340</v>
+        <v>193</v>
       </c>
       <c r="Q281" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20652,29 +20652,29 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K282" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L282" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M282" t="n">
-        <v>20500</v>
+        <v>8500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="Q282" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E283" t="n">
         <v>15</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,20 +20733,20 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K283" t="n">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="L283" t="n">
-        <v>8000</v>
+        <v>28000</v>
       </c>
       <c r="M283" t="n">
-        <v>7500</v>
+        <v>27500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>107</v>
+        <v>550</v>
       </c>
       <c r="Q283" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E284" t="n">
         <v>15</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K284" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="L284" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="M284" t="n">
-        <v>19500</v>
+        <v>25500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="Q284" t="n">
         <v>75</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K285" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L285" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M285" t="n">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="Q285" t="n">
         <v>100</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K286" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L286" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M286" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="Q286" t="n">
         <v>70</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E287" t="n">
         <v>15</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K287" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L287" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M287" t="n">
-        <v>29500</v>
+        <v>19500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>590</v>
+        <v>260</v>
       </c>
       <c r="Q287" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E288" t="n">
         <v>15</v>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K288" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L288" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M288" t="n">
-        <v>27500</v>
+        <v>18500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="Q288" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,29 +21156,29 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K289" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L289" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M289" t="n">
-        <v>25500</v>
+        <v>9500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="Q289" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E290" t="n">
         <v>15</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M290" t="n">
-        <v>10500</v>
+        <v>29500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="Q290" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E291" t="n">
         <v>15</v>
@@ -21300,41 +21300,41 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K291" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L291" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M291" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>295</v>
+        <v>367</v>
       </c>
       <c r="Q291" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44344</v>
+        <v>44277</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J292" t="n">
         <v>30</v>
       </c>
       <c r="K292" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L292" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M292" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="Q292" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E293" t="n">
         <v>15</v>
@@ -21444,29 +21444,29 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K293" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="L293" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="M293" t="n">
-        <v>21500</v>
+        <v>10500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>287</v>
+        <v>150</v>
       </c>
       <c r="Q293" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21516,25 +21516,25 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K294" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L294" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M294" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21543,11 +21543,11 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="Q294" t="n">
         <v>100</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,7 +21597,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K295" t="n">
         <v>24000</v>
@@ -21610,19 +21610,19 @@
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P295" t="n">
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="Q295" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E296" t="n">
         <v>15</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
         <v>40</v>
       </c>
       <c r="K296" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L296" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M296" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>490</v>
+        <v>287</v>
       </c>
       <c r="Q296" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J297" t="n">
         <v>50</v>
       </c>
       <c r="K297" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L297" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="M297" t="n">
-        <v>22500</v>
+        <v>18500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="Q297" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21804,25 +21804,25 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K298" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L298" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M298" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21831,11 +21831,11 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="Q298" t="n">
         <v>100</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K299" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="L299" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M299" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>164</v>
+        <v>490</v>
       </c>
       <c r="Q299" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E300" t="n">
         <v>15</v>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K300" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L300" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M300" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="Q300" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J301" t="n">
         <v>40</v>
       </c>
       <c r="K301" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L301" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M301" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="Q301" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22092,29 +22092,29 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K302" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L302" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M302" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q302" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,20 +22173,20 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K303" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L303" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M303" t="n">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>210</v>
+        <v>490</v>
       </c>
       <c r="Q303" t="n">
         <v>50</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22236,29 +22236,29 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K304" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L304" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M304" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="Q304" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K305" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="L305" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="M305" t="n">
-        <v>4500</v>
+        <v>20500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>450</v>
+        <v>205</v>
       </c>
       <c r="Q305" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,32 +22389,32 @@
         </is>
       </c>
       <c r="J306" t="n">
+        <v>130</v>
+      </c>
+      <c r="K306" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L306" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M306" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>$/malla 50 unidades</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>210</v>
+      </c>
+      <c r="Q306" t="n">
         <v>50</v>
-      </c>
-      <c r="K306" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L306" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M306" t="n">
-        <v>34500</v>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P306" t="n">
-        <v>345</v>
-      </c>
-      <c r="Q306" t="n">
-        <v>100</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22452,29 +22452,29 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K307" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="L307" t="n">
-        <v>33000</v>
+        <v>8000</v>
       </c>
       <c r="M307" t="n">
-        <v>32500</v>
+        <v>7500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="Q307" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
         <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L308" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="M308" t="n">
-        <v>10500</v>
+        <v>4500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="Q308" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K309" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L309" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M309" t="n">
-        <v>29500</v>
+        <v>34500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22623,11 +22623,11 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P309" t="n">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="Q309" t="n">
         <v>100</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22668,29 +22668,29 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K310" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L310" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M310" t="n">
-        <v>19000</v>
+        <v>32500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="Q310" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22740,41 +22740,41 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
+        <v>120</v>
+      </c>
+      <c r="K311" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L311" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M311" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q311" t="n">
         <v>70</v>
-      </c>
-      <c r="K311" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L311" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M311" t="n">
-        <v>17000</v>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P311" t="n">
-        <v>227</v>
-      </c>
-      <c r="Q311" t="n">
-        <v>75</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22812,25 +22812,25 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="L312" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="M312" t="n">
-        <v>15500</v>
+        <v>29500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22839,11 +22839,11 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P312" t="n">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="Q312" t="n">
         <v>100</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,20 +22893,20 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K313" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L313" t="n">
-        <v>5500</v>
+        <v>20000</v>
       </c>
       <c r="M313" t="n">
-        <v>5250</v>
+        <v>19000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>105</v>
+        <v>380</v>
       </c>
       <c r="Q313" t="n">
         <v>50</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22956,29 +22956,29 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K314" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L314" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M314" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="Q314" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23028,29 +23028,29 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K315" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L315" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M315" t="n">
-        <v>4250</v>
+        <v>15500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>425</v>
+        <v>155</v>
       </c>
       <c r="Q315" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23100,29 +23100,29 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K316" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L316" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M316" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="Q316" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23172,41 +23172,41 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
+        <v>160</v>
+      </c>
+      <c r="K317" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L317" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M317" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q317" t="n">
         <v>70</v>
-      </c>
-      <c r="K317" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L317" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M317" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P317" t="n">
-        <v>145</v>
-      </c>
-      <c r="Q317" t="n">
-        <v>100</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K318" t="n">
-        <v>11000</v>
+        <v>4000</v>
       </c>
       <c r="L318" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M318" t="n">
-        <v>11500</v>
+        <v>4250</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="Q318" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K319" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L319" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M319" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>393</v>
+        <v>207</v>
       </c>
       <c r="Q319" t="n">
         <v>75</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44370</v>
+        <v>44211</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23393,36 +23393,36 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K320" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L320" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M320" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="Q320" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23460,29 +23460,29 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K321" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L321" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M321" t="n">
-        <v>20600</v>
+        <v>11500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="Q321" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23532,29 +23532,29 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K322" t="n">
-        <v>8000</v>
+        <v>29000</v>
       </c>
       <c r="L322" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="M322" t="n">
-        <v>8500</v>
+        <v>29500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>121</v>
+        <v>393</v>
       </c>
       <c r="Q322" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23609,36 +23609,36 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K323" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L323" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M323" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="Q323" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44326</v>
+        <v>44370</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K324" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L324" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M324" t="n">
-        <v>24500</v>
+        <v>20600</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>327</v>
+        <v>206</v>
       </c>
       <c r="Q324" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23748,29 +23748,29 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K325" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L325" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M325" t="n">
-        <v>20500</v>
+        <v>8500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="Q325" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23832,13 +23832,13 @@
         <v>40</v>
       </c>
       <c r="K326" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L326" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M326" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="Q326" t="n">
         <v>50</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K327" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L327" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M327" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>460</v>
+        <v>327</v>
       </c>
       <c r="Q327" t="n">
         <v>75</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K328" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L328" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M328" t="n">
-        <v>31500</v>
+        <v>20500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="Q328" t="n">
         <v>100</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K329" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L329" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M329" t="n">
-        <v>32500</v>
+        <v>34500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="Q329" t="n">
         <v>50</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
         <v>50</v>
       </c>
       <c r="K330" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="L330" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M330" t="n">
-        <v>27600</v>
+        <v>34500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>276</v>
+        <v>460</v>
       </c>
       <c r="Q330" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24180,29 +24180,29 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K331" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L331" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M331" t="n">
-        <v>26000</v>
+        <v>31500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>520</v>
+        <v>315</v>
       </c>
       <c r="Q331" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24252,29 +24252,29 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K332" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="L332" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M332" t="n">
-        <v>22000</v>
+        <v>32500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>314</v>
+        <v>650</v>
       </c>
       <c r="Q332" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24324,29 +24324,29 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K333" t="n">
-        <v>6500</v>
+        <v>27000</v>
       </c>
       <c r="L333" t="n">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="M333" t="n">
-        <v>6750</v>
+        <v>27600</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="Q333" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24405,20 +24405,20 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K334" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L334" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M334" t="n">
-        <v>36500</v>
+        <v>26000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>730</v>
+        <v>520</v>
       </c>
       <c r="Q334" t="n">
         <v>50</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24477,20 +24477,20 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K335" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="L335" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M335" t="n">
-        <v>36500</v>
+        <v>22000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>487</v>
+        <v>314</v>
       </c>
       <c r="Q335" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24549,20 +24549,20 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K336" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="L336" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M336" t="n">
-        <v>12500</v>
+        <v>6750</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="Q336" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24624,13 +24624,13 @@
         <v>30</v>
       </c>
       <c r="K337" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="L337" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M337" t="n">
-        <v>29000</v>
+        <v>36500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="Q337" t="n">
         <v>50</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K338" t="n">
-        <v>28000</v>
+        <v>36000</v>
       </c>
       <c r="L338" t="n">
-        <v>30000</v>
+        <v>37000</v>
       </c>
       <c r="M338" t="n">
-        <v>29000</v>
+        <v>36500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>387</v>
+        <v>487</v>
       </c>
       <c r="Q338" t="n">
         <v>75</v>
@@ -24756,29 +24756,29 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K339" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L339" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M339" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q339" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K340" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L340" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M340" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="Q340" t="n">
         <v>50</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K341" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L341" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M341" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>327</v>
+        <v>387</v>
       </c>
       <c r="Q341" t="n">
         <v>75</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24981,16 +24981,16 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K342" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L342" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M342" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="Q342" t="n">
         <v>100</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44244</v>
+        <v>44355</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,32 +25053,32 @@
         </is>
       </c>
       <c r="J343" t="n">
+        <v>40</v>
+      </c>
+      <c r="K343" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L343" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M343" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q343" t="n">
         <v>50</v>
-      </c>
-      <c r="K343" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L343" t="n">
-        <v>34000</v>
-      </c>
-      <c r="M343" t="n">
-        <v>33500</v>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>Valle de Camiña</t>
-        </is>
-      </c>
-      <c r="P343" t="n">
-        <v>335</v>
-      </c>
-      <c r="Q343" t="n">
-        <v>100</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K344" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L344" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M344" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="Q344" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25193,24 +25193,24 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K345" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L345" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M345" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q345" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25260,25 +25260,25 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K346" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="L346" t="n">
-        <v>15000</v>
+        <v>34000</v>
       </c>
       <c r="M346" t="n">
-        <v>14500</v>
+        <v>33500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25287,11 +25287,11 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="Q346" t="n">
         <v>100</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K347" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="L347" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="M347" t="n">
-        <v>30500</v>
+        <v>19500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>610</v>
+        <v>390</v>
       </c>
       <c r="Q347" t="n">
         <v>50</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25416,13 +25416,13 @@
         <v>40</v>
       </c>
       <c r="K348" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L348" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="M348" t="n">
-        <v>30500</v>
+        <v>16500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="Q348" t="n">
         <v>75</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K349" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L349" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M349" t="n">
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="Q349" t="n">
         <v>100</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K350" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L350" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M350" t="n">
-        <v>24625</v>
+        <v>30500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>492</v>
+        <v>610</v>
       </c>
       <c r="Q350" t="n">
         <v>50</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K351" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L351" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M351" t="n">
-        <v>24667</v>
+        <v>30500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>329</v>
+        <v>407</v>
       </c>
       <c r="Q351" t="n">
         <v>75</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25701,16 +25701,16 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K352" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L352" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M352" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q352" t="n">
         <v>100</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,20 +25773,20 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K353" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="L353" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M353" t="n">
-        <v>5500</v>
+        <v>24625</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>110</v>
+        <v>492</v>
       </c>
       <c r="Q353" t="n">
         <v>50</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25836,29 +25836,29 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K354" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="L354" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M354" t="n">
-        <v>6500</v>
+        <v>24667</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="Q354" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25908,16 +25908,16 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K355" t="n">
         <v>20000</v>
@@ -25930,7 +25930,7 @@
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>410</v>
+        <v>205</v>
       </c>
       <c r="Q355" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25980,7 +25980,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25992,17 +25992,17 @@
         <v>120</v>
       </c>
       <c r="K356" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L356" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M356" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="Q356" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26052,7 +26052,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -26061,20 +26061,20 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K357" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L357" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M357" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>350</v>
+        <v>93</v>
       </c>
       <c r="Q357" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26124,41 +26124,41 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
+        <v>160</v>
+      </c>
+      <c r="K358" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L358" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M358" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>$/malla 50 unidades</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q358" t="n">
         <v>50</v>
-      </c>
-      <c r="K358" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L358" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M358" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N358" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O358" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P358" t="n">
-        <v>220</v>
-      </c>
-      <c r="Q358" t="n">
-        <v>75</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26208,13 +26208,13 @@
         <v>120</v>
       </c>
       <c r="K359" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L359" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M359" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="Q359" t="n">
         <v>70</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,32 +26277,32 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K360" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L360" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M360" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="Q360" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K361" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L361" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M361" t="n">
-        <v>25500</v>
+        <v>16500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="Q361" t="n">
         <v>75</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44334</v>
+        <v>44284</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26412,41 +26412,41 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
+        <v>120</v>
+      </c>
+      <c r="K362" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L362" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M362" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P362" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q362" t="n">
         <v>70</v>
-      </c>
-      <c r="K362" t="n">
-        <v>21000</v>
-      </c>
-      <c r="L362" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M362" t="n">
-        <v>21500</v>
-      </c>
-      <c r="N362" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O362" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P362" t="n">
-        <v>215</v>
-      </c>
-      <c r="Q362" t="n">
-        <v>100</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,32 +26493,32 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K363" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L363" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M363" t="n">
-        <v>16500</v>
+        <v>29500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P363" t="n">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="Q363" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K364" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L364" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="M364" t="n">
-        <v>15500</v>
+        <v>25500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="Q364" t="n">
         <v>75</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K365" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="L365" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M365" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="Q365" t="n">
         <v>100</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26705,36 +26705,36 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
+        <v>60</v>
+      </c>
+      <c r="K366" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L366" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M366" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q366" t="n">
         <v>50</v>
-      </c>
-      <c r="K366" t="n">
-        <v>31000</v>
-      </c>
-      <c r="L366" t="n">
-        <v>32000</v>
-      </c>
-      <c r="M366" t="n">
-        <v>31500</v>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P366" t="n">
-        <v>420</v>
-      </c>
-      <c r="Q366" t="n">
-        <v>75</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26777,24 +26777,24 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
         <v>50</v>
       </c>
       <c r="K367" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L367" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M367" t="n">
-        <v>28500</v>
+        <v>15500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="Q367" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44432</v>
+        <v>44168</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26849,24 +26849,24 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K368" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="L368" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="M368" t="n">
-        <v>32000</v>
+        <v>14500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>427</v>
+        <v>145</v>
       </c>
       <c r="Q368" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,58 +26901,274 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E369" t="n">
+        <v>15</v>
+      </c>
+      <c r="F369" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>50</v>
+      </c>
+      <c r="K369" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L369" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M369" t="n">
+        <v>31500</v>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P369" t="n">
+        <v>420</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>75</v>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>1</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E370" t="n">
+        <v>15</v>
+      </c>
+      <c r="F370" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J370" t="n">
+        <v>50</v>
+      </c>
+      <c r="K370" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L370" t="n">
+        <v>29000</v>
+      </c>
+      <c r="M370" t="n">
+        <v>28500</v>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P370" t="n">
+        <v>285</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>100</v>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E369" t="n">
-        <v>15</v>
-      </c>
-      <c r="F369" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G369" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>Lluteño</t>
-        </is>
-      </c>
-      <c r="I369" t="inlineStr">
+      <c r="E371" t="n">
+        <v>15</v>
+      </c>
+      <c r="F371" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J371" t="n">
+        <v>50</v>
+      </c>
+      <c r="K371" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L371" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M371" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P371" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>75</v>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>1</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D372" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E372" t="n">
+        <v>15</v>
+      </c>
+      <c r="F372" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J369" t="n">
+      <c r="J372" t="n">
         <v>40</v>
       </c>
-      <c r="K369" t="n">
+      <c r="K372" t="n">
         <v>28000</v>
       </c>
-      <c r="L369" t="n">
+      <c r="L372" t="n">
         <v>30000</v>
       </c>
-      <c r="M369" t="n">
+      <c r="M372" t="n">
         <v>29000</v>
       </c>
-      <c r="N369" t="inlineStr">
+      <c r="N372" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
         </is>
       </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P369" t="n">
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P372" t="n">
         <v>290</v>
       </c>
-      <c r="Q369" t="n">
+      <c r="Q372" t="n">
         <v>100</v>
       </c>
-      <c r="R369" t="inlineStr">
+      <c r="R372" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R376"/>
+  <dimension ref="A1:R379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,20 +26853,20 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K368" t="n">
-        <v>7000</v>
+        <v>32000</v>
       </c>
       <c r="L368" t="n">
-        <v>7500</v>
+        <v>33000</v>
       </c>
       <c r="M368" t="n">
-        <v>7250</v>
+        <v>32500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>104</v>
+        <v>650</v>
       </c>
       <c r="Q368" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26928,13 +26928,13 @@
         <v>40</v>
       </c>
       <c r="K369" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L369" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M369" t="n">
-        <v>35500</v>
+        <v>29000</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>473</v>
+        <v>387</v>
       </c>
       <c r="Q369" t="n">
         <v>75</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -27000,13 +27000,13 @@
         <v>50</v>
       </c>
       <c r="K370" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L370" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M370" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="Q370" t="n">
         <v>100</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,20 +27069,20 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K371" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L371" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="M371" t="n">
-        <v>24500</v>
+        <v>7250</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>490</v>
+        <v>104</v>
       </c>
       <c r="Q371" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27144,13 +27144,13 @@
         <v>40</v>
       </c>
       <c r="K372" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L372" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M372" t="n">
-        <v>24500</v>
+        <v>35500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="Q372" t="n">
         <v>75</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K373" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L373" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M373" t="n">
-        <v>21500</v>
+        <v>33500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="Q373" t="n">
         <v>100</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K375" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L375" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M375" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q375" t="n">
         <v>75</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K376" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L376" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M376" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,12 +27451,228 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q376" t="n">
         <v>100</v>
       </c>
       <c r="R376" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D377" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E377" t="n">
+        <v>15</v>
+      </c>
+      <c r="F377" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J377" t="n">
+        <v>50</v>
+      </c>
+      <c r="K377" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L377" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M377" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P377" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>50</v>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D378" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E378" t="n">
+        <v>15</v>
+      </c>
+      <c r="F378" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J378" t="n">
+        <v>60</v>
+      </c>
+      <c r="K378" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L378" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M378" t="n">
+        <v>22500</v>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P378" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>75</v>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D379" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E379" t="n">
+        <v>15</v>
+      </c>
+      <c r="F379" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>50</v>
+      </c>
+      <c r="K379" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L379" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M379" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P379" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>100</v>
+      </c>
+      <c r="R379" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R379"/>
+  <dimension ref="A1:R382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L340" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M340" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="Q340" t="n">
         <v>50</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K341" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L341" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M341" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="Q341" t="n">
         <v>75</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24984,13 +24984,13 @@
         <v>50</v>
       </c>
       <c r="K342" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L342" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M342" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q342" t="n">
         <v>100</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25056,13 +25056,13 @@
         <v>40</v>
       </c>
       <c r="K343" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L343" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M343" t="n">
-        <v>34500</v>
+        <v>29000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>690</v>
+        <v>580</v>
       </c>
       <c r="Q343" t="n">
         <v>50</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K344" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="L344" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M344" t="n">
-        <v>32500</v>
+        <v>27500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="Q344" t="n">
         <v>75</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25188,29 +25188,29 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K345" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L345" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M345" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>1650</v>
+        <v>245</v>
       </c>
       <c r="Q345" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K346" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L346" t="n">
         <v>35000</v>
       </c>
       <c r="M346" t="n">
-        <v>34000</v>
+        <v>34500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="Q346" t="n">
         <v>50</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K347" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L347" t="n">
         <v>33000</v>
       </c>
-      <c r="L347" t="n">
-        <v>35000</v>
-      </c>
       <c r="M347" t="n">
-        <v>34000</v>
+        <v>32500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="Q347" t="n">
         <v>75</v>
@@ -25404,29 +25404,29 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J348" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K348" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L348" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M348" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>295</v>
+        <v>1650</v>
       </c>
       <c r="Q348" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,20 +25485,20 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K349" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L349" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M349" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>393</v>
+        <v>680</v>
       </c>
       <c r="Q349" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25548,7 +25548,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -25557,20 +25557,20 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K350" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L350" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M350" t="n">
-        <v>15500</v>
+        <v>34000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>1550</v>
+        <v>453</v>
       </c>
       <c r="Q350" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,29 +25620,29 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K351" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="L351" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M351" t="n">
-        <v>17500</v>
+        <v>29500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>1750</v>
+        <v>295</v>
       </c>
       <c r="Q351" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,20 +25701,20 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K352" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="L352" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="M352" t="n">
-        <v>32206</v>
+        <v>27500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>644</v>
+        <v>393</v>
       </c>
       <c r="Q352" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,20 +25773,20 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K353" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L353" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M353" t="n">
-        <v>31053</v>
+        <v>15500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>414</v>
+        <v>1550</v>
       </c>
       <c r="Q353" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,29 +25836,29 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K354" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L354" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M354" t="n">
-        <v>28088</v>
+        <v>17500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>281</v>
+        <v>1750</v>
       </c>
       <c r="Q354" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="K355" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L355" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M355" t="n">
-        <v>24500</v>
+        <v>32206</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>490</v>
+        <v>644</v>
       </c>
       <c r="Q355" t="n">
         <v>50</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="K356" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L356" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M356" t="n">
-        <v>22500</v>
+        <v>31053</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="Q356" t="n">
         <v>75</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="K357" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="L357" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M357" t="n">
-        <v>19500</v>
+        <v>28088</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="Q357" t="n">
         <v>100</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26142,7 +26142,7 @@
         <v>25000</v>
       </c>
       <c r="M358" t="n">
-        <v>24625</v>
+        <v>24500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q358" t="n">
         <v>50</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K359" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L359" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M359" t="n">
-        <v>24667</v>
+        <v>22500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="Q359" t="n">
         <v>75</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26277,16 +26277,16 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K360" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L360" t="n">
         <v>20000</v>
       </c>
-      <c r="L360" t="n">
-        <v>21000</v>
-      </c>
       <c r="M360" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="Q360" t="n">
         <v>100</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,32 +26349,32 @@
         </is>
       </c>
       <c r="J361" t="n">
+        <v>40</v>
+      </c>
+      <c r="K361" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L361" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M361" t="n">
+        <v>24625</v>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P361" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q361" t="n">
         <v>50</v>
-      </c>
-      <c r="K361" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L361" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M361" t="n">
-        <v>29500</v>
-      </c>
-      <c r="N361" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O361" t="inlineStr">
-        <is>
-          <t>Valle de Camiña</t>
-        </is>
-      </c>
-      <c r="P361" t="n">
-        <v>295</v>
-      </c>
-      <c r="Q361" t="n">
-        <v>100</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26417,24 +26417,24 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K362" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L362" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M362" t="n">
-        <v>30500</v>
+        <v>24667</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>610</v>
+        <v>329</v>
       </c>
       <c r="Q362" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26489,24 +26489,24 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K363" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L363" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="M363" t="n">
-        <v>30500</v>
+        <v>20500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>407</v>
+        <v>205</v>
       </c>
       <c r="Q363" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26556,12 +26556,12 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P364" t="n">
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K365" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L365" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M365" t="n">
-        <v>24500</v>
+        <v>30500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="Q365" t="n">
         <v>50</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26712,13 +26712,13 @@
         <v>40</v>
       </c>
       <c r="K366" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L366" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M366" t="n">
-        <v>24500</v>
+        <v>30500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="Q366" t="n">
         <v>75</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26784,13 +26784,13 @@
         <v>50</v>
       </c>
       <c r="K367" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L367" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M367" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="Q367" t="n">
         <v>100</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K368" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L368" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M368" t="n">
-        <v>32500</v>
+        <v>24500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="Q368" t="n">
         <v>50</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26928,13 +26928,13 @@
         <v>40</v>
       </c>
       <c r="K369" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L369" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M369" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="Q369" t="n">
         <v>75</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -27000,13 +27000,13 @@
         <v>50</v>
       </c>
       <c r="K370" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L370" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M370" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="Q370" t="n">
         <v>100</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,20 +27069,20 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K371" t="n">
-        <v>7000</v>
+        <v>32000</v>
       </c>
       <c r="L371" t="n">
-        <v>7500</v>
+        <v>33000</v>
       </c>
       <c r="M371" t="n">
-        <v>7250</v>
+        <v>32500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>104</v>
+        <v>650</v>
       </c>
       <c r="Q371" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27144,13 +27144,13 @@
         <v>40</v>
       </c>
       <c r="K372" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L372" t="n">
-        <v>36000</v>
+        <v>30000</v>
       </c>
       <c r="M372" t="n">
-        <v>35500</v>
+        <v>29000</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>473</v>
+        <v>387</v>
       </c>
       <c r="Q372" t="n">
         <v>75</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27216,13 +27216,13 @@
         <v>50</v>
       </c>
       <c r="K373" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L373" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M373" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="Q373" t="n">
         <v>100</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,20 +27285,20 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K374" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L374" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="M374" t="n">
-        <v>24500</v>
+        <v>7250</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>490</v>
+        <v>104</v>
       </c>
       <c r="Q374" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27360,13 +27360,13 @@
         <v>40</v>
       </c>
       <c r="K375" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L375" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M375" t="n">
-        <v>24500</v>
+        <v>35500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="Q375" t="n">
         <v>75</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K376" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L376" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M376" t="n">
-        <v>21500</v>
+        <v>33500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="Q376" t="n">
         <v>100</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27573,16 +27573,16 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K378" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L378" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M378" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
@@ -27595,7 +27595,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q378" t="n">
         <v>75</v>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K379" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L379" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M379" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,12 +27667,228 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q379" t="n">
         <v>100</v>
       </c>
       <c r="R379" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D380" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E380" t="n">
+        <v>15</v>
+      </c>
+      <c r="F380" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J380" t="n">
+        <v>50</v>
+      </c>
+      <c r="K380" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L380" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M380" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P380" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>50</v>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D381" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E381" t="n">
+        <v>15</v>
+      </c>
+      <c r="F381" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J381" t="n">
+        <v>60</v>
+      </c>
+      <c r="K381" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L381" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M381" t="n">
+        <v>22500</v>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P381" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>75</v>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D382" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E382" t="n">
+        <v>15</v>
+      </c>
+      <c r="F382" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>50</v>
+      </c>
+      <c r="K382" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L382" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M382" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P382" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>100</v>
+      </c>
+      <c r="R382" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R382"/>
+  <dimension ref="A1:R386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E252" t="n">
         <v>15</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
         <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="L252" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M252" t="n">
-        <v>9500</v>
+        <v>26500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>950</v>
+        <v>379</v>
       </c>
       <c r="Q252" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E253" t="n">
         <v>15</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K253" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L253" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M253" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>490</v>
+        <v>680</v>
       </c>
       <c r="Q253" t="n">
         <v>50</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E254" t="n">
         <v>15</v>
@@ -18648,13 +18648,13 @@
         <v>40</v>
       </c>
       <c r="K254" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L254" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M254" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="Q254" t="n">
         <v>75</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E255" t="n">
         <v>15</v>
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K255" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L255" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M255" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q255" t="n">
         <v>100</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E256" t="n">
         <v>15</v>
@@ -18785,24 +18785,24 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K256" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="L256" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M256" t="n">
-        <v>4750</v>
+        <v>9500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
@@ -18811,10 +18811,10 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>68</v>
+        <v>950</v>
       </c>
       <c r="Q256" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R256" t="inlineStr">
         <is>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E257" t="n">
         <v>15</v>
@@ -18864,13 +18864,13 @@
         <v>50</v>
       </c>
       <c r="K257" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L257" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M257" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>330</v>
+        <v>490</v>
       </c>
       <c r="Q257" t="n">
         <v>50</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E258" t="n">
         <v>15</v>
@@ -18936,13 +18936,13 @@
         <v>40</v>
       </c>
       <c r="K258" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L258" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M258" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="Q258" t="n">
         <v>75</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44274</v>
+        <v>44358</v>
       </c>
       <c r="E259" t="n">
         <v>15</v>
@@ -18996,29 +18996,29 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K259" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L259" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M259" t="n">
-        <v>7500</v>
+        <v>21500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>750</v>
+        <v>215</v>
       </c>
       <c r="Q259" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44274</v>
+        <v>44218</v>
       </c>
       <c r="E260" t="n">
         <v>15</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,32 +19077,32 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K260" t="n">
-        <v>29000</v>
+        <v>4500</v>
       </c>
       <c r="L260" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M260" t="n">
-        <v>29500</v>
+        <v>4750</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P260" t="n">
-        <v>295</v>
+        <v>68</v>
       </c>
       <c r="Q260" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44321</v>
+        <v>44218</v>
       </c>
       <c r="E261" t="n">
         <v>15</v>
@@ -19140,29 +19140,29 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K261" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L261" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="M261" t="n">
-        <v>5250</v>
+        <v>16500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O261" t="inlineStr">
@@ -19171,10 +19171,10 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>525</v>
+        <v>330</v>
       </c>
       <c r="Q261" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44321</v>
+        <v>44218</v>
       </c>
       <c r="E262" t="n">
         <v>15</v>
@@ -19217,24 +19217,24 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K262" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L262" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M262" t="n">
-        <v>24500</v>
+        <v>16500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>490</v>
+        <v>220</v>
       </c>
       <c r="Q262" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E263" t="n">
         <v>15</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,20 +19293,20 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K263" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L263" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M263" t="n">
-        <v>24500</v>
+        <v>7500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>327</v>
+        <v>750</v>
       </c>
       <c r="Q263" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E264" t="n">
         <v>15</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K264" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L264" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M264" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19383,11 +19383,11 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P264" t="n">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="Q264" t="n">
         <v>100</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E265" t="n">
         <v>15</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K265" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L265" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M265" t="n">
-        <v>13500</v>
+        <v>5250</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>193</v>
+        <v>525</v>
       </c>
       <c r="Q265" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E266" t="n">
         <v>15</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,32 +19509,32 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K266" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L266" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M266" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P266" t="n">
-        <v>345</v>
+        <v>490</v>
       </c>
       <c r="Q266" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E267" t="n">
         <v>15</v>
@@ -19577,24 +19577,24 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J267" t="n">
         <v>40</v>
       </c>
       <c r="K267" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L267" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M267" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>590</v>
+        <v>327</v>
       </c>
       <c r="Q267" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E268" t="n">
         <v>15</v>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K268" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="L268" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M268" t="n">
-        <v>26500</v>
+        <v>21500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>353</v>
+        <v>215</v>
       </c>
       <c r="Q268" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E269" t="n">
         <v>15</v>
@@ -19716,29 +19716,29 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K269" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L269" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M269" t="n">
-        <v>21500</v>
+        <v>13500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="Q269" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44421</v>
+        <v>44291</v>
       </c>
       <c r="E270" t="n">
         <v>15</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,32 +19797,32 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K270" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L270" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M270" t="n">
-        <v>29500</v>
+        <v>34500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P270" t="n">
-        <v>590</v>
+        <v>345</v>
       </c>
       <c r="Q270" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E271" t="n">
         <v>15</v>
@@ -19865,11 +19865,11 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K271" t="n">
         <v>29000</v>
@@ -19882,7 +19882,7 @@
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>393</v>
+        <v>590</v>
       </c>
       <c r="Q271" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E272" t="n">
         <v>15</v>
@@ -19937,24 +19937,24 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
         <v>40</v>
       </c>
       <c r="K272" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="L272" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="M272" t="n">
-        <v>25500</v>
+        <v>26500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>255</v>
+        <v>353</v>
       </c>
       <c r="Q272" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44434</v>
+        <v>44335</v>
       </c>
       <c r="E273" t="n">
         <v>15</v>
@@ -20009,24 +20009,24 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K273" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="L273" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="M273" t="n">
-        <v>32500</v>
+        <v>21500</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>650</v>
+        <v>215</v>
       </c>
       <c r="Q273" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E274" t="n">
         <v>15</v>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K274" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L274" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M274" t="n">
-        <v>32500</v>
+        <v>29500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>433</v>
+        <v>590</v>
       </c>
       <c r="Q274" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E275" t="n">
         <v>15</v>
@@ -20153,11 +20153,11 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K275" t="n">
         <v>29000</v>
@@ -20170,7 +20170,7 @@
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="Q275" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44264</v>
+        <v>44421</v>
       </c>
       <c r="E276" t="n">
         <v>15</v>
@@ -20225,24 +20225,24 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J276" t="n">
         <v>40</v>
       </c>
       <c r="K276" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L276" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M276" t="n">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>393</v>
+        <v>255</v>
       </c>
       <c r="Q276" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44348</v>
+        <v>44434</v>
       </c>
       <c r="E277" t="n">
         <v>15</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K277" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L277" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M277" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>490</v>
+        <v>650</v>
       </c>
       <c r="Q277" t="n">
         <v>50</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44348</v>
+        <v>44434</v>
       </c>
       <c r="E278" t="n">
         <v>15</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K278" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="L278" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="M278" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>300</v>
+        <v>433</v>
       </c>
       <c r="Q278" t="n">
         <v>75</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44348</v>
+        <v>44434</v>
       </c>
       <c r="E279" t="n">
         <v>15</v>
@@ -20448,13 +20448,13 @@
         <v>40</v>
       </c>
       <c r="K279" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L279" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M279" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q279" t="n">
         <v>100</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E280" t="n">
         <v>15</v>
@@ -20508,29 +20508,29 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K280" t="n">
-        <v>12000</v>
+        <v>29000</v>
       </c>
       <c r="L280" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M280" t="n">
-        <v>12500</v>
+        <v>29500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>179</v>
+        <v>393</v>
       </c>
       <c r="Q280" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
@@ -20592,13 +20592,13 @@
         <v>40</v>
       </c>
       <c r="K281" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L281" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M281" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="Q281" t="n">
         <v>50</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E282" t="n">
         <v>15</v>
@@ -20664,13 +20664,13 @@
         <v>50</v>
       </c>
       <c r="K282" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L282" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M282" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="Q282" t="n">
         <v>75</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E283" t="n">
         <v>15</v>
@@ -20736,13 +20736,13 @@
         <v>40</v>
       </c>
       <c r="K283" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L283" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M283" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="Q283" t="n">
         <v>100</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E284" t="n">
         <v>15</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K284" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L284" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M284" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Q284" t="n">
         <v>70</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20880,13 +20880,13 @@
         <v>40</v>
       </c>
       <c r="K285" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L285" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M285" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="Q285" t="n">
         <v>50</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K286" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L286" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M286" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="Q286" t="n">
         <v>75</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E287" t="n">
         <v>15</v>
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K287" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="L287" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="M287" t="n">
-        <v>20500</v>
+        <v>27500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="Q287" t="n">
         <v>100</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E288" t="n">
         <v>15</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="K288" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L288" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M288" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>390</v>
+        <v>164</v>
       </c>
       <c r="Q288" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E289" t="n">
         <v>15</v>
@@ -21161,24 +21161,24 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K289" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L289" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M289" t="n">
-        <v>18500</v>
+        <v>24500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>247</v>
+        <v>490</v>
       </c>
       <c r="Q289" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E290" t="n">
         <v>15</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K290" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L290" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M290" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="Q290" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E291" t="n">
         <v>15</v>
@@ -21300,29 +21300,29 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K291" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L291" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="M291" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q291" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,20 +21381,20 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K292" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L292" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M292" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="Q292" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E293" t="n">
         <v>15</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,20 +21453,20 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K293" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L293" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="M293" t="n">
-        <v>4500</v>
+        <v>18500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>450</v>
+        <v>247</v>
       </c>
       <c r="Q293" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21516,25 +21516,25 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J294" t="n">
         <v>50</v>
       </c>
       <c r="K294" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="L294" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M294" t="n">
-        <v>34500</v>
+        <v>17500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="Q294" t="n">
         <v>100</v>
@@ -21588,29 +21588,29 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K295" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
       <c r="L295" t="n">
-        <v>33000</v>
+        <v>11000</v>
       </c>
       <c r="M295" t="n">
-        <v>32500</v>
+        <v>10500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="Q295" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E296" t="n">
         <v>15</v>
@@ -21660,29 +21660,29 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L296" t="n">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="M296" t="n">
-        <v>33500</v>
+        <v>7500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="Q296" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21732,29 +21732,29 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="L297" t="n">
-        <v>31000</v>
+        <v>5000</v>
       </c>
       <c r="M297" t="n">
-        <v>30500</v>
+        <v>4500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>305</v>
+        <v>450</v>
       </c>
       <c r="Q297" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44341</v>
+        <v>44253</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K298" t="n">
-        <v>9000</v>
+        <v>34000</v>
       </c>
       <c r="L298" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M298" t="n">
-        <v>9500</v>
+        <v>34500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="Q298" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44414</v>
+        <v>44253</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21876,29 +21876,29 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K299" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="L299" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M299" t="n">
-        <v>24000</v>
+        <v>32500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>480</v>
+        <v>325</v>
       </c>
       <c r="Q299" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E300" t="n">
         <v>15</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K300" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L300" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="M300" t="n">
-        <v>22500</v>
+        <v>33500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>300</v>
+        <v>447</v>
       </c>
       <c r="Q300" t="n">
         <v>75</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22032,13 +22032,13 @@
         <v>50</v>
       </c>
       <c r="K301" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L301" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M301" t="n">
-        <v>20500</v>
+        <v>30500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="Q301" t="n">
         <v>100</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44244</v>
+        <v>44341</v>
       </c>
       <c r="E302" t="n">
         <v>15</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,32 +22101,32 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K302" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="L302" t="n">
-        <v>34000</v>
+        <v>10000</v>
       </c>
       <c r="M302" t="n">
-        <v>33500</v>
+        <v>9500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P302" t="n">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="Q302" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K303" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L303" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M303" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="Q303" t="n">
         <v>50</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K304" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="L304" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="M304" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="Q304" t="n">
         <v>75</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K305" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L305" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M305" t="n">
-        <v>26000</v>
+        <v>20500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>371</v>
+        <v>205</v>
       </c>
       <c r="Q305" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22392,29 +22392,29 @@
         <v>50</v>
       </c>
       <c r="K306" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L306" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M306" t="n">
-        <v>29000</v>
+        <v>33500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P306" t="n">
-        <v>580</v>
+        <v>335</v>
       </c>
       <c r="Q306" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K307" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="L307" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M307" t="n">
-        <v>29000</v>
+        <v>17500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="Q307" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K308" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L308" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M308" t="n">
-        <v>24500</v>
+        <v>15500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="Q308" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22596,29 +22596,29 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K309" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L309" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M309" t="n">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="Q309" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K310" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L310" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M310" t="n">
-        <v>20500</v>
+        <v>29000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>205</v>
+        <v>580</v>
       </c>
       <c r="Q310" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44432</v>
+        <v>44417</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K311" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="L311" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M311" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="Q311" t="n">
         <v>75</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44432</v>
+        <v>44417</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22824,13 +22824,13 @@
         <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L312" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M312" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="Q312" t="n">
         <v>100</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22884,29 +22884,29 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K313" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="L313" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M313" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="Q313" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K314" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L314" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M314" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>490</v>
+        <v>205</v>
       </c>
       <c r="Q314" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K315" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="L315" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="M315" t="n">
-        <v>21500</v>
+        <v>32000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>287</v>
+        <v>427</v>
       </c>
       <c r="Q315" t="n">
         <v>75</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K316" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L316" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M316" t="n">
-        <v>19500</v>
+        <v>29000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="Q316" t="n">
         <v>100</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="K317" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L317" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M317" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="Q317" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,20 +23253,20 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K318" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="L318" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="M318" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="Q318" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44342</v>
+        <v>44351</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K319" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L319" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M319" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="Q319" t="n">
         <v>75</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44342</v>
+        <v>44351</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23400,13 +23400,13 @@
         <v>50</v>
       </c>
       <c r="K320" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L320" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M320" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="Q320" t="n">
         <v>100</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44379</v>
+        <v>44257</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,20 +23469,20 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K321" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="L321" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M321" t="n">
-        <v>29667</v>
+        <v>13500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>593</v>
+        <v>270</v>
       </c>
       <c r="Q321" t="n">
         <v>50</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44379</v>
+        <v>44257</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23532,29 +23532,29 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K322" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="L322" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="M322" t="n">
-        <v>26500</v>
+        <v>8500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>353</v>
+        <v>121</v>
       </c>
       <c r="Q322" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
         <v>50</v>
       </c>
       <c r="K323" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L323" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M323" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="Q323" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44302</v>
+        <v>44342</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K324" t="n">
-        <v>34000</v>
+        <v>17000</v>
       </c>
       <c r="L324" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M324" t="n">
-        <v>34500</v>
+        <v>17500</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>690</v>
+        <v>175</v>
       </c>
       <c r="Q324" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K325" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L325" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M325" t="n">
-        <v>31500</v>
+        <v>29667</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>420</v>
+        <v>593</v>
       </c>
       <c r="Q325" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K326" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L326" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="M326" t="n">
-        <v>28500</v>
+        <v>26500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>285</v>
+        <v>353</v>
       </c>
       <c r="Q326" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23897,11 +23897,11 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K327" t="n">
         <v>24000</v>
@@ -23914,7 +23914,7 @@
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
@@ -23923,10 +23923,10 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="Q327" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K328" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L328" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M328" t="n">
-        <v>20500</v>
+        <v>34500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>205</v>
+        <v>690</v>
       </c>
       <c r="Q328" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K329" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="L329" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="M329" t="n">
-        <v>33500</v>
+        <v>31500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>670</v>
+        <v>420</v>
       </c>
       <c r="Q329" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24113,24 +24113,24 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J330" t="n">
         <v>40</v>
       </c>
       <c r="K330" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L330" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M330" t="n">
-        <v>33500</v>
+        <v>28500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="Q330" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44391</v>
+        <v>44315</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K331" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L331" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M331" t="n">
-        <v>31000</v>
+        <v>24500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="Q331" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44411</v>
+        <v>44315</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24252,41 +24252,41 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J332" t="n">
+        <v>70</v>
+      </c>
+      <c r="K332" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L332" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M332" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q332" t="n">
         <v>100</v>
-      </c>
-      <c r="K332" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L332" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M332" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>$/malla 100 unidades</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P332" t="n">
-        <v>1750</v>
-      </c>
-      <c r="Q332" t="n">
-        <v>10</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24336,13 +24336,13 @@
         <v>50</v>
       </c>
       <c r="K333" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L333" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M333" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>490</v>
+        <v>670</v>
       </c>
       <c r="Q333" t="n">
         <v>50</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K334" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L334" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M334" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="Q334" t="n">
         <v>75</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44313</v>
+        <v>44391</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K335" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L335" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="M335" t="n">
-        <v>20500</v>
+        <v>31000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="Q335" t="n">
         <v>100</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
         <v>100</v>
       </c>
       <c r="K336" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L336" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M336" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>136</v>
+        <v>1750</v>
       </c>
       <c r="Q336" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K337" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L337" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M337" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="Q337" t="n">
         <v>50</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24696,13 +24696,13 @@
         <v>50</v>
       </c>
       <c r="K338" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L338" t="n">
         <v>25000</v>
       </c>
-      <c r="L338" t="n">
-        <v>26000</v>
-      </c>
       <c r="M338" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="Q338" t="n">
         <v>75</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24768,13 +24768,13 @@
         <v>40</v>
       </c>
       <c r="K339" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L339" t="n">
         <v>21000</v>
       </c>
-      <c r="L339" t="n">
-        <v>22000</v>
-      </c>
       <c r="M339" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q339" t="n">
         <v>100</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24840,17 +24840,17 @@
         <v>100</v>
       </c>
       <c r="K340" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="L340" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M340" t="n">
-        <v>34000</v>
+        <v>9500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>680</v>
+        <v>136</v>
       </c>
       <c r="Q340" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24905,36 +24905,36 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
+        <v>40</v>
+      </c>
+      <c r="K341" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L341" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M341" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q341" t="n">
         <v>50</v>
-      </c>
-      <c r="K341" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L341" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M341" t="n">
-        <v>34000</v>
-      </c>
-      <c r="N341" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O341" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P341" t="n">
-        <v>453</v>
-      </c>
-      <c r="Q341" t="n">
-        <v>75</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24977,7 +24977,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
@@ -24994,7 +24994,7 @@
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="Q342" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44438</v>
+        <v>44329</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J343" t="n">
         <v>40</v>
       </c>
       <c r="K343" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L343" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M343" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>580</v>
+        <v>215</v>
       </c>
       <c r="Q343" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K344" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L344" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M344" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>367</v>
+        <v>680</v>
       </c>
       <c r="Q344" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25193,24 +25193,24 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
         <v>50</v>
       </c>
       <c r="K345" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L345" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M345" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>245</v>
+        <v>453</v>
       </c>
       <c r="Q345" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44251</v>
+        <v>44449</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25265,24 +25265,24 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K346" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L346" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M346" t="n">
-        <v>34500</v>
+        <v>25500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>690</v>
+        <v>255</v>
       </c>
       <c r="Q346" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25337,36 +25337,36 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
+        <v>40</v>
+      </c>
+      <c r="K347" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L347" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M347" t="n">
+        <v>29000</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P347" t="n">
+        <v>580</v>
+      </c>
+      <c r="Q347" t="n">
         <v>50</v>
-      </c>
-      <c r="K347" t="n">
-        <v>32000</v>
-      </c>
-      <c r="L347" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M347" t="n">
-        <v>32500</v>
-      </c>
-      <c r="N347" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O347" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P347" t="n">
-        <v>433</v>
-      </c>
-      <c r="Q347" t="n">
-        <v>75</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25404,7 +25404,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25413,20 +25413,20 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K348" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L348" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M348" t="n">
-        <v>16500</v>
+        <v>27500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>1650</v>
+        <v>367</v>
       </c>
       <c r="Q348" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25481,24 +25481,24 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J349" t="n">
         <v>50</v>
       </c>
       <c r="K349" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L349" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M349" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>680</v>
+        <v>245</v>
       </c>
       <c r="Q349" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25553,24 +25553,24 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K350" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L350" t="n">
         <v>35000</v>
       </c>
       <c r="M350" t="n">
-        <v>34000</v>
+        <v>34500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>453</v>
+        <v>690</v>
       </c>
       <c r="Q350" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25625,24 +25625,24 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K351" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L351" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M351" t="n">
-        <v>29500</v>
+        <v>32500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>295</v>
+        <v>433</v>
       </c>
       <c r="Q351" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25697,24 +25697,24 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K352" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="L352" t="n">
-        <v>28000</v>
+        <v>17000</v>
       </c>
       <c r="M352" t="n">
-        <v>27500</v>
+        <v>16500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>393</v>
+        <v>1650</v>
       </c>
       <c r="Q352" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,29 +25764,29 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K353" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L353" t="n">
-        <v>16000</v>
+        <v>35000</v>
       </c>
       <c r="M353" t="n">
-        <v>15500</v>
+        <v>34000</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>1550</v>
+        <v>680</v>
       </c>
       <c r="Q353" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25845,20 +25845,20 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="K354" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L354" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M354" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>1750</v>
+        <v>453</v>
       </c>
       <c r="Q354" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25913,24 +25913,24 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="K355" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L355" t="n">
         <v>30000</v>
       </c>
-      <c r="L355" t="n">
-        <v>33000</v>
-      </c>
       <c r="M355" t="n">
-        <v>32206</v>
+        <v>29500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>644</v>
+        <v>295</v>
       </c>
       <c r="Q355" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25980,29 +25980,29 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="K356" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L356" t="n">
         <v>28000</v>
       </c>
-      <c r="L356" t="n">
-        <v>33000</v>
-      </c>
       <c r="M356" t="n">
-        <v>31053</v>
+        <v>27500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="Q356" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26052,29 +26052,29 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K357" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L357" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M357" t="n">
-        <v>28088</v>
+        <v>15500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>281</v>
+        <v>1550</v>
       </c>
       <c r="Q357" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,29 +26124,29 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K358" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L358" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M358" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>490</v>
+        <v>1750</v>
       </c>
       <c r="Q358" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26201,36 +26201,36 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
+        <v>170</v>
+      </c>
+      <c r="K359" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L359" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M359" t="n">
+        <v>32206</v>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
+        <v>644</v>
+      </c>
+      <c r="Q359" t="n">
         <v>50</v>
-      </c>
-      <c r="K359" t="n">
-        <v>22000</v>
-      </c>
-      <c r="L359" t="n">
-        <v>23000</v>
-      </c>
-      <c r="M359" t="n">
-        <v>22500</v>
-      </c>
-      <c r="N359" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O359" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P359" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q359" t="n">
-        <v>75</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26273,24 +26273,24 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K360" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L360" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M360" t="n">
-        <v>19500</v>
+        <v>31053</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="Q360" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26345,24 +26345,24 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="K361" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L361" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M361" t="n">
-        <v>24625</v>
+        <v>28088</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>492</v>
+        <v>281</v>
       </c>
       <c r="Q361" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26417,11 +26417,11 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K362" t="n">
         <v>24000</v>
@@ -26430,11 +26430,11 @@
         <v>25000</v>
       </c>
       <c r="M362" t="n">
-        <v>24667</v>
+        <v>24500</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>329</v>
+        <v>490</v>
       </c>
       <c r="Q362" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26489,24 +26489,24 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K363" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L363" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="M363" t="n">
-        <v>20500</v>
+        <v>22500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="Q363" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26556,25 +26556,25 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K364" t="n">
-        <v>29000</v>
+        <v>19000</v>
       </c>
       <c r="L364" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M364" t="n">
-        <v>29500</v>
+        <v>19500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26583,11 +26583,11 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P364" t="n">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="Q364" t="n">
         <v>100</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K365" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L365" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M365" t="n">
-        <v>30500</v>
+        <v>24625</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>610</v>
+        <v>492</v>
       </c>
       <c r="Q365" t="n">
         <v>50</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K366" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L366" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M366" t="n">
-        <v>30500</v>
+        <v>24667</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="Q366" t="n">
         <v>75</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K367" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L367" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M367" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="Q367" t="n">
         <v>100</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,32 +26853,32 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K368" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L368" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M368" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="Q368" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26921,24 +26921,24 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K369" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L369" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M369" t="n">
-        <v>24500</v>
+        <v>30500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>327</v>
+        <v>610</v>
       </c>
       <c r="Q369" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26993,24 +26993,24 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K370" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L370" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="M370" t="n">
-        <v>21500</v>
+        <v>30500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>215</v>
+        <v>407</v>
       </c>
       <c r="Q370" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27065,24 +27065,24 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K371" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L371" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M371" t="n">
-        <v>32500</v>
+        <v>29500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>650</v>
+        <v>295</v>
       </c>
       <c r="Q371" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27137,24 +27137,24 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
         <v>40</v>
       </c>
       <c r="K372" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L372" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M372" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="Q372" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27209,11 +27209,11 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K373" t="n">
         <v>24000</v>
@@ -27226,7 +27226,7 @@
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -27235,10 +27235,10 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="Q373" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,29 +27276,29 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K374" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L374" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="M374" t="n">
-        <v>7250</v>
+        <v>21500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="Q374" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27353,24 +27353,24 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K375" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="L375" t="n">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="M375" t="n">
-        <v>35500</v>
+        <v>32500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>473</v>
+        <v>650</v>
       </c>
       <c r="Q375" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27425,24 +27425,24 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K376" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L376" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M376" t="n">
-        <v>33500</v>
+        <v>29000</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="Q376" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J377" t="n">
@@ -27514,7 +27514,7 @@
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>490</v>
+        <v>245</v>
       </c>
       <c r="Q377" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K378" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L378" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="M378" t="n">
-        <v>24500</v>
+        <v>7250</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="Q378" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K379" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="L379" t="n">
-        <v>22000</v>
+        <v>36000</v>
       </c>
       <c r="M379" t="n">
-        <v>21500</v>
+        <v>35500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>215</v>
+        <v>473</v>
       </c>
       <c r="Q379" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J380" t="n">
         <v>50</v>
       </c>
       <c r="K380" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L380" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M380" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>490</v>
+        <v>335</v>
       </c>
       <c r="Q380" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27785,24 +27785,24 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K381" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L381" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M381" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>300</v>
+        <v>490</v>
       </c>
       <c r="Q381" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,58 +27837,346 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E382" t="n">
+        <v>15</v>
+      </c>
+      <c r="F382" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J382" t="n">
+        <v>40</v>
+      </c>
+      <c r="K382" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L382" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M382" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O382" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P382" t="n">
+        <v>327</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>75</v>
+      </c>
+      <c r="R382" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D383" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E383" t="n">
+        <v>15</v>
+      </c>
+      <c r="F383" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J383" t="n">
+        <v>70</v>
+      </c>
+      <c r="K383" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L383" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M383" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O383" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P383" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>100</v>
+      </c>
+      <c r="R383" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D384" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E382" t="n">
-        <v>15</v>
-      </c>
-      <c r="F382" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G382" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>Lluteño</t>
-        </is>
-      </c>
-      <c r="I382" t="inlineStr">
+      <c r="E384" t="n">
+        <v>15</v>
+      </c>
+      <c r="F384" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>50</v>
+      </c>
+      <c r="K384" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L384" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M384" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P384" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>50</v>
+      </c>
+      <c r="R384" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D385" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E385" t="n">
+        <v>15</v>
+      </c>
+      <c r="F385" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J385" t="n">
+        <v>60</v>
+      </c>
+      <c r="K385" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L385" t="n">
+        <v>23000</v>
+      </c>
+      <c r="M385" t="n">
+        <v>22500</v>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O385" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P385" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>75</v>
+      </c>
+      <c r="R385" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D386" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E386" t="n">
+        <v>15</v>
+      </c>
+      <c r="F386" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J382" t="n">
+      <c r="J386" t="n">
         <v>50</v>
       </c>
-      <c r="K382" t="n">
+      <c r="K386" t="n">
         <v>20000</v>
       </c>
-      <c r="L382" t="n">
+      <c r="L386" t="n">
         <v>21000</v>
       </c>
-      <c r="M382" t="n">
+      <c r="M386" t="n">
         <v>20500</v>
       </c>
-      <c r="N382" t="inlineStr">
+      <c r="N386" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
         </is>
       </c>
-      <c r="O382" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P382" t="n">
+      <c r="O386" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P386" t="n">
         <v>205</v>
       </c>
-      <c r="Q382" t="n">
+      <c r="Q386" t="n">
         <v>100</v>
       </c>
-      <c r="R382" t="inlineStr">
+      <c r="R386" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R391"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E252" t="n">
         <v>15</v>
@@ -18497,24 +18497,24 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J252" t="n">
         <v>50</v>
       </c>
       <c r="K252" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="L252" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M252" t="n">
-        <v>31500</v>
+        <v>34000</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O252" t="inlineStr">
@@ -18523,10 +18523,10 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="Q252" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R252" t="inlineStr">
         <is>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E253" t="n">
         <v>15</v>
@@ -18569,24 +18569,24 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J253" t="n">
         <v>50</v>
       </c>
       <c r="K253" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L253" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M253" t="n">
-        <v>28500</v>
+        <v>34000</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O253" t="inlineStr">
@@ -18595,10 +18595,10 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>285</v>
+        <v>453</v>
       </c>
       <c r="Q253" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R253" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E254" t="n">
         <v>15</v>
@@ -18641,24 +18641,24 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K254" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L254" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M254" t="n">
-        <v>24000</v>
+        <v>28500</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O254" t="inlineStr">
@@ -18667,10 +18667,10 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>480</v>
+        <v>285</v>
       </c>
       <c r="Q254" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R254" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E255" t="n">
         <v>15</v>
@@ -18720,13 +18720,13 @@
         <v>50</v>
       </c>
       <c r="K255" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="L255" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M255" t="n">
-        <v>22500</v>
+        <v>31500</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="Q255" t="n">
         <v>75</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E256" t="n">
         <v>15</v>
@@ -18792,13 +18792,13 @@
         <v>50</v>
       </c>
       <c r="K256" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L256" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="M256" t="n">
-        <v>20500</v>
+        <v>28500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="Q256" t="n">
         <v>100</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E257" t="n">
         <v>15</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18864,17 +18864,17 @@
         <v>50</v>
       </c>
       <c r="K257" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L257" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M257" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O257" t="inlineStr">
@@ -18883,10 +18883,10 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>207</v>
+        <v>480</v>
       </c>
       <c r="Q257" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R257" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E258" t="n">
         <v>15</v>
@@ -18929,24 +18929,24 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K258" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L258" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M258" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
@@ -18955,10 +18955,10 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q258" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R258" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E259" t="n">
         <v>15</v>
@@ -19001,24 +19001,24 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K259" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L259" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M259" t="n">
-        <v>17000</v>
+        <v>20500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O259" t="inlineStr">
@@ -19027,10 +19027,10 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="Q259" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R259" t="inlineStr">
         <is>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E260" t="n">
         <v>15</v>
@@ -19068,29 +19068,29 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K260" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="L260" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="M260" t="n">
-        <v>33500</v>
+        <v>14500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O260" t="inlineStr">
@@ -19099,10 +19099,10 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>447</v>
+        <v>207</v>
       </c>
       <c r="Q260" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R260" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E261" t="n">
         <v>15</v>
@@ -19145,36 +19145,36 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J261" t="n">
+        <v>80</v>
+      </c>
+      <c r="K261" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L261" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M261" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P261" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q261" t="n">
         <v>50</v>
-      </c>
-      <c r="K261" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L261" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M261" t="n">
-        <v>30500</v>
-      </c>
-      <c r="N261" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O261" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P261" t="n">
-        <v>305</v>
-      </c>
-      <c r="Q261" t="n">
-        <v>100</v>
       </c>
       <c r="R261" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E262" t="n">
         <v>15</v>
@@ -19212,29 +19212,29 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K262" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L262" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M262" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O262" t="inlineStr">
@@ -19243,10 +19243,10 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="Q262" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R262" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E263" t="n">
         <v>15</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,20 +19293,20 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K263" t="n">
-        <v>9000</v>
+        <v>33000</v>
       </c>
       <c r="L263" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="M263" t="n">
-        <v>9500</v>
+        <v>33500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>950</v>
+        <v>447</v>
       </c>
       <c r="Q263" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E264" t="n">
         <v>15</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J264" t="n">
         <v>50</v>
       </c>
       <c r="K264" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L264" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M264" t="n">
-        <v>17500</v>
+        <v>30500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="Q264" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19428,29 +19428,29 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K265" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L265" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M265" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Q265" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19500,29 +19500,29 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L266" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M266" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>155</v>
+        <v>950</v>
       </c>
       <c r="Q266" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E267" t="n">
         <v>15</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,7 +19581,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K267" t="n">
         <v>17000</v>
@@ -19594,7 +19594,7 @@
       </c>
       <c r="N267" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O267" t="inlineStr">
@@ -19603,10 +19603,10 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q267" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E268" t="n">
         <v>15</v>
@@ -19649,24 +19649,24 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K268" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L268" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M268" t="n">
-        <v>34000</v>
+        <v>16500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="Q268" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E269" t="n">
         <v>15</v>
@@ -19721,24 +19721,24 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J269" t="n">
         <v>50</v>
       </c>
       <c r="K269" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L269" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M269" t="n">
-        <v>34000</v>
+        <v>15500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="Q269" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19788,41 +19788,41 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J270" t="n">
+        <v>160</v>
+      </c>
+      <c r="K270" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L270" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M270" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q270" t="n">
         <v>70</v>
-      </c>
-      <c r="K270" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L270" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M270" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O270" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P270" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q270" t="n">
-        <v>100</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E271" t="n">
         <v>15</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K271" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L271" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M271" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="Q271" t="n">
         <v>50</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E272" t="n">
         <v>15</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K272" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L272" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M272" t="n">
-        <v>30500</v>
+        <v>34000</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="Q272" t="n">
         <v>75</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E273" t="n">
         <v>15</v>
@@ -20009,24 +20009,24 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K273" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L273" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M273" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q273" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E274" t="n">
         <v>15</v>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K274" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L274" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M274" t="n">
-        <v>16500</v>
+        <v>32500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>220</v>
+        <v>650</v>
       </c>
       <c r="Q274" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E275" t="n">
         <v>15</v>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K275" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L275" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="M275" t="n">
-        <v>14500</v>
+        <v>30500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>145</v>
+        <v>407</v>
       </c>
       <c r="Q275" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E276" t="n">
         <v>15</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,20 +20229,20 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K276" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L276" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M276" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
@@ -20251,10 +20251,10 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="Q276" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E277" t="n">
         <v>15</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K277" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L277" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M277" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="Q277" t="n">
         <v>75</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E278" t="n">
         <v>15</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K278" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L278" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M278" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="Q278" t="n">
         <v>100</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E279" t="n">
         <v>15</v>
@@ -20436,7 +20436,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -20445,32 +20445,32 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K279" t="n">
-        <v>29000</v>
+        <v>7000</v>
       </c>
       <c r="L279" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M279" t="n">
-        <v>29500</v>
+        <v>7500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P279" t="n">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="Q279" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E280" t="n">
         <v>15</v>
@@ -20508,29 +20508,29 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K280" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L280" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M280" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q280" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K281" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L281" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M281" t="n">
-        <v>29000</v>
+        <v>18500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>580</v>
+        <v>185</v>
       </c>
       <c r="Q281" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E282" t="n">
         <v>15</v>
@@ -20652,41 +20652,41 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K282" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L282" t="n">
         <v>30000</v>
       </c>
       <c r="M282" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="Q282" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20724,29 +20724,29 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K283" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L283" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M283" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O283" t="inlineStr">
@@ -20755,10 +20755,10 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q283" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R283" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E284" t="n">
         <v>15</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20805,20 +20805,20 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K284" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L284" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M284" t="n">
-        <v>10500</v>
+        <v>29000</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O284" t="inlineStr">
@@ -20827,10 +20827,10 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="Q284" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R284" t="inlineStr">
         <is>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20873,24 +20873,24 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J285" t="n">
         <v>30</v>
       </c>
       <c r="K285" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L285" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M285" t="n">
-        <v>34500</v>
+        <v>29000</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
@@ -20899,10 +20899,10 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>690</v>
+        <v>387</v>
       </c>
       <c r="Q285" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20945,24 +20945,24 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J286" t="n">
         <v>40</v>
       </c>
       <c r="K286" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L286" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M286" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="Q286" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -21012,29 +21012,29 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K287" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L287" t="n">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="M287" t="n">
-        <v>30500</v>
+        <v>10500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="Q287" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E288" t="n">
         <v>15</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,20 +21093,20 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K288" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L288" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M288" t="n">
-        <v>11500</v>
+        <v>34500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>164</v>
+        <v>690</v>
       </c>
       <c r="Q288" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E289" t="n">
         <v>15</v>
@@ -21156,7 +21156,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -21165,20 +21165,20 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K289" t="n">
-        <v>7000</v>
+        <v>33000</v>
       </c>
       <c r="L289" t="n">
-        <v>8000</v>
+        <v>34000</v>
       </c>
       <c r="M289" t="n">
-        <v>7500</v>
+        <v>33500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>750</v>
+        <v>447</v>
       </c>
       <c r="Q289" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E290" t="n">
         <v>15</v>
@@ -21233,24 +21233,24 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K290" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L290" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M290" t="n">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>590</v>
+        <v>305</v>
       </c>
       <c r="Q290" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21300,29 +21300,29 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K291" t="n">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="L291" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M291" t="n">
-        <v>29500</v>
+        <v>11500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="Q291" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21372,29 +21372,29 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="K292" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L292" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M292" t="n">
-        <v>24500</v>
+        <v>7500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>245</v>
+        <v>750</v>
       </c>
       <c r="Q292" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E293" t="n">
         <v>15</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,20 +21453,20 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K293" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="L293" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M293" t="n">
-        <v>9500</v>
+        <v>29500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>136</v>
+        <v>590</v>
       </c>
       <c r="Q293" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21521,24 +21521,24 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K294" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L294" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M294" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="Q294" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E295" t="n">
         <v>15</v>
@@ -21593,24 +21593,24 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K295" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L295" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M295" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="Q295" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21660,29 +21660,29 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L296" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M296" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="Q296" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21737,24 +21737,24 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K297" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L297" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M297" t="n">
-        <v>32500</v>
+        <v>24500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="Q297" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21809,24 +21809,24 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K298" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L298" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M298" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q298" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21881,24 +21881,24 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K299" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L299" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M299" t="n">
-        <v>34000</v>
+        <v>20500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>680</v>
+        <v>205</v>
       </c>
       <c r="Q299" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E300" t="n">
         <v>15</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K300" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L300" t="n">
         <v>33000</v>
       </c>
-      <c r="L300" t="n">
-        <v>35000</v>
-      </c>
       <c r="M300" t="n">
-        <v>34000</v>
+        <v>32500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="Q300" t="n">
         <v>75</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K301" t="n">
         <v>29000</v>
       </c>
       <c r="L301" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M301" t="n">
-        <v>30000</v>
+        <v>29500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q301" t="n">
         <v>100</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E302" t="n">
         <v>15</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,20 +22101,20 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K302" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L302" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M302" t="n">
-        <v>13500</v>
+        <v>34000</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>193</v>
+        <v>680</v>
       </c>
       <c r="Q302" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K303" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L303" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M303" t="n">
-        <v>29500</v>
+        <v>34000</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="Q303" t="n">
         <v>75</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K304" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L304" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M304" t="n">
-        <v>34500</v>
+        <v>30000</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>690</v>
+        <v>300</v>
       </c>
       <c r="Q304" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22308,29 +22308,29 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>32000</v>
+        <v>13000</v>
       </c>
       <c r="L305" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M305" t="n">
-        <v>32500</v>
+        <v>13500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>433</v>
+        <v>193</v>
       </c>
       <c r="Q305" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44243</v>
+        <v>44264</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22380,29 +22380,29 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K306" t="n">
-        <v>6500</v>
+        <v>29000</v>
       </c>
       <c r="L306" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="M306" t="n">
-        <v>6750</v>
+        <v>29500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>96</v>
+        <v>393</v>
       </c>
       <c r="Q306" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22536,13 +22536,13 @@
         <v>50</v>
       </c>
       <c r="K308" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L308" t="n">
         <v>33000</v>
       </c>
-      <c r="L308" t="n">
-        <v>34000</v>
-      </c>
       <c r="M308" t="n">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="Q308" t="n">
         <v>75</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22596,29 +22596,29 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K309" t="n">
-        <v>30000</v>
+        <v>6500</v>
       </c>
       <c r="L309" t="n">
-        <v>31000</v>
+        <v>7000</v>
       </c>
       <c r="M309" t="n">
-        <v>30500</v>
+        <v>6750</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="Q309" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K310" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L310" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M310" t="n">
-        <v>16500</v>
+        <v>34500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>330</v>
+        <v>690</v>
       </c>
       <c r="Q310" t="n">
         <v>50</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22752,13 +22752,13 @@
         <v>50</v>
       </c>
       <c r="K311" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L311" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="M311" t="n">
-        <v>15500</v>
+        <v>33500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>207</v>
+        <v>447</v>
       </c>
       <c r="Q311" t="n">
         <v>75</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L312" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="M312" t="n">
-        <v>14500</v>
+        <v>30500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="Q312" t="n">
         <v>100</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22884,29 +22884,29 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K313" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L313" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M313" t="n">
-        <v>5500</v>
+        <v>16500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="Q313" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22961,24 +22961,24 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J314" t="n">
         <v>50</v>
       </c>
       <c r="K314" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L314" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M314" t="n">
-        <v>34000</v>
+        <v>15500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O314" t="inlineStr">
@@ -22987,10 +22987,10 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>680</v>
+        <v>207</v>
       </c>
       <c r="Q314" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R314" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K315" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L315" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="M315" t="n">
-        <v>31000</v>
+        <v>14500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="Q315" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23100,29 +23100,29 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K316" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="L316" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M316" t="n">
-        <v>29000</v>
+        <v>5500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="Q316" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,20 +23181,20 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K317" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="L317" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M317" t="n">
-        <v>11500</v>
+        <v>34000</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>164</v>
+        <v>680</v>
       </c>
       <c r="Q317" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K318" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L318" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M318" t="n">
-        <v>24500</v>
+        <v>31000</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="Q318" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J319" t="n">
         <v>40</v>
       </c>
       <c r="K319" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L319" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M319" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="Q319" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23388,29 +23388,29 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K320" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L320" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M320" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q320" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23460,7 +23460,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23469,32 +23469,32 @@
         </is>
       </c>
       <c r="J321" t="n">
+        <v>40</v>
+      </c>
+      <c r="K321" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L321" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M321" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q321" t="n">
         <v>50</v>
-      </c>
-      <c r="K321" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L321" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M321" t="n">
-        <v>29500</v>
-      </c>
-      <c r="N321" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O321" t="inlineStr">
-        <is>
-          <t>Valle de Camiña</t>
-        </is>
-      </c>
-      <c r="P321" t="n">
-        <v>295</v>
-      </c>
-      <c r="Q321" t="n">
-        <v>100</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23532,29 +23532,29 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K322" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L322" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M322" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="Q322" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23609,24 +23609,24 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K323" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L323" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M323" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="Q323" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23676,41 +23676,41 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K324" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L324" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M324" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P324" t="n">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="Q324" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23748,29 +23748,29 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K325" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L325" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M325" t="n">
-        <v>25500</v>
+        <v>9500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="Q325" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,20 +23829,20 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K326" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L326" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M326" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>193</v>
+        <v>590</v>
       </c>
       <c r="Q326" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23892,41 +23892,41 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K327" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L327" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M327" t="n">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="Q327" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K328" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L328" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M328" t="n">
-        <v>29000</v>
+        <v>25500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>580</v>
+        <v>255</v>
       </c>
       <c r="Q328" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24036,29 +24036,29 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K329" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="L329" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M329" t="n">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="Q329" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24108,25 +24108,25 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K330" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L330" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M330" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
@@ -24135,11 +24135,11 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="Q330" t="n">
         <v>100</v>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24180,7 +24180,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -24189,20 +24189,20 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="K331" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="L331" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M331" t="n">
-        <v>16263</v>
+        <v>29000</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>232</v>
+        <v>580</v>
       </c>
       <c r="Q331" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K332" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L332" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M332" t="n">
-        <v>22500</v>
+        <v>27500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="Q332" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K333" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L333" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M333" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>440</v>
+        <v>245</v>
       </c>
       <c r="Q333" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24396,29 +24396,29 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K334" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L334" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M334" t="n">
-        <v>23000</v>
+        <v>16263</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="Q334" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K335" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L335" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M335" t="n">
-        <v>19600</v>
+        <v>22500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="Q335" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24545,20 +24545,20 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K336" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L336" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M336" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="Q336" t="n">
         <v>50</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K337" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L337" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M337" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="Q337" t="n">
         <v>75</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K338" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L338" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M338" t="n">
-        <v>15500</v>
+        <v>19600</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="Q338" t="n">
         <v>100</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24756,7 +24756,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -24765,20 +24765,20 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K339" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="L339" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M339" t="n">
-        <v>9750</v>
+        <v>16500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="Q339" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
         <v>60</v>
       </c>
       <c r="K340" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L340" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M340" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="Q340" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K341" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L341" t="n">
         <v>16000</v>
       </c>
-      <c r="L341" t="n">
-        <v>18000</v>
-      </c>
       <c r="M341" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="Q341" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24972,29 +24972,29 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J342" t="n">
         <v>80</v>
       </c>
       <c r="K342" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L342" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M342" t="n">
-        <v>15500</v>
+        <v>9750</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q342" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -25053,20 +25053,20 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K343" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L343" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M343" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>164</v>
+        <v>380</v>
       </c>
       <c r="Q343" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K344" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L344" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M344" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>490</v>
+        <v>227</v>
       </c>
       <c r="Q344" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25193,24 +25193,24 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K345" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L345" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M345" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>287</v>
+        <v>155</v>
       </c>
       <c r="Q345" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25260,29 +25260,29 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K346" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L346" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M346" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="Q346" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K348" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L348" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M348" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="Q348" t="n">
         <v>75</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25488,13 +25488,13 @@
         <v>50</v>
       </c>
       <c r="K349" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L349" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M349" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="Q349" t="n">
         <v>100</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K350" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L350" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M350" t="n">
-        <v>26500</v>
+        <v>24500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="Q350" t="n">
         <v>50</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25629,16 +25629,16 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K351" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L351" t="n">
         <v>25000</v>
       </c>
-      <c r="L351" t="n">
-        <v>26000</v>
-      </c>
       <c r="M351" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="Q351" t="n">
         <v>75</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25704,13 +25704,13 @@
         <v>50</v>
       </c>
       <c r="K352" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L352" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M352" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="Q352" t="n">
         <v>100</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,7 +25764,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25773,20 +25773,20 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K353" t="n">
-        <v>9500</v>
+        <v>26000</v>
       </c>
       <c r="L353" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M353" t="n">
-        <v>9750</v>
+        <v>26500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,7 +25795,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>195</v>
+        <v>530</v>
       </c>
       <c r="Q353" t="n">
         <v>50</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25841,24 +25841,24 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
         <v>50</v>
       </c>
       <c r="K354" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L354" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M354" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="Q354" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25913,24 +25913,24 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K355" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L355" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M355" t="n">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="Q355" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25980,29 +25980,29 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K356" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L356" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M356" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26014,7 +26014,7 @@
         <v>195</v>
       </c>
       <c r="Q356" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K357" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L357" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M357" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="Q357" t="n">
         <v>50</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K358" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L358" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M358" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="Q358" t="n">
         <v>75</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26205,16 +26205,16 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K359" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L359" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M359" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="Q359" t="n">
         <v>100</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,20 +26277,20 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K360" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L360" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M360" t="n">
-        <v>33500</v>
+        <v>17500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>479</v>
+        <v>350</v>
       </c>
       <c r="Q360" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26345,24 +26345,24 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J361" t="n">
         <v>70</v>
       </c>
       <c r="K361" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L361" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M361" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>490</v>
+        <v>233</v>
       </c>
       <c r="Q361" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26417,24 +26417,24 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K362" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L362" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M362" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="Q362" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26484,29 +26484,29 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K363" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L363" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="M363" t="n">
-        <v>20500</v>
+        <v>33500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>205</v>
+        <v>479</v>
       </c>
       <c r="Q363" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26556,29 +26556,29 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K364" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L364" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M364" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="Q364" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26628,29 +26628,29 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K365" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L365" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M365" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q365" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26700,29 +26700,29 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K366" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L366" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="M366" t="n">
-        <v>8500</v>
+        <v>20500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="Q366" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26772,41 +26772,41 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K367" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L367" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M367" t="n">
-        <v>33500</v>
+        <v>17500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>335</v>
+        <v>1750</v>
       </c>
       <c r="Q367" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26844,7 +26844,7 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26853,20 +26853,20 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K368" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L368" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M368" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q368" t="n">
         <v>50</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26916,29 +26916,29 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="K369" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L369" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M369" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="Q369" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,32 +26997,32 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K370" t="n">
-        <v>7000</v>
+        <v>33000</v>
       </c>
       <c r="L370" t="n">
-        <v>8000</v>
+        <v>34000</v>
       </c>
       <c r="M370" t="n">
-        <v>7500</v>
+        <v>33500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="Q370" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27072,29 +27072,29 @@
         <v>60</v>
       </c>
       <c r="K371" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L371" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M371" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P371" t="n">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="Q371" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -27141,32 +27141,32 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K372" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L372" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M372" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="Q372" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -27213,20 +27213,20 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K373" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L373" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M373" t="n">
-        <v>24625</v>
+        <v>7500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -27235,10 +27235,10 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>492</v>
+        <v>107</v>
       </c>
       <c r="Q373" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,25 +27276,25 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K374" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L374" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M374" t="n">
-        <v>24667</v>
+        <v>29500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27303,11 +27303,11 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P374" t="n">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="Q374" t="n">
         <v>75</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,25 +27348,25 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K375" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L375" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M375" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27375,11 +27375,11 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q375" t="n">
         <v>100</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27420,29 +27420,29 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K376" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L376" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M376" t="n">
-        <v>9500</v>
+        <v>24625</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>950</v>
+        <v>492</v>
       </c>
       <c r="Q376" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27497,11 +27497,11 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K377" t="n">
         <v>24000</v>
@@ -27510,11 +27510,11 @@
         <v>25000</v>
       </c>
       <c r="M377" t="n">
-        <v>24500</v>
+        <v>24667</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>490</v>
+        <v>329</v>
       </c>
       <c r="Q377" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27569,24 +27569,24 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K378" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L378" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M378" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q378" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27636,29 +27636,29 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K379" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L379" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M379" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>215</v>
+        <v>950</v>
       </c>
       <c r="Q379" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,7 +27708,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -27717,20 +27717,20 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K380" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="L380" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="M380" t="n">
-        <v>5250</v>
+        <v>24500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,7 +27739,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>105</v>
+        <v>490</v>
       </c>
       <c r="Q380" t="n">
         <v>50</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,29 +27780,29 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K381" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="L381" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M381" t="n">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="Q381" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27852,29 +27852,29 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K382" t="n">
-        <v>4000</v>
+        <v>21000</v>
       </c>
       <c r="L382" t="n">
-        <v>4500</v>
+        <v>22000</v>
       </c>
       <c r="M382" t="n">
-        <v>4250</v>
+        <v>21500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="Q382" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27924,29 +27924,29 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K383" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L383" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M383" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="Q383" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,41 +27996,41 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
+        <v>160</v>
+      </c>
+      <c r="K384" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L384" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M384" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O384" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P384" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q384" t="n">
         <v>70</v>
-      </c>
-      <c r="K384" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L384" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M384" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O384" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P384" t="n">
-        <v>145</v>
-      </c>
-      <c r="Q384" t="n">
-        <v>100</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,29 +28068,29 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K385" t="n">
-        <v>33000</v>
+        <v>4000</v>
       </c>
       <c r="L385" t="n">
-        <v>34000</v>
+        <v>4500</v>
       </c>
       <c r="M385" t="n">
-        <v>33500</v>
+        <v>4250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>670</v>
+        <v>425</v>
       </c>
       <c r="Q385" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K386" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L386" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="M386" t="n">
-        <v>33500</v>
+        <v>15500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>447</v>
+        <v>207</v>
       </c>
       <c r="Q386" t="n">
         <v>75</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K387" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L387" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M387" t="n">
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="Q387" t="n">
         <v>100</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K388" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="L388" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="M388" t="n">
-        <v>11500</v>
+        <v>33500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>164</v>
+        <v>670</v>
       </c>
       <c r="Q388" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28361,24 +28361,24 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K389" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L389" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M389" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="Q389" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28433,24 +28433,24 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K390" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L390" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M390" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="Q390" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28500,43 +28500,259 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J391" t="n">
+        <v>160</v>
+      </c>
+      <c r="K391" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L391" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M391" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O391" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P391" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>70</v>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D392" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E392" t="n">
+        <v>15</v>
+      </c>
+      <c r="F392" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J392" t="n">
+        <v>50</v>
+      </c>
+      <c r="K392" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L392" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M392" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O392" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P392" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>50</v>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E393" t="n">
+        <v>15</v>
+      </c>
+      <c r="F393" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J393" t="n">
+        <v>70</v>
+      </c>
+      <c r="K393" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L393" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M393" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O393" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P393" t="n">
+        <v>327</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>75</v>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>1</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D394" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E394" t="n">
+        <v>15</v>
+      </c>
+      <c r="F394" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J391" t="n">
+      <c r="J394" t="n">
         <v>40</v>
       </c>
-      <c r="K391" t="n">
+      <c r="K394" t="n">
         <v>19000</v>
       </c>
-      <c r="L391" t="n">
+      <c r="L394" t="n">
         <v>20000</v>
       </c>
-      <c r="M391" t="n">
+      <c r="M394" t="n">
         <v>19500</v>
       </c>
-      <c r="N391" t="inlineStr">
+      <c r="N394" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
         </is>
       </c>
-      <c r="O391" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P391" t="n">
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P394" t="n">
         <v>195</v>
       </c>
-      <c r="Q391" t="n">
+      <c r="Q394" t="n">
         <v>100</v>
       </c>
-      <c r="R391" t="inlineStr">
+      <c r="R394" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R397"/>
+  <dimension ref="A1:R400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E260" t="n">
         <v>15</v>
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K260" t="n">
-        <v>23000</v>
+        <v>34000</v>
       </c>
       <c r="L260" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M260" t="n">
-        <v>24000</v>
+        <v>34500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>480</v>
+        <v>690</v>
       </c>
       <c r="Q260" t="n">
         <v>50</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E261" t="n">
         <v>15</v>
@@ -19152,13 +19152,13 @@
         <v>50</v>
       </c>
       <c r="K261" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L261" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M261" t="n">
-        <v>22500</v>
+        <v>34500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q261" t="n">
         <v>75</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E262" t="n">
         <v>15</v>
@@ -19221,16 +19221,16 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K262" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L262" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M262" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="Q262" t="n">
         <v>100</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E263" t="n">
         <v>15</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19296,17 +19296,17 @@
         <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L263" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M263" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O263" t="inlineStr">
@@ -19315,10 +19315,10 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>207</v>
+        <v>480</v>
       </c>
       <c r="Q263" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R263" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E264" t="n">
         <v>15</v>
@@ -19361,24 +19361,24 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K264" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L264" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M264" t="n">
-        <v>17000</v>
+        <v>22500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
@@ -19387,10 +19387,10 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q264" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R264" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E265" t="n">
         <v>15</v>
@@ -19433,24 +19433,24 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K265" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L265" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M265" t="n">
-        <v>17000</v>
+        <v>20500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O265" t="inlineStr">
@@ -19459,10 +19459,10 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="Q265" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R265" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E266" t="n">
         <v>15</v>
@@ -19500,29 +19500,29 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K266" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="L266" t="n">
-        <v>34000</v>
+        <v>15000</v>
       </c>
       <c r="M266" t="n">
-        <v>33500</v>
+        <v>14500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O266" t="inlineStr">
@@ -19531,10 +19531,10 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>447</v>
+        <v>207</v>
       </c>
       <c r="Q266" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R266" t="inlineStr">
         <is>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E267" t="n">
         <v>15</v>
@@ -19577,36 +19577,36 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J267" t="n">
+        <v>80</v>
+      </c>
+      <c r="K267" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L267" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M267" t="n">
+        <v>17000</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q267" t="n">
         <v>50</v>
-      </c>
-      <c r="K267" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L267" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M267" t="n">
-        <v>30500</v>
-      </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P267" t="n">
-        <v>305</v>
-      </c>
-      <c r="Q267" t="n">
-        <v>100</v>
       </c>
       <c r="R267" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E268" t="n">
         <v>15</v>
@@ -19644,29 +19644,29 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K268" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L268" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M268" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O268" t="inlineStr">
@@ -19675,10 +19675,10 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="Q268" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R268" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E269" t="n">
         <v>15</v>
@@ -19716,7 +19716,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19725,20 +19725,20 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K269" t="n">
-        <v>9000</v>
+        <v>33000</v>
       </c>
       <c r="L269" t="n">
-        <v>10000</v>
+        <v>34000</v>
       </c>
       <c r="M269" t="n">
-        <v>9500</v>
+        <v>33500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O269" t="inlineStr">
@@ -19747,10 +19747,10 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>950</v>
+        <v>447</v>
       </c>
       <c r="Q269" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R269" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E270" t="n">
         <v>15</v>
@@ -19793,24 +19793,24 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J270" t="n">
         <v>50</v>
       </c>
       <c r="K270" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L270" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M270" t="n">
-        <v>17500</v>
+        <v>30500</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O270" t="inlineStr">
@@ -19819,10 +19819,10 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="Q270" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R270" t="inlineStr">
         <is>
@@ -19860,29 +19860,29 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L271" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M271" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
@@ -19891,10 +19891,10 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Q271" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R271" t="inlineStr">
         <is>
@@ -19932,29 +19932,29 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L272" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M272" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
@@ -19963,10 +19963,10 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>155</v>
+        <v>950</v>
       </c>
       <c r="Q272" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R272" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E273" t="n">
         <v>15</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,7 +20013,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K273" t="n">
         <v>17000</v>
@@ -20026,7 +20026,7 @@
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
@@ -20035,10 +20035,10 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q273" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R273" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E274" t="n">
         <v>15</v>
@@ -20081,24 +20081,24 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="K274" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L274" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M274" t="n">
-        <v>34000</v>
+        <v>16500</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
@@ -20107,10 +20107,10 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="Q274" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R274" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E275" t="n">
         <v>15</v>
@@ -20153,24 +20153,24 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J275" t="n">
         <v>50</v>
       </c>
       <c r="K275" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L275" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M275" t="n">
-        <v>34000</v>
+        <v>15500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
@@ -20179,10 +20179,10 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="Q275" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R275" t="inlineStr">
         <is>
@@ -20220,41 +20220,41 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J276" t="n">
+        <v>160</v>
+      </c>
+      <c r="K276" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L276" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M276" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q276" t="n">
         <v>70</v>
-      </c>
-      <c r="K276" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L276" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M276" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q276" t="n">
-        <v>100</v>
       </c>
       <c r="R276" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E277" t="n">
         <v>15</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K277" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L277" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M277" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="Q277" t="n">
         <v>50</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E278" t="n">
         <v>15</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K278" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L278" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M278" t="n">
-        <v>30500</v>
+        <v>34000</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="Q278" t="n">
         <v>75</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E279" t="n">
         <v>15</v>
@@ -20441,24 +20441,24 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K279" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L279" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M279" t="n">
-        <v>19500</v>
+        <v>30000</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O279" t="inlineStr">
@@ -20467,10 +20467,10 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="Q279" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R279" t="inlineStr">
         <is>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E280" t="n">
         <v>15</v>
@@ -20513,24 +20513,24 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K280" t="n">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="L280" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M280" t="n">
-        <v>16500</v>
+        <v>32500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>220</v>
+        <v>650</v>
       </c>
       <c r="Q280" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
@@ -20585,24 +20585,24 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K281" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L281" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="M281" t="n">
-        <v>14500</v>
+        <v>30500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O281" t="inlineStr">
@@ -20611,10 +20611,10 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>145</v>
+        <v>407</v>
       </c>
       <c r="Q281" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R281" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E282" t="n">
         <v>15</v>
@@ -20652,7 +20652,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -20661,20 +20661,20 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K282" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="L282" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M282" t="n">
-        <v>7500</v>
+        <v>19500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O282" t="inlineStr">
@@ -20683,10 +20683,10 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="Q282" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R282" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E283" t="n">
         <v>15</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K283" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="L283" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M283" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="Q283" t="n">
         <v>75</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E284" t="n">
         <v>15</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K284" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L284" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M284" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="Q284" t="n">
         <v>100</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,32 +20877,32 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K285" t="n">
-        <v>29000</v>
+        <v>7000</v>
       </c>
       <c r="L285" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M285" t="n">
-        <v>29500</v>
+        <v>7500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="Q285" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R285" t="inlineStr">
         <is>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20940,29 +20940,29 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="K286" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="L286" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M286" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="Q286" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44270</v>
+        <v>44201</v>
       </c>
       <c r="E287" t="n">
         <v>15</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K287" t="n">
-        <v>28000</v>
+        <v>18000</v>
       </c>
       <c r="L287" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M287" t="n">
-        <v>29000</v>
+        <v>18500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>580</v>
+        <v>185</v>
       </c>
       <c r="Q287" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E288" t="n">
         <v>15</v>
@@ -21084,41 +21084,41 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K288" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L288" t="n">
         <v>30000</v>
       </c>
       <c r="M288" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P288" t="n">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="Q288" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,29 +21156,29 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K289" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L289" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M289" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q289" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E290" t="n">
         <v>15</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K290" t="n">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="L290" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M290" t="n">
-        <v>10500</v>
+        <v>29000</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="Q290" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E291" t="n">
         <v>15</v>
@@ -21305,24 +21305,24 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J291" t="n">
         <v>30</v>
       </c>
       <c r="K291" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L291" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M291" t="n">
-        <v>34500</v>
+        <v>29000</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>690</v>
+        <v>387</v>
       </c>
       <c r="Q291" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J292" t="n">
         <v>40</v>
       </c>
       <c r="K292" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L292" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M292" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>447</v>
+        <v>245</v>
       </c>
       <c r="Q292" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,29 +21444,29 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K293" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="L293" t="n">
-        <v>31000</v>
+        <v>11000</v>
       </c>
       <c r="M293" t="n">
-        <v>30500</v>
+        <v>10500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
@@ -21475,10 +21475,10 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="Q293" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,20 +21525,20 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K294" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L294" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M294" t="n">
-        <v>11500</v>
+        <v>34500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
@@ -21547,10 +21547,10 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>164</v>
+        <v>690</v>
       </c>
       <c r="Q294" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E295" t="n">
         <v>15</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,20 +21597,20 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>33000</v>
       </c>
       <c r="L295" t="n">
-        <v>8000</v>
+        <v>34000</v>
       </c>
       <c r="M295" t="n">
-        <v>7500</v>
+        <v>33500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>750</v>
+        <v>447</v>
       </c>
       <c r="Q295" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E296" t="n">
         <v>15</v>
@@ -21665,24 +21665,24 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K296" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L296" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M296" t="n">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
@@ -21691,10 +21691,10 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>590</v>
+        <v>305</v>
       </c>
       <c r="Q296" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21732,29 +21732,29 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K297" t="n">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="L297" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M297" t="n">
-        <v>29500</v>
+        <v>11500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
@@ -21763,10 +21763,10 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="Q297" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21804,29 +21804,29 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="K298" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M298" t="n">
-        <v>24500</v>
+        <v>7500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>245</v>
+        <v>750</v>
       </c>
       <c r="Q298" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,20 +21885,20 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K299" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="L299" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M299" t="n">
-        <v>9500</v>
+        <v>29500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
@@ -21907,10 +21907,10 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>136</v>
+        <v>590</v>
       </c>
       <c r="Q299" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R299" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E300" t="n">
         <v>15</v>
@@ -21953,24 +21953,24 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K300" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L300" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M300" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
@@ -21979,10 +21979,10 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="Q300" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22025,24 +22025,24 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K301" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L301" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M301" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="Q301" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22092,29 +22092,29 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L302" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M302" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="Q302" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22169,24 +22169,24 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K303" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L303" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M303" t="n">
-        <v>32500</v>
+        <v>24500</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
@@ -22195,10 +22195,10 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="Q303" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44390</v>
+        <v>44312</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K304" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L304" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M304" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q304" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44386</v>
+        <v>44312</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K305" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L305" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M305" t="n">
-        <v>34000</v>
+        <v>20500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>680</v>
+        <v>205</v>
       </c>
       <c r="Q305" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K306" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L306" t="n">
         <v>33000</v>
       </c>
-      <c r="L306" t="n">
-        <v>35000</v>
-      </c>
       <c r="M306" t="n">
-        <v>34000</v>
+        <v>32500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="Q306" t="n">
         <v>75</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K307" t="n">
         <v>29000</v>
       </c>
       <c r="L307" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="M307" t="n">
-        <v>30000</v>
+        <v>29500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q307" t="n">
         <v>100</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,20 +22533,20 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K308" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L308" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M308" t="n">
-        <v>13500</v>
+        <v>34000</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>193</v>
+        <v>680</v>
       </c>
       <c r="Q308" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44264</v>
+        <v>44386</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K309" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L309" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M309" t="n">
-        <v>29500</v>
+        <v>34000</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="Q309" t="n">
         <v>75</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44251</v>
+        <v>44386</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22673,24 +22673,24 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K310" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L310" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M310" t="n">
-        <v>34500</v>
+        <v>30000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>690</v>
+        <v>300</v>
       </c>
       <c r="Q310" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44251</v>
+        <v>44308</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22740,29 +22740,29 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K311" t="n">
-        <v>32000</v>
+        <v>13000</v>
       </c>
       <c r="L311" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M311" t="n">
-        <v>32500</v>
+        <v>13500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>433</v>
+        <v>193</v>
       </c>
       <c r="Q311" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44243</v>
+        <v>44264</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22812,29 +22812,29 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>6500</v>
+        <v>29000</v>
       </c>
       <c r="L312" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="M312" t="n">
-        <v>6750</v>
+        <v>29500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>96</v>
+        <v>393</v>
       </c>
       <c r="Q312" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22968,13 +22968,13 @@
         <v>50</v>
       </c>
       <c r="K314" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L314" t="n">
         <v>33000</v>
       </c>
-      <c r="L314" t="n">
-        <v>34000</v>
-      </c>
       <c r="M314" t="n">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="Q314" t="n">
         <v>75</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23028,29 +23028,29 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K315" t="n">
-        <v>30000</v>
+        <v>6500</v>
       </c>
       <c r="L315" t="n">
-        <v>31000</v>
+        <v>7000</v>
       </c>
       <c r="M315" t="n">
-        <v>30500</v>
+        <v>6750</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="Q315" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K316" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L316" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M316" t="n">
-        <v>16500</v>
+        <v>34500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>330</v>
+        <v>690</v>
       </c>
       <c r="Q316" t="n">
         <v>50</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23184,13 +23184,13 @@
         <v>50</v>
       </c>
       <c r="K317" t="n">
-        <v>15000</v>
+        <v>33000</v>
       </c>
       <c r="L317" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="M317" t="n">
-        <v>15500</v>
+        <v>33500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>207</v>
+        <v>447</v>
       </c>
       <c r="Q317" t="n">
         <v>75</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K318" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L318" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="M318" t="n">
-        <v>14500</v>
+        <v>30500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>145</v>
+        <v>305</v>
       </c>
       <c r="Q318" t="n">
         <v>100</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23316,29 +23316,29 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K319" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L319" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M319" t="n">
-        <v>5500</v>
+        <v>16500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="Q319" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23393,24 +23393,24 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J320" t="n">
         <v>50</v>
       </c>
       <c r="K320" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L320" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M320" t="n">
-        <v>34000</v>
+        <v>15500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
@@ -23419,10 +23419,10 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>680</v>
+        <v>207</v>
       </c>
       <c r="Q320" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44221</v>
+        <v>44168</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23465,24 +23465,24 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K321" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="L321" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="M321" t="n">
-        <v>31000</v>
+        <v>14500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>413</v>
+        <v>145</v>
       </c>
       <c r="Q321" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23532,29 +23532,29 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K322" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="L322" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M322" t="n">
-        <v>29000</v>
+        <v>5500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="Q322" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23604,7 +23604,7 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -23613,20 +23613,20 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K323" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="L323" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M323" t="n">
-        <v>11500</v>
+        <v>34000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>164</v>
+        <v>680</v>
       </c>
       <c r="Q323" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23681,24 +23681,24 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K324" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L324" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M324" t="n">
-        <v>24500</v>
+        <v>31000</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="Q324" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44316</v>
+        <v>44221</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J325" t="n">
         <v>40</v>
       </c>
       <c r="K325" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L325" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M325" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="Q325" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23820,29 +23820,29 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K326" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L326" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M326" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q326" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23892,7 +23892,7 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -23901,32 +23901,32 @@
         </is>
       </c>
       <c r="J327" t="n">
+        <v>40</v>
+      </c>
+      <c r="K327" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L327" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M327" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q327" t="n">
         <v>50</v>
-      </c>
-      <c r="K327" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L327" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M327" t="n">
-        <v>29500</v>
-      </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>Valle de Camiña</t>
-        </is>
-      </c>
-      <c r="P327" t="n">
-        <v>295</v>
-      </c>
-      <c r="Q327" t="n">
-        <v>100</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23964,29 +23964,29 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K328" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L328" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M328" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="Q328" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K329" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L329" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M329" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>590</v>
+        <v>205</v>
       </c>
       <c r="Q329" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44277</v>
+        <v>44279</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24108,41 +24108,41 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K330" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L330" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M330" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="Q330" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24180,29 +24180,29 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K331" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L331" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M331" t="n">
-        <v>25500</v>
+        <v>9500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>255</v>
+        <v>136</v>
       </c>
       <c r="Q331" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24252,7 +24252,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -24261,20 +24261,20 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K332" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L332" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M332" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>193</v>
+        <v>590</v>
       </c>
       <c r="Q332" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24324,41 +24324,41 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K333" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L333" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M333" t="n">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P333" t="n">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="Q333" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44438</v>
+        <v>44277</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24401,24 +24401,24 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K334" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="L334" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M334" t="n">
-        <v>29000</v>
+        <v>25500</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O334" t="inlineStr">
@@ -24427,10 +24427,10 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>580</v>
+        <v>255</v>
       </c>
       <c r="Q334" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R334" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24468,29 +24468,29 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K335" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="L335" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M335" t="n">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="Q335" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24540,25 +24540,25 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K336" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L336" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M336" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24567,11 +24567,11 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="Q336" t="n">
         <v>100</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24612,7 +24612,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -24621,20 +24621,20 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="K337" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="L337" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M337" t="n">
-        <v>16263</v>
+        <v>29000</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>232</v>
+        <v>580</v>
       </c>
       <c r="Q337" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K338" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="L338" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="M338" t="n">
-        <v>22500</v>
+        <v>27500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>450</v>
+        <v>367</v>
       </c>
       <c r="Q338" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K339" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L339" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M339" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>440</v>
+        <v>245</v>
       </c>
       <c r="Q339" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24828,29 +24828,29 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K340" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L340" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M340" t="n">
-        <v>23000</v>
+        <v>16263</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="Q340" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K341" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L341" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M341" t="n">
-        <v>19600</v>
+        <v>22500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="Q341" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24977,20 +24977,20 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J342" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K342" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L342" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M342" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="Q342" t="n">
         <v>50</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K343" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L343" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="M343" t="n">
-        <v>16500</v>
+        <v>23000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>220</v>
+        <v>307</v>
       </c>
       <c r="Q343" t="n">
         <v>75</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K344" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L344" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M344" t="n">
-        <v>15500</v>
+        <v>19600</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="Q344" t="n">
         <v>100</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,20 +25197,20 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K345" t="n">
-        <v>9500</v>
+        <v>16000</v>
       </c>
       <c r="L345" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M345" t="n">
-        <v>9750</v>
+        <v>16500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="Q345" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25265,24 +25265,24 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J346" t="n">
         <v>60</v>
       </c>
       <c r="K346" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L346" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M346" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="Q346" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25337,24 +25337,24 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K347" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L347" t="n">
         <v>16000</v>
       </c>
-      <c r="L347" t="n">
-        <v>18000</v>
-      </c>
       <c r="M347" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="Q347" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25404,29 +25404,29 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
         <v>80</v>
       </c>
       <c r="K348" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="L348" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M348" t="n">
-        <v>15500</v>
+        <v>9750</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q348" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,20 +25485,20 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K349" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L349" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M349" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>164</v>
+        <v>380</v>
       </c>
       <c r="Q349" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25553,24 +25553,24 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K350" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="L350" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M350" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>490</v>
+        <v>227</v>
       </c>
       <c r="Q350" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25625,24 +25625,24 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K351" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="L351" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M351" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>287</v>
+        <v>155</v>
       </c>
       <c r="Q351" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25692,29 +25692,29 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K352" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L352" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M352" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="Q352" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25845,16 +25845,16 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K354" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L354" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M354" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="Q354" t="n">
         <v>75</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25920,13 +25920,13 @@
         <v>50</v>
       </c>
       <c r="K355" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="L355" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="M355" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="Q355" t="n">
         <v>100</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K356" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L356" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M356" t="n">
-        <v>26500</v>
+        <v>24500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="Q356" t="n">
         <v>50</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K357" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L357" t="n">
         <v>25000</v>
       </c>
-      <c r="L357" t="n">
-        <v>26000</v>
-      </c>
       <c r="M357" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="Q357" t="n">
         <v>75</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44365</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26136,13 +26136,13 @@
         <v>50</v>
       </c>
       <c r="K358" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="L358" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M358" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="Q358" t="n">
         <v>100</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,20 +26205,20 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K359" t="n">
-        <v>9500</v>
+        <v>26000</v>
       </c>
       <c r="L359" t="n">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M359" t="n">
-        <v>9750</v>
+        <v>26500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,7 +26227,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>195</v>
+        <v>530</v>
       </c>
       <c r="Q359" t="n">
         <v>50</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26273,24 +26273,24 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
         <v>50</v>
       </c>
       <c r="K360" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L360" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M360" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="Q360" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26345,24 +26345,24 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K361" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="L361" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M361" t="n">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="Q361" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26412,29 +26412,29 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K362" t="n">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="L362" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M362" t="n">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26446,7 +26446,7 @@
         <v>195</v>
       </c>
       <c r="Q362" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26493,16 +26493,16 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K363" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L363" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M363" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="Q363" t="n">
         <v>50</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K364" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L364" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M364" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="Q364" t="n">
         <v>75</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K365" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L365" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M365" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="Q365" t="n">
         <v>100</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,20 +26709,20 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K366" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L366" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M366" t="n">
-        <v>33500</v>
+        <v>17500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>479</v>
+        <v>350</v>
       </c>
       <c r="Q366" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26777,24 +26777,24 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
         <v>70</v>
       </c>
       <c r="K367" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L367" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="M367" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>490</v>
+        <v>233</v>
       </c>
       <c r="Q367" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26849,24 +26849,24 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K368" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="L368" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M368" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="Q368" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26916,29 +26916,29 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K369" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L369" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="M369" t="n">
-        <v>20500</v>
+        <v>33500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>205</v>
+        <v>479</v>
       </c>
       <c r="Q369" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26988,29 +26988,29 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K370" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L370" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M370" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>1750</v>
+        <v>490</v>
       </c>
       <c r="Q370" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,29 +27060,29 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K371" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L371" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="M371" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q371" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27132,29 +27132,29 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K372" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L372" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="M372" t="n">
-        <v>8500</v>
+        <v>20500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="Q372" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27204,41 +27204,41 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L373" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M373" t="n">
-        <v>33500</v>
+        <v>17500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>335</v>
+        <v>1750</v>
       </c>
       <c r="Q373" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,7 +27276,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -27285,20 +27285,20 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K374" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L374" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M374" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q374" t="n">
         <v>50</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,29 +27348,29 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="K375" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L375" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M375" t="n">
-        <v>15500</v>
+        <v>8500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="Q375" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,32 +27429,32 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K376" t="n">
-        <v>7000</v>
+        <v>33000</v>
       </c>
       <c r="L376" t="n">
-        <v>8000</v>
+        <v>34000</v>
       </c>
       <c r="M376" t="n">
-        <v>7500</v>
+        <v>33500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>107</v>
+        <v>335</v>
       </c>
       <c r="Q376" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27504,29 +27504,29 @@
         <v>60</v>
       </c>
       <c r="K377" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L377" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M377" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="Q377" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,32 +27573,32 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K378" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L378" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M378" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P378" t="n">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="Q378" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27636,7 +27636,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -27645,20 +27645,20 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K379" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L379" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M379" t="n">
-        <v>24625</v>
+        <v>7500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>492</v>
+        <v>107</v>
       </c>
       <c r="Q379" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,25 +27708,25 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="K380" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L380" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M380" t="n">
-        <v>24667</v>
+        <v>29500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
@@ -27735,11 +27735,11 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P380" t="n">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="Q380" t="n">
         <v>75</v>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,25 +27780,25 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K381" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L381" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M381" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27807,11 +27807,11 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P381" t="n">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q381" t="n">
         <v>100</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27852,29 +27852,29 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K382" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L382" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M382" t="n">
-        <v>9500</v>
+        <v>24625</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>950</v>
+        <v>492</v>
       </c>
       <c r="Q382" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27929,11 +27929,11 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K383" t="n">
         <v>24000</v>
@@ -27942,11 +27942,11 @@
         <v>25000</v>
       </c>
       <c r="M383" t="n">
-        <v>24500</v>
+        <v>24667</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>490</v>
+        <v>329</v>
       </c>
       <c r="Q383" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28001,24 +28001,24 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K384" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L384" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M384" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q384" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28068,29 +28068,29 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K385" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L385" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M385" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>215</v>
+        <v>950</v>
       </c>
       <c r="Q385" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28140,7 +28140,7 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -28149,20 +28149,20 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K386" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="L386" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="M386" t="n">
-        <v>5250</v>
+        <v>24500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>105</v>
+        <v>490</v>
       </c>
       <c r="Q386" t="n">
         <v>50</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28212,29 +28212,29 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K387" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="L387" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M387" t="n">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>93</v>
+        <v>327</v>
       </c>
       <c r="Q387" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,29 +28284,29 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K388" t="n">
-        <v>4000</v>
+        <v>21000</v>
       </c>
       <c r="L388" t="n">
-        <v>4500</v>
+        <v>22000</v>
       </c>
       <c r="M388" t="n">
-        <v>4250</v>
+        <v>21500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="Q388" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28356,29 +28356,29 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K389" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L389" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M389" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="Q389" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28428,41 +28428,41 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
+        <v>160</v>
+      </c>
+      <c r="K390" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L390" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M390" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q390" t="n">
         <v>70</v>
-      </c>
-      <c r="K390" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L390" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M390" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O390" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P390" t="n">
-        <v>145</v>
-      </c>
-      <c r="Q390" t="n">
-        <v>100</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K391" t="n">
-        <v>33000</v>
+        <v>4000</v>
       </c>
       <c r="L391" t="n">
-        <v>34000</v>
+        <v>4500</v>
       </c>
       <c r="M391" t="n">
-        <v>33500</v>
+        <v>4250</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>670</v>
+        <v>425</v>
       </c>
       <c r="Q391" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28581,16 +28581,16 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K392" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L392" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="M392" t="n">
-        <v>33500</v>
+        <v>15500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>447</v>
+        <v>207</v>
       </c>
       <c r="Q392" t="n">
         <v>75</v>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K393" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L393" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M393" t="n">
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="Q393" t="n">
         <v>100</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,20 +28725,20 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K394" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="L394" t="n">
-        <v>12000</v>
+        <v>34000</v>
       </c>
       <c r="M394" t="n">
-        <v>11500</v>
+        <v>33500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>164</v>
+        <v>670</v>
       </c>
       <c r="Q394" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28793,24 +28793,24 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K395" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L395" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M395" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="Q395" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K396" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L396" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M396" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="Q396" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28932,43 +28932,259 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J397" t="n">
+        <v>160</v>
+      </c>
+      <c r="K397" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L397" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M397" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O397" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P397" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>70</v>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E398" t="n">
+        <v>15</v>
+      </c>
+      <c r="F398" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J398" t="n">
+        <v>50</v>
+      </c>
+      <c r="K398" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L398" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M398" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P398" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>50</v>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D399" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E399" t="n">
+        <v>15</v>
+      </c>
+      <c r="F399" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J399" t="n">
+        <v>70</v>
+      </c>
+      <c r="K399" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L399" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M399" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P399" t="n">
+        <v>327</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>75</v>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D400" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E400" t="n">
+        <v>15</v>
+      </c>
+      <c r="F400" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J397" t="n">
+      <c r="J400" t="n">
         <v>40</v>
       </c>
-      <c r="K397" t="n">
+      <c r="K400" t="n">
         <v>19000</v>
       </c>
-      <c r="L397" t="n">
+      <c r="L400" t="n">
         <v>20000</v>
       </c>
-      <c r="M397" t="n">
+      <c r="M400" t="n">
         <v>19500</v>
       </c>
-      <c r="N397" t="inlineStr">
+      <c r="N400" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
         </is>
       </c>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P397" t="n">
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P400" t="n">
         <v>195</v>
       </c>
-      <c r="Q397" t="n">
+      <c r="Q400" t="n">
         <v>100</v>
       </c>
-      <c r="R397" t="inlineStr">
+      <c r="R400" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R428"/>
+  <dimension ref="A1:R431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E280" t="n">
         <v>15</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,20 +20517,20 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K280" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L280" t="n">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="M280" t="n">
-        <v>16500</v>
+        <v>31500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O280" t="inlineStr">
@@ -20539,10 +20539,10 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="Q280" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R280" t="inlineStr">
         <is>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E281" t="n">
         <v>15</v>
@@ -20592,13 +20592,13 @@
         <v>50</v>
       </c>
       <c r="K281" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="L281" t="n">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="M281" t="n">
-        <v>15500</v>
+        <v>27500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>207</v>
+        <v>367</v>
       </c>
       <c r="Q281" t="n">
         <v>75</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E282" t="n">
         <v>15</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K282" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L282" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M282" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="Q282" t="n">
         <v>100</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E283" t="n">
         <v>15</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K283" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L283" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M283" t="n">
-        <v>32500</v>
+        <v>16500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="Q283" t="n">
         <v>50</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E284" t="n">
         <v>15</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K284" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="L284" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M284" t="n">
-        <v>32500</v>
+        <v>15500</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>433</v>
+        <v>207</v>
       </c>
       <c r="Q284" t="n">
         <v>75</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E285" t="n">
         <v>15</v>
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K285" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L285" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M285" t="n">
-        <v>29500</v>
+        <v>14500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>295</v>
+        <v>145</v>
       </c>
       <c r="Q285" t="n">
         <v>100</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E286" t="n">
         <v>15</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,20 +20949,20 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K286" t="n">
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="L286" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="M286" t="n">
-        <v>11500</v>
+        <v>32500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O286" t="inlineStr">
@@ -20971,10 +20971,10 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>164</v>
+        <v>650</v>
       </c>
       <c r="Q286" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R286" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E287" t="n">
         <v>15</v>
@@ -21017,24 +21017,24 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K287" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L287" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M287" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O287" t="inlineStr">
@@ -21043,10 +21043,10 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="Q287" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R287" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44351</v>
+        <v>44434</v>
       </c>
       <c r="E288" t="n">
         <v>15</v>
@@ -21089,24 +21089,24 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K288" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L288" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M288" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O288" t="inlineStr">
@@ -21115,10 +21115,10 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q288" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R288" t="inlineStr">
         <is>
@@ -21156,29 +21156,29 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K289" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L289" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M289" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O289" t="inlineStr">
@@ -21187,10 +21187,10 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="Q289" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R289" t="inlineStr">
         <is>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E290" t="n">
         <v>15</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,20 +21237,20 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K290" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="L290" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M290" t="n">
-        <v>5500</v>
+        <v>24500</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O290" t="inlineStr">
@@ -21259,10 +21259,10 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="Q290" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R290" t="inlineStr">
         <is>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E291" t="n">
         <v>15</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,20 +21309,20 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K291" t="n">
-        <v>4000</v>
+        <v>21000</v>
       </c>
       <c r="L291" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M291" t="n">
-        <v>4500</v>
+        <v>21500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O291" t="inlineStr">
@@ -21331,10 +21331,10 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>450</v>
+        <v>287</v>
       </c>
       <c r="Q291" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R291" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E292" t="n">
         <v>15</v>
@@ -21377,24 +21377,24 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K292" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L292" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M292" t="n">
-        <v>22500</v>
+        <v>19500</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O292" t="inlineStr">
@@ -21403,10 +21403,10 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>450</v>
+        <v>195</v>
       </c>
       <c r="Q292" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R292" t="inlineStr">
         <is>
@@ -21444,41 +21444,41 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J293" t="n">
+        <v>120</v>
+      </c>
+      <c r="K293" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L293" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M293" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q293" t="n">
         <v>70</v>
-      </c>
-      <c r="K293" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L293" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M293" t="n">
-        <v>20500</v>
-      </c>
-      <c r="N293" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O293" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P293" t="n">
-        <v>273</v>
-      </c>
-      <c r="Q293" t="n">
-        <v>75</v>
       </c>
       <c r="R293" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E294" t="n">
         <v>15</v>
@@ -21516,41 +21516,41 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K294" t="n">
-        <v>29000</v>
+        <v>4000</v>
       </c>
       <c r="L294" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M294" t="n">
-        <v>29500</v>
+        <v>4500</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P294" t="n">
-        <v>295</v>
+        <v>450</v>
       </c>
       <c r="Q294" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R294" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E295" t="n">
         <v>15</v>
@@ -21588,29 +21588,29 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K295" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L295" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="M295" t="n">
-        <v>7500</v>
+        <v>22500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O295" t="inlineStr">
@@ -21619,10 +21619,10 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="Q295" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R295" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E296" t="n">
         <v>15</v>
@@ -21660,41 +21660,41 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K296" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L296" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M296" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P296" t="n">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="Q296" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R296" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44344</v>
+        <v>44280</v>
       </c>
       <c r="E297" t="n">
         <v>15</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,32 +21741,32 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K297" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L297" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M297" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="Q297" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R297" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E298" t="n">
         <v>15</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,20 +21813,20 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K298" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="L298" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M298" t="n">
-        <v>21500</v>
+        <v>7500</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
@@ -21835,10 +21835,10 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>287</v>
+        <v>750</v>
       </c>
       <c r="Q298" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R298" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44344</v>
+        <v>44274</v>
       </c>
       <c r="E299" t="n">
         <v>15</v>
@@ -21876,25 +21876,25 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K299" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L299" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M299" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21903,11 +21903,11 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P299" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="Q299" t="n">
         <v>100</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,7 +21957,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K300" t="n">
         <v>24000</v>
@@ -21970,19 +21970,19 @@
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P300" t="n">
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="Q300" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R300" t="inlineStr">
         <is>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E301" t="n">
         <v>15</v>
@@ -22020,7 +22020,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -22029,20 +22029,20 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K301" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="L301" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M301" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O301" t="inlineStr">
@@ -22051,10 +22051,10 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>950</v>
+        <v>287</v>
       </c>
       <c r="Q301" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R301" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E302" t="n">
         <v>15</v>
@@ -22097,24 +22097,24 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J302" t="n">
         <v>50</v>
       </c>
       <c r="K302" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L302" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M302" t="n">
-        <v>24500</v>
+        <v>18500</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
@@ -22123,10 +22123,10 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>490</v>
+        <v>185</v>
       </c>
       <c r="Q302" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R302" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44358</v>
+        <v>44344</v>
       </c>
       <c r="E303" t="n">
         <v>15</v>
@@ -22164,16 +22164,16 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K303" t="n">
         <v>24000</v>
@@ -22186,19 +22186,19 @@
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P303" t="n">
-        <v>327</v>
+        <v>245</v>
       </c>
       <c r="Q303" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R303" t="inlineStr">
         <is>
@@ -22236,29 +22236,29 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K304" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L304" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M304" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>215</v>
+        <v>950</v>
       </c>
       <c r="Q304" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22320,13 +22320,13 @@
         <v>50</v>
       </c>
       <c r="K305" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L305" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M305" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>670</v>
+        <v>490</v>
       </c>
       <c r="Q305" t="n">
         <v>50</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22392,13 +22392,13 @@
         <v>40</v>
       </c>
       <c r="K306" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L306" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M306" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>447</v>
+        <v>327</v>
       </c>
       <c r="Q306" t="n">
         <v>75</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K307" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="L307" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M307" t="n">
-        <v>31000</v>
+        <v>21500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>310</v>
+        <v>215</v>
       </c>
       <c r="Q307" t="n">
         <v>100</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K308" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L308" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M308" t="n">
-        <v>29500</v>
+        <v>33500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="Q308" t="n">
         <v>50</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E309" t="n">
         <v>15</v>
@@ -22608,13 +22608,13 @@
         <v>40</v>
       </c>
       <c r="K309" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="L309" t="n">
-        <v>27000</v>
+        <v>34000</v>
       </c>
       <c r="M309" t="n">
-        <v>26500</v>
+        <v>33500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="Q309" t="n">
         <v>75</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K310" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L310" t="n">
-        <v>22000</v>
+        <v>32000</v>
       </c>
       <c r="M310" t="n">
-        <v>21500</v>
+        <v>31000</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="Q310" t="n">
         <v>100</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,32 +22749,32 @@
         </is>
       </c>
       <c r="J311" t="n">
+        <v>40</v>
+      </c>
+      <c r="K311" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L311" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M311" t="n">
+        <v>29500</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>590</v>
+      </c>
+      <c r="Q311" t="n">
         <v>50</v>
-      </c>
-      <c r="K311" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L311" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M311" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P311" t="n">
-        <v>207</v>
-      </c>
-      <c r="Q311" t="n">
-        <v>70</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="L312" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M312" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="Q312" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E313" t="n">
         <v>15</v>
@@ -22889,24 +22889,24 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K313" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L313" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M313" t="n">
-        <v>17000</v>
+        <v>21500</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="Q313" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22956,7 +22956,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K314" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L314" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M314" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="Q314" t="n">
         <v>70</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23033,24 +23033,24 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K315" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L315" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M315" t="n">
-        <v>34500</v>
+        <v>17000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O315" t="inlineStr">
@@ -23059,10 +23059,10 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q315" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R315" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K316" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L316" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M316" t="n">
-        <v>32500</v>
+        <v>17000</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c r="Q316" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23172,29 +23172,29 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K317" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="L317" t="n">
-        <v>33000</v>
+        <v>8000</v>
       </c>
       <c r="M317" t="n">
-        <v>32500</v>
+        <v>7500</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O317" t="inlineStr">
@@ -23203,10 +23203,10 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="Q317" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44258</v>
+        <v>44231</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
         <v>40</v>
       </c>
       <c r="K318" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L318" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M318" t="n">
-        <v>30500</v>
+        <v>34500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>305</v>
+        <v>460</v>
       </c>
       <c r="Q318" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K319" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="L319" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M319" t="n">
-        <v>29500</v>
+        <v>32500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>590</v>
+        <v>325</v>
       </c>
       <c r="Q319" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23397,16 +23397,16 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K320" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L320" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M320" t="n">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="Q320" t="n">
         <v>75</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23472,13 +23472,13 @@
         <v>40</v>
       </c>
       <c r="K321" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L321" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M321" t="n">
-        <v>24500</v>
+        <v>30500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="Q321" t="n">
         <v>100</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23544,13 +23544,13 @@
         <v>40</v>
       </c>
       <c r="K322" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L322" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M322" t="n">
-        <v>34500</v>
+        <v>29500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>690</v>
+        <v>590</v>
       </c>
       <c r="Q322" t="n">
         <v>50</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K323" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L323" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="M323" t="n">
-        <v>33500</v>
+        <v>27500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="Q323" t="n">
         <v>75</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44252</v>
+        <v>44475</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23688,13 +23688,13 @@
         <v>40</v>
       </c>
       <c r="K324" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L324" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M324" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="Q324" t="n">
         <v>100</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,20 +23757,20 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K325" t="n">
-        <v>6000</v>
+        <v>34000</v>
       </c>
       <c r="L325" t="n">
-        <v>7000</v>
+        <v>35000</v>
       </c>
       <c r="M325" t="n">
-        <v>6500</v>
+        <v>34500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>93</v>
+        <v>690</v>
       </c>
       <c r="Q325" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23825,36 +23825,36 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J326" t="n">
         <v>50</v>
       </c>
       <c r="K326" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="L326" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="M326" t="n">
-        <v>19500</v>
+        <v>33500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="Q326" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23897,36 +23897,36 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K327" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="L327" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="M327" t="n">
-        <v>17500</v>
+        <v>30500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="Q327" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23964,41 +23964,41 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
+        <v>200</v>
+      </c>
+      <c r="K328" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L328" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M328" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q328" t="n">
         <v>70</v>
-      </c>
-      <c r="K328" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L328" t="n">
-        <v>16000</v>
-      </c>
-      <c r="M328" t="n">
-        <v>15500</v>
-      </c>
-      <c r="N328" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O328" t="inlineStr">
-        <is>
-          <t>Valle de Camiña</t>
-        </is>
-      </c>
-      <c r="P328" t="n">
-        <v>155</v>
-      </c>
-      <c r="Q328" t="n">
-        <v>100</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,32 +24045,32 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="K329" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L329" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M329" t="n">
-        <v>16263</v>
+        <v>19500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>232</v>
+        <v>390</v>
       </c>
       <c r="Q329" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24113,36 +24113,36 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K330" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L330" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M330" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>450</v>
+        <v>233</v>
       </c>
       <c r="Q330" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44372</v>
+        <v>44204</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24185,36 +24185,36 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K331" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L331" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="M331" t="n">
-        <v>22000</v>
+        <v>15500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P331" t="n">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="Q331" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24252,29 +24252,29 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K332" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L332" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M332" t="n">
-        <v>23000</v>
+        <v>16263</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="Q332" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24329,24 +24329,24 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K333" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L333" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M333" t="n">
-        <v>19600</v>
+        <v>22500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="Q333" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24401,20 +24401,20 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J334" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K334" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L334" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="M334" t="n">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="Q334" t="n">
         <v>50</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K335" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L335" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M335" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="Q335" t="n">
         <v>75</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24549,7 +24549,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K336" t="n">
         <v>19000</v>
@@ -24558,7 +24558,7 @@
         <v>20000</v>
       </c>
       <c r="M336" t="n">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q336" t="n">
         <v>100</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K337" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="L337" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="M337" t="n">
-        <v>32500</v>
+        <v>23500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>650</v>
+        <v>470</v>
       </c>
       <c r="Q337" t="n">
         <v>50</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24693,16 +24693,16 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K338" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L338" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M338" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="Q338" t="n">
         <v>75</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24768,13 +24768,13 @@
         <v>50</v>
       </c>
       <c r="K339" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L339" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M339" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="Q339" t="n">
         <v>100</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24828,7 +24828,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -24837,20 +24837,20 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K340" t="n">
-        <v>6500</v>
+        <v>32000</v>
       </c>
       <c r="L340" t="n">
-        <v>7000</v>
+        <v>33000</v>
       </c>
       <c r="M340" t="n">
-        <v>6750</v>
+        <v>32500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>96</v>
+        <v>650</v>
       </c>
       <c r="Q340" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24905,24 +24905,24 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J341" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K341" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="L341" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M341" t="n">
-        <v>34500</v>
+        <v>29000</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>690</v>
+        <v>387</v>
       </c>
       <c r="Q341" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24977,24 +24977,24 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J342" t="n">
         <v>50</v>
       </c>
       <c r="K342" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L342" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M342" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>460</v>
+        <v>245</v>
       </c>
       <c r="Q342" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25044,29 +25044,29 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K343" t="n">
-        <v>31000</v>
+        <v>6500</v>
       </c>
       <c r="L343" t="n">
-        <v>32000</v>
+        <v>7000</v>
       </c>
       <c r="M343" t="n">
-        <v>31500</v>
+        <v>6750</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="Q343" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25116,7 +25116,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -25125,20 +25125,20 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K344" t="n">
-        <v>26000</v>
+        <v>34000</v>
       </c>
       <c r="L344" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M344" t="n">
-        <v>26500</v>
+        <v>34500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>379</v>
+        <v>690</v>
       </c>
       <c r="Q344" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25193,24 +25193,24 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K345" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="L345" t="n">
         <v>35000</v>
       </c>
       <c r="M345" t="n">
-        <v>34000</v>
+        <v>34500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>680</v>
+        <v>460</v>
       </c>
       <c r="Q345" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25265,24 +25265,24 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J346" t="n">
         <v>40</v>
       </c>
       <c r="K346" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="L346" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M346" t="n">
-        <v>34000</v>
+        <v>31500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>453</v>
+        <v>315</v>
       </c>
       <c r="Q346" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25332,29 +25332,29 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K347" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L347" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M347" t="n">
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="Q347" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25413,7 +25413,7 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K348" t="n">
         <v>33000</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K349" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="L349" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M349" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="Q349" t="n">
         <v>75</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K350" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L350" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="M350" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Q350" t="n">
         <v>100</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,29 +25620,29 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K351" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L351" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M351" t="n">
-        <v>17500</v>
+        <v>34000</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>1750</v>
+        <v>680</v>
       </c>
       <c r="Q351" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25697,24 +25697,24 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="K352" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="L352" t="n">
         <v>33000</v>
       </c>
       <c r="M352" t="n">
-        <v>32206</v>
+        <v>32000</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>644</v>
+        <v>427</v>
       </c>
       <c r="Q352" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25769,24 +25769,24 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="K353" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L353" t="n">
         <v>28000</v>
       </c>
-      <c r="L353" t="n">
-        <v>33000</v>
-      </c>
       <c r="M353" t="n">
-        <v>31053</v>
+        <v>27000</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="Q353" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,29 +25836,29 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K354" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L354" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M354" t="n">
-        <v>28088</v>
+        <v>17500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>281</v>
+        <v>1750</v>
       </c>
       <c r="Q354" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,20 +25917,20 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="K355" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="L355" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M355" t="n">
-        <v>13500</v>
+        <v>32206</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>270</v>
+        <v>644</v>
       </c>
       <c r="Q355" t="n">
         <v>50</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25980,29 +25980,29 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K356" t="n">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="L356" t="n">
-        <v>7500</v>
+        <v>33000</v>
       </c>
       <c r="M356" t="n">
-        <v>7250</v>
+        <v>31053</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>104</v>
+        <v>414</v>
       </c>
       <c r="Q356" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26052,25 +26052,25 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K357" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L357" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M357" t="n">
-        <v>34500</v>
+        <v>28088</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="Q357" t="n">
         <v>100</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,29 +26124,29 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K358" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L358" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M358" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>387</v>
+        <v>270</v>
       </c>
       <c r="Q358" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,29 +26196,29 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K359" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="L359" t="n">
-        <v>26000</v>
+        <v>7500</v>
       </c>
       <c r="M359" t="n">
-        <v>25500</v>
+        <v>7250</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>255</v>
+        <v>104</v>
       </c>
       <c r="Q359" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44159</v>
+        <v>44242</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -26277,20 +26277,20 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K360" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="L360" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M360" t="n">
-        <v>13500</v>
+        <v>34500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>193</v>
+        <v>345</v>
       </c>
       <c r="Q360" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26352,13 +26352,13 @@
         <v>40</v>
       </c>
       <c r="K361" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L361" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M361" t="n">
-        <v>25500</v>
+        <v>29000</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="Q361" t="n">
         <v>75</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44334</v>
+        <v>44307</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K362" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L362" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M362" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="Q362" t="n">
         <v>100</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44386</v>
+        <v>44159</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26484,7 +26484,7 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -26493,20 +26493,20 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K363" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="L363" t="n">
-        <v>35000</v>
+        <v>14000</v>
       </c>
       <c r="M363" t="n">
-        <v>34000</v>
+        <v>13500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>680</v>
+        <v>193</v>
       </c>
       <c r="Q363" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44386</v>
+        <v>44334</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26565,16 +26565,16 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K364" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L364" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M364" t="n">
-        <v>34000</v>
+        <v>25500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="Q364" t="n">
         <v>75</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44386</v>
+        <v>44334</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K365" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L365" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M365" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q365" t="n">
         <v>100</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26700,7 +26700,7 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26709,20 +26709,20 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K366" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L366" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M366" t="n">
-        <v>12500</v>
+        <v>34000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>179</v>
+        <v>680</v>
       </c>
       <c r="Q366" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26777,24 +26777,24 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K367" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L367" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M367" t="n">
-        <v>29500</v>
+        <v>34000</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>590</v>
+        <v>453</v>
       </c>
       <c r="Q367" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26849,24 +26849,24 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K368" t="n">
         <v>29000</v>
       </c>
       <c r="L368" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M368" t="n">
         <v>30000</v>
       </c>
-      <c r="M368" t="n">
-        <v>29500</v>
-      </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="Q368" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26916,29 +26916,29 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K369" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="L369" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="M369" t="n">
-        <v>27500</v>
+        <v>12500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="Q369" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26988,7 +26988,7 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26997,20 +26997,20 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K370" t="n">
-        <v>12000</v>
+        <v>29000</v>
       </c>
       <c r="L370" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M370" t="n">
-        <v>12500</v>
+        <v>29500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
@@ -27019,10 +27019,10 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>179</v>
+        <v>590</v>
       </c>
       <c r="Q370" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,7 +27060,7 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -27069,20 +27069,20 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K371" t="n">
-        <v>9000</v>
+        <v>29000</v>
       </c>
       <c r="L371" t="n">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="M371" t="n">
-        <v>9500</v>
+        <v>29500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>950</v>
+        <v>393</v>
       </c>
       <c r="Q371" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44172</v>
+        <v>44263</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27137,24 +27137,24 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K372" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="L372" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="M372" t="n">
-        <v>17500</v>
+        <v>27500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="Q372" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27204,29 +27204,29 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K373" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L373" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M373" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
@@ -27235,10 +27235,10 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Q373" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27276,29 +27276,29 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K374" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L374" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M374" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>155</v>
+        <v>950</v>
       </c>
       <c r="Q374" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K375" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="L375" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="M375" t="n">
-        <v>26500</v>
+        <v>17500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>530</v>
+        <v>350</v>
       </c>
       <c r="Q375" t="n">
         <v>50</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K376" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="L376" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M376" t="n">
-        <v>25500</v>
+        <v>16500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="Q376" t="n">
         <v>75</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27504,13 +27504,13 @@
         <v>50</v>
       </c>
       <c r="K377" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L377" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="M377" t="n">
-        <v>23500</v>
+        <v>15500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="Q377" t="n">
         <v>100</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K378" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="L378" t="n">
-        <v>5500</v>
+        <v>27000</v>
       </c>
       <c r="M378" t="n">
-        <v>5250</v>
+        <v>26500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Q378" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K379" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L379" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M379" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="Q379" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K380" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L380" t="n">
         <v>24000</v>
       </c>
-      <c r="L380" t="n">
-        <v>25000</v>
-      </c>
       <c r="M380" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="Q380" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27780,29 +27780,29 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K381" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="L381" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="M381" t="n">
-        <v>21500</v>
+        <v>5250</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>215</v>
+        <v>525</v>
       </c>
       <c r="Q381" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K382" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L382" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M382" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>610</v>
+        <v>490</v>
       </c>
       <c r="Q382" t="n">
         <v>50</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27936,13 +27936,13 @@
         <v>40</v>
       </c>
       <c r="K383" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L383" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M383" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="Q383" t="n">
         <v>75</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K384" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L384" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M384" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="Q384" t="n">
         <v>100</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,20 +28077,20 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K385" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L385" t="n">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="M385" t="n">
-        <v>12500</v>
+        <v>30500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>179</v>
+        <v>610</v>
       </c>
       <c r="Q385" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K386" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L386" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M386" t="n">
-        <v>34500</v>
+        <v>30500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="Q386" t="n">
         <v>75</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K387" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L387" t="n">
         <v>30000</v>
       </c>
-      <c r="L387" t="n">
-        <v>31000</v>
-      </c>
       <c r="M387" t="n">
-        <v>30500</v>
+        <v>29500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="Q387" t="n">
         <v>100</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K388" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="L388" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M388" t="n">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="Q388" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28368,13 +28368,13 @@
         <v>50</v>
       </c>
       <c r="K389" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="L389" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M389" t="n">
-        <v>22500</v>
+        <v>34500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Q389" t="n">
         <v>75</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28437,16 +28437,16 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K390" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L390" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M390" t="n">
-        <v>20500</v>
+        <v>30500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="Q390" t="n">
         <v>100</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,20 +28509,20 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K391" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="L391" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="M391" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>121</v>
+        <v>480</v>
       </c>
       <c r="Q391" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28577,24 +28577,24 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K392" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L392" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M392" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q392" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J393" t="n">
         <v>50</v>
       </c>
       <c r="K393" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L393" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M393" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="Q393" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,29 +28716,29 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L394" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M394" t="n">
-        <v>20500</v>
+        <v>8500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="Q394" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28800,13 +28800,13 @@
         <v>40</v>
       </c>
       <c r="K395" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="L395" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M395" t="n">
-        <v>24500</v>
+        <v>27500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="Q395" t="n">
         <v>50</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28869,16 +28869,16 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K396" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L396" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M396" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q396" t="n">
         <v>75</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K397" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L397" t="n">
         <v>21000</v>
       </c>
-      <c r="L397" t="n">
-        <v>22000</v>
-      </c>
       <c r="M397" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q397" t="n">
         <v>100</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29009,36 +29009,36 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
+        <v>40</v>
+      </c>
+      <c r="K398" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L398" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M398" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P398" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q398" t="n">
         <v>50</v>
-      </c>
-      <c r="K398" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L398" t="n">
-        <v>34000</v>
-      </c>
-      <c r="M398" t="n">
-        <v>33500</v>
-      </c>
-      <c r="N398" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O398" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P398" t="n">
-        <v>447</v>
-      </c>
-      <c r="Q398" t="n">
-        <v>75</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29081,24 +29081,24 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K399" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L399" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M399" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="Q399" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29153,24 +29153,24 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K400" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L400" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="M400" t="n">
-        <v>33500</v>
+        <v>21500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>670</v>
+        <v>215</v>
       </c>
       <c r="Q400" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29229,7 +29229,7 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K401" t="n">
         <v>33000</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29304,13 +29304,13 @@
         <v>50</v>
       </c>
       <c r="K402" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L402" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M402" t="n">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="Q402" t="n">
         <v>100</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29369,24 +29369,24 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K403" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L403" t="n">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="M403" t="n">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>433</v>
+        <v>670</v>
       </c>
       <c r="Q403" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K404" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L404" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M404" t="n">
-        <v>29500</v>
+        <v>33500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>295</v>
+        <v>447</v>
       </c>
       <c r="Q404" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29508,29 +29508,29 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K405" t="n">
-        <v>12000</v>
+        <v>29000</v>
       </c>
       <c r="L405" t="n">
-        <v>13000</v>
+        <v>30000</v>
       </c>
       <c r="M405" t="n">
-        <v>12500</v>
+        <v>29500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="Q405" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K406" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L406" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M406" t="n">
-        <v>29000</v>
+        <v>32500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>580</v>
+        <v>433</v>
       </c>
       <c r="Q406" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,24 +29657,24 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K407" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L407" t="n">
         <v>30000</v>
       </c>
       <c r="M407" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="Q407" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29724,29 +29724,29 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K408" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L408" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M408" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q408" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29805,7 +29805,7 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K409" t="n">
         <v>28000</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K410" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L410" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M410" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="Q410" t="n">
         <v>75</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29949,7 +29949,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K411" t="n">
         <v>24000</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,20 +30021,20 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K412" t="n">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="L412" t="n">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="M412" t="n">
-        <v>7500</v>
+        <v>29000</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>107</v>
+        <v>580</v>
       </c>
       <c r="Q412" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K413" t="n">
-        <v>19000</v>
+        <v>27000</v>
       </c>
       <c r="L413" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="M413" t="n">
-        <v>19500</v>
+        <v>27500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="Q413" t="n">
         <v>75</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K414" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L414" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M414" t="n">
-        <v>18500</v>
+        <v>24500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="Q414" t="n">
         <v>100</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K415" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L415" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M415" t="n">
-        <v>17500</v>
+        <v>7500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="Q415" t="n">
         <v>70</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,24 +30305,24 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K416" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="L416" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M416" t="n">
-        <v>34000</v>
+        <v>19500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>680</v>
+        <v>260</v>
       </c>
       <c r="Q416" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30377,24 +30377,24 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K417" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L417" t="n">
-        <v>35000</v>
+        <v>19000</v>
       </c>
       <c r="M417" t="n">
-        <v>34000</v>
+        <v>18500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>453</v>
+        <v>185</v>
       </c>
       <c r="Q417" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30444,41 +30444,41 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
+        <v>160</v>
+      </c>
+      <c r="K418" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L418" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M418" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P418" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q418" t="n">
         <v>70</v>
-      </c>
-      <c r="K418" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L418" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M418" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N418" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O418" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P418" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q418" t="n">
-        <v>100</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K419" t="n">
-        <v>9000</v>
+        <v>33000</v>
       </c>
       <c r="L419" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="M419" t="n">
-        <v>9500</v>
+        <v>34000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>136</v>
+        <v>680</v>
       </c>
       <c r="Q419" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
         <v>50</v>
       </c>
       <c r="K420" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L420" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M420" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="Q420" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30665,24 +30665,24 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K421" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L421" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M421" t="n">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30694,7 +30694,7 @@
         <v>300</v>
       </c>
       <c r="Q421" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30732,29 +30732,29 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K422" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L422" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M422" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="Q422" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,20 +30813,20 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K423" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="L423" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="M423" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>121</v>
+        <v>490</v>
       </c>
       <c r="Q423" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30881,24 +30881,24 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
         <v>40</v>
       </c>
       <c r="K424" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L424" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M424" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="Q424" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30953,24 +30953,24 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K425" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L425" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M425" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q425" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31020,29 +31020,29 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K426" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L426" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M426" t="n">
-        <v>20500</v>
+        <v>8500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="Q426" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31097,36 +31097,36 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
+        <v>40</v>
+      </c>
+      <c r="K427" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L427" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M427" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q427" t="n">
         <v>50</v>
-      </c>
-      <c r="K427" t="n">
-        <v>31000</v>
-      </c>
-      <c r="L427" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M427" t="n">
-        <v>32000</v>
-      </c>
-      <c r="N427" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O427" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P427" t="n">
-        <v>427</v>
-      </c>
-      <c r="Q427" t="n">
-        <v>75</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31169,38 +31169,254 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
         <v>40</v>
       </c>
       <c r="K428" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L428" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M428" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P428" t="n">
+        <v>327</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>75</v>
+      </c>
+      <c r="R428" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D429" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E429" t="n">
+        <v>15</v>
+      </c>
+      <c r="F429" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>30</v>
+      </c>
+      <c r="K429" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L429" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M429" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P429" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>100</v>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E430" t="n">
+        <v>15</v>
+      </c>
+      <c r="F430" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>50</v>
+      </c>
+      <c r="K430" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L430" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M430" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P430" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>75</v>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D431" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E431" t="n">
+        <v>15</v>
+      </c>
+      <c r="F431" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>40</v>
+      </c>
+      <c r="K431" t="n">
         <v>28000</v>
       </c>
-      <c r="L428" t="n">
+      <c r="L431" t="n">
         <v>30000</v>
       </c>
-      <c r="M428" t="n">
+      <c r="M431" t="n">
         <v>29000</v>
       </c>
-      <c r="N428" t="inlineStr">
+      <c r="N431" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
         </is>
       </c>
-      <c r="O428" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P428" t="n">
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P431" t="n">
         <v>290</v>
       </c>
-      <c r="Q428" t="n">
+      <c r="Q431" t="n">
         <v>100</v>
       </c>
-      <c r="R428" t="inlineStr">
+      <c r="R431" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R431"/>
+  <dimension ref="A1:R435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K373" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="L373" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="M373" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>179</v>
+        <v>379</v>
       </c>
       <c r="Q373" t="n">
         <v>70</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,29 +27276,29 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K374" t="n">
-        <v>9000</v>
+        <v>31000</v>
       </c>
       <c r="L374" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M374" t="n">
-        <v>9500</v>
+        <v>31500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>950</v>
+        <v>630</v>
       </c>
       <c r="Q374" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27353,24 +27353,24 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J375" t="n">
         <v>50</v>
       </c>
       <c r="K375" t="n">
-        <v>17000</v>
+        <v>29000</v>
       </c>
       <c r="L375" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="M375" t="n">
-        <v>17500</v>
+        <v>29500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="Q375" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27425,24 +27425,24 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K376" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L376" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M376" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Q376" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27492,29 +27492,29 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K377" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L377" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M377" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="Q377" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K378" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="L378" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="M378" t="n">
-        <v>26500</v>
+        <v>9500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>530</v>
+        <v>950</v>
       </c>
       <c r="Q378" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J379" t="n">
         <v>50</v>
       </c>
       <c r="K379" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L379" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M379" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q379" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K380" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L380" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M380" t="n">
-        <v>23500</v>
+        <v>16500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="Q380" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44321</v>
+        <v>44172</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,29 +27780,29 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K381" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L381" t="n">
-        <v>5500</v>
+        <v>16000</v>
       </c>
       <c r="M381" t="n">
-        <v>5250</v>
+        <v>15500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>525</v>
+        <v>155</v>
       </c>
       <c r="Q381" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K382" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L382" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M382" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="Q382" t="n">
         <v>50</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K383" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L383" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M383" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q383" t="n">
         <v>75</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28005,16 +28005,16 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K384" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L384" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M384" t="n">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Q384" t="n">
         <v>100</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,29 +28068,29 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K385" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="L385" t="n">
-        <v>31000</v>
+        <v>5500</v>
       </c>
       <c r="M385" t="n">
-        <v>30500</v>
+        <v>5250</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>610</v>
+        <v>525</v>
       </c>
       <c r="Q385" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28145,24 +28145,24 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K386" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L386" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M386" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="Q386" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28217,24 +28217,24 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K387" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L387" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M387" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="Q387" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,41 +28284,41 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J388" t="n">
+        <v>60</v>
+      </c>
+      <c r="K388" t="n">
+        <v>21000</v>
+      </c>
+      <c r="L388" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M388" t="n">
+        <v>21500</v>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O388" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P388" t="n">
+        <v>215</v>
+      </c>
+      <c r="Q388" t="n">
         <v>100</v>
-      </c>
-      <c r="K388" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L388" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M388" t="n">
-        <v>12500</v>
-      </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P388" t="n">
-        <v>179</v>
-      </c>
-      <c r="Q388" t="n">
-        <v>70</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28361,36 +28361,36 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
+        <v>30</v>
+      </c>
+      <c r="K389" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L389" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M389" t="n">
+        <v>30500</v>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O389" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P389" t="n">
+        <v>610</v>
+      </c>
+      <c r="Q389" t="n">
         <v>50</v>
-      </c>
-      <c r="K389" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L389" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M389" t="n">
-        <v>34500</v>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O389" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P389" t="n">
-        <v>460</v>
-      </c>
-      <c r="Q389" t="n">
-        <v>75</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28433,11 +28433,11 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K390" t="n">
         <v>30000</v>
@@ -28450,7 +28450,7 @@
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="Q390" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44414</v>
+        <v>44223</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28505,24 +28505,24 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J391" t="n">
         <v>50</v>
       </c>
       <c r="K391" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L391" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M391" t="n">
-        <v>24000</v>
+        <v>29500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>480</v>
+        <v>295</v>
       </c>
       <c r="Q391" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,29 +28572,29 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K392" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L392" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="M392" t="n">
-        <v>22500</v>
+        <v>12500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="Q392" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J393" t="n">
         <v>50</v>
       </c>
       <c r="K393" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L393" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M393" t="n">
-        <v>20500</v>
+        <v>34500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="Q393" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28716,41 +28716,41 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J394" t="n">
+        <v>20</v>
+      </c>
+      <c r="K394" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L394" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M394" t="n">
+        <v>30500</v>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O394" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P394" t="n">
+        <v>305</v>
+      </c>
+      <c r="Q394" t="n">
         <v>100</v>
-      </c>
-      <c r="K394" t="n">
-        <v>8000</v>
-      </c>
-      <c r="L394" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M394" t="n">
-        <v>8500</v>
-      </c>
-      <c r="N394" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O394" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P394" t="n">
-        <v>121</v>
-      </c>
-      <c r="Q394" t="n">
-        <v>70</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28797,16 +28797,16 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K395" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="L395" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M395" t="n">
-        <v>27500</v>
+        <v>24000</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="Q395" t="n">
         <v>50</v>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28872,13 +28872,13 @@
         <v>50</v>
       </c>
       <c r="K396" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="L396" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="M396" t="n">
-        <v>25500</v>
+        <v>22500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q396" t="n">
         <v>75</v>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28941,7 +28941,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K397" t="n">
         <v>20000</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29004,7 +29004,7 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -29013,20 +29013,20 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K398" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="L398" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="M398" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>490</v>
+        <v>121</v>
       </c>
       <c r="Q398" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29081,24 +29081,24 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
         <v>40</v>
       </c>
       <c r="K399" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="L399" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="M399" t="n">
-        <v>24500</v>
+        <v>27500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>327</v>
+        <v>550</v>
       </c>
       <c r="Q399" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29153,24 +29153,24 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J400" t="n">
         <v>50</v>
       </c>
       <c r="K400" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L400" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M400" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>215</v>
+        <v>340</v>
       </c>
       <c r="Q400" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29225,24 +29225,24 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K401" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L401" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="M401" t="n">
-        <v>33500</v>
+        <v>20500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>447</v>
+        <v>205</v>
       </c>
       <c r="Q401" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29297,36 +29297,36 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
+        <v>40</v>
+      </c>
+      <c r="K402" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L402" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M402" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P402" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q402" t="n">
         <v>50</v>
-      </c>
-      <c r="K402" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L402" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M402" t="n">
-        <v>30500</v>
-      </c>
-      <c r="N402" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O402" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P402" t="n">
-        <v>305</v>
-      </c>
-      <c r="Q402" t="n">
-        <v>100</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29369,24 +29369,24 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
         <v>40</v>
       </c>
       <c r="K403" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L403" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="M403" t="n">
-        <v>33500</v>
+        <v>24500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>670</v>
+        <v>327</v>
       </c>
       <c r="Q403" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K404" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L404" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="M404" t="n">
-        <v>33500</v>
+        <v>21500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>447</v>
+        <v>215</v>
       </c>
       <c r="Q404" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29513,24 +29513,24 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
         <v>50</v>
       </c>
       <c r="K405" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L405" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M405" t="n">
-        <v>29500</v>
+        <v>33500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>295</v>
+        <v>447</v>
       </c>
       <c r="Q405" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K406" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="L406" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="M406" t="n">
-        <v>32500</v>
+        <v>30500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>433</v>
+        <v>305</v>
       </c>
       <c r="Q406" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,24 +29657,24 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K407" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L407" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M407" t="n">
-        <v>29500</v>
+        <v>33500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>295</v>
+        <v>670</v>
       </c>
       <c r="Q407" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29724,29 +29724,29 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K408" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L408" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="M408" t="n">
-        <v>12500</v>
+        <v>33500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>250</v>
+        <v>447</v>
       </c>
       <c r="Q408" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44270</v>
+        <v>44425</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29801,24 +29801,24 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K409" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L409" t="n">
         <v>30000</v>
       </c>
       <c r="M409" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>580</v>
+        <v>295</v>
       </c>
       <c r="Q409" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K410" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L410" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M410" t="n">
-        <v>29000</v>
+        <v>32500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="Q410" t="n">
         <v>75</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44270</v>
+        <v>44390</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K411" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L411" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M411" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="Q411" t="n">
         <v>100</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,20 +30021,20 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K412" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L412" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M412" t="n">
-        <v>29000</v>
+        <v>12500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="Q412" t="n">
         <v>50</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30089,24 +30089,24 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K413" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L413" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M413" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>367</v>
+        <v>580</v>
       </c>
       <c r="Q413" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30161,24 +30161,24 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K414" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L414" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M414" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="Q414" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44201</v>
+        <v>44270</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,29 +30228,29 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K415" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L415" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="M415" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="Q415" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,24 +30305,24 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K416" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L416" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M416" t="n">
-        <v>19500</v>
+        <v>29000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="Q416" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30377,24 +30377,24 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K417" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="L417" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="M417" t="n">
-        <v>18500</v>
+        <v>27500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>185</v>
+        <v>367</v>
       </c>
       <c r="Q417" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44389</v>
+        <v>44438</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,29 +30444,29 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K418" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L418" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M418" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q418" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K419" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L419" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="M419" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>680</v>
+        <v>107</v>
       </c>
       <c r="Q419" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K420" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="L420" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M420" t="n">
-        <v>34000</v>
+        <v>19500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>453</v>
+        <v>260</v>
       </c>
       <c r="Q420" t="n">
         <v>75</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44389</v>
+        <v>44201</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K421" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L421" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="M421" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="Q421" t="n">
         <v>100</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30744,13 +30744,13 @@
         <v>160</v>
       </c>
       <c r="K422" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L422" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M422" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -30763,7 +30763,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="Q422" t="n">
         <v>70</v>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30813,16 +30813,16 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K423" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L423" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M423" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>490</v>
+        <v>680</v>
       </c>
       <c r="Q423" t="n">
         <v>50</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K424" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L424" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M424" t="n">
-        <v>22500</v>
+        <v>34000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>300</v>
+        <v>453</v>
       </c>
       <c r="Q424" t="n">
         <v>75</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K425" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L425" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M425" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="Q425" t="n">
         <v>100</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K426" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L426" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M426" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q426" t="n">
         <v>70</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31101,7 +31101,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K427" t="n">
         <v>24000</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31176,13 +31176,13 @@
         <v>40</v>
       </c>
       <c r="K428" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L428" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M428" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="Q428" t="n">
         <v>75</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K429" t="n">
         <v>20000</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31308,29 +31308,29 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K430" t="n">
-        <v>31000</v>
+        <v>8000</v>
       </c>
       <c r="L430" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="M430" t="n">
-        <v>32000</v>
+        <v>8500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>427</v>
+        <v>121</v>
       </c>
       <c r="Q430" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31385,38 +31385,326 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
         <v>40</v>
       </c>
       <c r="K431" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L431" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M431" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P431" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>50</v>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D432" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E432" t="n">
+        <v>15</v>
+      </c>
+      <c r="F432" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J432" t="n">
+        <v>40</v>
+      </c>
+      <c r="K432" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L432" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M432" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P432" t="n">
+        <v>327</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>75</v>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D433" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E433" t="n">
+        <v>15</v>
+      </c>
+      <c r="F433" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J433" t="n">
+        <v>30</v>
+      </c>
+      <c r="K433" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L433" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M433" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P433" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>100</v>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D434" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E434" t="n">
+        <v>15</v>
+      </c>
+      <c r="F434" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J434" t="n">
+        <v>50</v>
+      </c>
+      <c r="K434" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L434" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M434" t="n">
+        <v>32000</v>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P434" t="n">
+        <v>427</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>75</v>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E435" t="n">
+        <v>15</v>
+      </c>
+      <c r="F435" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J435" t="n">
+        <v>40</v>
+      </c>
+      <c r="K435" t="n">
         <v>28000</v>
       </c>
-      <c r="L431" t="n">
+      <c r="L435" t="n">
         <v>30000</v>
       </c>
-      <c r="M431" t="n">
+      <c r="M435" t="n">
         <v>29000</v>
       </c>
-      <c r="N431" t="inlineStr">
+      <c r="N435" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
         </is>
       </c>
-      <c r="O431" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P431" t="n">
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P435" t="n">
         <v>290</v>
       </c>
-      <c r="Q431" t="n">
+      <c r="Q435" t="n">
         <v>100</v>
       </c>
-      <c r="R431" t="inlineStr">
+      <c r="R435" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R447"/>
+  <dimension ref="A1:R450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28077,16 +28077,16 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K385" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L385" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M385" t="n">
-        <v>26500</v>
+        <v>13500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>379</v>
+        <v>193</v>
       </c>
       <c r="Q385" t="n">
         <v>70</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28152,13 +28152,13 @@
         <v>40</v>
       </c>
       <c r="K386" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L386" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M386" t="n">
-        <v>31500</v>
+        <v>20500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>630</v>
+        <v>410</v>
       </c>
       <c r="Q386" t="n">
         <v>50</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28224,13 +28224,13 @@
         <v>50</v>
       </c>
       <c r="K387" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L387" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M387" t="n">
-        <v>29500</v>
+        <v>18500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="Q387" t="n">
         <v>75</v>
@@ -28284,29 +28284,29 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K388" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L388" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M388" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="Q388" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28356,7 +28356,7 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -28365,20 +28365,20 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K389" t="n">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="L389" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M389" t="n">
-        <v>11500</v>
+        <v>31500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>164</v>
+        <v>630</v>
       </c>
       <c r="Q389" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K391" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L391" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M391" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="Q391" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,29 +28572,29 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K392" t="n">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="L392" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M392" t="n">
-        <v>29500</v>
+        <v>11500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="Q392" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K393" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L393" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M393" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="Q393" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28725,16 +28725,16 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K394" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L394" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M394" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
@@ -28747,7 +28747,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="Q394" t="n">
         <v>70</v>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28793,7 +28793,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
@@ -28810,7 +28810,7 @@
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>590</v>
+        <v>393</v>
       </c>
       <c r="Q395" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J396" t="n">
         <v>40</v>
       </c>
       <c r="K396" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L396" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M396" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>393</v>
+        <v>275</v>
       </c>
       <c r="Q396" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28932,29 +28932,29 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K397" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="L397" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="M397" t="n">
-        <v>28500</v>
+        <v>8500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="Q397" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29016,13 +29016,13 @@
         <v>40</v>
       </c>
       <c r="K398" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L398" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M398" t="n">
-        <v>33500</v>
+        <v>29500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="Q398" t="n">
         <v>50</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29088,13 +29088,13 @@
         <v>40</v>
       </c>
       <c r="K399" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L399" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M399" t="n">
-        <v>33500</v>
+        <v>29500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="Q399" t="n">
         <v>75</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K400" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L400" t="n">
         <v>29000</v>
       </c>
-      <c r="L400" t="n">
-        <v>30000</v>
-      </c>
       <c r="M400" t="n">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q400" t="n">
         <v>100</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29225,24 +29225,24 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K401" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L401" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M401" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>327</v>
+        <v>670</v>
       </c>
       <c r="Q401" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29297,24 +29297,24 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K402" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L402" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="M402" t="n">
-        <v>20500</v>
+        <v>33500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="Q402" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29369,24 +29369,24 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K403" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L403" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M403" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="Q403" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K404" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L404" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M404" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q404" t="n">
         <v>75</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29517,7 +29517,7 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K405" t="n">
         <v>20000</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
         <v>40</v>
       </c>
       <c r="K406" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L406" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M406" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>313</v>
+        <v>490</v>
       </c>
       <c r="Q406" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,24 +29657,24 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K407" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L407" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M407" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q407" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29729,24 +29729,24 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K408" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L408" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M408" t="n">
-        <v>31000</v>
+        <v>20500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>413</v>
+        <v>205</v>
       </c>
       <c r="Q408" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29801,24 +29801,24 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
         <v>40</v>
       </c>
       <c r="K409" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L409" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="M409" t="n">
-        <v>28500</v>
+        <v>23500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Q409" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29868,29 +29868,29 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K410" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L410" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M410" t="n">
-        <v>26000</v>
+        <v>21500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>520</v>
+        <v>215</v>
       </c>
       <c r="Q410" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K411" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L411" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M411" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="Q411" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30012,29 +30012,29 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K412" t="n">
-        <v>6500</v>
+        <v>28000</v>
       </c>
       <c r="L412" t="n">
-        <v>7000</v>
+        <v>29000</v>
       </c>
       <c r="M412" t="n">
-        <v>6750</v>
+        <v>28500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="Q412" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -30093,20 +30093,20 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K413" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L413" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M413" t="n">
-        <v>36500</v>
+        <v>26000</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>730</v>
+        <v>520</v>
       </c>
       <c r="Q413" t="n">
         <v>50</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,20 +30165,20 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K414" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="L414" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M414" t="n">
-        <v>36500</v>
+        <v>22000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>487</v>
+        <v>314</v>
       </c>
       <c r="Q414" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,20 +30237,20 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="K415" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="L415" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="M415" t="n">
-        <v>24444</v>
+        <v>6750</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>489</v>
+        <v>96</v>
       </c>
       <c r="Q415" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,20 +30309,20 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K416" t="n">
-        <v>7000</v>
+        <v>36000</v>
       </c>
       <c r="L416" t="n">
-        <v>7500</v>
+        <v>37000</v>
       </c>
       <c r="M416" t="n">
-        <v>7250</v>
+        <v>36500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>104</v>
+        <v>730</v>
       </c>
       <c r="Q416" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30381,16 +30381,16 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K417" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L417" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="M417" t="n">
-        <v>35500</v>
+        <v>36500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="Q417" t="n">
         <v>75</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44238</v>
+        <v>44327</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30449,36 +30449,36 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
+        <v>45</v>
+      </c>
+      <c r="K418" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L418" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M418" t="n">
+        <v>24444</v>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P418" t="n">
+        <v>489</v>
+      </c>
+      <c r="Q418" t="n">
         <v>50</v>
-      </c>
-      <c r="K418" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L418" t="n">
-        <v>34000</v>
-      </c>
-      <c r="M418" t="n">
-        <v>33500</v>
-      </c>
-      <c r="N418" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O418" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P418" t="n">
-        <v>335</v>
-      </c>
-      <c r="Q418" t="n">
-        <v>100</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K419" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L419" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="M419" t="n">
-        <v>33500</v>
+        <v>7250</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>670</v>
+        <v>104</v>
       </c>
       <c r="Q419" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30600,13 +30600,13 @@
         <v>40</v>
       </c>
       <c r="K420" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L420" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M420" t="n">
-        <v>33500</v>
+        <v>35500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="Q420" t="n">
         <v>75</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30672,13 +30672,13 @@
         <v>50</v>
       </c>
       <c r="K421" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L421" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M421" t="n">
-        <v>31000</v>
+        <v>33500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="Q421" t="n">
         <v>100</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,20 +30741,20 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K422" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L422" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="M422" t="n">
-        <v>17500</v>
+        <v>33500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>250</v>
+        <v>670</v>
       </c>
       <c r="Q422" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30809,7 +30809,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
@@ -30819,14 +30819,14 @@
         <v>33000</v>
       </c>
       <c r="L423" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="M423" t="n">
-        <v>34000</v>
+        <v>33500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>680</v>
+        <v>447</v>
       </c>
       <c r="Q423" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30881,24 +30881,24 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J424" t="n">
         <v>50</v>
       </c>
       <c r="K424" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L424" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M424" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>453</v>
+        <v>310</v>
       </c>
       <c r="Q424" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30948,41 +30948,41 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J425" t="n">
+        <v>160</v>
+      </c>
+      <c r="K425" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L425" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M425" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P425" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q425" t="n">
         <v>70</v>
-      </c>
-      <c r="K425" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L425" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M425" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N425" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O425" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P425" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q425" t="n">
-        <v>100</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31032,13 +31032,13 @@
         <v>40</v>
       </c>
       <c r="K426" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L426" t="n">
         <v>35000</v>
       </c>
       <c r="M426" t="n">
-        <v>34500</v>
+        <v>34000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="Q426" t="n">
         <v>50</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31104,13 +31104,13 @@
         <v>50</v>
       </c>
       <c r="K427" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L427" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M427" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="Q427" t="n">
         <v>75</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,29 +31164,29 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K428" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="L428" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M428" t="n">
-        <v>11500</v>
+        <v>30000</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="Q428" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K429" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L429" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M429" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>490</v>
+        <v>690</v>
       </c>
       <c r="Q429" t="n">
         <v>50</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31317,16 +31317,16 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K430" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L430" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M430" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="Q430" t="n">
         <v>75</v>
@@ -31380,29 +31380,29 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K431" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L431" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M431" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q431" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,20 +31461,20 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K432" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L432" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M432" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="Q432" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31529,24 +31529,24 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J433" t="n">
         <v>40</v>
       </c>
       <c r="K433" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L433" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M433" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="Q433" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31601,24 +31601,24 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K434" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L434" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M434" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q434" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31668,29 +31668,29 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K435" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L435" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M435" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q435" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31745,36 +31745,36 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
+        <v>40</v>
+      </c>
+      <c r="K436" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L436" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M436" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P436" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q436" t="n">
         <v>50</v>
-      </c>
-      <c r="K436" t="n">
-        <v>31000</v>
-      </c>
-      <c r="L436" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M436" t="n">
-        <v>32000</v>
-      </c>
-      <c r="N436" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O436" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P436" t="n">
-        <v>427</v>
-      </c>
-      <c r="Q436" t="n">
-        <v>75</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31817,24 +31817,24 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J437" t="n">
         <v>40</v>
       </c>
       <c r="K437" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L437" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M437" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="Q437" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44307</v>
+        <v>44330</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31889,24 +31889,24 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K438" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L438" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M438" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>387</v>
+        <v>215</v>
       </c>
       <c r="Q438" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44307</v>
+        <v>44432</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31961,24 +31961,24 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K439" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L439" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M439" t="n">
-        <v>25500</v>
+        <v>32000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="Q439" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32033,24 +32033,24 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K440" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L440" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M440" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="Q440" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K441" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L441" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M441" t="n">
-        <v>22500</v>
+        <v>29000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="Q441" t="n">
         <v>75</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K442" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L442" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M442" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="Q442" t="n">
         <v>100</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32244,7 +32244,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -32253,20 +32253,20 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K443" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L443" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M443" t="n">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="Q443" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,41 +32316,41 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K444" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L444" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M444" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P444" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q444" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44201</v>
+        <v>44400</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,29 +32388,29 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K445" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L445" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M445" t="n">
-        <v>7500</v>
+        <v>20500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="Q445" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32460,29 +32460,29 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K446" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L446" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M446" t="n">
-        <v>19500</v>
+        <v>10500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q446" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32532,25 +32532,25 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K447" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L447" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M447" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
@@ -32559,16 +32559,232 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="Q447" t="n">
         <v>100</v>
       </c>
       <c r="R447" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>1</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D448" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E448" t="n">
+        <v>15</v>
+      </c>
+      <c r="F448" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>80</v>
+      </c>
+      <c r="K448" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L448" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M448" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P448" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>70</v>
+      </c>
+      <c r="R448" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>1</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D449" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E449" t="n">
+        <v>15</v>
+      </c>
+      <c r="F449" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>90</v>
+      </c>
+      <c r="K449" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L449" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M449" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P449" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>75</v>
+      </c>
+      <c r="R449" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>1</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D450" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E450" t="n">
+        <v>15</v>
+      </c>
+      <c r="F450" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>100</v>
+      </c>
+      <c r="K450" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L450" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M450" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P450" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>100</v>
+      </c>
+      <c r="R450" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R450"/>
+  <dimension ref="A1:R453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22968,13 +22968,13 @@
         <v>40</v>
       </c>
       <c r="K314" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L314" t="n">
         <v>23000</v>
       </c>
-      <c r="L314" t="n">
-        <v>24000</v>
-      </c>
       <c r="M314" t="n">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="Q314" t="n">
         <v>50</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K315" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L315" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M315" t="n">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="Q315" t="n">
         <v>75</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23109,16 +23109,16 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K316" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L316" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M316" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="Q316" t="n">
         <v>100</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -23181,32 +23181,32 @@
         </is>
       </c>
       <c r="J317" t="n">
+        <v>40</v>
+      </c>
+      <c r="K317" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L317" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M317" t="n">
+        <v>23500</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>470</v>
+      </c>
+      <c r="Q317" t="n">
         <v>50</v>
-      </c>
-      <c r="K317" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L317" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M317" t="n">
-        <v>34500</v>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>Valle de Camiña</t>
-        </is>
-      </c>
-      <c r="P317" t="n">
-        <v>345</v>
-      </c>
-      <c r="Q317" t="n">
-        <v>100</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44270</v>
+        <v>44406</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23244,29 +23244,29 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K318" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L318" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M318" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="Q318" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44270</v>
+        <v>44406</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23321,24 +23321,24 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K319" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L319" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M319" t="n">
-        <v>29000</v>
+        <v>20500</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O319" t="inlineStr">
@@ -23347,10 +23347,10 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="Q319" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R319" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23388,41 +23388,41 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K320" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L320" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M320" t="n">
-        <v>29000</v>
+        <v>34500</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P320" t="n">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="Q320" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R320" t="inlineStr">
         <is>
@@ -23460,29 +23460,29 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K321" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L321" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M321" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
@@ -23491,10 +23491,10 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q321" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R321" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23537,24 +23537,24 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K322" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L322" t="n">
         <v>30000</v>
       </c>
       <c r="M322" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O322" t="inlineStr">
@@ -23563,10 +23563,10 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>295</v>
+        <v>580</v>
       </c>
       <c r="Q322" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R322" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23604,29 +23604,29 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K323" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L323" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M323" t="n">
-        <v>13500</v>
+        <v>29000</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
@@ -23635,10 +23635,10 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="Q323" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R323" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23676,29 +23676,29 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K324" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="L324" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="M324" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
@@ -23707,10 +23707,10 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="Q324" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44336</v>
+        <v>44299</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23753,24 +23753,24 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J325" t="n">
         <v>40</v>
       </c>
       <c r="K325" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L325" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M325" t="n">
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="Q325" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44336</v>
+        <v>44257</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23820,41 +23820,41 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J326" t="n">
+        <v>140</v>
+      </c>
+      <c r="K326" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L326" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M326" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>$/malla 50 unidades</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q326" t="n">
         <v>50</v>
-      </c>
-      <c r="K326" t="n">
-        <v>21000</v>
-      </c>
-      <c r="L326" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M326" t="n">
-        <v>21500</v>
-      </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P326" t="n">
-        <v>215</v>
-      </c>
-      <c r="Q326" t="n">
-        <v>100</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44372</v>
+        <v>44257</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K327" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L327" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M327" t="n">
-        <v>16263</v>
+        <v>8500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="Q327" t="n">
         <v>70</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23969,24 +23969,24 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K328" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L328" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M328" t="n">
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="Q328" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K329" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L329" t="n">
         <v>22000</v>
       </c>
       <c r="M329" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="Q329" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24108,29 +24108,29 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K330" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L330" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M330" t="n">
-        <v>23000</v>
+        <v>16263</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="Q330" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K331" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L331" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M331" t="n">
-        <v>19600</v>
+        <v>22500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="Q331" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44403</v>
+        <v>44372</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24257,20 +24257,20 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J332" t="n">
         <v>40</v>
       </c>
       <c r="K332" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L332" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M332" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="Q332" t="n">
         <v>50</v>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44403</v>
+        <v>44372</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24333,16 +24333,16 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K333" t="n">
         <v>23000</v>
       </c>
       <c r="L333" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M333" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="Q333" t="n">
         <v>75</v>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44403</v>
+        <v>44372</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K334" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L334" t="n">
         <v>20000</v>
       </c>
-      <c r="L334" t="n">
-        <v>21000</v>
-      </c>
       <c r="M334" t="n">
-        <v>20500</v>
+        <v>19600</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q334" t="n">
         <v>100</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44169</v>
+        <v>44403</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24468,7 +24468,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24477,20 +24477,20 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K335" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L335" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M335" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>207</v>
+        <v>480</v>
       </c>
       <c r="Q335" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44169</v>
+        <v>44403</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K336" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L336" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M336" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q336" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44169</v>
+        <v>44403</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24617,24 +24617,24 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K337" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L337" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M337" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q337" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24684,7 +24684,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -24693,20 +24693,20 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K338" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L338" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M338" t="n">
-        <v>24625</v>
+        <v>14500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="Q338" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24761,24 +24761,24 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J339" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K339" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L339" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M339" t="n">
-        <v>24667</v>
+        <v>14500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O339" t="inlineStr">
@@ -24787,10 +24787,10 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="Q339" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R339" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24833,24 +24833,24 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J340" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K340" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L340" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M340" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O340" t="inlineStr">
@@ -24859,10 +24859,10 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="Q340" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R340" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44172</v>
+        <v>44376</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -24909,20 +24909,20 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K341" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L341" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M341" t="n">
-        <v>12500</v>
+        <v>24625</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O341" t="inlineStr">
@@ -24931,10 +24931,10 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>179</v>
+        <v>492</v>
       </c>
       <c r="Q341" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R341" t="inlineStr">
         <is>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44172</v>
+        <v>44376</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,20 +24981,20 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="K342" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L342" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M342" t="n">
-        <v>9500</v>
+        <v>24667</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>950</v>
+        <v>329</v>
       </c>
       <c r="Q342" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44172</v>
+        <v>44376</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K343" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L343" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M343" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>350</v>
+        <v>205</v>
       </c>
       <c r="Q343" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25116,29 +25116,29 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K344" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L344" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M344" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Q344" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25188,29 +25188,29 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K345" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L345" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M345" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>155</v>
+        <v>950</v>
       </c>
       <c r="Q345" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25269,16 +25269,16 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K346" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L346" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M346" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q346" t="n">
         <v>50</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25341,16 +25341,16 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K347" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L347" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M347" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="Q347" t="n">
         <v>75</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K348" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L348" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M348" t="n">
-        <v>25500</v>
+        <v>15500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="Q348" t="n">
         <v>100</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25485,20 +25485,20 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K349" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L349" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M349" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>270</v>
+        <v>590</v>
       </c>
       <c r="Q349" t="n">
         <v>50</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25548,29 +25548,29 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K350" t="n">
-        <v>7000</v>
+        <v>29000</v>
       </c>
       <c r="L350" t="n">
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="M350" t="n">
-        <v>7250</v>
+        <v>29500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>104</v>
+        <v>393</v>
       </c>
       <c r="Q350" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,25 +25620,25 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K351" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L351" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M351" t="n">
-        <v>34500</v>
+        <v>25500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>345</v>
+        <v>255</v>
       </c>
       <c r="Q351" t="n">
         <v>100</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,20 +25701,20 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K352" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L352" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M352" t="n">
-        <v>31500</v>
+        <v>13500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,7 +25723,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>630</v>
+        <v>270</v>
       </c>
       <c r="Q352" t="n">
         <v>50</v>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,29 +25764,29 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K353" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="L353" t="n">
-        <v>33000</v>
+        <v>7500</v>
       </c>
       <c r="M353" t="n">
-        <v>31500</v>
+        <v>7250</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="Q353" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25836,25 +25836,25 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K354" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L354" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M354" t="n">
-        <v>29000</v>
+        <v>34500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="Q354" t="n">
         <v>100</v>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,20 +25917,20 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K355" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="L355" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M355" t="n">
-        <v>7500</v>
+        <v>31500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>107</v>
+        <v>630</v>
       </c>
       <c r="Q355" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25980,25 +25980,25 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J356" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K356" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L356" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M356" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26007,11 +26007,11 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P356" t="n">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="Q356" t="n">
         <v>75</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26052,25 +26052,25 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K357" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L357" t="n">
         <v>30000</v>
       </c>
       <c r="M357" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26079,11 +26079,11 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P357" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q357" t="n">
         <v>100</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,32 +26133,32 @@
         </is>
       </c>
       <c r="J358" t="n">
+        <v>180</v>
+      </c>
+      <c r="K358" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L358" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M358" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q358" t="n">
         <v>70</v>
-      </c>
-      <c r="K358" t="n">
-        <v>32000</v>
-      </c>
-      <c r="L358" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M358" t="n">
-        <v>32500</v>
-      </c>
-      <c r="N358" t="inlineStr">
-        <is>
-          <t>$/saco 50 unidades</t>
-        </is>
-      </c>
-      <c r="O358" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P358" t="n">
-        <v>650</v>
-      </c>
-      <c r="Q358" t="n">
-        <v>50</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,25 +26196,25 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K359" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L359" t="n">
         <v>30000</v>
       </c>
       <c r="M359" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
@@ -26223,11 +26223,11 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q359" t="n">
         <v>75</v>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26268,25 +26268,25 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
         <v>50</v>
       </c>
       <c r="K360" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L360" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M360" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26295,11 +26295,11 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="Q360" t="n">
         <v>100</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26349,16 +26349,16 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K361" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="L361" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M361" t="n">
-        <v>19500</v>
+        <v>32500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>390</v>
+        <v>650</v>
       </c>
       <c r="Q361" t="n">
         <v>50</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26421,16 +26421,16 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K362" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L362" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M362" t="n">
-        <v>18500</v>
+        <v>29000</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="Q362" t="n">
         <v>75</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26496,13 +26496,13 @@
         <v>50</v>
       </c>
       <c r="K363" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L363" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M363" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="Q363" t="n">
         <v>100</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26568,13 +26568,13 @@
         <v>60</v>
       </c>
       <c r="K364" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L364" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M364" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
@@ -26587,7 +26587,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q364" t="n">
         <v>50</v>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26637,16 +26637,16 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K365" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L365" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M365" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="Q365" t="n">
         <v>75</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26700,29 +26700,29 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K366" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L366" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M366" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q366" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26781,32 +26781,32 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K367" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L367" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M367" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="Q367" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K368" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L368" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M368" t="n">
-        <v>24500</v>
+        <v>15500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="Q368" t="n">
         <v>75</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26916,41 +26916,41 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J369" t="n">
+        <v>120</v>
+      </c>
+      <c r="K369" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L369" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M369" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P369" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q369" t="n">
         <v>70</v>
-      </c>
-      <c r="K369" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L369" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M369" t="n">
-        <v>20500</v>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P369" t="n">
-        <v>205</v>
-      </c>
-      <c r="Q369" t="n">
-        <v>100</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26997,7 +26997,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K370" t="n">
         <v>29000</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44341</v>
+        <v>44441</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,29 +27060,29 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K371" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L371" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M371" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="Q371" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44350</v>
+        <v>44441</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27137,24 +27137,24 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K372" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L372" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M372" t="n">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O372" t="inlineStr">
@@ -27163,10 +27163,10 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>470</v>
+        <v>205</v>
       </c>
       <c r="Q372" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27204,41 +27204,41 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K373" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L373" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M373" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q373" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,29 +27276,29 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K374" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L374" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M374" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="Q374" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,20 +27357,20 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K375" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="L375" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M375" t="n">
-        <v>9500</v>
+        <v>23500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="Q375" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27425,24 +27425,24 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K376" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L376" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M376" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>490</v>
+        <v>287</v>
       </c>
       <c r="Q376" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27497,24 +27497,24 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K377" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L377" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M377" t="n">
-        <v>22500</v>
+        <v>19500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q377" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K378" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L378" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M378" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="Q378" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K379" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L379" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M379" t="n">
-        <v>32500</v>
+        <v>24500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="Q379" t="n">
         <v>50</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K380" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L380" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M380" t="n">
-        <v>27600</v>
+        <v>22500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="Q380" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44329</v>
+        <v>44312</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,41 +27780,41 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J381" t="n">
+        <v>20</v>
+      </c>
+      <c r="K381" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L381" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M381" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P381" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q381" t="n">
         <v>100</v>
-      </c>
-      <c r="K381" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L381" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M381" t="n">
-        <v>9500</v>
-      </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O381" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P381" t="n">
-        <v>136</v>
-      </c>
-      <c r="Q381" t="n">
-        <v>70</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44329</v>
+        <v>44382</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27861,16 +27861,16 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K382" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L382" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M382" t="n">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q382" t="n">
         <v>50</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44329</v>
+        <v>44382</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27929,24 +27929,24 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J383" t="n">
         <v>50</v>
       </c>
       <c r="K383" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L383" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M383" t="n">
-        <v>25500</v>
+        <v>27600</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="Q383" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,29 +27996,29 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L384" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M384" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q384" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,7 +28068,7 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -28077,20 +28077,20 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K385" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="L385" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M385" t="n">
-        <v>13500</v>
+        <v>27500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="Q385" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28145,24 +28145,24 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K386" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L386" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M386" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q386" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28217,24 +28217,24 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K387" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L387" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M387" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="Q387" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K388" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L388" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M388" t="n">
-        <v>26500</v>
+        <v>13500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>379</v>
+        <v>193</v>
       </c>
       <c r="Q388" t="n">
         <v>70</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28368,13 +28368,13 @@
         <v>40</v>
       </c>
       <c r="K389" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L389" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M389" t="n">
-        <v>31500</v>
+        <v>20500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>630</v>
+        <v>410</v>
       </c>
       <c r="Q389" t="n">
         <v>50</v>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28440,13 +28440,13 @@
         <v>50</v>
       </c>
       <c r="K390" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L390" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M390" t="n">
-        <v>29500</v>
+        <v>18500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
@@ -28459,7 +28459,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="Q390" t="n">
         <v>75</v>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K391" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L391" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M391" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="Q391" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,20 +28581,20 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K392" t="n">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="L392" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M392" t="n">
-        <v>11500</v>
+        <v>31500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>164</v>
+        <v>630</v>
       </c>
       <c r="Q392" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28716,29 +28716,29 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K394" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L394" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M394" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="Q394" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28788,29 +28788,29 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K395" t="n">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="L395" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M395" t="n">
-        <v>29500</v>
+        <v>11500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="Q395" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K396" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L396" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M396" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="Q396" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K397" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L397" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M397" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="Q397" t="n">
         <v>70</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29009,7 +29009,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
@@ -29026,7 +29026,7 @@
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>590</v>
+        <v>393</v>
       </c>
       <c r="Q398" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29081,24 +29081,24 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J399" t="n">
         <v>40</v>
       </c>
       <c r="K399" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L399" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M399" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>393</v>
+        <v>275</v>
       </c>
       <c r="Q399" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29148,29 +29148,29 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K400" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="L400" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="M400" t="n">
-        <v>28500</v>
+        <v>8500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="Q400" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29232,13 +29232,13 @@
         <v>40</v>
       </c>
       <c r="K401" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L401" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M401" t="n">
-        <v>33500</v>
+        <v>29500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="Q401" t="n">
         <v>50</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29304,13 +29304,13 @@
         <v>40</v>
       </c>
       <c r="K402" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L402" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M402" t="n">
-        <v>33500</v>
+        <v>29500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="Q402" t="n">
         <v>75</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K403" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L403" t="n">
         <v>29000</v>
       </c>
-      <c r="L403" t="n">
-        <v>30000</v>
-      </c>
       <c r="M403" t="n">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q403" t="n">
         <v>100</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K404" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L404" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M404" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>327</v>
+        <v>670</v>
       </c>
       <c r="Q404" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29513,24 +29513,24 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K405" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L405" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="M405" t="n">
-        <v>20500</v>
+        <v>33500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="Q405" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K406" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L406" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M406" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="Q406" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K407" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L407" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M407" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q407" t="n">
         <v>75</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29733,7 +29733,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K408" t="n">
         <v>20000</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29801,24 +29801,24 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
         <v>40</v>
       </c>
       <c r="K409" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L409" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M409" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>313</v>
+        <v>490</v>
       </c>
       <c r="Q409" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29873,24 +29873,24 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K410" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L410" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M410" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q410" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29945,24 +29945,24 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J411" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K411" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L411" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M411" t="n">
-        <v>31000</v>
+        <v>20500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>413</v>
+        <v>205</v>
       </c>
       <c r="Q411" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30017,24 +30017,24 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
         <v>40</v>
       </c>
       <c r="K412" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L412" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="M412" t="n">
-        <v>28500</v>
+        <v>23500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Q412" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30084,29 +30084,29 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K413" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L413" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M413" t="n">
-        <v>26000</v>
+        <v>21500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>520</v>
+        <v>215</v>
       </c>
       <c r="Q413" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -30165,20 +30165,20 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K414" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L414" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M414" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="Q414" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,29 +30228,29 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K415" t="n">
-        <v>6500</v>
+        <v>28000</v>
       </c>
       <c r="L415" t="n">
-        <v>7000</v>
+        <v>29000</v>
       </c>
       <c r="M415" t="n">
-        <v>6750</v>
+        <v>28500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="Q415" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30309,20 +30309,20 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K416" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L416" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M416" t="n">
-        <v>36500</v>
+        <v>26000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>730</v>
+        <v>520</v>
       </c>
       <c r="Q416" t="n">
         <v>50</v>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -30381,20 +30381,20 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K417" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="L417" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M417" t="n">
-        <v>36500</v>
+        <v>22000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>487</v>
+        <v>314</v>
       </c>
       <c r="Q417" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,20 +30453,20 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="K418" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="L418" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="M418" t="n">
-        <v>24444</v>
+        <v>6750</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>489</v>
+        <v>96</v>
       </c>
       <c r="Q418" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,20 +30525,20 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K419" t="n">
-        <v>7000</v>
+        <v>36000</v>
       </c>
       <c r="L419" t="n">
-        <v>7500</v>
+        <v>37000</v>
       </c>
       <c r="M419" t="n">
-        <v>7250</v>
+        <v>36500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>104</v>
+        <v>730</v>
       </c>
       <c r="Q419" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30597,16 +30597,16 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K420" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L420" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="M420" t="n">
-        <v>35500</v>
+        <v>36500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="Q420" t="n">
         <v>75</v>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44238</v>
+        <v>44327</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30665,36 +30665,36 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
+        <v>45</v>
+      </c>
+      <c r="K421" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L421" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M421" t="n">
+        <v>24444</v>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P421" t="n">
+        <v>489</v>
+      </c>
+      <c r="Q421" t="n">
         <v>50</v>
-      </c>
-      <c r="K421" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L421" t="n">
-        <v>34000</v>
-      </c>
-      <c r="M421" t="n">
-        <v>33500</v>
-      </c>
-      <c r="N421" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P421" t="n">
-        <v>335</v>
-      </c>
-      <c r="Q421" t="n">
-        <v>100</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,7 +30732,7 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -30741,20 +30741,20 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K422" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L422" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="M422" t="n">
-        <v>33500</v>
+        <v>7250</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>670</v>
+        <v>104</v>
       </c>
       <c r="Q422" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30816,13 +30816,13 @@
         <v>40</v>
       </c>
       <c r="K423" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L423" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M423" t="n">
-        <v>33500</v>
+        <v>35500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -30835,7 +30835,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="Q423" t="n">
         <v>75</v>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30888,13 +30888,13 @@
         <v>50</v>
       </c>
       <c r="K424" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L424" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M424" t="n">
-        <v>31000</v>
+        <v>33500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="Q424" t="n">
         <v>100</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,20 +30957,20 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K425" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L425" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="M425" t="n">
-        <v>17500</v>
+        <v>33500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>250</v>
+        <v>670</v>
       </c>
       <c r="Q425" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31025,7 +31025,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J426" t="n">
@@ -31035,14 +31035,14 @@
         <v>33000</v>
       </c>
       <c r="L426" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="M426" t="n">
-        <v>34000</v>
+        <v>33500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>680</v>
+        <v>447</v>
       </c>
       <c r="Q426" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31097,24 +31097,24 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J427" t="n">
         <v>50</v>
       </c>
       <c r="K427" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L427" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M427" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>453</v>
+        <v>310</v>
       </c>
       <c r="Q427" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31164,41 +31164,41 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J428" t="n">
+        <v>160</v>
+      </c>
+      <c r="K428" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L428" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M428" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P428" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q428" t="n">
         <v>70</v>
-      </c>
-      <c r="K428" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L428" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M428" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N428" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O428" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P428" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q428" t="n">
-        <v>100</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31248,13 +31248,13 @@
         <v>40</v>
       </c>
       <c r="K429" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L429" t="n">
         <v>35000</v>
       </c>
       <c r="M429" t="n">
-        <v>34500</v>
+        <v>34000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="Q429" t="n">
         <v>50</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31320,13 +31320,13 @@
         <v>50</v>
       </c>
       <c r="K430" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L430" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M430" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="Q430" t="n">
         <v>75</v>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31380,29 +31380,29 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K431" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="L431" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M431" t="n">
-        <v>11500</v>
+        <v>30000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="Q431" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31461,16 +31461,16 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K432" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L432" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M432" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>490</v>
+        <v>690</v>
       </c>
       <c r="Q432" t="n">
         <v>50</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K433" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L433" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M433" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="Q433" t="n">
         <v>75</v>
@@ -31596,29 +31596,29 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K434" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L434" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M434" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q434" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,20 +31677,20 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K435" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L435" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M435" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="Q435" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31745,24 +31745,24 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J436" t="n">
         <v>40</v>
       </c>
       <c r="K436" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L436" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M436" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="Q436" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31817,24 +31817,24 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J437" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K437" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L437" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M437" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q437" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31884,29 +31884,29 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K438" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L438" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M438" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q438" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31961,36 +31961,36 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
+        <v>40</v>
+      </c>
+      <c r="K439" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L439" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M439" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O439" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P439" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q439" t="n">
         <v>50</v>
-      </c>
-      <c r="K439" t="n">
-        <v>31000</v>
-      </c>
-      <c r="L439" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M439" t="n">
-        <v>32000</v>
-      </c>
-      <c r="N439" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O439" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P439" t="n">
-        <v>427</v>
-      </c>
-      <c r="Q439" t="n">
-        <v>75</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32033,24 +32033,24 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J440" t="n">
         <v>40</v>
       </c>
       <c r="K440" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L440" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M440" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="Q440" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44307</v>
+        <v>44330</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32105,24 +32105,24 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K441" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L441" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M441" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>387</v>
+        <v>215</v>
       </c>
       <c r="Q441" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44307</v>
+        <v>44432</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32177,24 +32177,24 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K442" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L442" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M442" t="n">
-        <v>25500</v>
+        <v>32000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="Q442" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32249,24 +32249,24 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K443" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L443" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M443" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="Q443" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K444" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L444" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M444" t="n">
-        <v>22500</v>
+        <v>29000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="Q444" t="n">
         <v>75</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32397,16 +32397,16 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K445" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L445" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M445" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="Q445" t="n">
         <v>100</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -32469,20 +32469,20 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K446" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L446" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M446" t="n">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="Q446" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32532,41 +32532,41 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K447" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L447" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M447" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P447" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q447" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44201</v>
+        <v>44400</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32604,29 +32604,29 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K448" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L448" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M448" t="n">
-        <v>7500</v>
+        <v>20500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="Q448" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32676,29 +32676,29 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K449" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L449" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M449" t="n">
-        <v>19500</v>
+        <v>10500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q449" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32748,25 +32748,25 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K450" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L450" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M450" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,16 +32775,232 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="Q450" t="n">
         <v>100</v>
       </c>
       <c r="R450" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D451" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E451" t="n">
+        <v>15</v>
+      </c>
+      <c r="F451" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J451" t="n">
+        <v>80</v>
+      </c>
+      <c r="K451" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L451" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M451" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P451" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>70</v>
+      </c>
+      <c r="R451" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D452" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E452" t="n">
+        <v>15</v>
+      </c>
+      <c r="F452" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J452" t="n">
+        <v>90</v>
+      </c>
+      <c r="K452" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L452" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M452" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P452" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>75</v>
+      </c>
+      <c r="R452" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>1</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D453" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E453" t="n">
+        <v>15</v>
+      </c>
+      <c r="F453" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>100</v>
+      </c>
+      <c r="K453" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L453" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M453" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P453" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>100</v>
+      </c>
+      <c r="R453" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R453"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25116,29 +25116,29 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K344" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L344" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M344" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>179</v>
+        <v>273</v>
       </c>
       <c r="Q344" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25188,29 +25188,29 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J345" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K345" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L345" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M345" t="n">
-        <v>9500</v>
+        <v>19500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>950</v>
+        <v>195</v>
       </c>
       <c r="Q345" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -25269,20 +25269,20 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K346" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L346" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M346" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>350</v>
+        <v>179</v>
       </c>
       <c r="Q346" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25341,20 +25341,20 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="K347" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L347" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M347" t="n">
-        <v>16500</v>
+        <v>9500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>220</v>
+        <v>950</v>
       </c>
       <c r="Q347" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25409,24 +25409,24 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
         <v>50</v>
       </c>
       <c r="K348" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L348" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M348" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O348" t="inlineStr">
@@ -25435,10 +25435,10 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="Q348" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25481,24 +25481,24 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K349" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L349" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M349" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>590</v>
+        <v>220</v>
       </c>
       <c r="Q349" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25553,24 +25553,24 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J350" t="n">
         <v>50</v>
       </c>
       <c r="K350" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L350" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M350" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>393</v>
+        <v>155</v>
       </c>
       <c r="Q350" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25625,24 +25625,24 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K351" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L351" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M351" t="n">
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>255</v>
+        <v>590</v>
       </c>
       <c r="Q351" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25692,29 +25692,29 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K352" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L352" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M352" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>270</v>
+        <v>393</v>
       </c>
       <c r="Q352" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25764,29 +25764,29 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K353" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="L353" t="n">
-        <v>7500</v>
+        <v>26000</v>
       </c>
       <c r="M353" t="n">
-        <v>7250</v>
+        <v>25500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="Q353" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25845,32 +25845,32 @@
         </is>
       </c>
       <c r="J354" t="n">
+        <v>100</v>
+      </c>
+      <c r="K354" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L354" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M354" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>$/malla 50 unidades</t>
+        </is>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q354" t="n">
         <v>50</v>
-      </c>
-      <c r="K354" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L354" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M354" t="n">
-        <v>34500</v>
-      </c>
-      <c r="N354" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O354" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P354" t="n">
-        <v>345</v>
-      </c>
-      <c r="Q354" t="n">
-        <v>100</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25908,7 +25908,7 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25917,20 +25917,20 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K355" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="L355" t="n">
-        <v>33000</v>
+        <v>7500</v>
       </c>
       <c r="M355" t="n">
-        <v>31500</v>
+        <v>7250</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>630</v>
+        <v>104</v>
       </c>
       <c r="Q355" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25980,29 +25980,29 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J356" t="n">
         <v>50</v>
       </c>
       <c r="K356" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="L356" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M356" t="n">
-        <v>31500</v>
+        <v>34500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O356" t="inlineStr">
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="Q356" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -26057,24 +26057,24 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J357" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K357" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L357" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M357" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O357" t="inlineStr">
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>290</v>
+        <v>630</v>
       </c>
       <c r="Q357" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R357" t="inlineStr">
         <is>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,29 +26124,29 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J358" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K358" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="L358" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M358" t="n">
-        <v>7500</v>
+        <v>31500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>107</v>
+        <v>420</v>
       </c>
       <c r="Q358" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,41 +26196,41 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K359" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L359" t="n">
         <v>30000</v>
       </c>
       <c r="M359" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P359" t="n">
-        <v>393</v>
+        <v>290</v>
       </c>
       <c r="Q359" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26268,41 +26268,41 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K360" t="n">
-        <v>29000</v>
+        <v>7000</v>
       </c>
       <c r="L360" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M360" t="n">
-        <v>29500</v>
+        <v>7500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P360" t="n">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="Q360" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,32 +26349,32 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K361" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L361" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M361" t="n">
-        <v>32500</v>
+        <v>29500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P361" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="Q361" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,32 +26421,32 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K362" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L362" t="n">
         <v>30000</v>
       </c>
       <c r="M362" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P362" t="n">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="Q362" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26489,36 +26489,36 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
+        <v>70</v>
+      </c>
+      <c r="K363" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L363" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M363" t="n">
+        <v>32500</v>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O363" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P363" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q363" t="n">
         <v>50</v>
-      </c>
-      <c r="K363" t="n">
-        <v>24000</v>
-      </c>
-      <c r="L363" t="n">
-        <v>25000</v>
-      </c>
-      <c r="M363" t="n">
-        <v>24500</v>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O363" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P363" t="n">
-        <v>245</v>
-      </c>
-      <c r="Q363" t="n">
-        <v>100</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26561,24 +26561,24 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K364" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="L364" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M364" t="n">
-        <v>19500</v>
+        <v>29000</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q364" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26633,24 +26633,24 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K365" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L365" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M365" t="n">
-        <v>18500</v>
+        <v>24500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Q365" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26705,36 +26705,36 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J366" t="n">
+        <v>60</v>
+      </c>
+      <c r="K366" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L366" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M366" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O366" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P366" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q366" t="n">
         <v>50</v>
-      </c>
-      <c r="K366" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L366" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M366" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P366" t="n">
-        <v>175</v>
-      </c>
-      <c r="Q366" t="n">
-        <v>100</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26777,24 +26777,24 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J367" t="n">
         <v>60</v>
       </c>
       <c r="K367" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L367" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M367" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O367" t="inlineStr">
@@ -26803,10 +26803,10 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>350</v>
+        <v>247</v>
       </c>
       <c r="Q367" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26849,24 +26849,24 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K368" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L368" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M368" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O368" t="inlineStr">
@@ -26875,10 +26875,10 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="Q368" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R368" t="inlineStr">
         <is>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26916,7 +26916,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26925,20 +26925,20 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K369" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L369" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M369" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O369" t="inlineStr">
@@ -26947,10 +26947,10 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>164</v>
+        <v>350</v>
       </c>
       <c r="Q369" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R369" t="inlineStr">
         <is>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26988,41 +26988,41 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J370" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="K370" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L370" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M370" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="Q370" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27060,29 +27060,29 @@
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J371" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K371" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L371" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M371" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O371" t="inlineStr">
@@ -27091,10 +27091,10 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="Q371" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27132,25 +27132,25 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J372" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="K372" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L372" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M372" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27159,11 +27159,11 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P372" t="n">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q372" t="n">
         <v>100</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44279</v>
+        <v>44441</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27204,41 +27204,41 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
         <v>50</v>
       </c>
       <c r="K373" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L373" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M373" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="Q373" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44341</v>
+        <v>44441</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,29 +27276,29 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K374" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L374" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M374" t="n">
-        <v>9500</v>
+        <v>20500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="Q374" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27360,29 +27360,29 @@
         <v>50</v>
       </c>
       <c r="K375" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L375" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M375" t="n">
-        <v>23500</v>
+        <v>29500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P375" t="n">
-        <v>470</v>
+        <v>295</v>
       </c>
       <c r="Q375" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27420,41 +27420,41 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
+        <v>200</v>
+      </c>
+      <c r="K376" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L376" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M376" t="n">
+        <v>9500</v>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P376" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q376" t="n">
         <v>70</v>
-      </c>
-      <c r="K376" t="n">
-        <v>21000</v>
-      </c>
-      <c r="L376" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M376" t="n">
-        <v>21500</v>
-      </c>
-      <c r="N376" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O376" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P376" t="n">
-        <v>287</v>
-      </c>
-      <c r="Q376" t="n">
-        <v>75</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27497,24 +27497,24 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
         <v>50</v>
       </c>
       <c r="K377" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L377" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M377" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="Q377" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K378" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="L378" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M378" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="Q378" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J379" t="n">
         <v>50</v>
       </c>
       <c r="K379" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L379" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M379" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>490</v>
+        <v>195</v>
       </c>
       <c r="Q379" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27708,29 +27708,29 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K380" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L380" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="M380" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="Q380" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27785,24 +27785,24 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K381" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L381" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M381" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="Q381" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27857,24 +27857,24 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K382" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="L382" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="M382" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="Q382" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K383" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L383" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M383" t="n">
-        <v>27600</v>
+        <v>20500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>276</v>
+        <v>205</v>
       </c>
       <c r="Q383" t="n">
         <v>100</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44329</v>
+        <v>44382</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,20 +28005,20 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K384" t="n">
-        <v>9000</v>
+        <v>32000</v>
       </c>
       <c r="L384" t="n">
-        <v>10000</v>
+        <v>33000</v>
       </c>
       <c r="M384" t="n">
-        <v>9500</v>
+        <v>32500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>136</v>
+        <v>650</v>
       </c>
       <c r="Q384" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44329</v>
+        <v>44382</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28073,11 +28073,11 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K385" t="n">
         <v>27000</v>
@@ -28086,11 +28086,11 @@
         <v>28000</v>
       </c>
       <c r="M385" t="n">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>550</v>
+        <v>276</v>
       </c>
       <c r="Q385" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28140,29 +28140,29 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K386" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L386" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M386" t="n">
-        <v>25500</v>
+        <v>9500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="Q386" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28217,24 +28217,24 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
         <v>40</v>
       </c>
       <c r="K387" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="L387" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M387" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>215</v>
+        <v>550</v>
       </c>
       <c r="Q387" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,29 +28284,29 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K388" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="L388" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M388" t="n">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>193</v>
+        <v>340</v>
       </c>
       <c r="Q388" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28361,24 +28361,24 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J389" t="n">
         <v>40</v>
       </c>
       <c r="K389" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L389" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M389" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="Q389" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28428,29 +28428,29 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K390" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L390" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M390" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="Q390" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,7 +28500,7 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28509,20 +28509,20 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K391" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L391" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M391" t="n">
-        <v>26500</v>
+        <v>20500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="Q391" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28577,24 +28577,24 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K392" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="L392" t="n">
-        <v>32000</v>
+        <v>19000</v>
       </c>
       <c r="M392" t="n">
-        <v>31500</v>
+        <v>18500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>630</v>
+        <v>247</v>
       </c>
       <c r="Q392" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28644,29 +28644,29 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L393" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M393" t="n">
-        <v>29500</v>
+        <v>26500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q393" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28721,24 +28721,24 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K394" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="L394" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M394" t="n">
-        <v>24500</v>
+        <v>31500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>245</v>
+        <v>630</v>
       </c>
       <c r="Q394" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28788,29 +28788,29 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K395" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="L395" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M395" t="n">
-        <v>11500</v>
+        <v>29500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>164</v>
+        <v>393</v>
       </c>
       <c r="Q395" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K396" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L396" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M396" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>393</v>
+        <v>245</v>
       </c>
       <c r="Q396" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28944,13 +28944,13 @@
         <v>120</v>
       </c>
       <c r="K397" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L397" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M397" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="Q397" t="n">
         <v>70</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29013,7 +29013,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K398" t="n">
         <v>29000</v>
@@ -29076,29 +29076,29 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K399" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L399" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M399" t="n">
-        <v>27500</v>
+        <v>14500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="Q399" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29148,29 +29148,29 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K400" t="n">
-        <v>8000</v>
+        <v>29000</v>
       </c>
       <c r="L400" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="M400" t="n">
-        <v>8500</v>
+        <v>29500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>121</v>
+        <v>393</v>
       </c>
       <c r="Q400" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29225,24 +29225,24 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J401" t="n">
         <v>40</v>
       </c>
       <c r="K401" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L401" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M401" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>590</v>
+        <v>275</v>
       </c>
       <c r="Q401" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,29 +29292,29 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K402" t="n">
-        <v>29000</v>
+        <v>8000</v>
       </c>
       <c r="L402" t="n">
-        <v>30000</v>
+        <v>9000</v>
       </c>
       <c r="M402" t="n">
-        <v>29500</v>
+        <v>8500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>393</v>
+        <v>121</v>
       </c>
       <c r="Q402" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29369,24 +29369,24 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
         <v>40</v>
       </c>
       <c r="K403" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L403" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="M403" t="n">
-        <v>28500</v>
+        <v>29500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>285</v>
+        <v>590</v>
       </c>
       <c r="Q403" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
         <v>40</v>
       </c>
       <c r="K404" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L404" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M404" t="n">
-        <v>33500</v>
+        <v>29500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>670</v>
+        <v>393</v>
       </c>
       <c r="Q404" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29513,24 +29513,24 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J405" t="n">
         <v>40</v>
       </c>
       <c r="K405" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L405" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="M405" t="n">
-        <v>33500</v>
+        <v>28500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="Q405" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29585,36 +29585,36 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
+        <v>40</v>
+      </c>
+      <c r="K406" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L406" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M406" t="n">
+        <v>33500</v>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P406" t="n">
+        <v>670</v>
+      </c>
+      <c r="Q406" t="n">
         <v>50</v>
-      </c>
-      <c r="K406" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L406" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M406" t="n">
-        <v>29500</v>
-      </c>
-      <c r="N406" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O406" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P406" t="n">
-        <v>295</v>
-      </c>
-      <c r="Q406" t="n">
-        <v>100</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29661,16 +29661,16 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K407" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L407" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M407" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="Q407" t="n">
         <v>75</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29733,16 +29733,16 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K408" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L408" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M408" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q408" t="n">
         <v>100</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29801,11 +29801,11 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K409" t="n">
         <v>24000</v>
@@ -29818,7 +29818,7 @@
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>490</v>
+        <v>327</v>
       </c>
       <c r="Q409" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29873,24 +29873,24 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K410" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L410" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="M410" t="n">
-        <v>22500</v>
+        <v>20500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="Q410" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29945,24 +29945,24 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J411" t="n">
         <v>40</v>
       </c>
       <c r="K411" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L411" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M411" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="Q411" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K412" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L412" t="n">
         <v>23000</v>
       </c>
-      <c r="L412" t="n">
-        <v>24000</v>
-      </c>
       <c r="M412" t="n">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="Q412" t="n">
         <v>75</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30093,16 +30093,16 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K413" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L413" t="n">
         <v>21000</v>
       </c>
-      <c r="L413" t="n">
-        <v>22000</v>
-      </c>
       <c r="M413" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q413" t="n">
         <v>100</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30165,16 +30165,16 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K414" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="L414" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="M414" t="n">
-        <v>31000</v>
+        <v>23500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="Q414" t="n">
         <v>75</v>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30237,16 +30237,16 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K415" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L415" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="M415" t="n">
-        <v>28500</v>
+        <v>21500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="Q415" t="n">
         <v>100</v>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,29 +30300,29 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="K416" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L416" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="M416" t="n">
-        <v>26000</v>
+        <v>31000</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>520</v>
+        <v>413</v>
       </c>
       <c r="Q416" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30372,29 +30372,29 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K417" t="n">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="L417" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="M417" t="n">
-        <v>22000</v>
+        <v>28500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="Q417" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30444,7 +30444,7 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -30453,20 +30453,20 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K418" t="n">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="L418" t="n">
-        <v>7000</v>
+        <v>27000</v>
       </c>
       <c r="M418" t="n">
-        <v>6750</v>
+        <v>26000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>96</v>
+        <v>520</v>
       </c>
       <c r="Q418" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30516,29 +30516,29 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K419" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="L419" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M419" t="n">
-        <v>36500</v>
+        <v>22000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>730</v>
+        <v>314</v>
       </c>
       <c r="Q419" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30588,29 +30588,29 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="K420" t="n">
-        <v>36000</v>
+        <v>6500</v>
       </c>
       <c r="L420" t="n">
-        <v>37000</v>
+        <v>7000</v>
       </c>
       <c r="M420" t="n">
-        <v>36500</v>
+        <v>6750</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>487</v>
+        <v>96</v>
       </c>
       <c r="Q420" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30669,16 +30669,16 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K421" t="n">
-        <v>24000</v>
+        <v>36000</v>
       </c>
       <c r="L421" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M421" t="n">
-        <v>24444</v>
+        <v>36500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -30691,7 +30691,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>489</v>
+        <v>730</v>
       </c>
       <c r="Q421" t="n">
         <v>50</v>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,29 +30732,29 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="K422" t="n">
-        <v>7000</v>
+        <v>36000</v>
       </c>
       <c r="L422" t="n">
-        <v>7500</v>
+        <v>37000</v>
       </c>
       <c r="M422" t="n">
-        <v>7250</v>
+        <v>36500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>104</v>
+        <v>487</v>
       </c>
       <c r="Q422" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44238</v>
+        <v>44327</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30809,24 +30809,24 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K423" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L423" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M423" t="n">
-        <v>35500</v>
+        <v>24444</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="Q423" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30876,29 +30876,29 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K424" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L424" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="M424" t="n">
-        <v>33500</v>
+        <v>7250</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="Q424" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30953,24 +30953,24 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K425" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L425" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M425" t="n">
-        <v>33500</v>
+        <v>35500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>670</v>
+        <v>473</v>
       </c>
       <c r="Q425" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31025,11 +31025,11 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K426" t="n">
         <v>33000</v>
@@ -31042,7 +31042,7 @@
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>447</v>
+        <v>335</v>
       </c>
       <c r="Q426" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31097,24 +31097,24 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
         <v>50</v>
       </c>
       <c r="K427" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L427" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M427" t="n">
-        <v>31000</v>
+        <v>33500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>310</v>
+        <v>670</v>
       </c>
       <c r="Q427" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,29 +31164,29 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K428" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L428" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="M428" t="n">
-        <v>17500</v>
+        <v>33500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>250</v>
+        <v>447</v>
       </c>
       <c r="Q428" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31241,24 +31241,24 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K429" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L429" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M429" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>680</v>
+        <v>310</v>
       </c>
       <c r="Q429" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31308,29 +31308,29 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K430" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L430" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M430" t="n">
-        <v>34000</v>
+        <v>17500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="Q430" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31385,24 +31385,24 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K431" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L431" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M431" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="Q431" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31457,24 +31457,24 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K432" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L432" t="n">
         <v>35000</v>
       </c>
       <c r="M432" t="n">
-        <v>34500</v>
+        <v>34000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>690</v>
+        <v>453</v>
       </c>
       <c r="Q432" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31529,24 +31529,24 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J433" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K433" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="L433" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="M433" t="n">
-        <v>32500</v>
+        <v>30000</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O433" t="inlineStr">
@@ -31555,10 +31555,10 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="Q433" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,20 +31605,20 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K434" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L434" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M434" t="n">
-        <v>11500</v>
+        <v>34500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>164</v>
+        <v>690</v>
       </c>
       <c r="Q434" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31673,24 +31673,24 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
         <v>50</v>
       </c>
       <c r="K435" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L435" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M435" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>490</v>
+        <v>433</v>
       </c>
       <c r="Q435" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31740,29 +31740,29 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K436" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L436" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M436" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="Q436" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31817,24 +31817,24 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
         <v>50</v>
       </c>
       <c r="K437" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L437" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M437" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="Q437" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31884,29 +31884,29 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K438" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L438" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M438" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="Q438" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31961,24 +31961,24 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K439" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L439" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M439" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>550</v>
+        <v>205</v>
       </c>
       <c r="Q439" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32028,29 +32028,29 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K440" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="L440" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M440" t="n">
-        <v>24500</v>
+        <v>9500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="Q440" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32105,24 +32105,24 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K441" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="L441" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M441" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>215</v>
+        <v>550</v>
       </c>
       <c r="Q441" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K442" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="L442" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M442" t="n">
-        <v>32000</v>
+        <v>24500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="Q442" t="n">
         <v>75</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K443" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L443" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M443" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="Q443" t="n">
         <v>100</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44307</v>
+        <v>44432</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K444" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="L444" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M444" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="Q444" t="n">
         <v>75</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44307</v>
+        <v>44432</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32400,13 +32400,13 @@
         <v>40</v>
       </c>
       <c r="K445" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="L445" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M445" t="n">
-        <v>25500</v>
+        <v>29000</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="Q445" t="n">
         <v>100</v>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32465,24 +32465,24 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K446" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L446" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M446" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>490</v>
+        <v>387</v>
       </c>
       <c r="Q446" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32537,24 +32537,24 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K447" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L447" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M447" t="n">
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="Q447" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32609,24 +32609,24 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
         <v>50</v>
       </c>
       <c r="K448" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L448" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M448" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="Q448" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32676,29 +32676,29 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K449" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L449" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="M449" t="n">
-        <v>10500</v>
+        <v>22500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="Q449" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32748,25 +32748,25 @@
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K450" t="n">
-        <v>29000</v>
+        <v>20000</v>
       </c>
       <c r="L450" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M450" t="n">
-        <v>29500</v>
+        <v>20500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32775,11 +32775,11 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P450" t="n">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="Q450" t="n">
         <v>100</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32829,16 +32829,16 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K451" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L451" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M451" t="n">
-        <v>7500</v>
+        <v>10500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="Q451" t="n">
         <v>70</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32892,41 +32892,41 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K452" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L452" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M452" t="n">
-        <v>19500</v>
+        <v>29500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P452" t="n">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="Q452" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32964,43 +32964,187 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>80</v>
+      </c>
+      <c r="K453" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L453" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M453" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O453" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P453" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>70</v>
+      </c>
+      <c r="R453" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>1</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D454" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E454" t="n">
+        <v>15</v>
+      </c>
+      <c r="F454" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>90</v>
+      </c>
+      <c r="K454" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L454" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M454" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P454" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>75</v>
+      </c>
+      <c r="R454" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D455" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E455" t="n">
+        <v>15</v>
+      </c>
+      <c r="F455" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="J453" t="n">
+      <c r="J455" t="n">
         <v>100</v>
       </c>
-      <c r="K453" t="n">
+      <c r="K455" t="n">
         <v>18000</v>
       </c>
-      <c r="L453" t="n">
+      <c r="L455" t="n">
         <v>19000</v>
       </c>
-      <c r="M453" t="n">
+      <c r="M455" t="n">
         <v>18500</v>
       </c>
-      <c r="N453" t="inlineStr">
+      <c r="N455" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
         </is>
       </c>
-      <c r="O453" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P453" t="n">
+      <c r="O455" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P455" t="n">
         <v>185</v>
       </c>
-      <c r="Q453" t="n">
+      <c r="Q455" t="n">
         <v>100</v>
       </c>
-      <c r="R453" t="inlineStr">
+      <c r="R455" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R459"/>
+  <dimension ref="A1:R462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44245</v>
+        <v>44529</v>
       </c>
       <c r="E304" t="n">
         <v>15</v>
@@ -22241,24 +22241,24 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K304" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L304" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="M304" t="n">
-        <v>35500</v>
+        <v>20500</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
@@ -22267,10 +22267,10 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="Q304" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R304" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44245</v>
+        <v>44529</v>
       </c>
       <c r="E305" t="n">
         <v>15</v>
@@ -22313,24 +22313,24 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K305" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L305" t="n">
-        <v>33000</v>
+        <v>19000</v>
       </c>
       <c r="M305" t="n">
-        <v>32500</v>
+        <v>18500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
@@ -22339,10 +22339,10 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="Q305" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R305" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E306" t="n">
         <v>15</v>
@@ -22380,29 +22380,29 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K306" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L306" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M306" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O306" t="inlineStr">
@@ -22411,10 +22411,10 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q306" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R306" t="inlineStr">
         <is>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E307" t="n">
         <v>15</v>
@@ -22457,24 +22457,24 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K307" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L307" t="n">
-        <v>25000</v>
+        <v>36000</v>
       </c>
       <c r="M307" t="n">
-        <v>24500</v>
+        <v>35500</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O307" t="inlineStr">
@@ -22483,10 +22483,10 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="Q307" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R307" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44323</v>
+        <v>44245</v>
       </c>
       <c r="E308" t="n">
         <v>15</v>
@@ -22529,24 +22529,24 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K308" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L308" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M308" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O308" t="inlineStr">
@@ -22555,10 +22555,10 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q308" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R308" t="inlineStr">
         <is>
@@ -22596,29 +22596,29 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K309" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L309" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M309" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
@@ -22627,10 +22627,10 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="Q309" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R309" t="inlineStr">
         <is>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44417</v>
+        <v>44323</v>
       </c>
       <c r="E310" t="n">
         <v>15</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,20 +22677,20 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K310" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L310" t="n">
         <v>25000</v>
       </c>
-      <c r="L310" t="n">
-        <v>27000</v>
-      </c>
       <c r="M310" t="n">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O310" t="inlineStr">
@@ -22699,10 +22699,10 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>371</v>
+        <v>490</v>
       </c>
       <c r="Q310" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R310" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44417</v>
+        <v>44323</v>
       </c>
       <c r="E311" t="n">
         <v>15</v>
@@ -22745,24 +22745,24 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K311" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L311" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M311" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
@@ -22771,10 +22771,10 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>580</v>
+        <v>327</v>
       </c>
       <c r="Q311" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R311" t="inlineStr">
         <is>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44417</v>
+        <v>44323</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -22817,24 +22817,24 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J312" t="n">
         <v>40</v>
       </c>
       <c r="K312" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="L312" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="M312" t="n">
-        <v>29000</v>
+        <v>19500</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
@@ -22843,10 +22843,10 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="Q312" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
@@ -22884,29 +22884,29 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K313" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L313" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M313" t="n">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
@@ -22915,10 +22915,10 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="Q313" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44249</v>
+        <v>44417</v>
       </c>
       <c r="E314" t="n">
         <v>15</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K314" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L314" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M314" t="n">
-        <v>32500</v>
+        <v>29000</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="Q314" t="n">
         <v>50</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44249</v>
+        <v>44417</v>
       </c>
       <c r="E315" t="n">
         <v>15</v>
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K315" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L315" t="n">
         <v>30000</v>
       </c>
-      <c r="L315" t="n">
-        <v>31000</v>
-      </c>
       <c r="M315" t="n">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="Q315" t="n">
         <v>75</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44342</v>
+        <v>44417</v>
       </c>
       <c r="E316" t="n">
         <v>15</v>
@@ -23105,24 +23105,24 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K316" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L316" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M316" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O316" t="inlineStr">
@@ -23131,10 +23131,10 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="Q316" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44342</v>
+        <v>44249</v>
       </c>
       <c r="E317" t="n">
         <v>15</v>
@@ -23177,36 +23177,36 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J317" t="n">
+        <v>30</v>
+      </c>
+      <c r="K317" t="n">
+        <v>32000</v>
+      </c>
+      <c r="L317" t="n">
+        <v>33000</v>
+      </c>
+      <c r="M317" t="n">
+        <v>32500</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>650</v>
+      </c>
+      <c r="Q317" t="n">
         <v>50</v>
-      </c>
-      <c r="K317" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L317" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M317" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O317" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P317" t="n">
-        <v>175</v>
-      </c>
-      <c r="Q317" t="n">
-        <v>100</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44523</v>
+        <v>44249</v>
       </c>
       <c r="E318" t="n">
         <v>15</v>
@@ -23249,24 +23249,24 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K318" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="L318" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M318" t="n">
-        <v>22500</v>
+        <v>30500</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O318" t="inlineStr">
@@ -23275,10 +23275,10 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="Q318" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R318" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44523</v>
+        <v>44342</v>
       </c>
       <c r="E319" t="n">
         <v>15</v>
@@ -23325,7 +23325,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K319" t="n">
         <v>20000</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44523</v>
+        <v>44342</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -23397,7 +23397,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K320" t="n">
         <v>17000</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E321" t="n">
         <v>15</v>
@@ -23472,13 +23472,13 @@
         <v>40</v>
       </c>
       <c r="K321" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L321" t="n">
         <v>23000</v>
       </c>
-      <c r="L321" t="n">
-        <v>24000</v>
-      </c>
       <c r="M321" t="n">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="Q321" t="n">
         <v>50</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E322" t="n">
         <v>15</v>
@@ -23541,16 +23541,16 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K322" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L322" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M322" t="n">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="Q322" t="n">
         <v>75</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44406</v>
+        <v>44523</v>
       </c>
       <c r="E323" t="n">
         <v>15</v>
@@ -23613,16 +23613,16 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K323" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L323" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M323" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="Q323" t="n">
         <v>100</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44295</v>
+        <v>44406</v>
       </c>
       <c r="E324" t="n">
         <v>15</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,32 +23685,32 @@
         </is>
       </c>
       <c r="J324" t="n">
+        <v>40</v>
+      </c>
+      <c r="K324" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L324" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M324" t="n">
+        <v>23500</v>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P324" t="n">
+        <v>470</v>
+      </c>
+      <c r="Q324" t="n">
         <v>50</v>
-      </c>
-      <c r="K324" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L324" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M324" t="n">
-        <v>34500</v>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O324" t="inlineStr">
-        <is>
-          <t>Valle de Camiña</t>
-        </is>
-      </c>
-      <c r="P324" t="n">
-        <v>345</v>
-      </c>
-      <c r="Q324" t="n">
-        <v>100</v>
       </c>
       <c r="R324" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44270</v>
+        <v>44406</v>
       </c>
       <c r="E325" t="n">
         <v>15</v>
@@ -23748,29 +23748,29 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J325" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K325" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="L325" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M325" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O325" t="inlineStr">
@@ -23779,10 +23779,10 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="Q325" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R325" t="inlineStr">
         <is>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44270</v>
+        <v>44406</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23825,24 +23825,24 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J326" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K326" t="n">
-        <v>28000</v>
+        <v>20000</v>
       </c>
       <c r="L326" t="n">
-        <v>30000</v>
+        <v>21000</v>
       </c>
       <c r="M326" t="n">
-        <v>29000</v>
+        <v>20500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O326" t="inlineStr">
@@ -23851,10 +23851,10 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="Q326" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R326" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44270</v>
+        <v>44295</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23892,41 +23892,41 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J327" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K327" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L327" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M327" t="n">
-        <v>29000</v>
+        <v>34500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="Q327" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R327" t="inlineStr">
         <is>
@@ -23964,29 +23964,29 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J328" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K328" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L328" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M328" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
@@ -23995,10 +23995,10 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q328" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R328" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44299</v>
+        <v>44270</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24041,24 +24041,24 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J329" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K329" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L329" t="n">
         <v>30000</v>
       </c>
       <c r="M329" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,10 +24067,10 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>295</v>
+        <v>580</v>
       </c>
       <c r="Q329" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R329" t="inlineStr">
         <is>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24108,29 +24108,29 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K330" t="n">
-        <v>13000</v>
+        <v>28000</v>
       </c>
       <c r="L330" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M330" t="n">
-        <v>13500</v>
+        <v>29000</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="Q330" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44257</v>
+        <v>44270</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24180,29 +24180,29 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K331" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="L331" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="M331" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="Q331" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24237,7 +24237,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44336</v>
+        <v>44299</v>
       </c>
       <c r="E332" t="n">
         <v>15</v>
@@ -24257,24 +24257,24 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J332" t="n">
         <v>40</v>
       </c>
       <c r="K332" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L332" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M332" t="n">
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="N332" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O332" t="inlineStr">
@@ -24283,10 +24283,10 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="Q332" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44336</v>
+        <v>44257</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24324,41 +24324,41 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
+        <v>140</v>
+      </c>
+      <c r="K333" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L333" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M333" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>$/malla 50 unidades</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P333" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q333" t="n">
         <v>50</v>
-      </c>
-      <c r="K333" t="n">
-        <v>21000</v>
-      </c>
-      <c r="L333" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M333" t="n">
-        <v>21500</v>
-      </c>
-      <c r="N333" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O333" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P333" t="n">
-        <v>215</v>
-      </c>
-      <c r="Q333" t="n">
-        <v>100</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44372</v>
+        <v>44257</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K334" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L334" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M334" t="n">
-        <v>16263</v>
+        <v>8500</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="Q334" t="n">
         <v>70</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24473,24 +24473,24 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J335" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K335" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L335" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="M335" t="n">
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O335" t="inlineStr">
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="Q335" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R335" t="inlineStr">
         <is>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44372</v>
+        <v>44336</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24545,24 +24545,24 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J336" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K336" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="L336" t="n">
         <v>22000</v>
       </c>
       <c r="M336" t="n">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O336" t="inlineStr">
@@ -24571,10 +24571,10 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>440</v>
+        <v>215</v>
       </c>
       <c r="Q336" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R336" t="inlineStr">
         <is>
@@ -24612,29 +24612,29 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J337" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K337" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L337" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="M337" t="n">
-        <v>23000</v>
+        <v>16263</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O337" t="inlineStr">
@@ -24643,10 +24643,10 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>307</v>
+        <v>232</v>
       </c>
       <c r="Q337" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R337" t="inlineStr">
         <is>
@@ -24689,24 +24689,24 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J338" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K338" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="L338" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="M338" t="n">
-        <v>19600</v>
+        <v>22500</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O338" t="inlineStr">
@@ -24715,10 +24715,10 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="Q338" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R338" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44403</v>
+        <v>44372</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24761,20 +24761,20 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J339" t="n">
         <v>40</v>
       </c>
       <c r="K339" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="L339" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M339" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="Q339" t="n">
         <v>50</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44403</v>
+        <v>44372</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K340" t="n">
         <v>23000</v>
       </c>
       <c r="L340" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M340" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="Q340" t="n">
         <v>75</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44403</v>
+        <v>44372</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K341" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L341" t="n">
         <v>20000</v>
       </c>
-      <c r="L341" t="n">
-        <v>21000</v>
-      </c>
       <c r="M341" t="n">
-        <v>20500</v>
+        <v>19600</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q341" t="n">
         <v>100</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44169</v>
+        <v>44403</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24972,7 +24972,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24981,20 +24981,20 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K342" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L342" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M342" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O342" t="inlineStr">
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>207</v>
+        <v>480</v>
       </c>
       <c r="Q342" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R342" t="inlineStr">
         <is>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44169</v>
+        <v>44403</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25049,24 +25049,24 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J343" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K343" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L343" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M343" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
@@ -25075,10 +25075,10 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Q343" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R343" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44169</v>
+        <v>44403</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25121,24 +25121,24 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J344" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K344" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L344" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M344" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O344" t="inlineStr">
@@ -25147,10 +25147,10 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="Q344" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R344" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25188,7 +25188,7 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -25197,20 +25197,20 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K345" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L345" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M345" t="n">
-        <v>24625</v>
+        <v>14500</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O345" t="inlineStr">
@@ -25219,10 +25219,10 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>492</v>
+        <v>207</v>
       </c>
       <c r="Q345" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25265,24 +25265,24 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J346" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K346" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L346" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M346" t="n">
-        <v>24667</v>
+        <v>14500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O346" t="inlineStr">
@@ -25291,10 +25291,10 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="Q346" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44376</v>
+        <v>44169</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25337,24 +25337,24 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J347" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="K347" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L347" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M347" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O347" t="inlineStr">
@@ -25363,10 +25363,10 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="Q347" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R347" t="inlineStr">
         <is>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44524</v>
+        <v>44376</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25409,36 +25409,36 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J348" t="n">
+        <v>40</v>
+      </c>
+      <c r="K348" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L348" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M348" t="n">
+        <v>24625</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q348" t="n">
         <v>50</v>
-      </c>
-      <c r="K348" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L348" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M348" t="n">
-        <v>20500</v>
-      </c>
-      <c r="N348" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O348" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P348" t="n">
-        <v>273</v>
-      </c>
-      <c r="Q348" t="n">
-        <v>75</v>
       </c>
       <c r="R348" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44524</v>
+        <v>44376</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25481,24 +25481,24 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J349" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K349" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L349" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M349" t="n">
-        <v>19500</v>
+        <v>24667</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O349" t="inlineStr">
@@ -25507,10 +25507,10 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>195</v>
+        <v>329</v>
       </c>
       <c r="Q349" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R349" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44172</v>
+        <v>44376</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25548,29 +25548,29 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J350" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="K350" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L350" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M350" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O350" t="inlineStr">
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="Q350" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R350" t="inlineStr">
         <is>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,20 +25629,20 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K351" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L351" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="M351" t="n">
-        <v>9500</v>
+        <v>20500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>950</v>
+        <v>273</v>
       </c>
       <c r="Q351" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44172</v>
+        <v>44524</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25697,24 +25697,24 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K352" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L352" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M352" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>350</v>
+        <v>195</v>
       </c>
       <c r="Q352" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25764,29 +25764,29 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K353" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L353" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M353" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Q353" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,29 +25836,29 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K354" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L354" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M354" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>155</v>
+        <v>950</v>
       </c>
       <c r="Q354" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K355" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L355" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M355" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>590</v>
+        <v>350</v>
       </c>
       <c r="Q355" t="n">
         <v>50</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K356" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L356" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M356" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="Q356" t="n">
         <v>75</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44421</v>
+        <v>44172</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K357" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="L357" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="M357" t="n">
-        <v>25500</v>
+        <v>15500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="Q357" t="n">
         <v>100</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,20 +26133,20 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K358" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L358" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M358" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>270</v>
+        <v>590</v>
       </c>
       <c r="Q358" t="n">
         <v>50</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,29 +26196,29 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K359" t="n">
-        <v>7000</v>
+        <v>29000</v>
       </c>
       <c r="L359" t="n">
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="M359" t="n">
-        <v>7250</v>
+        <v>29500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>104</v>
+        <v>393</v>
       </c>
       <c r="Q359" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44242</v>
+        <v>44421</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26268,25 +26268,25 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K360" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L360" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M360" t="n">
-        <v>34500</v>
+        <v>25500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>345</v>
+        <v>255</v>
       </c>
       <c r="Q360" t="n">
         <v>100</v>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,20 +26349,20 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K361" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="L361" t="n">
-        <v>33000</v>
+        <v>14000</v>
       </c>
       <c r="M361" t="n">
-        <v>31500</v>
+        <v>13500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>630</v>
+        <v>270</v>
       </c>
       <c r="Q361" t="n">
         <v>50</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26412,29 +26412,29 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K362" t="n">
-        <v>30000</v>
+        <v>7000</v>
       </c>
       <c r="L362" t="n">
-        <v>33000</v>
+        <v>7500</v>
       </c>
       <c r="M362" t="n">
-        <v>31500</v>
+        <v>7250</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>420</v>
+        <v>104</v>
       </c>
       <c r="Q362" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44431</v>
+        <v>44242</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26484,25 +26484,25 @@
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K363" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L363" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M363" t="n">
-        <v>29000</v>
+        <v>34500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
@@ -26515,7 +26515,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="Q363" t="n">
         <v>100</v>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26565,20 +26565,20 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="K364" t="n">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="L364" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M364" t="n">
-        <v>7500</v>
+        <v>31500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>107</v>
+        <v>630</v>
       </c>
       <c r="Q364" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26628,25 +26628,25 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K365" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L365" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M365" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26655,11 +26655,11 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P365" t="n">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="Q365" t="n">
         <v>75</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44239</v>
+        <v>44431</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26700,25 +26700,25 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J366" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K366" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L366" t="n">
         <v>30000</v>
       </c>
       <c r="M366" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26727,11 +26727,11 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P366" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q366" t="n">
         <v>100</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26772,7 +26772,7 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26781,32 +26781,32 @@
         </is>
       </c>
       <c r="J367" t="n">
+        <v>180</v>
+      </c>
+      <c r="K367" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L367" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M367" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P367" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q367" t="n">
         <v>70</v>
-      </c>
-      <c r="K367" t="n">
-        <v>32000</v>
-      </c>
-      <c r="L367" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M367" t="n">
-        <v>32500</v>
-      </c>
-      <c r="N367" t="inlineStr">
-        <is>
-          <t>$/saco 50 unidades</t>
-        </is>
-      </c>
-      <c r="O367" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P367" t="n">
-        <v>650</v>
-      </c>
-      <c r="Q367" t="n">
-        <v>50</v>
       </c>
       <c r="R367" t="inlineStr">
         <is>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26844,25 +26844,25 @@
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J368" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K368" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L368" t="n">
         <v>30000</v>
       </c>
       <c r="M368" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26871,11 +26871,11 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P368" t="n">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q368" t="n">
         <v>75</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44448</v>
+        <v>44239</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26916,25 +26916,25 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J369" t="n">
         <v>50</v>
       </c>
       <c r="K369" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L369" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M369" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26943,11 +26943,11 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P369" t="n">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="Q369" t="n">
         <v>100</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K370" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="L370" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M370" t="n">
-        <v>19500</v>
+        <v>32500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>390</v>
+        <v>650</v>
       </c>
       <c r="Q370" t="n">
         <v>50</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K371" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="L371" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M371" t="n">
-        <v>18500</v>
+        <v>29000</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="Q371" t="n">
         <v>75</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44210</v>
+        <v>44448</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27144,13 +27144,13 @@
         <v>50</v>
       </c>
       <c r="K372" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L372" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M372" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="Q372" t="n">
         <v>100</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27216,13 +27216,13 @@
         <v>60</v>
       </c>
       <c r="K373" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="L373" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M373" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="Q373" t="n">
         <v>50</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44176</v>
+        <v>44210</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K374" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L374" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M374" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="Q374" t="n">
         <v>75</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44284</v>
+        <v>44210</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,29 +27348,29 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J375" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K375" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L375" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M375" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q375" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44284</v>
+        <v>44176</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27420,7 +27420,7 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -27429,32 +27429,32 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K376" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L376" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M376" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P376" t="n">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="Q376" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="K377" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L377" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M377" t="n">
-        <v>24500</v>
+        <v>15500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="Q377" t="n">
         <v>75</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44441</v>
+        <v>44284</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,41 +27564,41 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
+        <v>120</v>
+      </c>
+      <c r="K378" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L378" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M378" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P378" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q378" t="n">
         <v>70</v>
-      </c>
-      <c r="K378" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L378" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M378" t="n">
-        <v>20500</v>
-      </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O378" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P378" t="n">
-        <v>205</v>
-      </c>
-      <c r="Q378" t="n">
-        <v>100</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44279</v>
+        <v>44284</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27645,7 +27645,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K379" t="n">
         <v>29000</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44341</v>
+        <v>44441</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,29 +27708,29 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K380" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L380" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M380" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="Q380" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44350</v>
+        <v>44441</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27785,24 +27785,24 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K381" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L381" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M381" t="n">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>470</v>
+        <v>205</v>
       </c>
       <c r="Q381" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44350</v>
+        <v>44279</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27852,41 +27852,41 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J382" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K382" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L382" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M382" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P382" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q382" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44350</v>
+        <v>44341</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27924,29 +27924,29 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K383" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L383" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M383" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="Q383" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -27996,7 +27996,7 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -28005,20 +28005,20 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K384" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="L384" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M384" t="n">
-        <v>9500</v>
+        <v>23500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="Q384" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28073,24 +28073,24 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K385" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L385" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M385" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
@@ -28099,10 +28099,10 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>490</v>
+        <v>287</v>
       </c>
       <c r="Q385" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44312</v>
+        <v>44350</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28145,24 +28145,24 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K386" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="L386" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M386" t="n">
-        <v>22500</v>
+        <v>19500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="Q386" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28212,29 +28212,29 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J387" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K387" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L387" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="M387" t="n">
-        <v>20500</v>
+        <v>9500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="Q387" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28293,16 +28293,16 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K388" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L388" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M388" t="n">
-        <v>32500</v>
+        <v>24500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
@@ -28315,7 +28315,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>650</v>
+        <v>490</v>
       </c>
       <c r="Q388" t="n">
         <v>50</v>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44382</v>
+        <v>44312</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28361,24 +28361,24 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K389" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="L389" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="M389" t="n">
-        <v>27600</v>
+        <v>22500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="Q389" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44329</v>
+        <v>44312</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28428,41 +28428,41 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J390" t="n">
+        <v>20</v>
+      </c>
+      <c r="K390" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L390" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M390" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O390" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P390" t="n">
+        <v>205</v>
+      </c>
+      <c r="Q390" t="n">
         <v>100</v>
-      </c>
-      <c r="K390" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L390" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M390" t="n">
-        <v>9500</v>
-      </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O390" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P390" t="n">
-        <v>136</v>
-      </c>
-      <c r="Q390" t="n">
-        <v>70</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44329</v>
+        <v>44382</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28509,16 +28509,16 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K391" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L391" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M391" t="n">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="Q391" t="n">
         <v>50</v>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44329</v>
+        <v>44382</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28577,24 +28577,24 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J392" t="n">
         <v>50</v>
       </c>
       <c r="K392" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L392" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M392" t="n">
-        <v>25500</v>
+        <v>27600</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>340</v>
+        <v>276</v>
       </c>
       <c r="Q392" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28644,29 +28644,29 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K393" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L393" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M393" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q393" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28716,7 +28716,7 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28725,20 +28725,20 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K394" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="L394" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="M394" t="n">
-        <v>13500</v>
+        <v>27500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>193</v>
+        <v>550</v>
       </c>
       <c r="Q394" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28793,24 +28793,24 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K395" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L395" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M395" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="Q395" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44522</v>
+        <v>44329</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K396" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L396" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M396" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="Q396" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28941,16 +28941,16 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K397" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="L397" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M397" t="n">
-        <v>26500</v>
+        <v>13500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>379</v>
+        <v>193</v>
       </c>
       <c r="Q397" t="n">
         <v>70</v>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29016,13 +29016,13 @@
         <v>40</v>
       </c>
       <c r="K398" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="L398" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M398" t="n">
-        <v>31500</v>
+        <v>20500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>630</v>
+        <v>410</v>
       </c>
       <c r="Q398" t="n">
         <v>50</v>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29088,13 +29088,13 @@
         <v>50</v>
       </c>
       <c r="K399" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L399" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M399" t="n">
-        <v>29500</v>
+        <v>18500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="Q399" t="n">
         <v>75</v>
@@ -29148,29 +29148,29 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J400" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L400" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M400" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="Q400" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -29229,20 +29229,20 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K401" t="n">
-        <v>11000</v>
+        <v>31000</v>
       </c>
       <c r="L401" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="M401" t="n">
-        <v>11500</v>
+        <v>31500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>164</v>
+        <v>630</v>
       </c>
       <c r="Q401" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29364,29 +29364,29 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K403" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L403" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M403" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="Q403" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29436,29 +29436,29 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K404" t="n">
-        <v>29000</v>
+        <v>11000</v>
       </c>
       <c r="L404" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="M404" t="n">
-        <v>29500</v>
+        <v>11500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="Q404" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29513,24 +29513,24 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K405" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="L405" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M405" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>275</v>
+        <v>393</v>
       </c>
       <c r="Q405" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29589,16 +29589,16 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K406" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L406" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M406" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="Q406" t="n">
         <v>70</v>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,7 +29657,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>590</v>
+        <v>393</v>
       </c>
       <c r="Q407" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29729,24 +29729,24 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J408" t="n">
         <v>40</v>
       </c>
       <c r="K408" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="L408" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="M408" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>393</v>
+        <v>275</v>
       </c>
       <c r="Q408" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29796,29 +29796,29 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K409" t="n">
-        <v>28000</v>
+        <v>8000</v>
       </c>
       <c r="L409" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="M409" t="n">
-        <v>28500</v>
+        <v>8500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="Q409" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29880,13 +29880,13 @@
         <v>40</v>
       </c>
       <c r="K410" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L410" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M410" t="n">
-        <v>33500</v>
+        <v>29500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>670</v>
+        <v>590</v>
       </c>
       <c r="Q410" t="n">
         <v>50</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29952,13 +29952,13 @@
         <v>40</v>
       </c>
       <c r="K411" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L411" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="M411" t="n">
-        <v>33500</v>
+        <v>29500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="Q411" t="n">
         <v>75</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30021,16 +30021,16 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K412" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L412" t="n">
         <v>29000</v>
       </c>
-      <c r="L412" t="n">
-        <v>30000</v>
-      </c>
       <c r="M412" t="n">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q412" t="n">
         <v>100</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30089,24 +30089,24 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K413" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L413" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="M413" t="n">
-        <v>24500</v>
+        <v>33500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>327</v>
+        <v>670</v>
       </c>
       <c r="Q413" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30161,24 +30161,24 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K414" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L414" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="M414" t="n">
-        <v>20500</v>
+        <v>33500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>205</v>
+        <v>447</v>
       </c>
       <c r="Q414" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30233,24 +30233,24 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K415" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L415" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M415" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="Q415" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30309,16 +30309,16 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K416" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L416" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="M416" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
@@ -30331,7 +30331,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q416" t="n">
         <v>75</v>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30381,7 +30381,7 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K417" t="n">
         <v>20000</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30449,24 +30449,24 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J418" t="n">
         <v>40</v>
       </c>
       <c r="K418" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L418" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="M418" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>313</v>
+        <v>490</v>
       </c>
       <c r="Q418" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30521,24 +30521,24 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K419" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="L419" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M419" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="Q419" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44495</v>
+        <v>44348</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K420" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L420" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="M420" t="n">
-        <v>31000</v>
+        <v>20500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>413</v>
+        <v>205</v>
       </c>
       <c r="Q420" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30665,24 +30665,24 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
         <v>40</v>
       </c>
       <c r="K421" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="L421" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="M421" t="n">
-        <v>28500</v>
+        <v>23500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="Q421" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,29 +30732,29 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K422" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L422" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M422" t="n">
-        <v>26000</v>
+        <v>21500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>520</v>
+        <v>215</v>
       </c>
       <c r="Q422" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,20 +30813,20 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K423" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="L423" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="M423" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>314</v>
+        <v>413</v>
       </c>
       <c r="Q423" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30876,29 +30876,29 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K424" t="n">
-        <v>6500</v>
+        <v>28000</v>
       </c>
       <c r="L424" t="n">
-        <v>7000</v>
+        <v>29000</v>
       </c>
       <c r="M424" t="n">
-        <v>6750</v>
+        <v>28500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="Q424" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -30957,20 +30957,20 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K425" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L425" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M425" t="n">
-        <v>36500</v>
+        <v>26000</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>730</v>
+        <v>520</v>
       </c>
       <c r="Q425" t="n">
         <v>50</v>
@@ -31020,7 +31020,7 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -31029,20 +31029,20 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K426" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="L426" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M426" t="n">
-        <v>36500</v>
+        <v>22000</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>487</v>
+        <v>314</v>
       </c>
       <c r="Q426" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,20 +31101,20 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="K427" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="L427" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="M427" t="n">
-        <v>24444</v>
+        <v>6750</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>489</v>
+        <v>96</v>
       </c>
       <c r="Q427" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,20 +31173,20 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K428" t="n">
-        <v>7000</v>
+        <v>36000</v>
       </c>
       <c r="L428" t="n">
-        <v>7500</v>
+        <v>37000</v>
       </c>
       <c r="M428" t="n">
-        <v>7250</v>
+        <v>36500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>104</v>
+        <v>730</v>
       </c>
       <c r="Q428" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31245,16 +31245,16 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K429" t="n">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="L429" t="n">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="M429" t="n">
-        <v>35500</v>
+        <v>36500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="Q429" t="n">
         <v>75</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44238</v>
+        <v>44327</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31313,36 +31313,36 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
+        <v>45</v>
+      </c>
+      <c r="K430" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L430" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M430" t="n">
+        <v>24444</v>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P430" t="n">
+        <v>489</v>
+      </c>
+      <c r="Q430" t="n">
         <v>50</v>
-      </c>
-      <c r="K430" t="n">
-        <v>33000</v>
-      </c>
-      <c r="L430" t="n">
-        <v>34000</v>
-      </c>
-      <c r="M430" t="n">
-        <v>33500</v>
-      </c>
-      <c r="N430" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O430" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P430" t="n">
-        <v>335</v>
-      </c>
-      <c r="Q430" t="n">
-        <v>100</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31380,7 +31380,7 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -31389,20 +31389,20 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K431" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L431" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="M431" t="n">
-        <v>33500</v>
+        <v>7250</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>670</v>
+        <v>104</v>
       </c>
       <c r="Q431" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31464,13 +31464,13 @@
         <v>40</v>
       </c>
       <c r="K432" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L432" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="M432" t="n">
-        <v>33500</v>
+        <v>35500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="Q432" t="n">
         <v>75</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31536,13 +31536,13 @@
         <v>50</v>
       </c>
       <c r="K433" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L433" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="M433" t="n">
-        <v>31000</v>
+        <v>33500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="Q433" t="n">
         <v>100</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,20 +31605,20 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K434" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="L434" t="n">
-        <v>18000</v>
+        <v>34000</v>
       </c>
       <c r="M434" t="n">
-        <v>17500</v>
+        <v>33500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>250</v>
+        <v>670</v>
       </c>
       <c r="Q434" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31673,7 +31673,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J435" t="n">
@@ -31683,14 +31683,14 @@
         <v>33000</v>
       </c>
       <c r="L435" t="n">
-        <v>35000</v>
+        <v>34000</v>
       </c>
       <c r="M435" t="n">
-        <v>34000</v>
+        <v>33500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>680</v>
+        <v>447</v>
       </c>
       <c r="Q435" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44389</v>
+        <v>44391</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31745,24 +31745,24 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J436" t="n">
         <v>50</v>
       </c>
       <c r="K436" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L436" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M436" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>453</v>
+        <v>310</v>
       </c>
       <c r="Q436" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31812,41 +31812,41 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J437" t="n">
+        <v>160</v>
+      </c>
+      <c r="K437" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L437" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M437" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O437" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P437" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q437" t="n">
         <v>70</v>
-      </c>
-      <c r="K437" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L437" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M437" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N437" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O437" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P437" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q437" t="n">
-        <v>100</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31896,13 +31896,13 @@
         <v>40</v>
       </c>
       <c r="K438" t="n">
-        <v>34000</v>
+        <v>33000</v>
       </c>
       <c r="L438" t="n">
         <v>35000</v>
       </c>
       <c r="M438" t="n">
-        <v>34500</v>
+        <v>34000</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="Q438" t="n">
         <v>50</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31968,13 +31968,13 @@
         <v>50</v>
       </c>
       <c r="K439" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L439" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M439" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="Q439" t="n">
         <v>75</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32028,29 +32028,29 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K440" t="n">
-        <v>11000</v>
+        <v>29000</v>
       </c>
       <c r="L440" t="n">
-        <v>12000</v>
+        <v>31000</v>
       </c>
       <c r="M440" t="n">
-        <v>11500</v>
+        <v>30000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="Q440" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32109,16 +32109,16 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K441" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L441" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M441" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>490</v>
+        <v>690</v>
       </c>
       <c r="Q441" t="n">
         <v>50</v>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K442" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="L442" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="M442" t="n">
-        <v>24500</v>
+        <v>32500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>327</v>
+        <v>433</v>
       </c>
       <c r="Q442" t="n">
         <v>75</v>
@@ -32244,29 +32244,29 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K443" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L443" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M443" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q443" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,20 +32325,20 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K444" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L444" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M444" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="Q444" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32393,24 +32393,24 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
         <v>40</v>
       </c>
       <c r="K445" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L445" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M445" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="Q445" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32465,24 +32465,24 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K446" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L446" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M446" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q446" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32532,29 +32532,29 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K447" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L447" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M447" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q447" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32609,36 +32609,36 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
+        <v>40</v>
+      </c>
+      <c r="K448" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L448" t="n">
+        <v>28000</v>
+      </c>
+      <c r="M448" t="n">
+        <v>27500</v>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P448" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q448" t="n">
         <v>50</v>
-      </c>
-      <c r="K448" t="n">
-        <v>31000</v>
-      </c>
-      <c r="L448" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M448" t="n">
-        <v>32000</v>
-      </c>
-      <c r="N448" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O448" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P448" t="n">
-        <v>427</v>
-      </c>
-      <c r="Q448" t="n">
-        <v>75</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32681,24 +32681,24 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
         <v>40</v>
       </c>
       <c r="K449" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L449" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M449" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="Q449" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44307</v>
+        <v>44330</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32753,24 +32753,24 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J450" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K450" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L450" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M450" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>387</v>
+        <v>215</v>
       </c>
       <c r="Q450" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44307</v>
+        <v>44432</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32825,24 +32825,24 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K451" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L451" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M451" t="n">
-        <v>25500</v>
+        <v>32000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>255</v>
+        <v>427</v>
       </c>
       <c r="Q451" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32897,24 +32897,24 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K452" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L452" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M452" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="Q452" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K453" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L453" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M453" t="n">
-        <v>22500</v>
+        <v>29000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="Q453" t="n">
         <v>75</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K454" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="L454" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="M454" t="n">
-        <v>20500</v>
+        <v>25500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="Q454" t="n">
         <v>100</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,20 +33117,20 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K455" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L455" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="M455" t="n">
-        <v>10500</v>
+        <v>24500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="Q455" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33180,41 +33180,41 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K456" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="L456" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="M456" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P456" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q456" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44201</v>
+        <v>44400</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33252,29 +33252,29 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K457" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L457" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="M457" t="n">
-        <v>7500</v>
+        <v>20500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="Q457" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33324,29 +33324,29 @@
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K458" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L458" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M458" t="n">
-        <v>19500</v>
+        <v>10500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="Q458" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44201</v>
+        <v>44309</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33396,25 +33396,25 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K459" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L459" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M459" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33423,16 +33423,232 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P459" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="Q459" t="n">
         <v>100</v>
       </c>
       <c r="R459" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>1</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E460" t="n">
+        <v>15</v>
+      </c>
+      <c r="F460" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>80</v>
+      </c>
+      <c r="K460" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L460" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M460" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O460" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P460" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>70</v>
+      </c>
+      <c r="R460" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>1</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E461" t="n">
+        <v>15</v>
+      </c>
+      <c r="F461" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>90</v>
+      </c>
+      <c r="K461" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L461" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M461" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O461" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P461" t="n">
+        <v>260</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>75</v>
+      </c>
+      <c r="R461" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>1</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E462" t="n">
+        <v>15</v>
+      </c>
+      <c r="F462" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>100</v>
+      </c>
+      <c r="K462" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L462" t="n">
+        <v>19000</v>
+      </c>
+      <c r="M462" t="n">
+        <v>18500</v>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O462" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P462" t="n">
+        <v>185</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>100</v>
+      </c>
+      <c r="R462" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R489"/>
+  <dimension ref="A1:R491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28716,29 +28716,29 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K394" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L394" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="M394" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>680</v>
+        <v>107</v>
       </c>
       <c r="Q394" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28788,29 +28788,29 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K395" t="n">
-        <v>33000</v>
+        <v>4500</v>
       </c>
       <c r="L395" t="n">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="M395" t="n">
-        <v>34000</v>
+        <v>4750</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="Q395" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K396" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L396" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M396" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="Q396" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28937,24 +28937,24 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
         <v>50</v>
       </c>
       <c r="K397" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L397" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M397" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="Q397" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29009,24 +29009,24 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K398" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="L398" t="n">
-        <v>23000</v>
+        <v>31000</v>
       </c>
       <c r="M398" t="n">
-        <v>22500</v>
+        <v>30000</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29038,7 +29038,7 @@
         <v>300</v>
       </c>
       <c r="Q398" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29081,24 +29081,24 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
         <v>50</v>
       </c>
       <c r="K399" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L399" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M399" t="n">
-        <v>20500</v>
+        <v>24000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>205</v>
+        <v>480</v>
       </c>
       <c r="Q399" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29148,7 +29148,7 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -29157,20 +29157,20 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K400" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="L400" t="n">
-        <v>5500</v>
+        <v>23000</v>
       </c>
       <c r="M400" t="n">
-        <v>5250</v>
+        <v>22500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
@@ -29179,10 +29179,10 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>525</v>
+        <v>300</v>
       </c>
       <c r="Q400" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R400" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29225,24 +29225,24 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K401" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L401" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M401" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>490</v>
+        <v>205</v>
       </c>
       <c r="Q401" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,20 +29301,20 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K402" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="L402" t="n">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="M402" t="n">
-        <v>24500</v>
+        <v>5250</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>327</v>
+        <v>525</v>
       </c>
       <c r="Q402" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29369,24 +29369,24 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J403" t="n">
         <v>60</v>
       </c>
       <c r="K403" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L403" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M403" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>215</v>
+        <v>490</v>
       </c>
       <c r="Q403" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K404" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L404" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M404" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>690</v>
+        <v>327</v>
       </c>
       <c r="Q404" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29513,24 +29513,24 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K405" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="L405" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M405" t="n">
-        <v>34500</v>
+        <v>21500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>460</v>
+        <v>215</v>
       </c>
       <c r="Q405" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K406" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="L406" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M406" t="n">
-        <v>31500</v>
+        <v>34500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>315</v>
+        <v>690</v>
       </c>
       <c r="Q406" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29664,13 +29664,13 @@
         <v>50</v>
       </c>
       <c r="K407" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L407" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M407" t="n">
-        <v>29500</v>
+        <v>34500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="Q407" t="n">
         <v>75</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29736,13 +29736,13 @@
         <v>40</v>
       </c>
       <c r="K408" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L408" t="n">
-        <v>26000</v>
+        <v>32000</v>
       </c>
       <c r="M408" t="n">
-        <v>25500</v>
+        <v>31500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="Q408" t="n">
         <v>100</v>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44308</v>
+        <v>44278</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29796,29 +29796,29 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K409" t="n">
-        <v>13000</v>
+        <v>29000</v>
       </c>
       <c r="L409" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M409" t="n">
-        <v>13500</v>
+        <v>29500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="Q409" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29868,29 +29868,29 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J410" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K410" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L410" t="n">
-        <v>11000</v>
+        <v>26000</v>
       </c>
       <c r="M410" t="n">
-        <v>10500</v>
+        <v>25500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,10 +29899,10 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="Q410" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R410" t="inlineStr">
         <is>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44281</v>
+        <v>44308</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,32 +29949,32 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K411" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="L411" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M411" t="n">
-        <v>29500</v>
+        <v>13500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P411" t="n">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="Q411" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30012,7 +30012,7 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -30021,20 +30021,20 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K412" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L412" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="M412" t="n">
-        <v>23500</v>
+        <v>10500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="Q412" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30084,41 +30084,41 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K413" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L413" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M413" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P413" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q413" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30161,24 +30161,24 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
         <v>50</v>
       </c>
       <c r="K414" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="L414" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M414" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>195</v>
+        <v>470</v>
       </c>
       <c r="Q414" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30233,24 +30233,24 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K415" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L415" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="M415" t="n">
-        <v>20500</v>
+        <v>21500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>410</v>
+        <v>287</v>
       </c>
       <c r="Q415" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,24 +30305,24 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J416" t="n">
         <v>50</v>
       </c>
       <c r="K416" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="L416" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="M416" t="n">
-        <v>18500</v>
+        <v>19500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="Q416" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30377,24 +30377,24 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K417" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L417" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M417" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>165</v>
+        <v>410</v>
       </c>
       <c r="Q417" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30449,24 +30449,24 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
         <v>50</v>
       </c>
       <c r="K418" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L418" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M418" t="n">
-        <v>24500</v>
+        <v>18500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>490</v>
+        <v>247</v>
       </c>
       <c r="Q418" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30521,24 +30521,24 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K419" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="L419" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M419" t="n">
-        <v>23500</v>
+        <v>16500</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
@@ -30547,10 +30547,10 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="Q419" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K420" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L420" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M420" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="Q420" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30660,29 +30660,29 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K421" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="L421" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="M421" t="n">
-        <v>7250</v>
+        <v>23500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>104</v>
+        <v>313</v>
       </c>
       <c r="Q421" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30737,24 +30737,24 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J422" t="n">
         <v>40</v>
       </c>
       <c r="K422" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L422" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="M422" t="n">
-        <v>35500</v>
+        <v>20500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>473</v>
+        <v>205</v>
       </c>
       <c r="Q422" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30804,29 +30804,29 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K423" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L423" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="M423" t="n">
-        <v>33500</v>
+        <v>7250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="Q423" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30876,29 +30876,29 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J424" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K424" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="L424" t="n">
-        <v>14000</v>
+        <v>36000</v>
       </c>
       <c r="M424" t="n">
-        <v>13500</v>
+        <v>35500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>270</v>
+        <v>473</v>
       </c>
       <c r="Q424" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30948,29 +30948,29 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K425" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="L425" t="n">
-        <v>9000</v>
+        <v>34000</v>
       </c>
       <c r="M425" t="n">
-        <v>8500</v>
+        <v>33500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>121</v>
+        <v>335</v>
       </c>
       <c r="Q425" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44411</v>
+        <v>44257</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31020,29 +31020,29 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J426" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="K426" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L426" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M426" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>1750</v>
+        <v>270</v>
       </c>
       <c r="Q426" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31092,7 +31092,7 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -31101,20 +31101,20 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K427" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L427" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M427" t="n">
-        <v>21000</v>
+        <v>8500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>420</v>
+        <v>121</v>
       </c>
       <c r="Q427" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44200</v>
+        <v>44411</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -31173,20 +31173,20 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K428" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L428" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M428" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>273</v>
+        <v>1750</v>
       </c>
       <c r="Q428" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31248,13 +31248,13 @@
         <v>50</v>
       </c>
       <c r="K429" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L429" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M429" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>680</v>
+        <v>420</v>
       </c>
       <c r="Q429" t="n">
         <v>50</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31320,13 +31320,13 @@
         <v>50</v>
       </c>
       <c r="K430" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L430" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="M430" t="n">
-        <v>34000</v>
+        <v>20500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="Q430" t="n">
         <v>75</v>
@@ -31385,24 +31385,24 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J431" t="n">
         <v>50</v>
       </c>
       <c r="K431" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="L431" t="n">
-        <v>27000</v>
+        <v>35000</v>
       </c>
       <c r="M431" t="n">
-        <v>26500</v>
+        <v>34000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>265</v>
+        <v>680</v>
       </c>
       <c r="Q431" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31464,13 +31464,13 @@
         <v>50</v>
       </c>
       <c r="K432" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L432" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M432" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="Q432" t="n">
         <v>75</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K433" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="L433" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M433" t="n">
-        <v>30500</v>
+        <v>26500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="Q433" t="n">
         <v>100</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,29 +31596,29 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K434" t="n">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="L434" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="M434" t="n">
-        <v>12500</v>
+        <v>32500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>179</v>
+        <v>433</v>
       </c>
       <c r="Q434" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31673,24 +31673,24 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J435" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K435" t="n">
-        <v>34000</v>
+        <v>30000</v>
       </c>
       <c r="L435" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M435" t="n">
-        <v>34500</v>
+        <v>30500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>460</v>
+        <v>305</v>
       </c>
       <c r="Q435" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31740,29 +31740,29 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K436" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L436" t="n">
-        <v>31000</v>
+        <v>13000</v>
       </c>
       <c r="M436" t="n">
-        <v>30500</v>
+        <v>12500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="Q436" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31824,13 +31824,13 @@
         <v>50</v>
       </c>
       <c r="K437" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="L437" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M437" t="n">
-        <v>32000</v>
+        <v>34500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="Q437" t="n">
         <v>75</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31893,16 +31893,16 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K438" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="L438" t="n">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="M438" t="n">
-        <v>29000</v>
+        <v>30500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="Q438" t="n">
         <v>100</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31956,7 +31956,7 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -31965,20 +31965,20 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K439" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L439" t="n">
-        <v>17000</v>
+        <v>33000</v>
       </c>
       <c r="M439" t="n">
-        <v>16500</v>
+        <v>32000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>1650</v>
+        <v>427</v>
       </c>
       <c r="Q439" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32033,24 +32033,24 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K440" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L440" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M440" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>680</v>
+        <v>290</v>
       </c>
       <c r="Q440" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,20 +32109,20 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K441" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L441" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M441" t="n">
-        <v>34000</v>
+        <v>16500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>453</v>
+        <v>1650</v>
       </c>
       <c r="Q441" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32177,24 +32177,24 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K442" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L442" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M442" t="n">
-        <v>29500</v>
+        <v>34000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="Q442" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32244,29 +32244,29 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J443" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K443" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="L443" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M443" t="n">
-        <v>11500</v>
+        <v>34000</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>164</v>
+        <v>453</v>
       </c>
       <c r="Q443" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32321,24 +32321,24 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K444" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L444" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M444" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>490</v>
+        <v>295</v>
       </c>
       <c r="Q444" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32388,29 +32388,29 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K445" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L445" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M445" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>327</v>
+        <v>164</v>
       </c>
       <c r="Q445" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32465,24 +32465,24 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
         <v>50</v>
       </c>
       <c r="K446" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L446" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M446" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="Q446" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32532,29 +32532,29 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K447" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L447" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M447" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="Q447" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32609,24 +32609,24 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K448" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="L448" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="M448" t="n">
-        <v>27500</v>
+        <v>20500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>550</v>
+        <v>205</v>
       </c>
       <c r="Q448" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32676,29 +32676,29 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K449" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L449" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M449" t="n">
-        <v>25500</v>
+        <v>9500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="Q449" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32753,24 +32753,24 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
         <v>40</v>
       </c>
       <c r="K450" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="L450" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="M450" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>215</v>
+        <v>550</v>
       </c>
       <c r="Q450" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32820,29 +32820,29 @@
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K451" t="n">
+        <v>25000</v>
+      </c>
+      <c r="L451" t="n">
         <v>26000</v>
       </c>
-      <c r="L451" t="n">
-        <v>27000</v>
-      </c>
       <c r="M451" t="n">
-        <v>26500</v>
+        <v>25500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="Q451" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32897,24 +32897,24 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J452" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K452" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L452" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M452" t="n">
-        <v>34000</v>
+        <v>21500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>680</v>
+        <v>215</v>
       </c>
       <c r="Q452" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32964,29 +32964,29 @@
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K453" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="L453" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M453" t="n">
-        <v>34000</v>
+        <v>26500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="Q453" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33041,36 +33041,36 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J454" t="n">
+        <v>30</v>
+      </c>
+      <c r="K454" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L454" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M454" t="n">
+        <v>34000</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P454" t="n">
+        <v>680</v>
+      </c>
+      <c r="Q454" t="n">
         <v>50</v>
-      </c>
-      <c r="K454" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L454" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M454" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N454" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O454" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P454" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q454" t="n">
-        <v>100</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33108,29 +33108,29 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J455" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K455" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L455" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M455" t="n">
-        <v>12500</v>
+        <v>34000</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>250</v>
+        <v>453</v>
       </c>
       <c r="Q455" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33185,24 +33185,24 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J456" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K456" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L456" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M456" t="n">
         <v>30000</v>
       </c>
-      <c r="M456" t="n">
-        <v>29000</v>
-      </c>
       <c r="N456" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O456" t="inlineStr">
@@ -33211,10 +33211,10 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="Q456" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
@@ -33252,29 +33252,29 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="K457" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L457" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M457" t="n">
-        <v>29000</v>
+        <v>12500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>387</v>
+        <v>250</v>
       </c>
       <c r="Q457" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33329,24 +33329,24 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K458" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L458" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M458" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>245</v>
+        <v>580</v>
       </c>
       <c r="Q458" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33401,24 +33401,24 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K459" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L459" t="n">
         <v>30000</v>
       </c>
-      <c r="L459" t="n">
-        <v>31000</v>
-      </c>
       <c r="M459" t="n">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>610</v>
+        <v>387</v>
       </c>
       <c r="Q459" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33473,24 +33473,24 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J460" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K460" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L460" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M460" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>367</v>
+        <v>245</v>
       </c>
       <c r="Q460" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33545,24 +33545,24 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J461" t="n">
         <v>50</v>
       </c>
       <c r="K461" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="L461" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M461" t="n">
-        <v>24500</v>
+        <v>30500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>245</v>
+        <v>610</v>
       </c>
       <c r="Q461" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K462" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="L462" t="n">
-        <v>17000</v>
+        <v>28000</v>
       </c>
       <c r="M462" t="n">
-        <v>16500</v>
+        <v>27500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="Q462" t="n">
         <v>75</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K463" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L463" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M463" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="Q463" t="n">
         <v>100</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33761,24 +33761,24 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
         <v>40</v>
       </c>
       <c r="K464" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L464" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M464" t="n">
-        <v>34500</v>
+        <v>16500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>690</v>
+        <v>220</v>
       </c>
       <c r="Q464" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33833,24 +33833,24 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J465" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K465" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="L465" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="M465" t="n">
-        <v>31500</v>
+        <v>14500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>420</v>
+        <v>145</v>
       </c>
       <c r="Q465" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33905,24 +33905,24 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
         <v>40</v>
       </c>
       <c r="K466" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L466" t="n">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="M466" t="n">
-        <v>28500</v>
+        <v>34500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>285</v>
+        <v>690</v>
       </c>
       <c r="Q466" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33972,29 +33972,29 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K467" t="n">
-        <v>7000</v>
+        <v>31000</v>
       </c>
       <c r="L467" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="M467" t="n">
-        <v>7500</v>
+        <v>31500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>107</v>
+        <v>420</v>
       </c>
       <c r="Q467" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34044,41 +34044,41 @@
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K468" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L468" t="n">
         <v>29000</v>
       </c>
-      <c r="L468" t="n">
-        <v>30000</v>
-      </c>
       <c r="M468" t="n">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P468" t="n">
-        <v>393</v>
+        <v>285</v>
       </c>
       <c r="Q468" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34116,41 +34116,41 @@
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="K469" t="n">
-        <v>29000</v>
+        <v>7000</v>
       </c>
       <c r="L469" t="n">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="M469" t="n">
-        <v>29500</v>
+        <v>7500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P469" t="n">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="Q469" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34188,7 +34188,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -34197,32 +34197,32 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K470" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L470" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M470" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P470" t="n">
-        <v>490</v>
+        <v>393</v>
       </c>
       <c r="Q470" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,32 +34269,32 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K471" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L471" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M471" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P471" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q471" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34337,36 +34337,36 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J472" t="n">
+        <v>30</v>
+      </c>
+      <c r="K472" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L472" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M472" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O472" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P472" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q472" t="n">
         <v>50</v>
-      </c>
-      <c r="K472" t="n">
-        <v>18000</v>
-      </c>
-      <c r="L472" t="n">
-        <v>19000</v>
-      </c>
-      <c r="M472" t="n">
-        <v>18500</v>
-      </c>
-      <c r="N472" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O472" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P472" t="n">
-        <v>185</v>
-      </c>
-      <c r="Q472" t="n">
-        <v>100</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34404,41 +34404,41 @@
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K473" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L473" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M473" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P473" t="n">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="Q473" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34481,24 +34481,24 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K474" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L474" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="M474" t="n">
-        <v>26500</v>
+        <v>18500</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>530</v>
+        <v>185</v>
       </c>
       <c r="Q474" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,41 +34548,41 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J475" t="n">
         <v>50</v>
       </c>
       <c r="K475" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L475" t="n">
         <v>25000</v>
       </c>
-      <c r="L475" t="n">
-        <v>26000</v>
-      </c>
       <c r="M475" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P475" t="n">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="Q475" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34625,36 +34625,36 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J476" t="n">
+        <v>40</v>
+      </c>
+      <c r="K476" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L476" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M476" t="n">
+        <v>26500</v>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P476" t="n">
+        <v>530</v>
+      </c>
+      <c r="Q476" t="n">
         <v>50</v>
-      </c>
-      <c r="K476" t="n">
-        <v>23000</v>
-      </c>
-      <c r="L476" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M476" t="n">
-        <v>23500</v>
-      </c>
-      <c r="N476" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O476" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P476" t="n">
-        <v>235</v>
-      </c>
-      <c r="Q476" t="n">
-        <v>100</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34697,24 +34697,24 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J477" t="n">
         <v>50</v>
       </c>
       <c r="K477" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L477" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M477" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="Q477" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E478" t="n">
         <v>15</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K478" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L478" t="n">
         <v>24000</v>
       </c>
-      <c r="L478" t="n">
-        <v>25000</v>
-      </c>
       <c r="M478" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="Q478" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34841,24 +34841,24 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
         <v>50</v>
       </c>
       <c r="K479" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L479" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M479" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>215</v>
+        <v>490</v>
       </c>
       <c r="Q479" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K480" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L480" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M480" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>453</v>
+        <v>327</v>
       </c>
       <c r="Q480" t="n">
         <v>75</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34989,16 +34989,16 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K481" t="n">
-        <v>28000</v>
+        <v>21000</v>
       </c>
       <c r="L481" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M481" t="n">
-        <v>29000</v>
+        <v>21500</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="Q481" t="n">
         <v>100</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35057,24 +35057,24 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J482" t="n">
         <v>50</v>
       </c>
       <c r="K482" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L482" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M482" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="Q482" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35129,24 +35129,24 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K483" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L483" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M483" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="Q483" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35201,24 +35201,24 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K484" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L484" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="M484" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>205</v>
+        <v>490</v>
       </c>
       <c r="Q484" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35268,29 +35268,29 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J485" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K485" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="L485" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M485" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
@@ -35299,10 +35299,10 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="Q485" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35345,24 +35345,24 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J486" t="n">
         <v>40</v>
       </c>
       <c r="K486" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L486" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M486" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>390</v>
+        <v>205</v>
       </c>
       <c r="Q486" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35412,29 +35412,29 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J487" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K487" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L487" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M487" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="Q487" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35484,7 +35484,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -35493,20 +35493,20 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K488" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="L488" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M488" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -35515,10 +35515,10 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>164</v>
+        <v>390</v>
       </c>
       <c r="Q488" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35568,13 +35568,13 @@
         <v>50</v>
       </c>
       <c r="K489" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L489" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M489" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35587,12 +35587,156 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>393</v>
+        <v>233</v>
       </c>
       <c r="Q489" t="n">
         <v>75</v>
       </c>
       <c r="R489" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D490" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E490" t="n">
+        <v>15</v>
+      </c>
+      <c r="F490" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J490" t="n">
+        <v>120</v>
+      </c>
+      <c r="K490" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L490" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M490" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P490" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>70</v>
+      </c>
+      <c r="R490" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>1</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D491" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E491" t="n">
+        <v>15</v>
+      </c>
+      <c r="F491" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I491" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J491" t="n">
+        <v>50</v>
+      </c>
+      <c r="K491" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L491" t="n">
+        <v>30000</v>
+      </c>
+      <c r="M491" t="n">
+        <v>29500</v>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P491" t="n">
+        <v>393</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>75</v>
+      </c>
+      <c r="R491" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R497"/>
+  <dimension ref="A1:R501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K372" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L372" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M372" t="n">
-        <v>9500</v>
+        <v>7500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="Q372" t="n">
         <v>70</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27204,41 +27204,41 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J373" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K373" t="n">
-        <v>29000</v>
+        <v>5000</v>
       </c>
       <c r="L373" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M373" t="n">
-        <v>29500</v>
+        <v>5500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P373" t="n">
-        <v>295</v>
+        <v>550</v>
       </c>
       <c r="Q373" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27276,29 +27276,29 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J374" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K374" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L374" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M374" t="n">
-        <v>5500</v>
+        <v>17500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O374" t="inlineStr">
@@ -27307,10 +27307,10 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="Q374" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,41 +27348,41 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J375" t="n">
+        <v>50</v>
+      </c>
+      <c r="K375" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L375" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M375" t="n">
+        <v>14500</v>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P375" t="n">
+        <v>145</v>
+      </c>
+      <c r="Q375" t="n">
         <v>100</v>
-      </c>
-      <c r="K375" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L375" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M375" t="n">
-        <v>6500</v>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P375" t="n">
-        <v>93</v>
-      </c>
-      <c r="Q375" t="n">
-        <v>70</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44264</v>
+        <v>44341</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27420,29 +27420,29 @@
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J376" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K376" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="L376" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M376" t="n">
-        <v>29500</v>
+        <v>9500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O376" t="inlineStr">
@@ -27451,10 +27451,10 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>393</v>
+        <v>136</v>
       </c>
       <c r="Q376" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R376" t="inlineStr">
         <is>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44322</v>
+        <v>44279</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27492,41 +27492,41 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J377" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K377" t="n">
-        <v>23000</v>
+        <v>29000</v>
       </c>
       <c r="L377" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M377" t="n">
-        <v>23500</v>
+        <v>29500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P377" t="n">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Q377" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44322</v>
+        <v>44208</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,29 +27564,29 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K378" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="L378" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="M378" t="n">
-        <v>21500</v>
+        <v>5500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="Q378" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44491</v>
+        <v>44208</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27648,13 +27648,13 @@
         <v>100</v>
       </c>
       <c r="K379" t="n">
-        <v>26000</v>
+        <v>6000</v>
       </c>
       <c r="L379" t="n">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="M379" t="n">
-        <v>26500</v>
+        <v>6500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>379</v>
+        <v>93</v>
       </c>
       <c r="Q379" t="n">
         <v>70</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27713,24 +27713,24 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J380" t="n">
         <v>40</v>
       </c>
       <c r="K380" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L380" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M380" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>630</v>
+        <v>393</v>
       </c>
       <c r="Q380" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44491</v>
+        <v>44322</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27789,16 +27789,16 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K381" t="n">
-        <v>29000</v>
+        <v>23000</v>
       </c>
       <c r="L381" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="M381" t="n">
-        <v>29500</v>
+        <v>23500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
@@ -27811,7 +27811,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="Q381" t="n">
         <v>75</v>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44491</v>
+        <v>44322</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27864,13 +27864,13 @@
         <v>60</v>
       </c>
       <c r="K382" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L382" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M382" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="Q382" t="n">
         <v>100</v>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27933,16 +27933,16 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K383" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L383" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="M383" t="n">
-        <v>17500</v>
+        <v>26500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="Q383" t="n">
         <v>70</v>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28008,13 +28008,13 @@
         <v>40</v>
       </c>
       <c r="K384" t="n">
-        <v>33000</v>
+        <v>31000</v>
       </c>
       <c r="L384" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="M384" t="n">
-        <v>34000</v>
+        <v>31500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
@@ -28027,7 +28027,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="Q384" t="n">
         <v>50</v>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28080,13 +28080,13 @@
         <v>50</v>
       </c>
       <c r="K385" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L385" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M385" t="n">
-        <v>34000</v>
+        <v>29500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>453</v>
+        <v>393</v>
       </c>
       <c r="Q385" t="n">
         <v>75</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28149,16 +28149,16 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K386" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L386" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M386" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="Q386" t="n">
         <v>100</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28212,7 +28212,7 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -28221,20 +28221,20 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K387" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L387" t="n">
-        <v>34000</v>
+        <v>18000</v>
       </c>
       <c r="M387" t="n">
-        <v>33500</v>
+        <v>17500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O387" t="inlineStr">
@@ -28243,10 +28243,10 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>670</v>
+        <v>250</v>
       </c>
       <c r="Q387" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28289,7 +28289,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
@@ -28299,14 +28299,14 @@
         <v>33000</v>
       </c>
       <c r="L388" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M388" t="n">
         <v>34000</v>
       </c>
-      <c r="M388" t="n">
-        <v>33500</v>
-      </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>447</v>
+        <v>680</v>
       </c>
       <c r="Q388" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28361,24 +28361,24 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
         <v>50</v>
       </c>
       <c r="K389" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L389" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="M389" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>310</v>
+        <v>453</v>
       </c>
       <c r="Q389" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44396</v>
+        <v>44389</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28428,29 +28428,29 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K390" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L390" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="M390" t="n">
-        <v>18500</v>
+        <v>30000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="Q390" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K391" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L391" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="M391" t="n">
-        <v>13500</v>
+        <v>33500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>1350</v>
+        <v>670</v>
       </c>
       <c r="Q391" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28577,24 +28577,24 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
         <v>40</v>
       </c>
       <c r="K392" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L392" t="n">
-        <v>30000</v>
+        <v>34000</v>
       </c>
       <c r="M392" t="n">
-        <v>29500</v>
+        <v>33500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>590</v>
+        <v>447</v>
       </c>
       <c r="Q392" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J393" t="n">
         <v>50</v>
       </c>
       <c r="K393" t="n">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="L393" t="n">
-        <v>19000</v>
+        <v>32000</v>
       </c>
       <c r="M393" t="n">
-        <v>18500</v>
+        <v>31000</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="Q393" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,29 +28716,29 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K394" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="L394" t="n">
-        <v>28000</v>
+        <v>19000</v>
       </c>
       <c r="M394" t="n">
-        <v>27500</v>
+        <v>18500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Q394" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28788,29 +28788,29 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K395" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="L395" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="M395" t="n">
-        <v>26000</v>
+        <v>13500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>520</v>
+        <v>1350</v>
       </c>
       <c r="Q395" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28860,29 +28860,29 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K396" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L396" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="M396" t="n">
-        <v>22000</v>
+        <v>29500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>314</v>
+        <v>590</v>
       </c>
       <c r="Q396" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28932,29 +28932,29 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K397" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L397" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M397" t="n">
-        <v>6750</v>
+        <v>18500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="Q397" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29009,24 +29009,24 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K398" t="n">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="L398" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M398" t="n">
-        <v>36500</v>
+        <v>27500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>730</v>
+        <v>275</v>
       </c>
       <c r="Q398" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29076,29 +29076,29 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="K399" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L399" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M399" t="n">
-        <v>36500</v>
+        <v>26000</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="Q399" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K400" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L400" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="M400" t="n">
-        <v>7500</v>
+        <v>22000</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>107</v>
+        <v>314</v>
       </c>
       <c r="Q400" t="n">
         <v>70</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29220,29 +29220,29 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K401" t="n">
-        <v>4500</v>
+        <v>6500</v>
       </c>
       <c r="L401" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M401" t="n">
-        <v>4750</v>
+        <v>6750</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>475</v>
+        <v>96</v>
       </c>
       <c r="Q401" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29301,16 +29301,16 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K402" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L402" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M402" t="n">
-        <v>34000</v>
+        <v>36500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>680</v>
+        <v>730</v>
       </c>
       <c r="Q402" t="n">
         <v>50</v>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29373,16 +29373,16 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K403" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L403" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M403" t="n">
-        <v>34000</v>
+        <v>36500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="Q403" t="n">
         <v>75</v>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29436,29 +29436,29 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K404" t="n">
-        <v>29000</v>
+        <v>7000</v>
       </c>
       <c r="L404" t="n">
-        <v>31000</v>
+        <v>8000</v>
       </c>
       <c r="M404" t="n">
-        <v>30000</v>
+        <v>7500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="Q404" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44414</v>
+        <v>44551</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29508,29 +29508,29 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K405" t="n">
-        <v>23000</v>
+        <v>4500</v>
       </c>
       <c r="L405" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="M405" t="n">
-        <v>24000</v>
+        <v>4750</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="Q405" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
         <v>50</v>
       </c>
       <c r="K406" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L406" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M406" t="n">
-        <v>22500</v>
+        <v>34000</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>300</v>
+        <v>680</v>
       </c>
       <c r="Q406" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,24 +29657,24 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
         <v>50</v>
       </c>
       <c r="K407" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L407" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M407" t="n">
-        <v>20500</v>
+        <v>34000</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>205</v>
+        <v>453</v>
       </c>
       <c r="Q407" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44321</v>
+        <v>44386</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29724,29 +29724,29 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K408" t="n">
-        <v>5000</v>
+        <v>29000</v>
       </c>
       <c r="L408" t="n">
-        <v>5500</v>
+        <v>31000</v>
       </c>
       <c r="M408" t="n">
-        <v>5250</v>
+        <v>30000</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>525</v>
+        <v>300</v>
       </c>
       <c r="Q408" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K409" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="L409" t="n">
         <v>25000</v>
       </c>
       <c r="M409" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="Q409" t="n">
         <v>50</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K410" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L410" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M410" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="Q410" t="n">
         <v>75</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29949,16 +29949,16 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K411" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L411" t="n">
         <v>21000</v>
       </c>
-      <c r="L411" t="n">
-        <v>22000</v>
-      </c>
       <c r="M411" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q411" t="n">
         <v>100</v>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30012,29 +30012,29 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="K412" t="n">
-        <v>34000</v>
+        <v>5000</v>
       </c>
       <c r="L412" t="n">
-        <v>35000</v>
+        <v>5500</v>
       </c>
       <c r="M412" t="n">
-        <v>34500</v>
+        <v>5250</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>690</v>
+        <v>525</v>
       </c>
       <c r="Q412" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30089,36 +30089,36 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
+        <v>60</v>
+      </c>
+      <c r="K413" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L413" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M413" t="n">
+        <v>24500</v>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q413" t="n">
         <v>50</v>
-      </c>
-      <c r="K413" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L413" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M413" t="n">
-        <v>34500</v>
-      </c>
-      <c r="N413" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O413" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P413" t="n">
-        <v>460</v>
-      </c>
-      <c r="Q413" t="n">
-        <v>75</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30161,24 +30161,24 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
         <v>40</v>
       </c>
       <c r="K414" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="L414" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M414" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="Q414" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44278</v>
+        <v>44321</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30233,24 +30233,24 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K415" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L415" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M415" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>393</v>
+        <v>215</v>
       </c>
       <c r="Q415" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,24 +30305,24 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J416" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K416" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L416" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M416" t="n">
-        <v>25500</v>
+        <v>34500</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>255</v>
+        <v>690</v>
       </c>
       <c r="Q416" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30372,29 +30372,29 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J417" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K417" t="n">
-        <v>13000</v>
+        <v>34000</v>
       </c>
       <c r="L417" t="n">
-        <v>14000</v>
+        <v>35000</v>
       </c>
       <c r="M417" t="n">
-        <v>13500</v>
+        <v>34500</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>193</v>
+        <v>460</v>
       </c>
       <c r="Q417" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44281</v>
+        <v>44385</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30444,29 +30444,29 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K418" t="n">
-        <v>10000</v>
+        <v>31000</v>
       </c>
       <c r="L418" t="n">
-        <v>11000</v>
+        <v>32000</v>
       </c>
       <c r="M418" t="n">
-        <v>10500</v>
+        <v>31500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="Q418" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,16 +30516,16 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J419" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K419" t="n">
         <v>29000</v>
@@ -30538,19 +30538,19 @@
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="Q419" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44350</v>
+        <v>44278</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30593,24 +30593,24 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K420" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="L420" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="M420" t="n">
-        <v>23500</v>
+        <v>25500</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>470</v>
+        <v>255</v>
       </c>
       <c r="Q420" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30660,41 +30660,41 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J421" t="n">
+        <v>100</v>
+      </c>
+      <c r="K421" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L421" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M421" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P421" t="n">
+        <v>193</v>
+      </c>
+      <c r="Q421" t="n">
         <v>70</v>
-      </c>
-      <c r="K421" t="n">
-        <v>21000</v>
-      </c>
-      <c r="L421" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M421" t="n">
-        <v>21500</v>
-      </c>
-      <c r="N421" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P421" t="n">
-        <v>287</v>
-      </c>
-      <c r="Q421" t="n">
-        <v>75</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,29 +30732,29 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K422" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L422" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="M422" t="n">
-        <v>19500</v>
+        <v>10500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="Q422" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30789,7 +30789,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44529</v>
+        <v>44281</v>
       </c>
       <c r="E423" t="n">
         <v>15</v>
@@ -30804,7 +30804,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -30813,32 +30813,32 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K423" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L423" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M423" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P423" t="n">
-        <v>410</v>
+        <v>295</v>
       </c>
       <c r="Q423" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30881,24 +30881,24 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J424" t="n">
         <v>50</v>
       </c>
       <c r="K424" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L424" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="M424" t="n">
-        <v>18500</v>
+        <v>23500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,10 +30907,10 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>247</v>
+        <v>470</v>
       </c>
       <c r="Q424" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R424" t="inlineStr">
         <is>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30953,24 +30953,24 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J425" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K425" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L425" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M425" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O425" t="inlineStr">
@@ -30979,10 +30979,10 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="Q425" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R425" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44413</v>
+        <v>44350</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31025,24 +31025,24 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J426" t="n">
         <v>50</v>
       </c>
       <c r="K426" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="L426" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="M426" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O426" t="inlineStr">
@@ -31051,10 +31051,10 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>490</v>
+        <v>195</v>
       </c>
       <c r="Q426" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R426" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31097,24 +31097,24 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
         <v>50</v>
       </c>
       <c r="K427" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="L427" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="M427" t="n">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,10 +31123,10 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="Q427" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31169,24 +31169,24 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K428" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L428" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M428" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="Q428" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44238</v>
+        <v>44529</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31236,29 +31236,29 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J429" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K429" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L429" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="M429" t="n">
-        <v>7250</v>
+        <v>16500</v>
       </c>
       <c r="N429" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O429" t="inlineStr">
@@ -31267,10 +31267,10 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="Q429" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31313,24 +31313,24 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K430" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="L430" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="M430" t="n">
-        <v>35500</v>
+        <v>24500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="Q430" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31385,24 +31385,24 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
         <v>50</v>
       </c>
       <c r="K431" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L431" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="M431" t="n">
-        <v>33500</v>
+        <v>23500</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O431" t="inlineStr">
@@ -31411,10 +31411,10 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="Q431" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R431" t="inlineStr">
         <is>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31452,29 +31452,29 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J432" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K432" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L432" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M432" t="n">
-        <v>13500</v>
+        <v>20500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="Q432" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31536,13 +31536,13 @@
         <v>120</v>
       </c>
       <c r="K433" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L433" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="M433" t="n">
-        <v>8500</v>
+        <v>7250</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="Q433" t="n">
         <v>70</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,20 +31605,20 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K434" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="L434" t="n">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="M434" t="n">
-        <v>17500</v>
+        <v>35500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
@@ -31627,10 +31627,10 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>1750</v>
+        <v>473</v>
       </c>
       <c r="Q434" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44200</v>
+        <v>44238</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31673,24 +31673,24 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J435" t="n">
         <v>50</v>
       </c>
       <c r="K435" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L435" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M435" t="n">
-        <v>21000</v>
+        <v>33500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
@@ -31699,10 +31699,10 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>420</v>
+        <v>335</v>
       </c>
       <c r="Q435" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31740,41 +31740,41 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J436" t="n">
+        <v>140</v>
+      </c>
+      <c r="K436" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L436" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M436" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>$/malla 50 unidades</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P436" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q436" t="n">
         <v>50</v>
-      </c>
-      <c r="K436" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L436" t="n">
-        <v>21000</v>
-      </c>
-      <c r="M436" t="n">
-        <v>20500</v>
-      </c>
-      <c r="N436" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O436" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P436" t="n">
-        <v>273</v>
-      </c>
-      <c r="Q436" t="n">
-        <v>75</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44459</v>
+        <v>44257</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,20 +31821,20 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K437" t="n">
-        <v>33000</v>
+        <v>8000</v>
       </c>
       <c r="L437" t="n">
-        <v>35000</v>
+        <v>9000</v>
       </c>
       <c r="M437" t="n">
-        <v>34000</v>
+        <v>8500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>680</v>
+        <v>121</v>
       </c>
       <c r="Q437" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44459</v>
+        <v>44411</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31884,7 +31884,7 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -31893,20 +31893,20 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K438" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L438" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M438" t="n">
-        <v>34000</v>
+        <v>17500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>453</v>
+        <v>1750</v>
       </c>
       <c r="Q438" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31961,24 +31961,24 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
         <v>50</v>
       </c>
       <c r="K439" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L439" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M439" t="n">
-        <v>26500</v>
+        <v>21000</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>265</v>
+        <v>420</v>
       </c>
       <c r="Q439" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44258</v>
+        <v>44200</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32040,13 +32040,13 @@
         <v>50</v>
       </c>
       <c r="K440" t="n">
-        <v>32000</v>
+        <v>20000</v>
       </c>
       <c r="L440" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="M440" t="n">
-        <v>32500</v>
+        <v>20500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>433</v>
+        <v>273</v>
       </c>
       <c r="Q440" t="n">
         <v>75</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32105,24 +32105,24 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J441" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K441" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L441" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M441" t="n">
-        <v>30500</v>
+        <v>34000</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>305</v>
+        <v>680</v>
       </c>
       <c r="Q441" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32172,29 +32172,29 @@
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J442" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K442" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L442" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M442" t="n">
-        <v>12500</v>
+        <v>34000</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O442" t="inlineStr">
@@ -32203,10 +32203,10 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>179</v>
+        <v>453</v>
       </c>
       <c r="Q442" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32249,24 +32249,24 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J443" t="n">
         <v>50</v>
       </c>
       <c r="K443" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="L443" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="M443" t="n">
-        <v>34500</v>
+        <v>26500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O443" t="inlineStr">
@@ -32275,10 +32275,10 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>460</v>
+        <v>265</v>
       </c>
       <c r="Q443" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32321,24 +32321,24 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J444" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K444" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="L444" t="n">
-        <v>31000</v>
+        <v>33000</v>
       </c>
       <c r="M444" t="n">
-        <v>30500</v>
+        <v>32500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>305</v>
+        <v>433</v>
       </c>
       <c r="Q444" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44432</v>
+        <v>44258</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32393,24 +32393,24 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K445" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L445" t="n">
         <v>31000</v>
       </c>
-      <c r="L445" t="n">
-        <v>33000</v>
-      </c>
       <c r="M445" t="n">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>427</v>
+        <v>305</v>
       </c>
       <c r="Q445" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32460,29 +32460,29 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K446" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="L446" t="n">
-        <v>30000</v>
+        <v>13000</v>
       </c>
       <c r="M446" t="n">
-        <v>29000</v>
+        <v>12500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>290</v>
+        <v>179</v>
       </c>
       <c r="Q446" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,20 +32541,20 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K447" t="n">
-        <v>16000</v>
+        <v>34000</v>
       </c>
       <c r="L447" t="n">
-        <v>17000</v>
+        <v>35000</v>
       </c>
       <c r="M447" t="n">
-        <v>16500</v>
+        <v>34500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>1650</v>
+        <v>460</v>
       </c>
       <c r="Q447" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32609,24 +32609,24 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K448" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="L448" t="n">
-        <v>35000</v>
+        <v>31000</v>
       </c>
       <c r="M448" t="n">
-        <v>34000</v>
+        <v>30500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>680</v>
+        <v>305</v>
       </c>
       <c r="Q448" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K449" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L449" t="n">
         <v>33000</v>
       </c>
-      <c r="L449" t="n">
-        <v>35000</v>
-      </c>
       <c r="M449" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="Q449" t="n">
         <v>75</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32760,13 +32760,13 @@
         <v>40</v>
       </c>
       <c r="K450" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L450" t="n">
         <v>30000</v>
       </c>
       <c r="M450" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q450" t="n">
         <v>100</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32825,24 +32825,24 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K451" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="L451" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M451" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>164</v>
+        <v>1650</v>
       </c>
       <c r="Q451" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32904,13 +32904,13 @@
         <v>50</v>
       </c>
       <c r="K452" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L452" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M452" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
@@ -32923,7 +32923,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>490</v>
+        <v>680</v>
       </c>
       <c r="Q452" t="n">
         <v>50</v>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K453" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L453" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M453" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="Q453" t="n">
         <v>75</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K454" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L454" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M454" t="n">
-        <v>20500</v>
+        <v>29500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>205</v>
+        <v>295</v>
       </c>
       <c r="Q454" t="n">
         <v>100</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33117,16 +33117,16 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K455" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L455" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M455" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="Q455" t="n">
         <v>70</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33189,16 +33189,16 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K456" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L456" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M456" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="Q456" t="n">
         <v>50</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K457" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L457" t="n">
         <v>25000</v>
       </c>
-      <c r="L457" t="n">
-        <v>26000</v>
-      </c>
       <c r="M457" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="Q457" t="n">
         <v>75</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K458" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L458" t="n">
         <v>21000</v>
       </c>
-      <c r="L458" t="n">
-        <v>22000</v>
-      </c>
       <c r="M458" t="n">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="Q458" t="n">
         <v>100</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K459" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="L459" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="M459" t="n">
-        <v>26500</v>
+        <v>9500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>379</v>
+        <v>136</v>
       </c>
       <c r="Q459" t="n">
         <v>70</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K460" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="L460" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M460" t="n">
-        <v>34000</v>
+        <v>27500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>680</v>
+        <v>550</v>
       </c>
       <c r="Q460" t="n">
         <v>50</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33549,16 +33549,16 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K461" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L461" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M461" t="n">
-        <v>34000</v>
+        <v>25500</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
@@ -33571,7 +33571,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="Q461" t="n">
         <v>75</v>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K462" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L462" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M462" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q462" t="n">
         <v>100</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,20 +33693,20 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K463" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="L463" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="M463" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="Q463" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33768,13 +33768,13 @@
         <v>30</v>
       </c>
       <c r="K464" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L464" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M464" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>580</v>
+        <v>680</v>
       </c>
       <c r="Q464" t="n">
         <v>50</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33837,16 +33837,16 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K465" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L465" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M465" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="Q465" t="n">
         <v>75</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33909,16 +33909,16 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K466" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L466" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M466" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="Q466" t="n">
         <v>100</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,20 +33981,20 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K467" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="L467" t="n">
-        <v>31000</v>
+        <v>13000</v>
       </c>
       <c r="M467" t="n">
-        <v>30500</v>
+        <v>12500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,7 +34003,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="Q467" t="n">
         <v>50</v>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K468" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L468" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M468" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>367</v>
+        <v>580</v>
       </c>
       <c r="Q468" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34121,24 +34121,24 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K469" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L469" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M469" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="Q469" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44536</v>
+        <v>44270</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34193,24 +34193,24 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J470" t="n">
         <v>40</v>
       </c>
       <c r="K470" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="L470" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="M470" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="Q470" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34265,24 +34265,24 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K471" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="L471" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="M471" t="n">
-        <v>14500</v>
+        <v>30500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>145</v>
+        <v>610</v>
       </c>
       <c r="Q471" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44302</v>
+        <v>44473</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34337,24 +34337,24 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K472" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L472" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M472" t="n">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>690</v>
+        <v>367</v>
       </c>
       <c r="Q472" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44302</v>
+        <v>44473</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34409,24 +34409,24 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K473" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="L473" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="M473" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>420</v>
+        <v>245</v>
       </c>
       <c r="Q473" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34461,7 +34461,7 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E474" t="n">
         <v>15</v>
@@ -34481,24 +34481,24 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J474" t="n">
         <v>40</v>
       </c>
       <c r="K474" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L474" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="M474" t="n">
-        <v>28500</v>
+        <v>16500</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="Q474" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44239</v>
+        <v>44536</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,29 +34548,29 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J475" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="K475" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="L475" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M475" t="n">
-        <v>7500</v>
+        <v>14500</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,10 +34579,10 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="Q475" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R475" t="inlineStr">
         <is>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34620,7 +34620,7 @@
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -34629,32 +34629,32 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K476" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="L476" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M476" t="n">
-        <v>29500</v>
+        <v>34500</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P476" t="n">
-        <v>393</v>
+        <v>690</v>
       </c>
       <c r="Q476" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -34701,32 +34701,32 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K477" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="L477" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M477" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P477" t="n">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="Q477" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44344</v>
+        <v>44302</v>
       </c>
       <c r="E478" t="n">
         <v>15</v>
@@ -34769,24 +34769,24 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K478" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="L478" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="M478" t="n">
-        <v>24500</v>
+        <v>28500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>490</v>
+        <v>285</v>
       </c>
       <c r="Q478" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34836,29 +34836,29 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J479" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="K479" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="L479" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M479" t="n">
-        <v>21500</v>
+        <v>7500</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O479" t="inlineStr">
@@ -34867,10 +34867,10 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="Q479" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R479" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34908,41 +34908,41 @@
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J480" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K480" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L480" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M480" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P480" t="n">
-        <v>185</v>
+        <v>393</v>
       </c>
       <c r="Q480" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R480" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34985,20 +34985,20 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J481" t="n">
         <v>50</v>
       </c>
       <c r="K481" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L481" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M481" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N481" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="Q481" t="n">
         <v>100</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35061,16 +35061,16 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K482" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L482" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M482" t="n">
-        <v>26500</v>
+        <v>24500</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
@@ -35083,7 +35083,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="Q482" t="n">
         <v>50</v>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35133,16 +35133,16 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K483" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="L483" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M483" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>340</v>
+        <v>287</v>
       </c>
       <c r="Q483" t="n">
         <v>75</v>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44357</v>
+        <v>44344</v>
       </c>
       <c r="E484" t="n">
         <v>15</v>
@@ -35208,13 +35208,13 @@
         <v>50</v>
       </c>
       <c r="K484" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L484" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M484" t="n">
-        <v>23500</v>
+        <v>18500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="Q484" t="n">
         <v>100</v>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44365</v>
+        <v>44344</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35268,7 +35268,7 @@
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -35290,19 +35290,19 @@
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P485" t="n">
-        <v>490</v>
+        <v>245</v>
       </c>
       <c r="Q485" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R485" t="inlineStr">
         <is>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35345,24 +35345,24 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J486" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K486" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L486" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M486" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O486" t="inlineStr">
@@ -35371,10 +35371,10 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>327</v>
+        <v>530</v>
       </c>
       <c r="Q486" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R486" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35417,24 +35417,24 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J487" t="n">
         <v>50</v>
       </c>
       <c r="K487" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L487" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M487" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>215</v>
+        <v>340</v>
       </c>
       <c r="Q487" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44454</v>
+        <v>44357</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35489,24 +35489,24 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J488" t="n">
         <v>50</v>
       </c>
       <c r="K488" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L488" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M488" t="n">
-        <v>34000</v>
+        <v>23500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O488" t="inlineStr">
@@ -35515,10 +35515,10 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>453</v>
+        <v>235</v>
       </c>
       <c r="Q488" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R488" t="inlineStr">
         <is>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35561,24 +35561,24 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K489" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L489" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M489" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="Q489" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35633,11 +35633,11 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J490" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K490" t="n">
         <v>24000</v>
@@ -35650,7 +35650,7 @@
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>490</v>
+        <v>327</v>
       </c>
       <c r="Q490" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35705,24 +35705,24 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J491" t="n">
         <v>50</v>
       </c>
       <c r="K491" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L491" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M491" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="Q491" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35777,24 +35777,24 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K492" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L492" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M492" t="n">
-        <v>20500</v>
+        <v>34000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -35803,10 +35803,10 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>205</v>
+        <v>453</v>
       </c>
       <c r="Q492" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E493" t="n">
         <v>15</v>
@@ -35844,29 +35844,29 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K493" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="L493" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M493" t="n">
-        <v>11500</v>
+        <v>29000</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -35875,10 +35875,10 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="Q493" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35925,16 +35925,16 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K494" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L494" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M494" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="Q494" t="n">
         <v>50</v>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -36000,13 +36000,13 @@
         <v>50</v>
       </c>
       <c r="K495" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L495" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M495" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="Q495" t="n">
         <v>75</v>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36060,29 +36060,29 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K496" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L496" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M496" t="n">
-        <v>11500</v>
+        <v>20500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -36091,10 +36091,10 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="Q496" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,58 +36117,346 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E497" t="n">
+        <v>15</v>
+      </c>
+      <c r="F497" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J497" t="n">
+        <v>160</v>
+      </c>
+      <c r="K497" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L497" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M497" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P497" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>70</v>
+      </c>
+      <c r="R497" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>1</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D498" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E498" t="n">
+        <v>15</v>
+      </c>
+      <c r="F498" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>40</v>
+      </c>
+      <c r="K498" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L498" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M498" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P498" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>50</v>
+      </c>
+      <c r="R498" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>1</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D499" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E499" t="n">
+        <v>15</v>
+      </c>
+      <c r="F499" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>50</v>
+      </c>
+      <c r="K499" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L499" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M499" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N499" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O499" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P499" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>75</v>
+      </c>
+      <c r="R499" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>1</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D500" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E497" t="n">
-        <v>15</v>
-      </c>
-      <c r="F497" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>Lluteño</t>
-        </is>
-      </c>
-      <c r="I497" t="inlineStr">
+      <c r="E500" t="n">
+        <v>15</v>
+      </c>
+      <c r="F500" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>120</v>
+      </c>
+      <c r="K500" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L500" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M500" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P500" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>70</v>
+      </c>
+      <c r="R500" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>1</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D501" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E501" t="n">
+        <v>15</v>
+      </c>
+      <c r="F501" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J497" t="n">
+      <c r="J501" t="n">
         <v>50</v>
       </c>
-      <c r="K497" t="n">
+      <c r="K501" t="n">
         <v>29000</v>
       </c>
-      <c r="L497" t="n">
+      <c r="L501" t="n">
         <v>30000</v>
       </c>
-      <c r="M497" t="n">
+      <c r="M501" t="n">
         <v>29500</v>
       </c>
-      <c r="N497" t="inlineStr">
+      <c r="N501" t="inlineStr">
         <is>
           <t>$/saco 75 unidades</t>
         </is>
       </c>
-      <c r="O497" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P497" t="n">
+      <c r="O501" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P501" t="n">
         <v>393</v>
       </c>
-      <c r="Q497" t="n">
+      <c r="Q501" t="n">
         <v>75</v>
       </c>
-      <c r="R497" t="inlineStr">
+      <c r="R501" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R504"/>
+  <dimension ref="A1:R508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35556,7 +35556,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -35565,20 +35565,20 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K489" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="L489" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="M489" t="n">
-        <v>26500</v>
+        <v>7500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O489" t="inlineStr">
@@ -35587,10 +35587,10 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>530</v>
+        <v>107</v>
       </c>
       <c r="Q489" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R489" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35633,24 +35633,24 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J490" t="n">
         <v>50</v>
       </c>
       <c r="K490" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L490" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="M490" t="n">
-        <v>25500</v>
+        <v>21000</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q490" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35705,24 +35705,24 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J491" t="n">
         <v>50</v>
       </c>
       <c r="K491" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="L491" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M491" t="n">
-        <v>23500</v>
+        <v>18000</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O491" t="inlineStr">
@@ -35731,10 +35731,10 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q491" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R491" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44365</v>
+        <v>44568</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35777,24 +35777,24 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J492" t="n">
         <v>50</v>
       </c>
       <c r="K492" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L492" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M492" t="n">
-        <v>24500</v>
+        <v>14000</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O492" t="inlineStr">
@@ -35803,10 +35803,10 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
       <c r="Q492" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R492" t="inlineStr">
         <is>
@@ -35829,7 +35829,7 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E493" t="n">
         <v>15</v>
@@ -35849,24 +35849,24 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J493" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K493" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L493" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M493" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
@@ -35875,10 +35875,10 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>327</v>
+        <v>530</v>
       </c>
       <c r="Q493" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35921,24 +35921,24 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
         <v>50</v>
       </c>
       <c r="K494" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="L494" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="M494" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -35947,10 +35947,10 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>215</v>
+        <v>340</v>
       </c>
       <c r="Q494" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44454</v>
+        <v>44357</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -35993,24 +35993,24 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J495" t="n">
         <v>50</v>
       </c>
       <c r="K495" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="L495" t="n">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="M495" t="n">
-        <v>34000</v>
+        <v>23500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -36019,10 +36019,10 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>453</v>
+        <v>235</v>
       </c>
       <c r="Q495" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36065,24 +36065,24 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K496" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L496" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M496" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
@@ -36091,10 +36091,10 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="Q496" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36117,7 +36117,7 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E497" t="n">
         <v>15</v>
@@ -36137,11 +36137,11 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K497" t="n">
         <v>24000</v>
@@ -36154,7 +36154,7 @@
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>490</v>
+        <v>327</v>
       </c>
       <c r="Q497" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E498" t="n">
         <v>15</v>
@@ -36209,24 +36209,24 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J498" t="n">
         <v>50</v>
       </c>
       <c r="K498" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L498" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M498" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O498" t="inlineStr">
@@ -36235,10 +36235,10 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>327</v>
+        <v>215</v>
       </c>
       <c r="Q498" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R498" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E499" t="n">
         <v>15</v>
@@ -36281,24 +36281,24 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J499" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K499" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="L499" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M499" t="n">
-        <v>20500</v>
+        <v>34000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O499" t="inlineStr">
@@ -36307,10 +36307,10 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>205</v>
+        <v>453</v>
       </c>
       <c r="Q499" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R499" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44540</v>
+        <v>44454</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36348,29 +36348,29 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J500" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K500" t="n">
-        <v>11000</v>
+        <v>28000</v>
       </c>
       <c r="L500" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="M500" t="n">
-        <v>11500</v>
+        <v>29000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O500" t="inlineStr">
@@ -36379,10 +36379,10 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="Q500" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R500" t="inlineStr">
         <is>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K501" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L501" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M501" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="Q501" t="n">
         <v>50</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E502" t="n">
         <v>15</v>
@@ -36504,13 +36504,13 @@
         <v>50</v>
       </c>
       <c r="K502" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L502" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M502" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="Q502" t="n">
         <v>75</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44272</v>
+        <v>44313</v>
       </c>
       <c r="E503" t="n">
         <v>15</v>
@@ -36564,29 +36564,29 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J503" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K503" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L503" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M503" t="n">
-        <v>11500</v>
+        <v>20500</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O503" t="inlineStr">
@@ -36595,10 +36595,10 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="Q503" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R503" t="inlineStr">
         <is>
@@ -36621,58 +36621,346 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E504" t="n">
+        <v>15</v>
+      </c>
+      <c r="F504" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>160</v>
+      </c>
+      <c r="K504" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L504" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M504" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P504" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>70</v>
+      </c>
+      <c r="R504" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>1</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D505" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E505" t="n">
+        <v>15</v>
+      </c>
+      <c r="F505" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J505" t="n">
+        <v>40</v>
+      </c>
+      <c r="K505" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L505" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M505" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P505" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>50</v>
+      </c>
+      <c r="R505" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>1</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D506" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E506" t="n">
+        <v>15</v>
+      </c>
+      <c r="F506" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J506" t="n">
+        <v>50</v>
+      </c>
+      <c r="K506" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L506" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M506" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N506" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P506" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>75</v>
+      </c>
+      <c r="R506" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D507" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E504" t="n">
-        <v>15</v>
-      </c>
-      <c r="F504" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>Lluteño</t>
-        </is>
-      </c>
-      <c r="I504" t="inlineStr">
+      <c r="E507" t="n">
+        <v>15</v>
+      </c>
+      <c r="F507" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H507" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I507" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J507" t="n">
+        <v>120</v>
+      </c>
+      <c r="K507" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L507" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M507" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N507" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O507" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P507" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>70</v>
+      </c>
+      <c r="R507" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D508" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E508" t="n">
+        <v>15</v>
+      </c>
+      <c r="F508" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I508" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J504" t="n">
+      <c r="J508" t="n">
         <v>50</v>
       </c>
-      <c r="K504" t="n">
+      <c r="K508" t="n">
         <v>29000</v>
       </c>
-      <c r="L504" t="n">
+      <c r="L508" t="n">
         <v>30000</v>
       </c>
-      <c r="M504" t="n">
+      <c r="M508" t="n">
         <v>29500</v>
       </c>
-      <c r="N504" t="inlineStr">
+      <c r="N508" t="inlineStr">
         <is>
           <t>$/saco 75 unidades</t>
         </is>
       </c>
-      <c r="O504" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P504" t="n">
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P508" t="n">
         <v>393</v>
       </c>
-      <c r="Q504" t="n">
+      <c r="Q508" t="n">
         <v>75</v>
       </c>
-      <c r="R504" t="inlineStr">
+      <c r="R508" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R513"/>
+  <dimension ref="A1:R516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44498</v>
+        <v>44572</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24984,13 +24984,13 @@
         <v>50</v>
       </c>
       <c r="K342" t="n">
-        <v>35000</v>
+        <v>21000</v>
       </c>
       <c r="L342" t="n">
-        <v>37000</v>
+        <v>22000</v>
       </c>
       <c r="M342" t="n">
-        <v>36000</v>
+        <v>21500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>720</v>
+        <v>430</v>
       </c>
       <c r="Q342" t="n">
         <v>50</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44498</v>
+        <v>44572</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25053,16 +25053,16 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K343" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="L343" t="n">
-        <v>37000</v>
+        <v>21000</v>
       </c>
       <c r="M343" t="n">
-        <v>36000</v>
+        <v>20500</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>480</v>
+        <v>273</v>
       </c>
       <c r="Q343" t="n">
         <v>75</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44498</v>
+        <v>44572</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25125,16 +25125,16 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K344" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L344" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M344" t="n">
-        <v>32000</v>
+        <v>16500</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="Q344" t="n">
         <v>100</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44449</v>
+        <v>44498</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K345" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L345" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M345" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="Q345" t="n">
         <v>50</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44449</v>
+        <v>44498</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25272,13 +25272,13 @@
         <v>50</v>
       </c>
       <c r="K346" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="L346" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M346" t="n">
-        <v>34000</v>
+        <v>36000</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="Q346" t="n">
         <v>75</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44449</v>
+        <v>44498</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25344,13 +25344,13 @@
         <v>50</v>
       </c>
       <c r="K347" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="L347" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M347" t="n">
-        <v>25500</v>
+        <v>32000</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>255</v>
+        <v>320</v>
       </c>
       <c r="Q347" t="n">
         <v>100</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44210</v>
+        <v>44449</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K348" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="L348" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M348" t="n">
-        <v>19500</v>
+        <v>34000</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>390</v>
+        <v>680</v>
       </c>
       <c r="Q348" t="n">
         <v>50</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44210</v>
+        <v>44449</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25485,16 +25485,16 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K349" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L349" t="n">
-        <v>19000</v>
+        <v>35000</v>
       </c>
       <c r="M349" t="n">
-        <v>18500</v>
+        <v>34000</v>
       </c>
       <c r="N349" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>247</v>
+        <v>453</v>
       </c>
       <c r="Q349" t="n">
         <v>75</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44210</v>
+        <v>44449</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25560,13 +25560,13 @@
         <v>50</v>
       </c>
       <c r="K350" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="L350" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M350" t="n">
-        <v>17500</v>
+        <v>25500</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="Q350" t="n">
         <v>100</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44526</v>
+        <v>44210</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25620,7 +25620,7 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25629,20 +25629,20 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K351" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L351" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M351" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
@@ -25651,10 +25651,10 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="Q351" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R351" t="inlineStr">
         <is>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44526</v>
+        <v>44210</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25697,24 +25697,24 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K352" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L352" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="M352" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>410</v>
+        <v>247</v>
       </c>
       <c r="Q352" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44526</v>
+        <v>44210</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25769,24 +25769,24 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K353" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L353" t="n">
         <v>18000</v>
       </c>
-      <c r="L353" t="n">
-        <v>19000</v>
-      </c>
       <c r="M353" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="Q353" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25836,29 +25836,29 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K354" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L354" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M354" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="Q354" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44425</v>
+        <v>44526</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25917,16 +25917,16 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K355" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L355" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="M355" t="n">
-        <v>33500</v>
+        <v>20500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>670</v>
+        <v>410</v>
       </c>
       <c r="Q355" t="n">
         <v>50</v>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44425</v>
+        <v>44526</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K356" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="L356" t="n">
-        <v>34000</v>
+        <v>19000</v>
       </c>
       <c r="M356" t="n">
-        <v>33500</v>
+        <v>18500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="Q356" t="n">
         <v>75</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44425</v>
+        <v>44526</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26061,16 +26061,16 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K357" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L357" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M357" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="Q357" t="n">
         <v>100</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44218</v>
+        <v>44425</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26124,7 +26124,7 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -26133,20 +26133,20 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K358" t="n">
-        <v>4500</v>
+        <v>33000</v>
       </c>
       <c r="L358" t="n">
-        <v>5000</v>
+        <v>34000</v>
       </c>
       <c r="M358" t="n">
-        <v>4750</v>
+        <v>33500</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O358" t="inlineStr">
@@ -26155,10 +26155,10 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>68</v>
+        <v>670</v>
       </c>
       <c r="Q358" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R358" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44218</v>
+        <v>44425</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26201,24 +26201,24 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J359" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K359" t="n">
-        <v>16000</v>
+        <v>33000</v>
       </c>
       <c r="L359" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="M359" t="n">
-        <v>16500</v>
+        <v>33500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>330</v>
+        <v>447</v>
       </c>
       <c r="Q359" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44218</v>
+        <v>44425</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26273,24 +26273,24 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J360" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K360" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="L360" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="M360" t="n">
-        <v>16500</v>
+        <v>29500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="Q360" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44168</v>
+        <v>44218</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -26349,20 +26349,20 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K361" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="L361" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M361" t="n">
-        <v>16500</v>
+        <v>4750</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="Q361" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44168</v>
+        <v>44218</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26417,24 +26417,24 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J362" t="n">
         <v>50</v>
       </c>
       <c r="K362" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L362" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M362" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>207</v>
+        <v>330</v>
       </c>
       <c r="Q362" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44168</v>
+        <v>44218</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26489,24 +26489,24 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K363" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L363" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M363" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="Q363" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26561,36 +26561,36 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J364" t="n">
+        <v>60</v>
+      </c>
+      <c r="K364" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L364" t="n">
+        <v>17000</v>
+      </c>
+      <c r="M364" t="n">
+        <v>16500</v>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O364" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P364" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q364" t="n">
         <v>50</v>
-      </c>
-      <c r="K364" t="n">
-        <v>31000</v>
-      </c>
-      <c r="L364" t="n">
-        <v>32000</v>
-      </c>
-      <c r="M364" t="n">
-        <v>31500</v>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P364" t="n">
-        <v>420</v>
-      </c>
-      <c r="Q364" t="n">
-        <v>75</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26633,24 +26633,24 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J365" t="n">
         <v>50</v>
       </c>
       <c r="K365" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L365" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="M365" t="n">
-        <v>28500</v>
+        <v>15500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O365" t="inlineStr">
@@ -26659,10 +26659,10 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="Q365" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R365" t="inlineStr">
         <is>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44160</v>
+        <v>44168</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26705,24 +26705,24 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J366" t="n">
         <v>60</v>
       </c>
       <c r="K366" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L366" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M366" t="n">
-        <v>19000</v>
+        <v>14500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O366" t="inlineStr">
@@ -26731,10 +26731,10 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="Q366" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R366" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44160</v>
+        <v>44418</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26781,16 +26781,16 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K367" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="L367" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M367" t="n">
-        <v>17000</v>
+        <v>31500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="Q367" t="n">
         <v>75</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44160</v>
+        <v>44418</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K368" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="L368" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="M368" t="n">
-        <v>15500</v>
+        <v>28500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="Q368" t="n">
         <v>100</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K369" t="n">
-        <v>32000</v>
+        <v>18000</v>
       </c>
       <c r="L369" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="M369" t="n">
-        <v>32500</v>
+        <v>19000</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="Q369" t="n">
         <v>50</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26997,16 +26997,16 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K370" t="n">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="L370" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M370" t="n">
-        <v>32500</v>
+        <v>17000</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>433</v>
+        <v>227</v>
       </c>
       <c r="Q370" t="n">
         <v>75</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44434</v>
+        <v>44160</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27069,16 +27069,16 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K371" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="L371" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="M371" t="n">
-        <v>29500</v>
+        <v>15500</v>
       </c>
       <c r="N371" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="Q371" t="n">
         <v>100</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44467</v>
+        <v>44434</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27144,13 +27144,13 @@
         <v>50</v>
       </c>
       <c r="K372" t="n">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="L372" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="M372" t="n">
-        <v>31500</v>
+        <v>32500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="Q372" t="n">
         <v>50</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44467</v>
+        <v>44434</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K373" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="L373" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="M373" t="n">
-        <v>27500</v>
+        <v>32500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="Q373" t="n">
         <v>75</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44467</v>
+        <v>44434</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27285,16 +27285,16 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K374" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L374" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M374" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="Q374" t="n">
         <v>100</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44231</v>
+        <v>44467</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -27357,20 +27357,20 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K375" t="n">
-        <v>7000</v>
+        <v>31000</v>
       </c>
       <c r="L375" t="n">
-        <v>8000</v>
+        <v>32000</v>
       </c>
       <c r="M375" t="n">
-        <v>7500</v>
+        <v>31500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O375" t="inlineStr">
@@ -27379,10 +27379,10 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>107</v>
+        <v>630</v>
       </c>
       <c r="Q375" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R375" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44231</v>
+        <v>44467</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K376" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L376" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M376" t="n">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="Q376" t="n">
         <v>75</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44231</v>
+        <v>44467</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27501,16 +27501,16 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K377" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="L377" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M377" t="n">
-        <v>32500</v>
+        <v>24500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="Q377" t="n">
         <v>100</v>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27564,7 +27564,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -27573,20 +27573,20 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K378" t="n">
-        <v>34000</v>
+        <v>7000</v>
       </c>
       <c r="L378" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="M378" t="n">
-        <v>34500</v>
+        <v>7500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>690</v>
+        <v>107</v>
       </c>
       <c r="Q378" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44251</v>
+        <v>44231</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27645,16 +27645,16 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K379" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="L379" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M379" t="n">
-        <v>32500</v>
+        <v>34500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
@@ -27667,7 +27667,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="Q379" t="n">
         <v>75</v>
@@ -27693,7 +27693,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44559</v>
+        <v>44231</v>
       </c>
       <c r="E380" t="n">
         <v>15</v>
@@ -27708,29 +27708,29 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K380" t="n">
-        <v>7000</v>
+        <v>32000</v>
       </c>
       <c r="L380" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M380" t="n">
-        <v>7500</v>
+        <v>32500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="Q380" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,29 +27780,29 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J381" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K381" t="n">
-        <v>5000</v>
+        <v>34000</v>
       </c>
       <c r="L381" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="M381" t="n">
-        <v>5500</v>
+        <v>34500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>550</v>
+        <v>690</v>
       </c>
       <c r="Q381" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44559</v>
+        <v>44251</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27864,13 +27864,13 @@
         <v>50</v>
       </c>
       <c r="K382" t="n">
-        <v>17000</v>
+        <v>32000</v>
       </c>
       <c r="L382" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="M382" t="n">
-        <v>17500</v>
+        <v>32500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>233</v>
+        <v>433</v>
       </c>
       <c r="Q382" t="n">
         <v>75</v>
@@ -27924,29 +27924,29 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J383" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="K383" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L383" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M383" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="Q383" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27981,7 +27981,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44341</v>
+        <v>44559</v>
       </c>
       <c r="E384" t="n">
         <v>15</v>
@@ -28001,24 +28001,24 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J384" t="n">
         <v>200</v>
       </c>
       <c r="K384" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L384" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M384" t="n">
-        <v>9500</v>
+        <v>5500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>136</v>
+        <v>550</v>
       </c>
       <c r="Q384" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44279</v>
+        <v>44559</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28068,41 +28068,41 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J385" t="n">
         <v>50</v>
       </c>
       <c r="K385" t="n">
-        <v>29000</v>
+        <v>17000</v>
       </c>
       <c r="L385" t="n">
-        <v>30000</v>
+        <v>18000</v>
       </c>
       <c r="M385" t="n">
-        <v>29500</v>
+        <v>17500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P385" t="n">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Q385" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44208</v>
+        <v>44559</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28140,29 +28140,29 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J386" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K386" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L386" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M386" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O386" t="inlineStr">
@@ -28171,10 +28171,10 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="Q386" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44208</v>
+        <v>44341</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28221,16 +28221,16 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K387" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L387" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M387" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="Q387" t="n">
         <v>70</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44264</v>
+        <v>44279</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,16 +28284,16 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J388" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K388" t="n">
         <v>29000</v>
@@ -28306,19 +28306,19 @@
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P388" t="n">
-        <v>393</v>
+        <v>295</v>
       </c>
       <c r="Q388" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44322</v>
+        <v>44208</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28356,29 +28356,29 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J389" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K389" t="n">
-        <v>23000</v>
+        <v>5000</v>
       </c>
       <c r="L389" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M389" t="n">
-        <v>23500</v>
+        <v>5500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="Q389" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44322</v>
+        <v>44208</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28428,29 +28428,29 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K390" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="L390" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="M390" t="n">
-        <v>21500</v>
+        <v>6500</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="Q390" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44491</v>
+        <v>44264</v>
       </c>
       <c r="E391" t="n">
         <v>15</v>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K391" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="L391" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M391" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="Q391" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44491</v>
+        <v>44322</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28577,24 +28577,24 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J392" t="n">
         <v>40</v>
       </c>
       <c r="K392" t="n">
-        <v>31000</v>
+        <v>23000</v>
       </c>
       <c r="L392" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="M392" t="n">
-        <v>31500</v>
+        <v>23500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>630</v>
+        <v>313</v>
       </c>
       <c r="Q392" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44491</v>
+        <v>44322</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28649,24 +28649,24 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J393" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K393" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L393" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="M393" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O393" t="inlineStr">
@@ -28675,10 +28675,10 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>393</v>
+        <v>215</v>
       </c>
       <c r="Q393" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R393" t="inlineStr">
         <is>
@@ -28716,29 +28716,29 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K394" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L394" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M394" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="Q394" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28788,7 +28788,7 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28797,20 +28797,20 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K395" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="L395" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M395" t="n">
-        <v>17500</v>
+        <v>31500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>250</v>
+        <v>630</v>
       </c>
       <c r="Q395" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K396" t="n">
-        <v>33000</v>
+        <v>29000</v>
       </c>
       <c r="L396" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M396" t="n">
-        <v>34000</v>
+        <v>29500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>680</v>
+        <v>393</v>
       </c>
       <c r="Q396" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44389</v>
+        <v>44491</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28937,24 +28937,24 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K397" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L397" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M397" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>453</v>
+        <v>245</v>
       </c>
       <c r="Q397" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -29004,41 +29004,41 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J398" t="n">
+        <v>160</v>
+      </c>
+      <c r="K398" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L398" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M398" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P398" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q398" t="n">
         <v>70</v>
-      </c>
-      <c r="K398" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L398" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M398" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N398" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O398" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P398" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q398" t="n">
-        <v>100</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29085,17 +29085,17 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K399" t="n">
         <v>33000</v>
       </c>
       <c r="L399" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M399" t="n">
         <v>34000</v>
       </c>
-      <c r="M399" t="n">
-        <v>33500</v>
-      </c>
       <c r="N399" t="inlineStr">
         <is>
           <t>$/saco 50 unidades</t>
@@ -29107,7 +29107,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="Q399" t="n">
         <v>50</v>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,17 +29157,17 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K400" t="n">
         <v>33000</v>
       </c>
       <c r="L400" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M400" t="n">
         <v>34000</v>
       </c>
-      <c r="M400" t="n">
-        <v>33500</v>
-      </c>
       <c r="N400" t="inlineStr">
         <is>
           <t>$/saco 75 unidades</t>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="Q400" t="n">
         <v>75</v>
@@ -29205,7 +29205,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44391</v>
+        <v>44389</v>
       </c>
       <c r="E401" t="n">
         <v>15</v>
@@ -29229,17 +29229,17 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K401" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L401" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M401" t="n">
         <v>30000</v>
       </c>
-      <c r="L401" t="n">
-        <v>32000</v>
-      </c>
-      <c r="M401" t="n">
-        <v>31000</v>
-      </c>
       <c r="N401" t="inlineStr">
         <is>
           <t>$/saco 100 unidades</t>
@@ -29251,7 +29251,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="Q401" t="n">
         <v>100</v>
@@ -29277,7 +29277,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E402" t="n">
         <v>15</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -29301,20 +29301,20 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K402" t="n">
-        <v>18000</v>
+        <v>33000</v>
       </c>
       <c r="L402" t="n">
-        <v>19000</v>
+        <v>34000</v>
       </c>
       <c r="M402" t="n">
-        <v>18500</v>
+        <v>33500</v>
       </c>
       <c r="N402" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O402" t="inlineStr">
@@ -29323,10 +29323,10 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>264</v>
+        <v>670</v>
       </c>
       <c r="Q402" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29364,7 +29364,7 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -29373,20 +29373,20 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K403" t="n">
-        <v>13000</v>
+        <v>33000</v>
       </c>
       <c r="L403" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="M403" t="n">
-        <v>13500</v>
+        <v>33500</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>1350</v>
+        <v>447</v>
       </c>
       <c r="Q403" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44396</v>
+        <v>44391</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29441,24 +29441,24 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J404" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K404" t="n">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="L404" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M404" t="n">
-        <v>29500</v>
+        <v>31000</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O404" t="inlineStr">
@@ -29467,10 +29467,10 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>590</v>
+        <v>310</v>
       </c>
       <c r="Q404" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R404" t="inlineStr">
         <is>
@@ -29508,16 +29508,16 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J405" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K405" t="n">
         <v>18000</v>
@@ -29530,7 +29530,7 @@
       </c>
       <c r="N405" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O405" t="inlineStr">
@@ -29539,10 +29539,10 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q405" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R405" t="inlineStr">
         <is>
@@ -29580,29 +29580,29 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K406" t="n">
-        <v>27000</v>
+        <v>13000</v>
       </c>
       <c r="L406" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="M406" t="n">
-        <v>27500</v>
+        <v>13500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>275</v>
+        <v>1350</v>
       </c>
       <c r="Q406" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29652,7 +29652,7 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29661,20 +29661,20 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K407" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L407" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="M407" t="n">
-        <v>26000</v>
+        <v>29500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,7 +29683,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>520</v>
+        <v>590</v>
       </c>
       <c r="Q407" t="n">
         <v>50</v>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29724,7 +29724,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29733,20 +29733,20 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K408" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="L408" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="M408" t="n">
-        <v>22000</v>
+        <v>18500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="Q408" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44232</v>
+        <v>44396</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29796,29 +29796,29 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J409" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="K409" t="n">
-        <v>6500</v>
+        <v>27000</v>
       </c>
       <c r="L409" t="n">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="M409" t="n">
-        <v>6750</v>
+        <v>27500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O409" t="inlineStr">
@@ -29827,10 +29827,10 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="Q409" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R409" t="inlineStr">
         <is>
@@ -29868,7 +29868,7 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -29877,20 +29877,20 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K410" t="n">
-        <v>36000</v>
+        <v>25000</v>
       </c>
       <c r="L410" t="n">
-        <v>37000</v>
+        <v>27000</v>
       </c>
       <c r="M410" t="n">
-        <v>36500</v>
+        <v>26000</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O410" t="inlineStr">
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>730</v>
+        <v>520</v>
       </c>
       <c r="Q410" t="n">
         <v>50</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="K411" t="n">
-        <v>36000</v>
+        <v>21000</v>
       </c>
       <c r="L411" t="n">
-        <v>37000</v>
+        <v>23000</v>
       </c>
       <c r="M411" t="n">
-        <v>36500</v>
+        <v>22000</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>487</v>
+        <v>314</v>
       </c>
       <c r="Q411" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30012,25 +30012,25 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K412" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L412" t="n">
         <v>7000</v>
       </c>
-      <c r="L412" t="n">
-        <v>8000</v>
-      </c>
       <c r="M412" t="n">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
@@ -30043,7 +30043,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Q412" t="n">
         <v>70</v>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44551</v>
+        <v>44232</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30084,29 +30084,29 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K413" t="n">
-        <v>4500</v>
+        <v>36000</v>
       </c>
       <c r="L413" t="n">
-        <v>5000</v>
+        <v>37000</v>
       </c>
       <c r="M413" t="n">
-        <v>4750</v>
+        <v>36500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>475</v>
+        <v>730</v>
       </c>
       <c r="Q413" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44386</v>
+        <v>44232</v>
       </c>
       <c r="E414" t="n">
         <v>15</v>
@@ -30161,24 +30161,24 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J414" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K414" t="n">
-        <v>33000</v>
+        <v>36000</v>
       </c>
       <c r="L414" t="n">
-        <v>35000</v>
+        <v>37000</v>
       </c>
       <c r="M414" t="n">
-        <v>34000</v>
+        <v>36500</v>
       </c>
       <c r="N414" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O414" t="inlineStr">
@@ -30187,10 +30187,10 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>680</v>
+        <v>487</v>
       </c>
       <c r="Q414" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,7 +30228,7 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -30237,20 +30237,20 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K415" t="n">
-        <v>33000</v>
+        <v>7000</v>
       </c>
       <c r="L415" t="n">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="M415" t="n">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>453</v>
+        <v>107</v>
       </c>
       <c r="Q415" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44386</v>
+        <v>44551</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -30312,17 +30312,17 @@
         <v>60</v>
       </c>
       <c r="K416" t="n">
-        <v>29000</v>
+        <v>4500</v>
       </c>
       <c r="L416" t="n">
-        <v>31000</v>
+        <v>5000</v>
       </c>
       <c r="M416" t="n">
-        <v>30000</v>
+        <v>4750</v>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>300</v>
+        <v>475</v>
       </c>
       <c r="Q416" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30384,13 +30384,13 @@
         <v>50</v>
       </c>
       <c r="K417" t="n">
-        <v>23000</v>
+        <v>33000</v>
       </c>
       <c r="L417" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M417" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="N417" t="inlineStr">
         <is>
@@ -30403,7 +30403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="Q417" t="n">
         <v>50</v>
@@ -30429,7 +30429,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E418" t="n">
         <v>15</v>
@@ -30456,13 +30456,13 @@
         <v>50</v>
       </c>
       <c r="K418" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="L418" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="M418" t="n">
-        <v>22500</v>
+        <v>34000</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
@@ -30475,7 +30475,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>300</v>
+        <v>453</v>
       </c>
       <c r="Q418" t="n">
         <v>75</v>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44414</v>
+        <v>44386</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30525,16 +30525,16 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K419" t="n">
-        <v>20000</v>
+        <v>29000</v>
       </c>
       <c r="L419" t="n">
-        <v>21000</v>
+        <v>31000</v>
       </c>
       <c r="M419" t="n">
-        <v>20500</v>
+        <v>30000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="Q419" t="n">
         <v>100</v>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30588,29 +30588,29 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K420" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="L420" t="n">
-        <v>5500</v>
+        <v>25000</v>
       </c>
       <c r="M420" t="n">
-        <v>5250</v>
+        <v>24000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="Q420" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30665,24 +30665,24 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J421" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K421" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="L421" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="M421" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="Q421" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44321</v>
+        <v>44414</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30737,24 +30737,24 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J422" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K422" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L422" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M422" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
@@ -30763,10 +30763,10 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>327</v>
+        <v>205</v>
       </c>
       <c r="Q422" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30804,29 +30804,29 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K423" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="L423" t="n">
-        <v>22000</v>
+        <v>5500</v>
       </c>
       <c r="M423" t="n">
-        <v>21500</v>
+        <v>5250</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>215</v>
+        <v>525</v>
       </c>
       <c r="Q423" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30885,16 +30885,16 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K424" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L424" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M424" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="Q424" t="n">
         <v>50</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K425" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L425" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M425" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>460</v>
+        <v>327</v>
       </c>
       <c r="Q425" t="n">
         <v>75</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44385</v>
+        <v>44321</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K426" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="L426" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="M426" t="n">
-        <v>31500</v>
+        <v>21500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="Q426" t="n">
         <v>100</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31097,36 +31097,36 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J427" t="n">
+        <v>30</v>
+      </c>
+      <c r="K427" t="n">
+        <v>34000</v>
+      </c>
+      <c r="L427" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M427" t="n">
+        <v>34500</v>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
+        <v>690</v>
+      </c>
+      <c r="Q427" t="n">
         <v>50</v>
-      </c>
-      <c r="K427" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L427" t="n">
-        <v>30000</v>
-      </c>
-      <c r="M427" t="n">
-        <v>29500</v>
-      </c>
-      <c r="N427" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O427" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P427" t="n">
-        <v>393</v>
-      </c>
-      <c r="Q427" t="n">
-        <v>75</v>
       </c>
       <c r="R427" t="inlineStr">
         <is>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44278</v>
+        <v>44385</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31169,24 +31169,24 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J428" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K428" t="n">
-        <v>25000</v>
+        <v>34000</v>
       </c>
       <c r="L428" t="n">
-        <v>26000</v>
+        <v>35000</v>
       </c>
       <c r="M428" t="n">
-        <v>25500</v>
+        <v>34500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O428" t="inlineStr">
@@ -31195,10 +31195,10 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>255</v>
+        <v>460</v>
       </c>
       <c r="Q428" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R428" t="inlineStr">
         <is>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44308</v>
+        <v>44385</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31236,41 +31236,41 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J429" t="n">
+        <v>40</v>
+      </c>
+      <c r="K429" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L429" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M429" t="n">
+        <v>31500</v>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P429" t="n">
+        <v>315</v>
+      </c>
+      <c r="Q429" t="n">
         <v>100</v>
-      </c>
-      <c r="K429" t="n">
-        <v>13000</v>
-      </c>
-      <c r="L429" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M429" t="n">
-        <v>13500</v>
-      </c>
-      <c r="N429" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O429" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P429" t="n">
-        <v>193</v>
-      </c>
-      <c r="Q429" t="n">
-        <v>70</v>
       </c>
       <c r="R429" t="inlineStr">
         <is>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31308,29 +31308,29 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J430" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K430" t="n">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="L430" t="n">
-        <v>11000</v>
+        <v>30000</v>
       </c>
       <c r="M430" t="n">
-        <v>10500</v>
+        <v>29500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>150</v>
+        <v>393</v>
       </c>
       <c r="Q430" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44281</v>
+        <v>44278</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31380,25 +31380,25 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J431" t="n">
         <v>40</v>
       </c>
       <c r="K431" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="L431" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="M431" t="n">
-        <v>29500</v>
+        <v>25500</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="Q431" t="n">
         <v>100</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44350</v>
+        <v>44308</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -31461,20 +31461,20 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K432" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L432" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M432" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O432" t="inlineStr">
@@ -31483,10 +31483,10 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>470</v>
+        <v>193</v>
       </c>
       <c r="Q432" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R432" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31524,41 +31524,41 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J433" t="n">
+        <v>120</v>
+      </c>
+      <c r="K433" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L433" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M433" t="n">
+        <v>10500</v>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P433" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q433" t="n">
         <v>70</v>
-      </c>
-      <c r="K433" t="n">
-        <v>21000</v>
-      </c>
-      <c r="L433" t="n">
-        <v>22000</v>
-      </c>
-      <c r="M433" t="n">
-        <v>21500</v>
-      </c>
-      <c r="N433" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O433" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P433" t="n">
-        <v>287</v>
-      </c>
-      <c r="Q433" t="n">
-        <v>75</v>
       </c>
       <c r="R433" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44350</v>
+        <v>44281</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,25 +31596,25 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J434" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K434" t="n">
-        <v>19000</v>
+        <v>29000</v>
       </c>
       <c r="L434" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M434" t="n">
-        <v>19500</v>
+        <v>29500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
@@ -31623,11 +31623,11 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="Q434" t="n">
         <v>100</v>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31680,13 +31680,13 @@
         <v>50</v>
       </c>
       <c r="K435" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="L435" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="M435" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
@@ -31699,7 +31699,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="Q435" t="n">
         <v>50</v>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31749,16 +31749,16 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K436" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L436" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="M436" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
@@ -31771,7 +31771,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="Q436" t="n">
         <v>75</v>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44529</v>
+        <v>44350</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31821,16 +31821,16 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K437" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="L437" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M437" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="Q437" t="n">
         <v>100</v>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31896,13 +31896,13 @@
         <v>50</v>
       </c>
       <c r="K438" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="L438" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="M438" t="n">
-        <v>24500</v>
+        <v>20500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -31915,7 +31915,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="Q438" t="n">
         <v>50</v>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31968,13 +31968,13 @@
         <v>50</v>
       </c>
       <c r="K439" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L439" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="M439" t="n">
-        <v>23500</v>
+        <v>18500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -31987,7 +31987,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="Q439" t="n">
         <v>75</v>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44413</v>
+        <v>44529</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32040,13 +32040,13 @@
         <v>40</v>
       </c>
       <c r="K440" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L440" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M440" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
@@ -32059,7 +32059,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="Q440" t="n">
         <v>100</v>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,20 +32109,20 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K441" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L441" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="M441" t="n">
-        <v>7250</v>
+        <v>24500</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>104</v>
+        <v>490</v>
       </c>
       <c r="Q441" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K442" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="L442" t="n">
-        <v>36000</v>
+        <v>24000</v>
       </c>
       <c r="M442" t="n">
-        <v>35500</v>
+        <v>23500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>473</v>
+        <v>313</v>
       </c>
       <c r="Q442" t="n">
         <v>75</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44238</v>
+        <v>44413</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32253,16 +32253,16 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K443" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L443" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="M443" t="n">
-        <v>33500</v>
+        <v>20500</v>
       </c>
       <c r="N443" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="Q443" t="n">
         <v>100</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32316,7 +32316,7 @@
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -32325,20 +32325,20 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K444" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L444" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="M444" t="n">
-        <v>13500</v>
+        <v>7250</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O444" t="inlineStr">
@@ -32347,10 +32347,10 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="Q444" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44257</v>
+        <v>44238</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,29 +32388,29 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K445" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="L445" t="n">
-        <v>9000</v>
+        <v>36000</v>
       </c>
       <c r="M445" t="n">
-        <v>8500</v>
+        <v>35500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>121</v>
+        <v>473</v>
       </c>
       <c r="Q445" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44411</v>
+        <v>44238</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32460,41 +32460,41 @@
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J446" t="n">
+        <v>50</v>
+      </c>
+      <c r="K446" t="n">
+        <v>33000</v>
+      </c>
+      <c r="L446" t="n">
+        <v>34000</v>
+      </c>
+      <c r="M446" t="n">
+        <v>33500</v>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P446" t="n">
+        <v>335</v>
+      </c>
+      <c r="Q446" t="n">
         <v>100</v>
-      </c>
-      <c r="K446" t="n">
-        <v>17000</v>
-      </c>
-      <c r="L446" t="n">
-        <v>18000</v>
-      </c>
-      <c r="M446" t="n">
-        <v>17500</v>
-      </c>
-      <c r="N446" t="inlineStr">
-        <is>
-          <t>$/malla 100 unidades</t>
-        </is>
-      </c>
-      <c r="O446" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P446" t="n">
-        <v>1750</v>
-      </c>
-      <c r="Q446" t="n">
-        <v>10</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -32541,20 +32541,20 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="K447" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L447" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M447" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,7 +32563,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="Q447" t="n">
         <v>50</v>
@@ -32589,7 +32589,7 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44200</v>
+        <v>44257</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -32604,29 +32604,29 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K448" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L448" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M448" t="n">
-        <v>20500</v>
+        <v>8500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>273</v>
+        <v>121</v>
       </c>
       <c r="Q448" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44459</v>
+        <v>44411</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32676,29 +32676,29 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J449" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K449" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="L449" t="n">
-        <v>35000</v>
+        <v>18000</v>
       </c>
       <c r="M449" t="n">
-        <v>34000</v>
+        <v>17500</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O449" t="inlineStr">
@@ -32707,10 +32707,10 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>680</v>
+        <v>1750</v>
       </c>
       <c r="Q449" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32753,24 +32753,24 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J450" t="n">
         <v>50</v>
       </c>
       <c r="K450" t="n">
-        <v>33000</v>
+        <v>20000</v>
       </c>
       <c r="L450" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M450" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O450" t="inlineStr">
@@ -32779,10 +32779,10 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="Q450" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44459</v>
+        <v>44200</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32825,24 +32825,24 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J451" t="n">
         <v>50</v>
       </c>
       <c r="K451" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L451" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="M451" t="n">
-        <v>26500</v>
+        <v>20500</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O451" t="inlineStr">
@@ -32851,10 +32851,10 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q451" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32897,24 +32897,24 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J452" t="n">
         <v>50</v>
       </c>
       <c r="K452" t="n">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="L452" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="M452" t="n">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>433</v>
+        <v>680</v>
       </c>
       <c r="Q452" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44258</v>
+        <v>44459</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32969,24 +32969,24 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J453" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K453" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L453" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M453" t="n">
-        <v>30500</v>
+        <v>34000</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O453" t="inlineStr">
@@ -32995,10 +32995,10 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>305</v>
+        <v>453</v>
       </c>
       <c r="Q453" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44298</v>
+        <v>44459</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33036,41 +33036,41 @@
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J454" t="n">
+        <v>50</v>
+      </c>
+      <c r="K454" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L454" t="n">
+        <v>27000</v>
+      </c>
+      <c r="M454" t="n">
+        <v>26500</v>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>$/saco 100 unidades</t>
+        </is>
+      </c>
+      <c r="O454" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P454" t="n">
+        <v>265</v>
+      </c>
+      <c r="Q454" t="n">
         <v>100</v>
-      </c>
-      <c r="K454" t="n">
-        <v>12000</v>
-      </c>
-      <c r="L454" t="n">
-        <v>13000</v>
-      </c>
-      <c r="M454" t="n">
-        <v>12500</v>
-      </c>
-      <c r="N454" t="inlineStr">
-        <is>
-          <t>$/malla 70 unidades</t>
-        </is>
-      </c>
-      <c r="O454" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P454" t="n">
-        <v>179</v>
-      </c>
-      <c r="Q454" t="n">
-        <v>70</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33120,13 +33120,13 @@
         <v>50</v>
       </c>
       <c r="K455" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="L455" t="n">
-        <v>35000</v>
+        <v>33000</v>
       </c>
       <c r="M455" t="n">
-        <v>34500</v>
+        <v>32500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
@@ -33139,7 +33139,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="Q455" t="n">
         <v>75</v>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44298</v>
+        <v>44258</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33189,7 +33189,7 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K456" t="n">
         <v>30000</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33252,29 +33252,29 @@
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J457" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K457" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="L457" t="n">
-        <v>33000</v>
+        <v>13000</v>
       </c>
       <c r="M457" t="n">
-        <v>32000</v>
+        <v>12500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O457" t="inlineStr">
@@ -33283,10 +33283,10 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>427</v>
+        <v>179</v>
       </c>
       <c r="Q457" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44432</v>
+        <v>44298</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33329,24 +33329,24 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J458" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K458" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="L458" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M458" t="n">
-        <v>29000</v>
+        <v>34500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O458" t="inlineStr">
@@ -33355,10 +33355,10 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="Q458" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44428</v>
+        <v>44298</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33396,29 +33396,29 @@
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J459" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="K459" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L459" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="M459" t="n">
-        <v>16500</v>
+        <v>30500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O459" t="inlineStr">
@@ -33427,10 +33427,10 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>1650</v>
+        <v>305</v>
       </c>
       <c r="Q459" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="R459" t="inlineStr">
         <is>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33473,24 +33473,24 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J460" t="n">
         <v>50</v>
       </c>
       <c r="K460" t="n">
+        <v>31000</v>
+      </c>
+      <c r="L460" t="n">
         <v>33000</v>
       </c>
-      <c r="L460" t="n">
-        <v>35000</v>
-      </c>
       <c r="M460" t="n">
-        <v>34000</v>
+        <v>32000</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O460" t="inlineStr">
@@ -33499,10 +33499,10 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>680</v>
+        <v>427</v>
       </c>
       <c r="Q460" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R460" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44428</v>
+        <v>44432</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33545,24 +33545,24 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J461" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K461" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="L461" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M461" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>453</v>
+        <v>290</v>
       </c>
       <c r="Q461" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33612,29 +33612,29 @@
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J462" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K462" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L462" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M462" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O462" t="inlineStr">
@@ -33643,10 +33643,10 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>295</v>
+        <v>1650</v>
       </c>
       <c r="Q462" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R462" t="inlineStr">
         <is>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33684,7 +33684,7 @@
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -33693,20 +33693,20 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K463" t="n">
-        <v>11000</v>
+        <v>33000</v>
       </c>
       <c r="L463" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M463" t="n">
-        <v>11500</v>
+        <v>34000</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O463" t="inlineStr">
@@ -33715,10 +33715,10 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>164</v>
+        <v>680</v>
       </c>
       <c r="Q463" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R463" t="inlineStr">
         <is>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33761,24 +33761,24 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J464" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K464" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L464" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M464" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O464" t="inlineStr">
@@ -33787,10 +33787,10 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="Q464" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R464" t="inlineStr">
         <is>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44340</v>
+        <v>44428</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33833,24 +33833,24 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J465" t="n">
         <v>40</v>
       </c>
       <c r="K465" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L465" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M465" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N465" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O465" t="inlineStr">
@@ -33859,10 +33859,10 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="Q465" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R465" t="inlineStr">
         <is>
@@ -33900,29 +33900,29 @@
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J466" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K466" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L466" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M466" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O466" t="inlineStr">
@@ -33931,10 +33931,10 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q466" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R466" t="inlineStr">
         <is>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33972,7 +33972,7 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -33981,20 +33981,20 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K467" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L467" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M467" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="Q467" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
         <v>40</v>
       </c>
       <c r="K468" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L468" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M468" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="Q468" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34121,24 +34121,24 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J469" t="n">
         <v>50</v>
       </c>
       <c r="K469" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L469" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M469" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="Q469" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34188,29 +34188,29 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J470" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K470" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L470" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M470" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q470" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -34269,20 +34269,20 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="K471" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L471" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M471" t="n">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>379</v>
+        <v>550</v>
       </c>
       <c r="Q471" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34337,24 +34337,24 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K472" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L472" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M472" t="n">
-        <v>34000</v>
+        <v>25500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="Q472" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44452</v>
+        <v>44329</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34409,24 +34409,24 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J473" t="n">
         <v>40</v>
       </c>
       <c r="K473" t="n">
-        <v>33000</v>
+        <v>21000</v>
       </c>
       <c r="L473" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M473" t="n">
-        <v>34000</v>
+        <v>21500</v>
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O473" t="inlineStr">
@@ -34435,10 +34435,10 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>453</v>
+        <v>215</v>
       </c>
       <c r="Q473" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R473" t="inlineStr">
         <is>
@@ -34476,29 +34476,29 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J474" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K474" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L474" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M474" t="n">
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O474" t="inlineStr">
@@ -34507,10 +34507,10 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="Q474" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R474" t="inlineStr">
         <is>
@@ -34533,7 +34533,7 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E475" t="n">
         <v>15</v>
@@ -34548,7 +34548,7 @@
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -34557,20 +34557,20 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="K475" t="n">
-        <v>12000</v>
+        <v>33000</v>
       </c>
       <c r="L475" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="M475" t="n">
-        <v>12500</v>
+        <v>34000</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O475" t="inlineStr">
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="Q475" t="n">
         <v>50</v>
@@ -34605,7 +34605,7 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E476" t="n">
         <v>15</v>
@@ -34625,24 +34625,24 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J476" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K476" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="L476" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M476" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O476" t="inlineStr">
@@ -34651,10 +34651,10 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>580</v>
+        <v>453</v>
       </c>
       <c r="Q476" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R476" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44270</v>
+        <v>44452</v>
       </c>
       <c r="E477" t="n">
         <v>15</v>
@@ -34697,24 +34697,24 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J477" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K477" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L477" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M477" t="n">
         <v>30000</v>
       </c>
-      <c r="M477" t="n">
-        <v>29000</v>
-      </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O477" t="inlineStr">
@@ -34723,10 +34723,10 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="Q477" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R477" t="inlineStr">
         <is>
@@ -34764,29 +34764,29 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J478" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K478" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L478" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M478" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O478" t="inlineStr">
@@ -34795,10 +34795,10 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q478" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R478" t="inlineStr">
         <is>
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E479" t="n">
         <v>15</v>
@@ -34845,16 +34845,16 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K479" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L479" t="n">
         <v>30000</v>
       </c>
-      <c r="L479" t="n">
-        <v>31000</v>
-      </c>
       <c r="M479" t="n">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="N479" t="inlineStr">
         <is>
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="Q479" t="n">
         <v>50</v>
@@ -34893,7 +34893,7 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E480" t="n">
         <v>15</v>
@@ -34917,16 +34917,16 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="K480" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L480" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M480" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
@@ -34939,7 +34939,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="Q480" t="n">
         <v>75</v>
@@ -34965,7 +34965,7 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44473</v>
+        <v>44270</v>
       </c>
       <c r="E481" t="n">
         <v>15</v>
@@ -34989,7 +34989,7 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K481" t="n">
         <v>24000</v>
@@ -35037,7 +35037,7 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E482" t="n">
         <v>15</v>
@@ -35057,24 +35057,24 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J482" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K482" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="L482" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="M482" t="n">
-        <v>16500</v>
+        <v>30500</v>
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O482" t="inlineStr">
@@ -35083,10 +35083,10 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>220</v>
+        <v>610</v>
       </c>
       <c r="Q482" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R482" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44536</v>
+        <v>44473</v>
       </c>
       <c r="E483" t="n">
         <v>15</v>
@@ -35129,24 +35129,24 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J483" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K483" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="L483" t="n">
-        <v>15000</v>
+        <v>28000</v>
       </c>
       <c r="M483" t="n">
-        <v>14500</v>
+        <v>27500</v>
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O483" t="inlineStr">
@@ -35155,10 +35155,10 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>145</v>
+        <v>367</v>
       </c>
       <c r="Q483" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R483" t="inlineStr">
         <is>
@@ -35181,7 +35181,7 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44302</v>
+        <v>44473</v>
       </c>
       <c r="E484" t="n">
         <v>15</v>
@@ -35201,24 +35201,24 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J484" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K484" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="L484" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M484" t="n">
-        <v>34500</v>
+        <v>24500</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O484" t="inlineStr">
@@ -35227,10 +35227,10 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>690</v>
+        <v>245</v>
       </c>
       <c r="Q484" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R484" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E485" t="n">
         <v>15</v>
@@ -35277,16 +35277,16 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K485" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L485" t="n">
-        <v>32000</v>
+        <v>17000</v>
       </c>
       <c r="M485" t="n">
-        <v>31500</v>
+        <v>16500</v>
       </c>
       <c r="N485" t="inlineStr">
         <is>
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="Q485" t="n">
         <v>75</v>
@@ -35325,7 +35325,7 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44302</v>
+        <v>44536</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -35352,13 +35352,13 @@
         <v>40</v>
       </c>
       <c r="K486" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="L486" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="M486" t="n">
-        <v>28500</v>
+        <v>14500</v>
       </c>
       <c r="N486" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="Q486" t="n">
         <v>100</v>
@@ -35397,7 +35397,7 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E487" t="n">
         <v>15</v>
@@ -35412,7 +35412,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -35421,20 +35421,20 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="K487" t="n">
-        <v>7000</v>
+        <v>34000</v>
       </c>
       <c r="L487" t="n">
-        <v>8000</v>
+        <v>35000</v>
       </c>
       <c r="M487" t="n">
-        <v>7500</v>
+        <v>34500</v>
       </c>
       <c r="N487" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O487" t="inlineStr">
@@ -35443,10 +35443,10 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>107</v>
+        <v>690</v>
       </c>
       <c r="Q487" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R487" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E488" t="n">
         <v>15</v>
@@ -35484,25 +35484,25 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J488" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K488" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="L488" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="M488" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="N488" t="inlineStr">
         <is>
@@ -35511,11 +35511,11 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P488" t="n">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="Q488" t="n">
         <v>75</v>
@@ -35541,7 +35541,7 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44239</v>
+        <v>44302</v>
       </c>
       <c r="E489" t="n">
         <v>15</v>
@@ -35556,25 +35556,25 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J489" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K489" t="n">
+        <v>28000</v>
+      </c>
+      <c r="L489" t="n">
         <v>29000</v>
       </c>
-      <c r="L489" t="n">
-        <v>30000</v>
-      </c>
       <c r="M489" t="n">
-        <v>29500</v>
+        <v>28500</v>
       </c>
       <c r="N489" t="inlineStr">
         <is>
@@ -35583,11 +35583,11 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P489" t="n">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="Q489" t="n">
         <v>100</v>
@@ -35613,7 +35613,7 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E490" t="n">
         <v>15</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -35637,20 +35637,20 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="K490" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L490" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="M490" t="n">
-        <v>24500</v>
+        <v>7500</v>
       </c>
       <c r="N490" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O490" t="inlineStr">
@@ -35659,10 +35659,10 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>490</v>
+        <v>107</v>
       </c>
       <c r="Q490" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R490" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E491" t="n">
         <v>15</v>
@@ -35700,25 +35700,25 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J491" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K491" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="L491" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M491" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="N491" t="inlineStr">
         <is>
@@ -35727,11 +35727,11 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P491" t="n">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="Q491" t="n">
         <v>75</v>
@@ -35757,7 +35757,7 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44344</v>
+        <v>44239</v>
       </c>
       <c r="E492" t="n">
         <v>15</v>
@@ -35772,25 +35772,25 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J492" t="n">
         <v>50</v>
       </c>
       <c r="K492" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L492" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="M492" t="n">
-        <v>18500</v>
+        <v>29500</v>
       </c>
       <c r="N492" t="inlineStr">
         <is>
@@ -35799,11 +35799,11 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P492" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="Q492" t="n">
         <v>100</v>
@@ -35844,7 +35844,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -35853,7 +35853,7 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K493" t="n">
         <v>24000</v>
@@ -35866,19 +35866,19 @@
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P493" t="n">
-        <v>245</v>
+        <v>490</v>
       </c>
       <c r="Q493" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R493" t="inlineStr">
         <is>
@@ -35901,7 +35901,7 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E494" t="n">
         <v>15</v>
@@ -35916,29 +35916,29 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J494" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K494" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="L494" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M494" t="n">
-        <v>7500</v>
+        <v>21500</v>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
@@ -35947,10 +35947,10 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="Q494" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R494" t="inlineStr">
         <is>
@@ -35973,7 +35973,7 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E495" t="n">
         <v>15</v>
@@ -35993,24 +35993,24 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J495" t="n">
         <v>50</v>
       </c>
       <c r="K495" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L495" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="M495" t="n">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="N495" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O495" t="inlineStr">
@@ -36019,10 +36019,10 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>420</v>
+        <v>185</v>
       </c>
       <c r="Q495" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R495" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44568</v>
+        <v>44344</v>
       </c>
       <c r="E496" t="n">
         <v>15</v>
@@ -36060,41 +36060,41 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J496" t="n">
         <v>50</v>
       </c>
       <c r="K496" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L496" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="M496" t="n">
-        <v>18000</v>
+        <v>24500</v>
       </c>
       <c r="N496" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P496" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q496" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R496" t="inlineStr">
         <is>
@@ -36132,29 +36132,29 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J497" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="K497" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L497" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M497" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="N497" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O497" t="inlineStr">
@@ -36163,10 +36163,10 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="Q497" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R497" t="inlineStr">
         <is>
@@ -36189,7 +36189,7 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E498" t="n">
         <v>15</v>
@@ -36213,16 +36213,16 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K498" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="L498" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="M498" t="n">
-        <v>26500</v>
+        <v>21000</v>
       </c>
       <c r="N498" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="Q498" t="n">
         <v>50</v>
@@ -36261,7 +36261,7 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E499" t="n">
         <v>15</v>
@@ -36288,13 +36288,13 @@
         <v>50</v>
       </c>
       <c r="K499" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="L499" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="M499" t="n">
-        <v>25500</v>
+        <v>18000</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="Q499" t="n">
         <v>75</v>
@@ -36333,7 +36333,7 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44357</v>
+        <v>44568</v>
       </c>
       <c r="E500" t="n">
         <v>15</v>
@@ -36360,13 +36360,13 @@
         <v>50</v>
       </c>
       <c r="K500" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="L500" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M500" t="n">
-        <v>23500</v>
+        <v>14000</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -36379,7 +36379,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="Q500" t="n">
         <v>100</v>
@@ -36405,7 +36405,7 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E501" t="n">
         <v>15</v>
@@ -36429,16 +36429,16 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K501" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L501" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="M501" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="N501" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="Q501" t="n">
         <v>50</v>
@@ -36477,7 +36477,7 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E502" t="n">
         <v>15</v>
@@ -36501,16 +36501,16 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K502" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L502" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M502" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N502" t="inlineStr">
         <is>
@@ -36523,7 +36523,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q502" t="n">
         <v>75</v>
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44365</v>
+        <v>44357</v>
       </c>
       <c r="E503" t="n">
         <v>15</v>
@@ -36576,13 +36576,13 @@
         <v>50</v>
       </c>
       <c r="K503" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="L503" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M503" t="n">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="N503" t="inlineStr">
         <is>
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Q503" t="n">
         <v>100</v>
@@ -36621,7 +36621,7 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E504" t="n">
         <v>15</v>
@@ -36641,24 +36641,24 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J504" t="n">
         <v>50</v>
       </c>
       <c r="K504" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L504" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M504" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N504" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O504" t="inlineStr">
@@ -36667,10 +36667,10 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="Q504" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R504" t="inlineStr">
         <is>
@@ -36693,7 +36693,7 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44454</v>
+        <v>44365</v>
       </c>
       <c r="E505" t="n">
         <v>15</v>
@@ -36713,24 +36713,24 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J505" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K505" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="L505" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M505" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="N505" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O505" t="inlineStr">
@@ -36739,10 +36739,10 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="Q505" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R505" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44313</v>
+        <v>44365</v>
       </c>
       <c r="E506" t="n">
         <v>15</v>
@@ -36785,24 +36785,24 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J506" t="n">
         <v>50</v>
       </c>
       <c r="K506" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L506" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M506" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N506" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O506" t="inlineStr">
@@ -36811,10 +36811,10 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>490</v>
+        <v>215</v>
       </c>
       <c r="Q506" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R506" t="inlineStr">
         <is>
@@ -36837,7 +36837,7 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E507" t="n">
         <v>15</v>
@@ -36864,13 +36864,13 @@
         <v>50</v>
       </c>
       <c r="K507" t="n">
-        <v>24000</v>
+        <v>33000</v>
       </c>
       <c r="L507" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M507" t="n">
-        <v>24500</v>
+        <v>34000</v>
       </c>
       <c r="N507" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>327</v>
+        <v>453</v>
       </c>
       <c r="Q507" t="n">
         <v>75</v>
@@ -36909,7 +36909,7 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44313</v>
+        <v>44454</v>
       </c>
       <c r="E508" t="n">
         <v>15</v>
@@ -36933,16 +36933,16 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K508" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L508" t="n">
-        <v>21000</v>
+        <v>30000</v>
       </c>
       <c r="M508" t="n">
-        <v>20500</v>
+        <v>29000</v>
       </c>
       <c r="N508" t="inlineStr">
         <is>
@@ -36955,7 +36955,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="Q508" t="n">
         <v>100</v>
@@ -36981,7 +36981,7 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E509" t="n">
         <v>15</v>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
@@ -37005,20 +37005,20 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K509" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="L509" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="M509" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="N509" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O509" t="inlineStr">
@@ -37027,10 +37027,10 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>164</v>
+        <v>490</v>
       </c>
       <c r="Q509" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R509" t="inlineStr">
         <is>
@@ -37053,7 +37053,7 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E510" t="n">
         <v>15</v>
@@ -37073,24 +37073,24 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J510" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K510" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="L510" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M510" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="N510" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O510" t="inlineStr">
@@ -37099,10 +37099,10 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="Q510" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R510" t="inlineStr">
         <is>
@@ -37125,7 +37125,7 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44540</v>
+        <v>44313</v>
       </c>
       <c r="E511" t="n">
         <v>15</v>
@@ -37145,24 +37145,24 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J511" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K511" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L511" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="M511" t="n">
-        <v>17500</v>
+        <v>20500</v>
       </c>
       <c r="N511" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O511" t="inlineStr">
@@ -37171,10 +37171,10 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="Q511" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R511" t="inlineStr">
         <is>
@@ -37197,7 +37197,7 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44272</v>
+        <v>44540</v>
       </c>
       <c r="E512" t="n">
         <v>15</v>
@@ -37221,7 +37221,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K512" t="n">
         <v>11000</v>
@@ -37269,58 +37269,274 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E513" t="n">
+        <v>15</v>
+      </c>
+      <c r="F513" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J513" t="n">
+        <v>40</v>
+      </c>
+      <c r="K513" t="n">
+        <v>19000</v>
+      </c>
+      <c r="L513" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M513" t="n">
+        <v>19500</v>
+      </c>
+      <c r="N513" t="inlineStr">
+        <is>
+          <t>$/saco 50 unidades</t>
+        </is>
+      </c>
+      <c r="O513" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P513" t="n">
+        <v>390</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>50</v>
+      </c>
+      <c r="R513" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>1</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D514" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="E514" t="n">
+        <v>15</v>
+      </c>
+      <c r="F514" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>50</v>
+      </c>
+      <c r="K514" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L514" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M514" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N514" t="inlineStr">
+        <is>
+          <t>$/saco 75 unidades</t>
+        </is>
+      </c>
+      <c r="O514" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P514" t="n">
+        <v>233</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>75</v>
+      </c>
+      <c r="R514" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>1</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D515" s="2" t="n">
         <v>44272</v>
       </c>
-      <c r="E513" t="n">
-        <v>15</v>
-      </c>
-      <c r="F513" t="n">
-        <v>100112024</v>
-      </c>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>Choclo</t>
-        </is>
-      </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>Lluteño</t>
-        </is>
-      </c>
-      <c r="I513" t="inlineStr">
+      <c r="E515" t="n">
+        <v>15</v>
+      </c>
+      <c r="F515" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>Dulce o Americano</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>120</v>
+      </c>
+      <c r="K515" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L515" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M515" t="n">
+        <v>11500</v>
+      </c>
+      <c r="N515" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P515" t="n">
+        <v>164</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>70</v>
+      </c>
+      <c r="R515" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>1</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D516" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="E516" t="n">
+        <v>15</v>
+      </c>
+      <c r="F516" t="n">
+        <v>100112024</v>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>Choclo</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>Lluteño</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J513" t="n">
+      <c r="J516" t="n">
         <v>50</v>
       </c>
-      <c r="K513" t="n">
+      <c r="K516" t="n">
         <v>29000</v>
       </c>
-      <c r="L513" t="n">
+      <c r="L516" t="n">
         <v>30000</v>
       </c>
-      <c r="M513" t="n">
+      <c r="M516" t="n">
         <v>29500</v>
       </c>
-      <c r="N513" t="inlineStr">
+      <c r="N516" t="inlineStr">
         <is>
           <t>$/saco 75 unidades</t>
         </is>
       </c>
-      <c r="O513" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P513" t="n">
+      <c r="O516" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P516" t="n">
         <v>393</v>
       </c>
-      <c r="Q513" t="n">
+      <c r="Q516" t="n">
         <v>75</v>
       </c>
-      <c r="R513" t="inlineStr">
+      <c r="R516" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Agrícola del Norte S.A. de Arica - Choclo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R517"/>
+  <dimension ref="A1:R520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E326" t="n">
         <v>15</v>
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K326" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L326" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M326" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="Q326" t="n">
         <v>50</v>
@@ -23877,7 +23877,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E327" t="n">
         <v>15</v>
@@ -23901,16 +23901,16 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K327" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L327" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M327" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="N327" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="Q327" t="n">
         <v>75</v>
@@ -23949,7 +23949,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44168</v>
+        <v>44574</v>
       </c>
       <c r="E328" t="n">
         <v>15</v>
@@ -23973,16 +23973,16 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K328" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L328" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M328" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="N328" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q328" t="n">
         <v>100</v>
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44179</v>
+        <v>44168</v>
       </c>
       <c r="E329" t="n">
         <v>15</v>
@@ -24036,7 +24036,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -24045,20 +24045,20 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K329" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L329" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="M329" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="N329" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O329" t="inlineStr">
@@ -24067,7 +24067,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>410</v>
+        <v>330</v>
       </c>
       <c r="Q329" t="n">
         <v>50</v>
@@ -24093,7 +24093,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44179</v>
+        <v>44168</v>
       </c>
       <c r="E330" t="n">
         <v>15</v>
@@ -24108,29 +24108,29 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J330" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K330" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L330" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M330" t="n">
-        <v>9500</v>
+        <v>15500</v>
       </c>
       <c r="N330" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O330" t="inlineStr">
@@ -24139,10 +24139,10 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="Q330" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R330" t="inlineStr">
         <is>
@@ -24165,7 +24165,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44179</v>
+        <v>44168</v>
       </c>
       <c r="E331" t="n">
         <v>15</v>
@@ -24185,24 +24185,24 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J331" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K331" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L331" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M331" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="N331" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O331" t="inlineStr">
@@ -24211,10 +24211,10 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="Q331" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R331" t="inlineStr">
         <is>
@@ -24252,41 +24252,41 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J332" t="n">
+        <v>160</v>
+      </c>
+      <c r="K332" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L332" t="n">
+        <v>21000</v>
+      </c>
+      <c r="M332" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>$/malla 50 unidades</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q332" t="n">
         <v>50</v>
-      </c>
-      <c r="K332" t="n">
-        <v>16000</v>
-      </c>
-      <c r="L332" t="n">
-        <v>17000</v>
-      </c>
-      <c r="M332" t="n">
-        <v>16500</v>
-      </c>
-      <c r="N332" t="inlineStr">
-        <is>
-          <t>$/saco 75 unidades</t>
-        </is>
-      </c>
-      <c r="O332" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P332" t="n">
-        <v>220</v>
-      </c>
-      <c r="Q332" t="n">
-        <v>75</v>
       </c>
       <c r="R332" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44299</v>
+        <v>44179</v>
       </c>
       <c r="E333" t="n">
         <v>15</v>
@@ -24324,29 +24324,29 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J333" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="K333" t="n">
-        <v>29000</v>
+        <v>9000</v>
       </c>
       <c r="L333" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="M333" t="n">
-        <v>29500</v>
+        <v>9500</v>
       </c>
       <c r="N333" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O333" t="inlineStr">
@@ -24355,10 +24355,10 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="Q333" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R333" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44477</v>
+        <v>44179</v>
       </c>
       <c r="E334" t="n">
         <v>15</v>
@@ -24405,16 +24405,16 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K334" t="n">
-        <v>32000</v>
+        <v>17000</v>
       </c>
       <c r="L334" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M334" t="n">
-        <v>32500</v>
+        <v>17500</v>
       </c>
       <c r="N334" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="Q334" t="n">
         <v>50</v>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44477</v>
+        <v>44179</v>
       </c>
       <c r="E335" t="n">
         <v>15</v>
@@ -24477,16 +24477,16 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K335" t="n">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="L335" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M335" t="n">
-        <v>29000</v>
+        <v>16500</v>
       </c>
       <c r="N335" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>387</v>
+        <v>220</v>
       </c>
       <c r="Q335" t="n">
         <v>75</v>
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44477</v>
+        <v>44299</v>
       </c>
       <c r="E336" t="n">
         <v>15</v>
@@ -24549,16 +24549,16 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K336" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="L336" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="M336" t="n">
-        <v>25500</v>
+        <v>29500</v>
       </c>
       <c r="N336" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="Q336" t="n">
         <v>100</v>
@@ -24597,7 +24597,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44438</v>
+        <v>44477</v>
       </c>
       <c r="E337" t="n">
         <v>15</v>
@@ -24621,16 +24621,16 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K337" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="L337" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="M337" t="n">
-        <v>29000</v>
+        <v>32500</v>
       </c>
       <c r="N337" t="inlineStr">
         <is>
@@ -24643,7 +24643,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>580</v>
+        <v>650</v>
       </c>
       <c r="Q337" t="n">
         <v>50</v>
@@ -24669,7 +24669,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44438</v>
+        <v>44477</v>
       </c>
       <c r="E338" t="n">
         <v>15</v>
@@ -24696,13 +24696,13 @@
         <v>40</v>
       </c>
       <c r="K338" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L338" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M338" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="N338" t="inlineStr">
         <is>
@@ -24715,7 +24715,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="Q338" t="n">
         <v>75</v>
@@ -24741,7 +24741,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44438</v>
+        <v>44477</v>
       </c>
       <c r="E339" t="n">
         <v>15</v>
@@ -24765,16 +24765,16 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K339" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="L339" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="M339" t="n">
-        <v>24500</v>
+        <v>25500</v>
       </c>
       <c r="N339" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="Q339" t="n">
         <v>100</v>
@@ -24813,7 +24813,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44498</v>
+        <v>44438</v>
       </c>
       <c r="E340" t="n">
         <v>15</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K340" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="L340" t="n">
-        <v>37000</v>
+        <v>30000</v>
       </c>
       <c r="M340" t="n">
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="N340" t="inlineStr">
         <is>
@@ -24859,7 +24859,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="Q340" t="n">
         <v>50</v>
@@ -24885,7 +24885,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44498</v>
+        <v>44438</v>
       </c>
       <c r="E341" t="n">
         <v>15</v>
@@ -24909,16 +24909,16 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K341" t="n">
-        <v>35000</v>
+        <v>27000</v>
       </c>
       <c r="L341" t="n">
-        <v>37000</v>
+        <v>28000</v>
       </c>
       <c r="M341" t="n">
-        <v>36000</v>
+        <v>27500</v>
       </c>
       <c r="N341" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>480</v>
+        <v>367</v>
       </c>
       <c r="Q341" t="n">
         <v>75</v>
@@ -24957,7 +24957,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44498</v>
+        <v>44438</v>
       </c>
       <c r="E342" t="n">
         <v>15</v>
@@ -24984,13 +24984,13 @@
         <v>50</v>
       </c>
       <c r="K342" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="L342" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="M342" t="n">
-        <v>32000</v>
+        <v>24500</v>
       </c>
       <c r="N342" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="Q342" t="n">
         <v>100</v>
@@ -25029,7 +25029,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44413</v>
+        <v>44498</v>
       </c>
       <c r="E343" t="n">
         <v>15</v>
@@ -25056,13 +25056,13 @@
         <v>50</v>
       </c>
       <c r="K343" t="n">
-        <v>24000</v>
+        <v>35000</v>
       </c>
       <c r="L343" t="n">
-        <v>25000</v>
+        <v>37000</v>
       </c>
       <c r="M343" t="n">
-        <v>24500</v>
+        <v>36000</v>
       </c>
       <c r="N343" t="inlineStr">
         <is>
@@ -25075,7 +25075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>490</v>
+        <v>720</v>
       </c>
       <c r="Q343" t="n">
         <v>50</v>
@@ -25101,7 +25101,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44413</v>
+        <v>44498</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -25128,13 +25128,13 @@
         <v>50</v>
       </c>
       <c r="K344" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="L344" t="n">
-        <v>24000</v>
+        <v>37000</v>
       </c>
       <c r="M344" t="n">
-        <v>23500</v>
+        <v>36000</v>
       </c>
       <c r="N344" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="Q344" t="n">
         <v>75</v>
@@ -25173,7 +25173,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44413</v>
+        <v>44498</v>
       </c>
       <c r="E345" t="n">
         <v>15</v>
@@ -25197,16 +25197,16 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K345" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="L345" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="M345" t="n">
-        <v>20500</v>
+        <v>32000</v>
       </c>
       <c r="N345" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="Q345" t="n">
         <v>100</v>
@@ -25245,7 +25245,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44544</v>
+        <v>44413</v>
       </c>
       <c r="E346" t="n">
         <v>15</v>
@@ -25272,13 +25272,13 @@
         <v>50</v>
       </c>
       <c r="K346" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L346" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M346" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="N346" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="Q346" t="n">
         <v>50</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44544</v>
+        <v>44413</v>
       </c>
       <c r="E347" t="n">
         <v>15</v>
@@ -25344,13 +25344,13 @@
         <v>50</v>
       </c>
       <c r="K347" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="L347" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M347" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="N347" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="Q347" t="n">
         <v>75</v>
@@ -25389,7 +25389,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44544</v>
+        <v>44413</v>
       </c>
       <c r="E348" t="n">
         <v>15</v>
@@ -25413,16 +25413,16 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K348" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L348" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M348" t="n">
-        <v>15500</v>
+        <v>20500</v>
       </c>
       <c r="N348" t="inlineStr">
         <is>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="Q348" t="n">
         <v>100</v>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E349" t="n">
         <v>15</v>
@@ -25485,7 +25485,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K349" t="n">
         <v>18000</v>
@@ -25533,7 +25533,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E350" t="n">
         <v>15</v>
@@ -25557,16 +25557,16 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K350" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L350" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M350" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="N350" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="Q350" t="n">
         <v>75</v>
@@ -25605,7 +25605,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E351" t="n">
         <v>15</v>
@@ -25629,7 +25629,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K351" t="n">
         <v>15000</v>
@@ -25677,7 +25677,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44308</v>
+        <v>44160</v>
       </c>
       <c r="E352" t="n">
         <v>15</v>
@@ -25692,7 +25692,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25701,20 +25701,20 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K352" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L352" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M352" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="N352" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O352" t="inlineStr">
@@ -25723,10 +25723,10 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>193</v>
+        <v>380</v>
       </c>
       <c r="Q352" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R352" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44431</v>
+        <v>44160</v>
       </c>
       <c r="E353" t="n">
         <v>15</v>
@@ -25769,24 +25769,24 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K353" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="L353" t="n">
-        <v>33000</v>
+        <v>18000</v>
       </c>
       <c r="M353" t="n">
-        <v>31500</v>
+        <v>17000</v>
       </c>
       <c r="N353" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O353" t="inlineStr">
@@ -25795,10 +25795,10 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>630</v>
+        <v>227</v>
       </c>
       <c r="Q353" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R353" t="inlineStr">
         <is>
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44431</v>
+        <v>44160</v>
       </c>
       <c r="E354" t="n">
         <v>15</v>
@@ -25841,24 +25841,24 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J354" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K354" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="L354" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="M354" t="n">
-        <v>31500</v>
+        <v>15500</v>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
@@ -25867,10 +25867,10 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>420</v>
+        <v>155</v>
       </c>
       <c r="Q354" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R354" t="inlineStr">
         <is>
@@ -25893,7 +25893,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44431</v>
+        <v>44308</v>
       </c>
       <c r="E355" t="n">
         <v>15</v>
@@ -25908,29 +25908,29 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J355" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K355" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="L355" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="M355" t="n">
-        <v>29000</v>
+        <v>13500</v>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
@@ -25939,10 +25939,10 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="Q355" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44357</v>
+        <v>44431</v>
       </c>
       <c r="E356" t="n">
         <v>15</v>
@@ -25989,16 +25989,16 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K356" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="L356" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="M356" t="n">
-        <v>26500</v>
+        <v>31500</v>
       </c>
       <c r="N356" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>530</v>
+        <v>630</v>
       </c>
       <c r="Q356" t="n">
         <v>50</v>
@@ -26037,7 +26037,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44357</v>
+        <v>44431</v>
       </c>
       <c r="E357" t="n">
         <v>15</v>
@@ -26064,13 +26064,13 @@
         <v>50</v>
       </c>
       <c r="K357" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="L357" t="n">
-        <v>26000</v>
+        <v>33000</v>
       </c>
       <c r="M357" t="n">
-        <v>25500</v>
+        <v>31500</v>
       </c>
       <c r="N357" t="inlineStr">
         <is>
@@ -26083,7 +26083,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="Q357" t="n">
         <v>75</v>
@@ -26109,7 +26109,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44431</v>
       </c>
       <c r="E358" t="n">
         <v>15</v>
@@ -26133,16 +26133,16 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K358" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L358" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M358" t="n">
-        <v>23500</v>
+        <v>29000</v>
       </c>
       <c r="N358" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="Q358" t="n">
         <v>100</v>
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44218</v>
+        <v>44357</v>
       </c>
       <c r="E359" t="n">
         <v>15</v>
@@ -26196,7 +26196,7 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -26205,20 +26205,20 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="K359" t="n">
-        <v>4500</v>
+        <v>26000</v>
       </c>
       <c r="L359" t="n">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="M359" t="n">
-        <v>4750</v>
+        <v>26500</v>
       </c>
       <c r="N359" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O359" t="inlineStr">
@@ -26227,10 +26227,10 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>68</v>
+        <v>530</v>
       </c>
       <c r="Q359" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R359" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44218</v>
+        <v>44357</v>
       </c>
       <c r="E360" t="n">
         <v>15</v>
@@ -26273,24 +26273,24 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J360" t="n">
         <v>50</v>
       </c>
       <c r="K360" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L360" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M360" t="n">
-        <v>16500</v>
+        <v>25500</v>
       </c>
       <c r="N360" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O360" t="inlineStr">
@@ -26299,10 +26299,10 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q360" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R360" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44218</v>
+        <v>44357</v>
       </c>
       <c r="E361" t="n">
         <v>15</v>
@@ -26345,24 +26345,24 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J361" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K361" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L361" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M361" t="n">
-        <v>16500</v>
+        <v>23500</v>
       </c>
       <c r="N361" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O361" t="inlineStr">
@@ -26371,10 +26371,10 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="Q361" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R361" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44335</v>
+        <v>44218</v>
       </c>
       <c r="E362" t="n">
         <v>15</v>
@@ -26412,7 +26412,7 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26421,20 +26421,20 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K362" t="n">
-        <v>29000</v>
+        <v>4500</v>
       </c>
       <c r="L362" t="n">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="M362" t="n">
-        <v>29500</v>
+        <v>4750</v>
       </c>
       <c r="N362" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O362" t="inlineStr">
@@ -26443,10 +26443,10 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>590</v>
+        <v>68</v>
       </c>
       <c r="Q362" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R362" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44335</v>
+        <v>44218</v>
       </c>
       <c r="E363" t="n">
         <v>15</v>
@@ -26489,24 +26489,24 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J363" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K363" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="L363" t="n">
-        <v>27000</v>
+        <v>17000</v>
       </c>
       <c r="M363" t="n">
-        <v>26500</v>
+        <v>16500</v>
       </c>
       <c r="N363" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O363" t="inlineStr">
@@ -26515,10 +26515,10 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="Q363" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R363" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44335</v>
+        <v>44218</v>
       </c>
       <c r="E364" t="n">
         <v>15</v>
@@ -26561,24 +26561,24 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J364" t="n">
         <v>40</v>
       </c>
       <c r="K364" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="L364" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M364" t="n">
-        <v>21500</v>
+        <v>16500</v>
       </c>
       <c r="N364" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O364" t="inlineStr">
@@ -26587,10 +26587,10 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q364" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R364" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44251</v>
+        <v>44335</v>
       </c>
       <c r="E365" t="n">
         <v>15</v>
@@ -26640,13 +26640,13 @@
         <v>40</v>
       </c>
       <c r="K365" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="L365" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="M365" t="n">
-        <v>34500</v>
+        <v>29500</v>
       </c>
       <c r="N365" t="inlineStr">
         <is>
@@ -26659,7 +26659,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>690</v>
+        <v>590</v>
       </c>
       <c r="Q365" t="n">
         <v>50</v>
@@ -26685,7 +26685,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44251</v>
+        <v>44335</v>
       </c>
       <c r="E366" t="n">
         <v>15</v>
@@ -26709,16 +26709,16 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K366" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="L366" t="n">
-        <v>33000</v>
+        <v>27000</v>
       </c>
       <c r="M366" t="n">
-        <v>32500</v>
+        <v>26500</v>
       </c>
       <c r="N366" t="inlineStr">
         <is>
@@ -26731,7 +26731,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="Q366" t="n">
         <v>75</v>
@@ -26757,7 +26757,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44295</v>
+        <v>44335</v>
       </c>
       <c r="E367" t="n">
         <v>15</v>
@@ -26772,25 +26772,25 @@
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J367" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K367" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="L367" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="M367" t="n">
-        <v>34500</v>
+        <v>21500</v>
       </c>
       <c r="N367" t="inlineStr">
         <is>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P367" t="n">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="Q367" t="n">
         <v>100</v>
@@ -26829,7 +26829,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E368" t="n">
         <v>15</v>
@@ -26853,16 +26853,16 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K368" t="n">
-        <v>19000</v>
+        <v>34000</v>
       </c>
       <c r="L368" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="M368" t="n">
-        <v>19500</v>
+        <v>34500</v>
       </c>
       <c r="N368" t="inlineStr">
         <is>
@@ -26875,7 +26875,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>390</v>
+        <v>690</v>
       </c>
       <c r="Q368" t="n">
         <v>50</v>
@@ -26901,7 +26901,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44210</v>
+        <v>44251</v>
       </c>
       <c r="E369" t="n">
         <v>15</v>
@@ -26925,16 +26925,16 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K369" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="L369" t="n">
-        <v>19000</v>
+        <v>33000</v>
       </c>
       <c r="M369" t="n">
-        <v>18500</v>
+        <v>32500</v>
       </c>
       <c r="N369" t="inlineStr">
         <is>
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="Q369" t="n">
         <v>75</v>
@@ -26973,7 +26973,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44210</v>
+        <v>44295</v>
       </c>
       <c r="E370" t="n">
         <v>15</v>
@@ -26988,25 +26988,25 @@
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J370" t="n">
         <v>50</v>
       </c>
       <c r="K370" t="n">
-        <v>17000</v>
+        <v>34000</v>
       </c>
       <c r="L370" t="n">
-        <v>18000</v>
+        <v>35000</v>
       </c>
       <c r="M370" t="n">
-        <v>17500</v>
+        <v>34500</v>
       </c>
       <c r="N370" t="inlineStr">
         <is>
@@ -27015,11 +27015,11 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P370" t="n">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="Q370" t="n">
         <v>100</v>
@@ -27045,7 +27045,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E371" t="n">
         <v>15</v>
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K371" t="n">
         <v>19000</v>
@@ -27117,7 +27117,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E372" t="n">
         <v>15</v>
@@ -27141,16 +27141,16 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K372" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L372" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="M372" t="n">
-        <v>16500</v>
+        <v>18500</v>
       </c>
       <c r="N372" t="inlineStr">
         <is>
@@ -27163,7 +27163,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="Q372" t="n">
         <v>75</v>
@@ -27189,7 +27189,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44343</v>
+        <v>44210</v>
       </c>
       <c r="E373" t="n">
         <v>15</v>
@@ -27213,16 +27213,16 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K373" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L373" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M373" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="N373" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="Q373" t="n">
         <v>100</v>
@@ -27261,7 +27261,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E374" t="n">
         <v>15</v>
@@ -27288,13 +27288,13 @@
         <v>40</v>
       </c>
       <c r="K374" t="n">
-        <v>34000</v>
+        <v>19000</v>
       </c>
       <c r="L374" t="n">
-        <v>35000</v>
+        <v>20000</v>
       </c>
       <c r="M374" t="n">
-        <v>34500</v>
+        <v>19500</v>
       </c>
       <c r="N374" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>690</v>
+        <v>390</v>
       </c>
       <c r="Q374" t="n">
         <v>50</v>
@@ -27333,7 +27333,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E375" t="n">
         <v>15</v>
@@ -27357,16 +27357,16 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K375" t="n">
-        <v>34000</v>
+        <v>16000</v>
       </c>
       <c r="L375" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M375" t="n">
-        <v>34500</v>
+        <v>16500</v>
       </c>
       <c r="N375" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="Q375" t="n">
         <v>75</v>
@@ -27405,7 +27405,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44230</v>
+        <v>44343</v>
       </c>
       <c r="E376" t="n">
         <v>15</v>
@@ -27429,16 +27429,16 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K376" t="n">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="L376" t="n">
-        <v>32000</v>
+        <v>15000</v>
       </c>
       <c r="M376" t="n">
-        <v>31500</v>
+        <v>14500</v>
       </c>
       <c r="N376" t="inlineStr">
         <is>
@@ -27451,7 +27451,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>315</v>
+        <v>145</v>
       </c>
       <c r="Q376" t="n">
         <v>100</v>
@@ -27477,7 +27477,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44316</v>
+        <v>44230</v>
       </c>
       <c r="E377" t="n">
         <v>15</v>
@@ -27492,7 +27492,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -27501,20 +27501,20 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K377" t="n">
-        <v>11000</v>
+        <v>34000</v>
       </c>
       <c r="L377" t="n">
-        <v>12000</v>
+        <v>35000</v>
       </c>
       <c r="M377" t="n">
-        <v>11500</v>
+        <v>34500</v>
       </c>
       <c r="N377" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O377" t="inlineStr">
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>164</v>
+        <v>690</v>
       </c>
       <c r="Q377" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R377" t="inlineStr">
         <is>
@@ -27549,7 +27549,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44316</v>
+        <v>44230</v>
       </c>
       <c r="E378" t="n">
         <v>15</v>
@@ -27569,24 +27569,24 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J378" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K378" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="L378" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="M378" t="n">
-        <v>24500</v>
+        <v>34500</v>
       </c>
       <c r="N378" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O378" t="inlineStr">
@@ -27595,10 +27595,10 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="Q378" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R378" t="inlineStr">
         <is>
@@ -27621,7 +27621,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44316</v>
+        <v>44230</v>
       </c>
       <c r="E379" t="n">
         <v>15</v>
@@ -27641,24 +27641,24 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J379" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K379" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="L379" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="M379" t="n">
-        <v>24500</v>
+        <v>31500</v>
       </c>
       <c r="N379" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O379" t="inlineStr">
@@ -27667,10 +27667,10 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="Q379" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R379" t="inlineStr">
         <is>
@@ -27708,29 +27708,29 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J380" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="K380" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L380" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="M380" t="n">
-        <v>20500</v>
+        <v>11500</v>
       </c>
       <c r="N380" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O380" t="inlineStr">
@@ -27739,10 +27739,10 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="Q380" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R380" t="inlineStr">
         <is>
@@ -27765,7 +27765,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44329</v>
+        <v>44316</v>
       </c>
       <c r="E381" t="n">
         <v>15</v>
@@ -27780,7 +27780,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -27789,20 +27789,20 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K381" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L381" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M381" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="N381" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O381" t="inlineStr">
@@ -27811,10 +27811,10 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>136</v>
+        <v>490</v>
       </c>
       <c r="Q381" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R381" t="inlineStr">
         <is>
@@ -27837,7 +27837,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44329</v>
+        <v>44316</v>
       </c>
       <c r="E382" t="n">
         <v>15</v>
@@ -27857,24 +27857,24 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J382" t="n">
         <v>40</v>
       </c>
       <c r="K382" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="L382" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="M382" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="N382" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O382" t="inlineStr">
@@ -27883,10 +27883,10 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="Q382" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R382" t="inlineStr">
         <is>
@@ -27909,7 +27909,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44329</v>
+        <v>44316</v>
       </c>
       <c r="E383" t="n">
         <v>15</v>
@@ -27929,24 +27929,24 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J383" t="n">
         <v>50</v>
       </c>
       <c r="K383" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="L383" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="M383" t="n">
-        <v>25500</v>
+        <v>20500</v>
       </c>
       <c r="N383" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O383" t="inlineStr">
@@ -27955,10 +27955,10 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="Q383" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R383" t="inlineStr">
         <is>
@@ -27996,29 +27996,29 @@
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J384" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K384" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L384" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M384" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N384" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O384" t="inlineStr">
@@ -28027,10 +28027,10 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q384" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R384" t="inlineStr">
         <is>
@@ -28053,7 +28053,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44460</v>
+        <v>44329</v>
       </c>
       <c r="E385" t="n">
         <v>15</v>
@@ -28080,13 +28080,13 @@
         <v>40</v>
       </c>
       <c r="K385" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L385" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M385" t="n">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="N385" t="inlineStr">
         <is>
@@ -28099,7 +28099,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>690</v>
+        <v>550</v>
       </c>
       <c r="Q385" t="n">
         <v>50</v>
@@ -28125,7 +28125,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44460</v>
+        <v>44329</v>
       </c>
       <c r="E386" t="n">
         <v>15</v>
@@ -28152,13 +28152,13 @@
         <v>50</v>
       </c>
       <c r="K386" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="L386" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="M386" t="n">
-        <v>34500</v>
+        <v>25500</v>
       </c>
       <c r="N386" t="inlineStr">
         <is>
@@ -28171,7 +28171,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="Q386" t="n">
         <v>75</v>
@@ -28197,7 +28197,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44460</v>
+        <v>44329</v>
       </c>
       <c r="E387" t="n">
         <v>15</v>
@@ -28224,13 +28224,13 @@
         <v>40</v>
       </c>
       <c r="K387" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="L387" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="M387" t="n">
-        <v>30000</v>
+        <v>21500</v>
       </c>
       <c r="N387" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="Q387" t="n">
         <v>100</v>
@@ -28269,7 +28269,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44526</v>
+        <v>44460</v>
       </c>
       <c r="E388" t="n">
         <v>15</v>
@@ -28284,7 +28284,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -28293,20 +28293,20 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K388" t="n">
-        <v>14000</v>
+        <v>34000</v>
       </c>
       <c r="L388" t="n">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="M388" t="n">
-        <v>14500</v>
+        <v>34500</v>
       </c>
       <c r="N388" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O388" t="inlineStr">
@@ -28315,10 +28315,10 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>207</v>
+        <v>690</v>
       </c>
       <c r="Q388" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R388" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44526</v>
+        <v>44460</v>
       </c>
       <c r="E389" t="n">
         <v>15</v>
@@ -28361,24 +28361,24 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J389" t="n">
         <v>50</v>
       </c>
       <c r="K389" t="n">
-        <v>20000</v>
+        <v>34000</v>
       </c>
       <c r="L389" t="n">
-        <v>21000</v>
+        <v>35000</v>
       </c>
       <c r="M389" t="n">
-        <v>20500</v>
+        <v>34500</v>
       </c>
       <c r="N389" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O389" t="inlineStr">
@@ -28387,10 +28387,10 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="Q389" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R389" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44526</v>
+        <v>44460</v>
       </c>
       <c r="E390" t="n">
         <v>15</v>
@@ -28433,24 +28433,24 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J390" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K390" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="L390" t="n">
-        <v>19000</v>
+        <v>31000</v>
       </c>
       <c r="M390" t="n">
-        <v>18500</v>
+        <v>30000</v>
       </c>
       <c r="N390" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O390" t="inlineStr">
@@ -28459,10 +28459,10 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="Q390" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R390" t="inlineStr">
         <is>
@@ -28500,29 +28500,29 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J391" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K391" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L391" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M391" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="N391" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O391" t="inlineStr">
@@ -28531,10 +28531,10 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="Q391" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R391" t="inlineStr">
         <is>
@@ -28557,7 +28557,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44272</v>
+        <v>44526</v>
       </c>
       <c r="E392" t="n">
         <v>15</v>
@@ -28572,7 +28572,7 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28581,20 +28581,20 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K392" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="L392" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="M392" t="n">
-        <v>11500</v>
+        <v>20500</v>
       </c>
       <c r="N392" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O392" t="inlineStr">
@@ -28603,10 +28603,10 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>164</v>
+        <v>410</v>
       </c>
       <c r="Q392" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R392" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44272</v>
+        <v>44526</v>
       </c>
       <c r="E393" t="n">
         <v>15</v>
@@ -28653,16 +28653,16 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K393" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="L393" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="M393" t="n">
-        <v>29500</v>
+        <v>18500</v>
       </c>
       <c r="N393" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="Q393" t="n">
         <v>75</v>
@@ -28701,7 +28701,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44467</v>
+        <v>44526</v>
       </c>
       <c r="E394" t="n">
         <v>15</v>
@@ -28721,24 +28721,24 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J394" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K394" t="n">
-        <v>31000</v>
+        <v>16000</v>
       </c>
       <c r="L394" t="n">
-        <v>32000</v>
+        <v>17000</v>
       </c>
       <c r="M394" t="n">
-        <v>31500</v>
+        <v>16500</v>
       </c>
       <c r="N394" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O394" t="inlineStr">
@@ -28747,10 +28747,10 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>630</v>
+        <v>165</v>
       </c>
       <c r="Q394" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R394" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44467</v>
+        <v>44272</v>
       </c>
       <c r="E395" t="n">
         <v>15</v>
@@ -28788,29 +28788,29 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J395" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K395" t="n">
-        <v>27000</v>
+        <v>11000</v>
       </c>
       <c r="L395" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="M395" t="n">
-        <v>27500</v>
+        <v>11500</v>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
@@ -28819,10 +28819,10 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="Q395" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R395" t="inlineStr">
         <is>
@@ -28845,7 +28845,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44467</v>
+        <v>44272</v>
       </c>
       <c r="E396" t="n">
         <v>15</v>
@@ -28865,24 +28865,24 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J396" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K396" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L396" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M396" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N396" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O396" t="inlineStr">
@@ -28891,10 +28891,10 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>245</v>
+        <v>393</v>
       </c>
       <c r="Q396" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R396" t="inlineStr">
         <is>
@@ -28917,7 +28917,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44411</v>
+        <v>44467</v>
       </c>
       <c r="E397" t="n">
         <v>15</v>
@@ -28932,29 +28932,29 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J397" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K397" t="n">
-        <v>17000</v>
+        <v>31000</v>
       </c>
       <c r="L397" t="n">
-        <v>18000</v>
+        <v>32000</v>
       </c>
       <c r="M397" t="n">
-        <v>17500</v>
+        <v>31500</v>
       </c>
       <c r="N397" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O397" t="inlineStr">
@@ -28963,10 +28963,10 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>1750</v>
+        <v>630</v>
       </c>
       <c r="Q397" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R397" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44211</v>
+        <v>44467</v>
       </c>
       <c r="E398" t="n">
         <v>15</v>
@@ -29004,29 +29004,29 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J398" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K398" t="n">
-        <v>5000</v>
+        <v>27000</v>
       </c>
       <c r="L398" t="n">
-        <v>5500</v>
+        <v>28000</v>
       </c>
       <c r="M398" t="n">
-        <v>5250</v>
+        <v>27500</v>
       </c>
       <c r="N398" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O398" t="inlineStr">
@@ -29035,10 +29035,10 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>105</v>
+        <v>367</v>
       </c>
       <c r="Q398" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R398" t="inlineStr">
         <is>
@@ -29061,7 +29061,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44211</v>
+        <v>44467</v>
       </c>
       <c r="E399" t="n">
         <v>15</v>
@@ -29076,29 +29076,29 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J399" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K399" t="n">
-        <v>6000</v>
+        <v>24000</v>
       </c>
       <c r="L399" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="M399" t="n">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
@@ -29107,10 +29107,10 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="Q399" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R399" t="inlineStr">
         <is>
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44211</v>
+        <v>44411</v>
       </c>
       <c r="E400" t="n">
         <v>15</v>
@@ -29157,16 +29157,16 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K400" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="L400" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="M400" t="n">
-        <v>4250</v>
+        <v>17500</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>425</v>
+        <v>1750</v>
       </c>
       <c r="Q400" t="n">
         <v>10</v>
@@ -29220,29 +29220,29 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J401" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K401" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L401" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M401" t="n">
-        <v>15500</v>
+        <v>5250</v>
       </c>
       <c r="N401" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O401" t="inlineStr">
@@ -29251,10 +29251,10 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="Q401" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R401" t="inlineStr">
         <is>
@@ -29292,41 +29292,41 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J402" t="n">
+        <v>160</v>
+      </c>
+      <c r="K402" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L402" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M402" t="n">
+        <v>6500</v>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P402" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q402" t="n">
         <v>70</v>
-      </c>
-      <c r="K402" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L402" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M402" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N402" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O402" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P402" t="n">
-        <v>145</v>
-      </c>
-      <c r="Q402" t="n">
-        <v>100</v>
       </c>
       <c r="R402" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44313</v>
+        <v>44211</v>
       </c>
       <c r="E403" t="n">
         <v>15</v>
@@ -29364,29 +29364,29 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J403" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K403" t="n">
-        <v>24000</v>
+        <v>4000</v>
       </c>
       <c r="L403" t="n">
-        <v>25000</v>
+        <v>4500</v>
       </c>
       <c r="M403" t="n">
-        <v>24500</v>
+        <v>4250</v>
       </c>
       <c r="N403" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O403" t="inlineStr">
@@ -29395,10 +29395,10 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="Q403" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="R403" t="inlineStr">
         <is>
@@ -29421,7 +29421,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44313</v>
+        <v>44211</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -29445,16 +29445,16 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K404" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L404" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="M404" t="n">
-        <v>24500</v>
+        <v>15500</v>
       </c>
       <c r="N404" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="Q404" t="n">
         <v>75</v>
@@ -29493,7 +29493,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44313</v>
+        <v>44211</v>
       </c>
       <c r="E405" t="n">
         <v>15</v>
@@ -29517,16 +29517,16 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K405" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L405" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M405" t="n">
-        <v>20500</v>
+        <v>14500</v>
       </c>
       <c r="N405" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="Q405" t="n">
         <v>100</v>
@@ -29565,7 +29565,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E406" t="n">
         <v>15</v>
@@ -29585,24 +29585,24 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J406" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K406" t="n">
+        <v>24000</v>
+      </c>
+      <c r="L406" t="n">
         <v>25000</v>
       </c>
-      <c r="L406" t="n">
-        <v>26000</v>
-      </c>
       <c r="M406" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
@@ -29611,10 +29611,10 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="Q406" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R406" t="inlineStr">
         <is>
@@ -29637,7 +29637,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44334</v>
+        <v>44313</v>
       </c>
       <c r="E407" t="n">
         <v>15</v>
@@ -29657,24 +29657,24 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J407" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K407" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="L407" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M407" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
@@ -29683,10 +29683,10 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="Q407" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R407" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44209</v>
+        <v>44313</v>
       </c>
       <c r="E408" t="n">
         <v>15</v>
@@ -29729,24 +29729,24 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J408" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K408" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L408" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="M408" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
@@ -29755,10 +29755,10 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>330</v>
+        <v>205</v>
       </c>
       <c r="Q408" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R408" t="inlineStr">
         <is>
@@ -29781,7 +29781,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44209</v>
+        <v>44334</v>
       </c>
       <c r="E409" t="n">
         <v>15</v>
@@ -29805,16 +29805,16 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K409" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="L409" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M409" t="n">
-        <v>16500</v>
+        <v>25500</v>
       </c>
       <c r="N409" t="inlineStr">
         <is>
@@ -29827,7 +29827,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="Q409" t="n">
         <v>75</v>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44209</v>
+        <v>44334</v>
       </c>
       <c r="E410" t="n">
         <v>15</v>
@@ -29877,16 +29877,16 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K410" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L410" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M410" t="n">
-        <v>15500</v>
+        <v>21500</v>
       </c>
       <c r="N410" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c r="Q410" t="n">
         <v>100</v>
@@ -29925,7 +29925,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44389</v>
+        <v>44209</v>
       </c>
       <c r="E411" t="n">
         <v>15</v>
@@ -29940,7 +29940,7 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -29949,20 +29949,20 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K411" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L411" t="n">
         <v>17000</v>
       </c>
-      <c r="L411" t="n">
-        <v>18000</v>
-      </c>
       <c r="M411" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
@@ -29971,10 +29971,10 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="Q411" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R411" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44389</v>
+        <v>44209</v>
       </c>
       <c r="E412" t="n">
         <v>15</v>
@@ -30017,24 +30017,24 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J412" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K412" t="n">
-        <v>33000</v>
+        <v>16000</v>
       </c>
       <c r="L412" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="M412" t="n">
-        <v>34000</v>
+        <v>16500</v>
       </c>
       <c r="N412" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O412" t="inlineStr">
@@ -30043,10 +30043,10 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>680</v>
+        <v>220</v>
       </c>
       <c r="Q412" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R412" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44389</v>
+        <v>44209</v>
       </c>
       <c r="E413" t="n">
         <v>15</v>
@@ -30089,24 +30089,24 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J413" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K413" t="n">
-        <v>33000</v>
+        <v>15000</v>
       </c>
       <c r="L413" t="n">
-        <v>35000</v>
+        <v>16000</v>
       </c>
       <c r="M413" t="n">
-        <v>34000</v>
+        <v>15500</v>
       </c>
       <c r="N413" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O413" t="inlineStr">
@@ -30115,10 +30115,10 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>453</v>
+        <v>155</v>
       </c>
       <c r="Q413" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R413" t="inlineStr">
         <is>
@@ -30156,41 +30156,41 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J414" t="n">
+        <v>160</v>
+      </c>
+      <c r="K414" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L414" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M414" t="n">
+        <v>17500</v>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>$/malla 70 unidades</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
+        <v>250</v>
+      </c>
+      <c r="Q414" t="n">
         <v>70</v>
-      </c>
-      <c r="K414" t="n">
-        <v>29000</v>
-      </c>
-      <c r="L414" t="n">
-        <v>31000</v>
-      </c>
-      <c r="M414" t="n">
-        <v>30000</v>
-      </c>
-      <c r="N414" t="inlineStr">
-        <is>
-          <t>$/saco 100 unidades</t>
-        </is>
-      </c>
-      <c r="O414" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P414" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q414" t="n">
-        <v>100</v>
       </c>
       <c r="R414" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44221</v>
+        <v>44389</v>
       </c>
       <c r="E415" t="n">
         <v>15</v>
@@ -30228,29 +30228,29 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J415" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="K415" t="n">
-        <v>5000</v>
+        <v>33000</v>
       </c>
       <c r="L415" t="n">
-        <v>6000</v>
+        <v>35000</v>
       </c>
       <c r="M415" t="n">
-        <v>5500</v>
+        <v>34000</v>
       </c>
       <c r="N415" t="inlineStr">
         <is>
-          <t>$/malla 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O415" t="inlineStr">
@@ -30259,10 +30259,10 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>550</v>
+        <v>680</v>
       </c>
       <c r="Q415" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="R415" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44221</v>
+        <v>44389</v>
       </c>
       <c r="E416" t="n">
         <v>15</v>
@@ -30305,7 +30305,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J416" t="n">
@@ -30322,7 +30322,7 @@
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
@@ -30331,10 +30331,10 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>680</v>
+        <v>453</v>
       </c>
       <c r="Q416" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R416" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44221</v>
+        <v>44389</v>
       </c>
       <c r="E417" t="n">
         <v>15</v>
@@ -30377,24 +30377,24 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J417" t="n">
         <v>70</v>
       </c>
       <c r="K417" t="n">
+        <v>29000</v>
+      </c>
+      <c r="L417" t="n">
+        <v>31000</v>
+      </c>
+      <c r="M417" t="n">
         <v>30000</v>
       </c>
-      <c r="L417" t="n">
-        <v>32000</v>
-      </c>
-      <c r="M417" t="n">
-        <v>31000</v>
-      </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
@@ -30403,10 +30403,10 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="Q417" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R417" t="inlineStr">
         <is>
@@ -30444,29 +30444,29 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J418" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="K418" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="L418" t="n">
-        <v>30000</v>
+        <v>6000</v>
       </c>
       <c r="M418" t="n">
-        <v>29000</v>
+        <v>5500</v>
       </c>
       <c r="N418" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 100 unidades</t>
         </is>
       </c>
       <c r="O418" t="inlineStr">
@@ -30475,10 +30475,10 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="Q418" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R418" t="inlineStr">
         <is>
@@ -30501,7 +30501,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44280</v>
+        <v>44221</v>
       </c>
       <c r="E419" t="n">
         <v>15</v>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -30525,32 +30525,32 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K419" t="n">
-        <v>29000</v>
+        <v>33000</v>
       </c>
       <c r="L419" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M419" t="n">
-        <v>29500</v>
+        <v>34000</v>
       </c>
       <c r="N419" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P419" t="n">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="Q419" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R419" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44330</v>
+        <v>44221</v>
       </c>
       <c r="E420" t="n">
         <v>15</v>
@@ -30588,29 +30588,29 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J420" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K420" t="n">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="L420" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M420" t="n">
-        <v>9500</v>
+        <v>31000</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O420" t="inlineStr">
@@ -30619,10 +30619,10 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>136</v>
+        <v>413</v>
       </c>
       <c r="Q420" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R420" t="inlineStr">
         <is>
@@ -30645,7 +30645,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44330</v>
+        <v>44221</v>
       </c>
       <c r="E421" t="n">
         <v>15</v>
@@ -30665,24 +30665,24 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J421" t="n">
         <v>40</v>
       </c>
       <c r="K421" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="L421" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="M421" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O421" t="inlineStr">
@@ -30691,10 +30691,10 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>550</v>
+        <v>290</v>
       </c>
       <c r="Q421" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R421" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44330</v>
+        <v>44280</v>
       </c>
       <c r="E422" t="n">
         <v>15</v>
@@ -30732,41 +30732,41 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J422" t="n">
         <v>40</v>
       </c>
       <c r="K422" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L422" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="M422" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P422" t="n">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="Q422" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R422" t="inlineStr">
         <is>
@@ -30804,29 +30804,29 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J423" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="K423" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L423" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M423" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
@@ -30835,10 +30835,10 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="Q423" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R423" t="inlineStr">
         <is>
@@ -30861,7 +30861,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44483</v>
+        <v>44330</v>
       </c>
       <c r="E424" t="n">
         <v>15</v>
@@ -30888,17 +30888,17 @@
         <v>40</v>
       </c>
       <c r="K424" t="n">
+        <v>27000</v>
+      </c>
+      <c r="L424" t="n">
         <v>28000</v>
       </c>
-      <c r="L424" t="n">
-        <v>30000</v>
-      </c>
       <c r="M424" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O424" t="inlineStr">
@@ -30907,7 +30907,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="Q424" t="n">
         <v>50</v>
@@ -30933,7 +30933,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44483</v>
+        <v>44330</v>
       </c>
       <c r="E425" t="n">
         <v>15</v>
@@ -30957,16 +30957,16 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K425" t="n">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="L425" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="M425" t="n">
-        <v>26500</v>
+        <v>24500</v>
       </c>
       <c r="N425" t="inlineStr">
         <is>
@@ -30979,7 +30979,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="Q425" t="n">
         <v>75</v>
@@ -31005,7 +31005,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44483</v>
+        <v>44330</v>
       </c>
       <c r="E426" t="n">
         <v>15</v>
@@ -31029,16 +31029,16 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K426" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L426" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M426" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N426" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="Q426" t="n">
         <v>100</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44448</v>
+        <v>44483</v>
       </c>
       <c r="E427" t="n">
         <v>15</v>
@@ -31101,20 +31101,20 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="K427" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="L427" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="M427" t="n">
-        <v>32500</v>
+        <v>29000</v>
       </c>
       <c r="N427" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O427" t="inlineStr">
@@ -31123,7 +31123,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="Q427" t="n">
         <v>50</v>
@@ -31149,7 +31149,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44448</v>
+        <v>44483</v>
       </c>
       <c r="E428" t="n">
         <v>15</v>
@@ -31173,16 +31173,16 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K428" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="L428" t="n">
-        <v>30000</v>
+        <v>27000</v>
       </c>
       <c r="M428" t="n">
-        <v>29000</v>
+        <v>26500</v>
       </c>
       <c r="N428" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="Q428" t="n">
         <v>75</v>
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44448</v>
+        <v>44483</v>
       </c>
       <c r="E429" t="n">
         <v>15</v>
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K429" t="n">
         <v>24000</v>
@@ -31293,7 +31293,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44239</v>
+        <v>44448</v>
       </c>
       <c r="E430" t="n">
         <v>15</v>
@@ -31308,7 +31308,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -31317,20 +31317,20 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K430" t="n">
-        <v>7000</v>
+        <v>32000</v>
       </c>
       <c r="L430" t="n">
-        <v>8000</v>
+        <v>33000</v>
       </c>
       <c r="M430" t="n">
-        <v>7500</v>
+        <v>32500</v>
       </c>
       <c r="N430" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O430" t="inlineStr">
@@ -31339,10 +31339,10 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>107</v>
+        <v>650</v>
       </c>
       <c r="Q430" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R430" t="inlineStr">
         <is>
@@ -31365,7 +31365,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44239</v>
+        <v>44448</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -31380,25 +31380,25 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J431" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K431" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="L431" t="n">
         <v>30000</v>
       </c>
       <c r="M431" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="N431" t="inlineStr">
         <is>
@@ -31407,11 +31407,11 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P431" t="n">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q431" t="n">
         <v>75</v>
@@ -31437,7 +31437,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44239</v>
+        <v>44448</v>
       </c>
       <c r="E432" t="n">
         <v>15</v>
@@ -31452,25 +31452,25 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J432" t="n">
         <v>50</v>
       </c>
       <c r="K432" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="L432" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="M432" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="N432" t="inlineStr">
         <is>
@@ -31479,11 +31479,11 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>Valle de Camiña</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="Q432" t="n">
         <v>100</v>
@@ -31509,7 +31509,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44169</v>
+        <v>44239</v>
       </c>
       <c r="E433" t="n">
         <v>15</v>
@@ -31533,16 +31533,16 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K433" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L433" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M433" t="n">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="N433" t="inlineStr">
         <is>
@@ -31555,7 +31555,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="Q433" t="n">
         <v>70</v>
@@ -31581,7 +31581,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44169</v>
+        <v>44239</v>
       </c>
       <c r="E434" t="n">
         <v>15</v>
@@ -31596,7 +31596,7 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -31605,32 +31605,32 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K434" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="L434" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M434" t="n">
-        <v>14500</v>
+        <v>29500</v>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="Q434" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R434" t="inlineStr">
         <is>
@@ -31653,7 +31653,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44169</v>
+        <v>44239</v>
       </c>
       <c r="E435" t="n">
         <v>15</v>
@@ -31668,7 +31668,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -31677,32 +31677,32 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K435" t="n">
-        <v>14000</v>
+        <v>29000</v>
       </c>
       <c r="L435" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="M435" t="n">
-        <v>14500</v>
+        <v>29500</v>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Valle de Camiña</t>
         </is>
       </c>
       <c r="P435" t="n">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="Q435" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R435" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E436" t="n">
         <v>15</v>
@@ -31740,7 +31740,7 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Choclero</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -31749,20 +31749,20 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K436" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L436" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M436" t="n">
-        <v>5500</v>
+        <v>14500</v>
       </c>
       <c r="N436" t="inlineStr">
         <is>
-          <t>$/malla 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O436" t="inlineStr">
@@ -31771,10 +31771,10 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>110</v>
+        <v>207</v>
       </c>
       <c r="Q436" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R436" t="inlineStr">
         <is>
@@ -31797,7 +31797,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44208</v>
+        <v>44169</v>
       </c>
       <c r="E437" t="n">
         <v>15</v>
@@ -31812,7 +31812,7 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -31821,20 +31821,20 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K437" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L437" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M437" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N437" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O437" t="inlineStr">
@@ -31843,10 +31843,10 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="Q437" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R437" t="inlineStr">
         <is>
@@ -31869,7 +31869,7 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44379</v>
+        <v>44169</v>
       </c>
       <c r="E438" t="n">
         <v>15</v>
@@ -31889,24 +31889,24 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J438" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K438" t="n">
-        <v>29000</v>
+        <v>14000</v>
       </c>
       <c r="L438" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M438" t="n">
-        <v>29667</v>
+        <v>14500</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O438" t="inlineStr">
@@ -31915,10 +31915,10 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>593</v>
+        <v>193</v>
       </c>
       <c r="Q438" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R438" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44379</v>
+        <v>44208</v>
       </c>
       <c r="E439" t="n">
         <v>15</v>
@@ -31956,29 +31956,29 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Choclero</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J439" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K439" t="n">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="L439" t="n">
-        <v>27000</v>
+        <v>6000</v>
       </c>
       <c r="M439" t="n">
-        <v>26500</v>
+        <v>5500</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 50 unidades</t>
         </is>
       </c>
       <c r="O439" t="inlineStr">
@@ -31987,10 +31987,10 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="Q439" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R439" t="inlineStr">
         <is>
@@ -32013,7 +32013,7 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44379</v>
+        <v>44208</v>
       </c>
       <c r="E440" t="n">
         <v>15</v>
@@ -32028,29 +32028,29 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J440" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K440" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="L440" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="M440" t="n">
-        <v>24500</v>
+        <v>6500</v>
       </c>
       <c r="N440" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O440" t="inlineStr">
@@ -32059,10 +32059,10 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="Q440" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R440" t="inlineStr">
         <is>
@@ -32085,7 +32085,7 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44488</v>
+        <v>44379</v>
       </c>
       <c r="E441" t="n">
         <v>15</v>
@@ -32100,7 +32100,7 @@
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -32109,20 +32109,20 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K441" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="L441" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="M441" t="n">
-        <v>31500</v>
+        <v>29667</v>
       </c>
       <c r="N441" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O441" t="inlineStr">
@@ -32131,10 +32131,10 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>450</v>
+        <v>593</v>
       </c>
       <c r="Q441" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R441" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44488</v>
+        <v>44379</v>
       </c>
       <c r="E442" t="n">
         <v>15</v>
@@ -32181,16 +32181,16 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K442" t="n">
+        <v>26000</v>
+      </c>
+      <c r="L442" t="n">
         <v>27000</v>
       </c>
-      <c r="L442" t="n">
-        <v>28000</v>
-      </c>
       <c r="M442" t="n">
-        <v>27500</v>
+        <v>26500</v>
       </c>
       <c r="N442" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="Q442" t="n">
         <v>75</v>
@@ -32229,7 +32229,7 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44488</v>
+        <v>44379</v>
       </c>
       <c r="E443" t="n">
         <v>15</v>
@@ -32301,7 +32301,7 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44341</v>
+        <v>44488</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -32325,16 +32325,16 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K444" t="n">
-        <v>9000</v>
+        <v>31000</v>
       </c>
       <c r="L444" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M444" t="n">
-        <v>9500</v>
+        <v>31500</v>
       </c>
       <c r="N444" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>136</v>
+        <v>450</v>
       </c>
       <c r="Q444" t="n">
         <v>70</v>
@@ -32373,7 +32373,7 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44452</v>
+        <v>44488</v>
       </c>
       <c r="E445" t="n">
         <v>15</v>
@@ -32388,29 +32388,29 @@
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J445" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="K445" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="L445" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="M445" t="n">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="N445" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O445" t="inlineStr">
@@ -32419,10 +32419,10 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="Q445" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -32445,7 +32445,7 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44452</v>
+        <v>44488</v>
       </c>
       <c r="E446" t="n">
         <v>15</v>
@@ -32465,24 +32465,24 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J446" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K446" t="n">
-        <v>33000</v>
+        <v>24000</v>
       </c>
       <c r="L446" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="M446" t="n">
-        <v>34000</v>
+        <v>24500</v>
       </c>
       <c r="N446" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O446" t="inlineStr">
@@ -32491,10 +32491,10 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>680</v>
+        <v>245</v>
       </c>
       <c r="Q446" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44452</v>
+        <v>44341</v>
       </c>
       <c r="E447" t="n">
         <v>15</v>
@@ -32532,29 +32532,29 @@
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J447" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K447" t="n">
-        <v>33000</v>
+        <v>9000</v>
       </c>
       <c r="L447" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="M447" t="n">
-        <v>34000</v>
+        <v>9500</v>
       </c>
       <c r="N447" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O447" t="inlineStr">
@@ -32563,10 +32563,10 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>453</v>
+        <v>136</v>
       </c>
       <c r="Q447" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -32604,29 +32604,29 @@
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J448" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K448" t="n">
-        <v>29000</v>
+        <v>26000</v>
       </c>
       <c r="L448" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="M448" t="n">
-        <v>30000</v>
+        <v>26500</v>
       </c>
       <c r="N448" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O448" t="inlineStr">
@@ -32635,10 +32635,10 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>300</v>
+        <v>379</v>
       </c>
       <c r="Q448" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44473</v>
+        <v>44452</v>
       </c>
       <c r="E449" t="n">
         <v>15</v>
@@ -32685,16 +32685,16 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K449" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L449" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M449" t="n">
-        <v>30500</v>
+        <v>34000</v>
       </c>
       <c r="N449" t="inlineStr">
         <is>
@@ -32707,7 +32707,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="Q449" t="n">
         <v>50</v>
@@ -32733,7 +32733,7 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44473</v>
+        <v>44452</v>
       </c>
       <c r="E450" t="n">
         <v>15</v>
@@ -32757,16 +32757,16 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="K450" t="n">
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="L450" t="n">
-        <v>28000</v>
+        <v>35000</v>
       </c>
       <c r="M450" t="n">
-        <v>27500</v>
+        <v>34000</v>
       </c>
       <c r="N450" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="Q450" t="n">
         <v>75</v>
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44473</v>
+        <v>44452</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -32832,13 +32832,13 @@
         <v>50</v>
       </c>
       <c r="K451" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="L451" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="M451" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="N451" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="Q451" t="n">
         <v>100</v>
@@ -32877,7 +32877,7 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E452" t="n">
         <v>15</v>
@@ -32892,7 +32892,7 @@
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -32901,20 +32901,20 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K452" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L452" t="n">
-        <v>13000</v>
+        <v>31000</v>
       </c>
       <c r="M452" t="n">
-        <v>12500</v>
+        <v>30500</v>
       </c>
       <c r="N452" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O452" t="inlineStr">
@@ -32923,10 +32923,10 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>179</v>
+        <v>610</v>
       </c>
       <c r="Q452" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E453" t="n">
         <v>15</v>
@@ -32973,16 +32973,16 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K453" t="n">
-        <v>34000</v>
+        <v>27000</v>
       </c>
       <c r="L453" t="n">
-        <v>35000</v>
+        <v>28000</v>
       </c>
       <c r="M453" t="n">
-        <v>34500</v>
+        <v>27500</v>
       </c>
       <c r="N453" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>460</v>
+        <v>367</v>
       </c>
       <c r="Q453" t="n">
         <v>75</v>
@@ -33021,7 +33021,7 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44298</v>
+        <v>44473</v>
       </c>
       <c r="E454" t="n">
         <v>15</v>
@@ -33045,16 +33045,16 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="K454" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="L454" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="M454" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="N454" t="inlineStr">
         <is>
@@ -33067,7 +33067,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="Q454" t="n">
         <v>100</v>
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44482</v>
+        <v>44298</v>
       </c>
       <c r="E455" t="n">
         <v>15</v>
@@ -33108,7 +33108,7 @@
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -33117,20 +33117,20 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="K455" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L455" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="M455" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="N455" t="inlineStr">
         <is>
-          <t>$/saco 50 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O455" t="inlineStr">
@@ -33139,10 +33139,10 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>490</v>
+        <v>179</v>
       </c>
       <c r="Q455" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
@@ -33165,7 +33165,7 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44482</v>
+        <v>44298</v>
       </c>
       <c r="E456" t="n">
         <v>15</v>
@@ -33192,13 +33192,13 @@
         <v>50</v>
       </c>
       <c r="K456" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="L456" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="M456" t="n">
-        <v>21500</v>
+        <v>34500</v>
       </c>
       <c r="N456" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>287</v>
+        <v>460</v>
       </c>
       <c r="Q456" t="n">
         <v>75</v>
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44482</v>
+        <v>44298</v>
       </c>
       <c r="E457" t="n">
         <v>15</v>
@@ -33261,16 +33261,16 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K457" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="L457" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="M457" t="n">
-        <v>19500</v>
+        <v>30500</v>
       </c>
       <c r="N457" t="inlineStr">
         <is>
@@ -33283,7 +33283,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="Q457" t="n">
         <v>100</v>
@@ -33309,7 +33309,7 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44558</v>
+        <v>44482</v>
       </c>
       <c r="E458" t="n">
         <v>15</v>
@@ -33333,16 +33333,16 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K458" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L458" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M458" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -33355,7 +33355,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="Q458" t="n">
         <v>50</v>
@@ -33381,7 +33381,7 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44558</v>
+        <v>44482</v>
       </c>
       <c r="E459" t="n">
         <v>15</v>
@@ -33405,16 +33405,16 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K459" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="L459" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M459" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -33427,7 +33427,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="Q459" t="n">
         <v>75</v>
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44558</v>
+        <v>44482</v>
       </c>
       <c r="E460" t="n">
         <v>15</v>
@@ -33477,16 +33477,16 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K460" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="L460" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M460" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="N460" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="Q460" t="n">
         <v>100</v>
@@ -33525,7 +33525,7 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44305</v>
+        <v>44558</v>
       </c>
       <c r="E461" t="n">
         <v>15</v>
@@ -33540,7 +33540,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Dulce o Americano</t>
+          <t>Lluteño</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -33549,20 +33549,20 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K461" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L461" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M461" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>$/malla 70 unidades</t>
+          <t>$/saco 50 unidades</t>
         </is>
       </c>
       <c r="O461" t="inlineStr">
@@ -33571,10 +33571,10 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="Q461" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R461" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44305</v>
+        <v>44558</v>
       </c>
       <c r="E462" t="n">
         <v>15</v>
@@ -33621,16 +33621,16 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K462" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="L462" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="M462" t="n">
-        <v>29500</v>
+        <v>16500</v>
       </c>
       <c r="N462" t="inlineStr">
         <is>
@@ -33643,7 +33643,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="Q462" t="n">
         <v>75</v>
@@ -33669,7 +33669,7 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44305</v>
+        <v>44558</v>
       </c>
       <c r="E463" t="n">
         <v>15</v>
@@ -33693,16 +33693,16 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K463" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="L463" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="M463" t="n">
-        <v>27500</v>
+        <v>14500</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="Q463" t="n">
         <v>100</v>
@@ -33741,7 +33741,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44545</v>
+        <v>44305</v>
       </c>
       <c r="E464" t="n">
         <v>15</v>
@@ -33765,16 +33765,16 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K464" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L464" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="M464" t="n">
-        <v>6500</v>
+        <v>14500</v>
       </c>
       <c r="N464" t="inlineStr">
         <is>
@@ -33787,7 +33787,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="Q464" t="n">
         <v>70</v>
@@ -33813,7 +33813,7 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44278</v>
+        <v>44305</v>
       </c>
       <c r="E465" t="n">
         <v>15</v>
@@ -33837,7 +33837,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K465" t="n">
         <v>29000</v>
@@ -33885,7 +33885,7 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44278</v>
+        <v>44305</v>
       </c>
       <c r="E466" t="n">
         <v>15</v>
@@ -33912,13 +33912,13 @@
         <v>40</v>
       </c>
       <c r="K466" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="L466" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="M466" t="n">
-        <v>25500</v>
+        <v>27500</v>
       </c>
       <c r="N466" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q466" t="n">
         <v>100</v>
@@ -33957,7 +33957,7 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="E467" t="n">
         <v>15</v>
@@ -33972,29 +33972,29 @@
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>Lluteño</t>
+          <t>Dulce o Americano</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J467" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="K467" t="n">
-        <v>33000</v>
+        <v>6000</v>
       </c>
       <c r="L467" t="n">
-        <v>35000</v>
+        <v>7000</v>
       </c>
       <c r="M467" t="n">
-        <v>34000</v>
+        <v>6500</v>
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/malla 70 unidades</t>
         </is>
       </c>
       <c r="O467" t="inlineStr">
@@ -34003,10 +34003,10 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>453</v>
+        <v>93</v>
       </c>
       <c r="Q467" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R467" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44454</v>
+        <v>44278</v>
       </c>
       <c r="E468" t="n">
         <v>15</v>
@@ -34049,24 +34049,24 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J468" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K468" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="L468" t="n">
         <v>30000</v>
       </c>
       <c r="M468" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O468" t="inlineStr">
@@ -34075,10 +34075,10 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="Q468" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R468" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44392</v>
+        <v>44278</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -34121,24 +34121,24 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J469" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K469" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="L469" t="n">
-        <v>34000</v>
+        <v>26000</v>
       </c>
       <c r="M469" t="n">
-        <v>33500</v>
+        <v>25500</v>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O469" t="inlineStr">
@@ -34147,10 +34147,10 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>447</v>
+        <v>255</v>
       </c>
       <c r="Q469" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R469" t="inlineStr">
         <is>
@@ -34173,7 +34173,7 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44392</v>
+        <v>44454</v>
       </c>
       <c r="E470" t="n">
         <v>15</v>
@@ -34193,24 +34193,24 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J470" t="n">
         <v>50</v>
       </c>
       <c r="K470" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="L470" t="n">
-        <v>31000</v>
+        <v>35000</v>
       </c>
       <c r="M470" t="n">
-        <v>30500</v>
+        <v>34000</v>
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O470" t="inlineStr">
@@ -34219,10 +34219,10 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>305</v>
+        <v>453</v>
       </c>
       <c r="Q470" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R470" t="inlineStr">
         <is>
@@ -34245,7 +34245,7 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44322</v>
+        <v>44454</v>
       </c>
       <c r="E471" t="n">
         <v>15</v>
@@ -34265,24 +34265,24 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J471" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K471" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="L471" t="n">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="M471" t="n">
-        <v>23500</v>
+        <v>29000</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>$/saco 75 unidades</t>
+          <t>$/saco 100 unidades</t>
         </is>
       </c>
       <c r="O471" t="inlineStr">
@@ -34291,10 +34291,10 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="Q471" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="R471" t="inlineStr">
         <is>
@@ -34317,7 +34317,7 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44322</v>
+        <v>44392</v>
       </c>
       <c r="E472" t="n">
         <v>15</v>
@@ -34337,24 +34337,24 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J472" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K472" t="n">
-        <v>21000</v>
+        <v>33000</v>
       </c>
       <c r="L472" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="M472" t="n">
-        <v>21500</v>
+        <v>33500</v>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>$/saco 100 unidades</t>
+          <t>$/saco 75 unidades</t>
         </is>
       </c>
       <c r="O472" t="inlineStr">
@@ -34363,10 +34363,10 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>215</v>
+        <v>447</v>
       </c>
       <c r="Q472" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R472" t="inlineStr">
         <is>
@@ -34389,7 +34389,7 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44162</v>
+        <v>44392</v>
       </c>
       <c r="E473" t="n">
         <v>15</v>
@@ -34409,24 +34409,24 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J473" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K473" t="n">